--- a/documentation/Record Of Tasks.xlsx
+++ b/documentation/Record Of Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SERVERMS30\usuarios$\secundaria\nicolas.philippe\Documents\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE13C17-622A-4C6F-8E12-B80AEC75E148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE8153E-864D-4195-9E44-738731C73DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7A099F99-E375-42D1-8638-50EE409111F1}"/>
   </bookViews>
@@ -36,37 +36,407 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
   <si>
+    <t>Planned Action</t>
+  </si>
+  <si>
+    <t>Planned Outcome</t>
+  </si>
+  <si>
     <t>Criterion</t>
   </si>
   <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>01/15/2025</t>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>Criterion A: Planning</t>
+  </si>
+  <si>
     <t>note</t>
   </si>
   <si>
+    <t>30 mn</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Discuss project goals and requirements with stakeholders</t>
+  </si>
+  <si>
+    <t>Interview to Discuss project goals and requirements with my uncle</t>
+  </si>
+  <si>
     <t>Duration</t>
   </si>
   <si>
     <t>Completion Date</t>
   </si>
   <si>
-    <t>Outcome</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Planned Date</t>
+    <t>Draft explaining the scenario</t>
+  </si>
+  <si>
+    <t>Meeting with my uncle to Review of the draft for scenario and criteria</t>
+  </si>
+  <si>
+    <t>Meeting with my uncle to validate of the  scenario and criteria</t>
+  </si>
+  <si>
+    <t>success criteria and scenario refinment</t>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (detailed above)</t>
+    </r>
+  </si>
+  <si>
+    <t>01/14/2025</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>notes,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> functional solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>notes,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> notes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> draft,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> functional solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> draft, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> draft</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> revised,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> functional solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> revised, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> revised</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> proposal,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> functional solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> proposal, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> proposal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria draft </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">validated </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>,functional solution draft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>scenario draft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> validated</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,16 +451,59 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -98,17 +511,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D9F25E-CBEA-4A45-8035-2BB081C2D9E7}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,36 +924,161 @@
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.5703125" customWidth="1"/>
     <col min="3" max="3" width="58.5703125" customWidth="1"/>
-    <col min="4" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="10" customFormat="1" ht="50.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E3" s="12">
+        <v>45839</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="13">
+        <v>45931</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="13">
+        <v>45992</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/Record Of Tasks.xlsx
+++ b/documentation/Record Of Tasks.xlsx
@@ -9,14 +9,17 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="rhLiG9JpwrXH7BMBqIeNDsc0nS1sOtwrU3lnkaFPzWk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="pWRrx6cSdQjIwXJAhMQpxL25PJZDrO1PvtJ8QB4Ck2E="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="156">
+  <si>
+    <t>Waterfall Methodology</t>
+  </si>
   <si>
     <t>Task</t>
   </si>
@@ -27,7 +30,7 @@
     <t>Planned Outcome</t>
   </si>
   <si>
-    <t>Duration</t>
+    <t>Estimated Duration</t>
   </si>
   <si>
     <t>Completion Date</t>
@@ -60,7 +63,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>,</t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -69,28 +72,138 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
+      <t>scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> idea</t>
+    </r>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>01/15/2025</t>
+  </si>
+  <si>
+    <t>Criterion A: Planning</t>
+  </si>
+  <si>
+    <t>Interview to Discuss project goals and requirements with my uncle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> notes,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> functional solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> notes,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>scenario notes</t>
+    </r>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>Draft explaining the scenario</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> draft,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> functional solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> draft,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
       <t xml:space="preserve"> scenario</t>
     </r>
     <r>
       <rPr>
         <rFont val="Segoe UI"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> (detailed above)</t>
-    </r>
-  </si>
-  <si>
-    <t>1 week</t>
-  </si>
-  <si>
-    <t>01/15/2025</t>
-  </si>
-  <si>
-    <t>Criterion A: Planning</t>
-  </si>
-  <si>
-    <t>Interview to Discuss project goals and requirements with my uncle</t>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> draft</t>
+    </r>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t>Meeting with my uncle to Review of the draft for scenario and criteria</t>
   </si>
   <si>
     <r>
@@ -100,15 +213,15 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> success criteria </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>notes,</t>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> revised,</t>
     </r>
     <r>
       <rPr>
@@ -117,15 +230,15 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> functional solution </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>notes,</t>
+      <t xml:space="preserve"> functional solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> revised, </t>
     </r>
     <r>
       <rPr>
@@ -142,14 +255,14 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> notes</t>
-    </r>
-  </si>
-  <si>
-    <t>2 hours</t>
-  </si>
-  <si>
-    <t>Draft explaining the scenario</t>
+      <t xml:space="preserve"> revised</t>
+    </r>
+  </si>
+  <si>
+    <t>30 mn</t>
+  </si>
+  <si>
+    <t>success criteria and scenario refinment</t>
   </si>
   <si>
     <r>
@@ -167,7 +280,7 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> draft,</t>
+      <t xml:space="preserve"> proposal,</t>
     </r>
     <r>
       <rPr>
@@ -184,7 +297,7 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> draft, </t>
+      <t xml:space="preserve"> proposal, </t>
     </r>
     <r>
       <rPr>
@@ -201,14 +314,14 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> draft</t>
-    </r>
-  </si>
-  <si>
-    <t>5 hours</t>
-  </si>
-  <si>
-    <t>Meeting with my uncle to Review of the draft for scenario and criteria</t>
+      <t xml:space="preserve"> proposal</t>
+    </r>
+  </si>
+  <si>
+    <t>01/14/2025</t>
+  </si>
+  <si>
+    <t>Meeting with my uncle to validate of the  scenario and criteria</t>
   </si>
   <si>
     <r>
@@ -226,7 +339,7 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> revised,</t>
+      <t xml:space="preserve"> draft validated </t>
     </r>
     <r>
       <rPr>
@@ -235,133 +348,15 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> functional solution</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> revised, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> revised</t>
-    </r>
-  </si>
-  <si>
-    <t>30 mn</t>
-  </si>
-  <si>
-    <t>success criteria and scenario refinment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> success criteria</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> proposal,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> functional solution</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> proposal, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> proposal</t>
-    </r>
-  </si>
-  <si>
-    <t>01/14/2025</t>
-  </si>
-  <si>
-    <t>Meeting with my uncle to validate of the  scenario and criteria</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> success criteria draft </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">validated </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,functional solution draft</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> validated, </t>
+      <t>,functional solutio</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">n draft validated, </t>
     </r>
     <r>
       <rPr>
@@ -407,7 +402,7 @@
       <rPr>
         <rFont val="Quattrocento Sans"/>
         <b/>
-        <color rgb="FF156082"/>
+        <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">architecture and technology stack </t>
@@ -450,7 +445,7 @@
     <r>
       <rPr>
         <rFont val="Quattrocento Sans"/>
-        <color rgb="FF156082"/>
+        <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">advices correction on </t>
@@ -613,6 +608,864 @@
   </si>
   <si>
     <t>1 hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirement Gathering </t>
+  </si>
+  <si>
+    <t>Gather detailed requirements and expectations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Requirement Use Cases, Requirement List, System flow chart/Data flow diagram</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> (detailed above)</t>
+    </r>
+  </si>
+  <si>
+    <t>parallel with 6</t>
+  </si>
+  <si>
+    <t>Brainstorming with my uncle to discuss requirements and constraint for players interactions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>DFD</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> and constraints, scope of interaction, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>use case</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour </t>
+  </si>
+  <si>
+    <t>Criterion B: Solution Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brainstorming with my uncle to discussiscuss on Data that must be stored for functional or business needs, review of data privacy needs </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>DFD</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Domain Model</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> ideation. Data we want to keep in DB are defined, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Data privacy </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>taken in account in</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> requirement list</t>
+    </r>
+  </si>
+  <si>
+    <t>Requirement Gathering</t>
+  </si>
+  <si>
+    <t>Brainstorming with my uncle to discussiscussion over game limitation, scoring, and selection, use cases in brainstorming with uncle and its CTO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Discussion over game limitation, scoring, and selection,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> use cases</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> and  requirement list</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with my uncle and its CTO to check Requirement against Success Criteria and solution for MVP Scope </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>requirement list</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>use cases</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">  validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>UML Domain Model</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated</t>
+    </r>
+  </si>
+  <si>
+    <t>Test plan</t>
+  </si>
+  <si>
+    <t>define test plan with client (2 meetings: 1 for defining, 1 for review)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Test Plan </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>(detailed above)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Design </t>
+  </si>
+  <si>
+    <t>Design player database and scoring database</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Conceptual Database Entity Relation Model</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Criterion C: Development</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Implement the database</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Physical Database Entity Relation Model, DBMS installed, database scheme deployed</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Development </t>
+  </si>
+  <si>
+    <t>Implement game features, game views, and selection views</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Functional game versions</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> (detailed above)</t>
+    </r>
+  </si>
+  <si>
+    <t>6 weeks</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integration Logic, Database and View</t>
+  </si>
+  <si>
+    <t>Functional platform Criterio C document</t>
+  </si>
+  <si>
+    <t>Testing Phase</t>
+  </si>
+  <si>
+    <t>Conduct internal and user testing</t>
+  </si>
+  <si>
+    <t>Conform to Test Plan</t>
+  </si>
+  <si>
+    <t>3 weeks</t>
+  </si>
+  <si>
+    <t>Criterion D: Functionality</t>
+  </si>
+  <si>
+    <t>Final Review</t>
+  </si>
+  <si>
+    <t>Review the games with stakeholders and clients</t>
+  </si>
+  <si>
+    <t>Final approval for release</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>Criterion E: Evaluation</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Launch the games to the public</t>
+  </si>
+  <si>
+    <t>Games available to users</t>
+  </si>
+  <si>
+    <t>Agil Methodology</t>
+  </si>
+  <si>
+    <t>Time Estimate</t>
+  </si>
+  <si>
+    <t>Target Completion Date</t>
+  </si>
+  <si>
+    <t>Sprint Planning</t>
+  </si>
+  <si>
+    <t>Plan sprints and define tasks for each sprint</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Sprint backlog: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>stories</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> and discussion about </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>architecture and technology stack, solution</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint 1: Prototype</t>
+  </si>
+  <si>
+    <t>Develop initial prototypes for Tic Tac Toe and Checkers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>architecture and technology stack, solution, test plan relative to tic tac toe and checkers game, UML Domain Model relative to games,
+Sketch and Navigation Model relative to game view, Chesters Logic Algorithm, Tic Tac Toe Logic Algorithm</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="0"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; functional tic tac toe and checkers game</t>
+    </r>
+  </si>
+  <si>
+    <t>Criterion B: Solution Overview, Criterion C: Development</t>
+  </si>
+  <si>
+    <t>Sprint Review</t>
+  </si>
+  <si>
+    <t>Review prototypes with stakeholders and gather feedback, refine next sprint</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Insights for improvement: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>stories</t>
+    </r>
+  </si>
+  <si>
+    <t>Criterion B: Solution Overview, Criterion D: Functionality</t>
+  </si>
+  <si>
+    <t>Sprint 2: Development</t>
+  </si>
+  <si>
+    <t>Implement core game features, game selection, and player selection views</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">test plan relative to game selection and player selection, UML Domain Model relative to players,
+Sketch and Navigation Model relative to game selection and player selection views, Database Entity Relation Model for players </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="0"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>=&gt; functional game selection and user selection</t>
+    </r>
+  </si>
+  <si>
+    <t>Review game versions with stakeholders and gather feedback, refine next spring</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Insights for improvement: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>stories</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint 3: Scoring</t>
+  </si>
+  <si>
+    <t>Design scoring system</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">test plan relative to scoring, UML Domain Model relative to players,
+Sketch and Navigation Model relative to game selection and player selection views, Database Entity Relation Model for scoring </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="0"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>=&gt; functional game scoring</t>
+    </r>
+  </si>
+  <si>
+    <t>Review database implementation with stakeholders and gather feedback</t>
+  </si>
+  <si>
+    <t>Insights for final adjustments</t>
+  </si>
+  <si>
+    <t>Sprint 4: Refinement</t>
+  </si>
+  <si>
+    <t>Refine game features, fix identified issues, and finalize game logic</t>
+  </si>
+  <si>
+    <t>Improved game versions</t>
+  </si>
+  <si>
+    <t>Review refined games with stakeholders and gather feedback</t>
+  </si>
+  <si>
+    <t>Sprint 5: Finalization</t>
+  </si>
+  <si>
+    <t>Finalize game features and conduct thorough testing</t>
+  </si>
+  <si>
+    <t>Bug-free games ready for release</t>
+  </si>
+  <si>
+    <t>Criterion B: Solution Overview, Criterion C: Development, Criterion D: Functionality, Criterion E: Evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiral Methodology </t>
+  </si>
+  <si>
+    <t>Stakeholder Meeting</t>
+  </si>
+  <si>
+    <t>Discuss project goals and initial requirements</t>
+  </si>
+  <si>
+    <t>Initial understanding of project scope (scenario, success criterias), updated Requirement Use Cases and List</t>
+  </si>
+  <si>
+    <t>Risk Analysis</t>
+  </si>
+  <si>
+    <t>Identify and analyze potential risks</t>
+  </si>
+  <si>
+    <t>Risk mitigation plan, updated Requirement Use Cases and List</t>
+  </si>
+  <si>
+    <t>parallel with 36</t>
+  </si>
+  <si>
+    <t>Previous Solution Analysis</t>
+  </si>
+  <si>
+    <t>architecture and technology stack, solution</t>
+  </si>
+  <si>
+    <t>1 weeks</t>
+  </si>
+  <si>
+    <t>Criterion A: Planning;Criterion B: Solution Overview</t>
+  </si>
+  <si>
+    <t>parallel with 35</t>
+  </si>
+  <si>
+    <t>Prototype Development</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Functional prototypes</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>, updated Design, Conceptual Model, UML Domain Model, Sketch and Navigation Model</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> for only tic tac toe and checkers game and game view</t>
+    </r>
+  </si>
+  <si>
+    <t>User Feedback</t>
+  </si>
+  <si>
+    <t>Gather feedback from users on prototypes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Insights for improvement, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>updated Requirement Use Cases and list</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Requirement Refinement</t>
+  </si>
+  <si>
+    <t>Refine requirements based on feedback</t>
+  </si>
+  <si>
+    <t>Updated requirement document, updated Requirement List, System Flow Chart/Data Flow Diagram</t>
+  </si>
+  <si>
+    <t>Design Phase</t>
+  </si>
+  <si>
+    <t>Create detailed design for game views, player selection, and game logic</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Functional prototypes</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">updated Design, Conceptual Model, UML Domain Model, Sketch and Navigation Model </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>for game selection and player selection</t>
+    </r>
+  </si>
+  <si>
+    <t>Database Implementation</t>
+  </si>
+  <si>
+    <t>Design and implement player database and scoring system</t>
+  </si>
+  <si>
+    <t>Functional player and scoring database, updated Database Entity Relation Model, MySQL Entity Relation Model</t>
+  </si>
+  <si>
+    <t>Development Phase</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Functional game versions</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>updated UML Class Model, UML Vista Class Model, Tic Tac Toe algorithm, Checkers algorithm, Scoring Algorithm</t>
+    </r>
+  </si>
+  <si>
+    <t>4 weeks</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Identified and fixed bugs, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>updated Test Plan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Final approval for release, updated </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Test Plan </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -620,14 +1473,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <color theme="1"/>
+      <name val="Quattrocento Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
@@ -642,11 +1512,6 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <color theme="4"/>
       <name val="Quattrocento Sans"/>
     </font>
@@ -656,23 +1521,18 @@
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF156082"/>
-      <name val="Quattrocento Sans"/>
-    </font>
-    <font>
       <b/>
       <sz val="11.0"/>
-      <color rgb="FF156082"/>
+      <color theme="4"/>
       <name val="Quattrocento Sans"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF156082"/>
-      <name val="Aptos Narrow"/>
+      <color rgb="FFFF0000"/>
+      <name val="Quattrocento Sans"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,12 +1547,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border/>
     <border>
       <left/>
@@ -700,7 +1566,9 @@
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <top style="thin">
@@ -718,91 +1586,258 @@
     <border>
       <left/>
       <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="78">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,10 +2057,10 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="17.38"/>
     <col customWidth="1" min="2" max="2" width="45.63"/>
-    <col customWidth="1" min="3" max="3" width="58.63"/>
-    <col customWidth="1" min="4" max="4" width="19.63"/>
+    <col customWidth="1" min="3" max="3" width="86.63"/>
+    <col customWidth="1" min="4" max="4" width="23.38"/>
     <col customWidth="1" min="5" max="5" width="22.13"/>
-    <col customWidth="1" min="6" max="6" width="10.63"/>
+    <col customWidth="1" min="6" max="6" width="48.63"/>
     <col customWidth="1" min="7" max="7" width="16.38"/>
     <col customWidth="1" min="8" max="26" width="10.63"/>
   </cols>
@@ -1034,3430 +2069,4734 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5">
+      <c r="D5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="15">
         <v>45839.0</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="15">
+        <v>45931.0</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="15">
+        <v>45992.0</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+    </row>
+    <row r="9" ht="40.5" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="F9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+    </row>
+    <row r="10" ht="49.5" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+    </row>
+    <row r="11" ht="34.5" customHeight="1">
+      <c r="A11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="9">
-        <v>45931.0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9">
-        <v>45992.0</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="E12" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+    </row>
+    <row r="14" ht="34.5" customHeight="1">
+      <c r="A14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="9">
+        <v>45840.0</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="40">
+        <v>45659.0</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="43">
+        <v>45690.0</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="43">
+        <v>45749.0</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="15">
+        <v>45840.0</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="45"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="E20" s="46"/>
+      <c r="F20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+    </row>
+    <row r="21" ht="26.25" customHeight="1">
+      <c r="A21" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51"/>
+    </row>
+    <row r="22" ht="26.25" customHeight="1">
+      <c r="A22" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+    </row>
+    <row r="23" ht="48.0" customHeight="1">
+      <c r="A23" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="60"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="63"/>
+      <c r="F24" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+    </row>
+    <row r="25" ht="37.5" customHeight="1">
+      <c r="A25" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="66"/>
+      <c r="F25" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="67"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="68"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="66"/>
+      <c r="F26" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="67"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="69"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="4"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="4"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="45"/>
+      <c r="F34" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="72"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="45"/>
+      <c r="F35" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="72"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="73"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="45"/>
+      <c r="F36" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="72"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="73"/>
+      <c r="W36" s="73"/>
+      <c r="X36" s="73"/>
+      <c r="Y36" s="73"/>
+      <c r="Z36" s="73"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="45"/>
+      <c r="F37" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="72"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="45"/>
+      <c r="F38" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="72"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="73"/>
+      <c r="Y38" s="73"/>
+      <c r="Z38" s="73"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="45"/>
+      <c r="F39" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="72"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="73"/>
+      <c r="Y39" s="73"/>
+      <c r="Z39" s="73"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="45"/>
+      <c r="F40" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="72"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="73"/>
+      <c r="Z40" s="73"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="45"/>
+      <c r="F41" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="72"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="73"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="45"/>
+      <c r="F42" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="72"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="73"/>
+      <c r="W42" s="73"/>
+      <c r="X42" s="73"/>
+      <c r="Y42" s="73"/>
+      <c r="Z42" s="73"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="45"/>
+      <c r="F43" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="72"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="73"/>
+      <c r="W43" s="73"/>
+      <c r="X43" s="73"/>
+      <c r="Y43" s="73"/>
+      <c r="Z43" s="73"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="45"/>
+      <c r="F44" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="72"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="73"/>
+      <c r="W44" s="73"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="73"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="45"/>
+      <c r="F45" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="72"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
+      <c r="Z45" s="73"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="4"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="4"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="45"/>
+      <c r="F50" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="72"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
+      <c r="U50" s="73"/>
+      <c r="V50" s="73"/>
+      <c r="W50" s="73"/>
+      <c r="X50" s="73"/>
+      <c r="Y50" s="73"/>
+      <c r="Z50" s="73"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="45"/>
+      <c r="F51" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="73"/>
+      <c r="T51" s="73"/>
+      <c r="U51" s="73"/>
+      <c r="V51" s="73"/>
+      <c r="W51" s="73"/>
+      <c r="X51" s="73"/>
+      <c r="Y51" s="73"/>
+      <c r="Z51" s="73"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="C52" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="45"/>
+      <c r="F52" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="73"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="73"/>
+      <c r="W52" s="73"/>
+      <c r="X52" s="73"/>
+      <c r="Y52" s="73"/>
+      <c r="Z52" s="73"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="26" t="s">
+      <c r="E53" s="76"/>
+      <c r="F53" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="72"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="73"/>
+      <c r="U53" s="73"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="73"/>
+      <c r="X53" s="73"/>
+      <c r="Y53" s="73"/>
+      <c r="Z53" s="73"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="76"/>
+      <c r="F54" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="72"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="73"/>
+      <c r="V54" s="73"/>
+      <c r="W54" s="73"/>
+      <c r="X54" s="73"/>
+      <c r="Y54" s="73"/>
+      <c r="Z54" s="73"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="45"/>
+      <c r="F55" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="72"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="73"/>
+      <c r="U55" s="73"/>
+      <c r="V55" s="73"/>
+      <c r="W55" s="73"/>
+      <c r="X55" s="73"/>
+      <c r="Y55" s="73"/>
+      <c r="Z55" s="73"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-    </row>
-    <row r="13">
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14">
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15">
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16">
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17">
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18">
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19">
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20">
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="G28" s="29"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="G30" s="29"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="G31" s="29"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="G32" s="29"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="G35" s="29"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="G36" s="29"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="G37" s="29"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="G38" s="29"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="G39" s="29"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="G40" s="29"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="G42" s="29"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="G43" s="29"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="G44" s="29"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="G45" s="29"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="G46" s="29"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="G47" s="29"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="G48" s="29"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="G50" s="29"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="G51" s="29"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="G52" s="29"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="G53" s="29"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="G54" s="29"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="G55" s="29"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="G56" s="29"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" s="72"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="73"/>
+      <c r="V56" s="73"/>
+      <c r="W56" s="73"/>
+      <c r="X56" s="73"/>
+      <c r="Y56" s="73"/>
+      <c r="Z56" s="73"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="G57" s="29"/>
+      <c r="A57" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="45"/>
+      <c r="F57" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="72"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="73"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="73"/>
+      <c r="S57" s="73"/>
+      <c r="T57" s="73"/>
+      <c r="U57" s="73"/>
+      <c r="V57" s="73"/>
+      <c r="W57" s="73"/>
+      <c r="X57" s="73"/>
+      <c r="Y57" s="73"/>
+      <c r="Z57" s="73"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="G58" s="29"/>
+      <c r="A58" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="45"/>
+      <c r="F58" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" s="72"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="73"/>
+      <c r="U58" s="73"/>
+      <c r="V58" s="73"/>
+      <c r="W58" s="73"/>
+      <c r="X58" s="73"/>
+      <c r="Y58" s="73"/>
+      <c r="Z58" s="73"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="G59" s="29"/>
+      <c r="A59" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="45"/>
+      <c r="F59" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" s="72"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="73"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="73"/>
+      <c r="U59" s="73"/>
+      <c r="V59" s="73"/>
+      <c r="W59" s="73"/>
+      <c r="X59" s="73"/>
+      <c r="Y59" s="73"/>
+      <c r="Z59" s="73"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="G60" s="29"/>
+      <c r="A60" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="76"/>
+      <c r="F60" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60" s="72"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="73"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="73"/>
+      <c r="T60" s="73"/>
+      <c r="U60" s="73"/>
+      <c r="V60" s="73"/>
+      <c r="W60" s="73"/>
+      <c r="X60" s="73"/>
+      <c r="Y60" s="73"/>
+      <c r="Z60" s="73"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="G61" s="29"/>
+      <c r="A61" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="76"/>
+      <c r="F61" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" s="72"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="73"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="73"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="73"/>
+      <c r="W61" s="73"/>
+      <c r="X61" s="73"/>
+      <c r="Y61" s="73"/>
+      <c r="Z61" s="73"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="G62" s="29"/>
+      <c r="A62" s="4"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="G63" s="29"/>
+      <c r="A63" s="77"/>
+      <c r="G63" s="5"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="G64" s="29"/>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="G65" s="29"/>
+      <c r="G65" s="5"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="G66" s="29"/>
+      <c r="G66" s="5"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="G67" s="29"/>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="G68" s="29"/>
+      <c r="G68" s="5"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="G69" s="29"/>
+      <c r="G69" s="5"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="G70" s="29"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="G71" s="29"/>
+      <c r="G71" s="5"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="G72" s="29"/>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="G73" s="29"/>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="G74" s="29"/>
+      <c r="G74" s="5"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="G75" s="29"/>
+      <c r="G75" s="5"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="G76" s="29"/>
+      <c r="G76" s="5"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="G77" s="29"/>
+      <c r="G77" s="5"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="G78" s="29"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="G79" s="29"/>
+      <c r="G79" s="5"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="G80" s="29"/>
+      <c r="G80" s="5"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="G81" s="29"/>
+      <c r="G81" s="5"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="G82" s="29"/>
+      <c r="G82" s="5"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="G83" s="29"/>
+      <c r="G83" s="5"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="G84" s="29"/>
+      <c r="G84" s="5"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="G85" s="29"/>
+      <c r="G85" s="5"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="G86" s="29"/>
+      <c r="G86" s="5"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="G87" s="29"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="G88" s="29"/>
+      <c r="G88" s="5"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="G89" s="29"/>
+      <c r="G89" s="5"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="G90" s="29"/>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="G91" s="29"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="G92" s="29"/>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="G93" s="29"/>
+      <c r="G93" s="5"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="G94" s="29"/>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="G95" s="29"/>
+      <c r="G95" s="5"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="G96" s="29"/>
+      <c r="G96" s="5"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="G97" s="29"/>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="G98" s="29"/>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="G99" s="29"/>
+      <c r="G99" s="5"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="G100" s="29"/>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="G101" s="29"/>
+      <c r="G101" s="5"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="G102" s="29"/>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="G103" s="29"/>
+      <c r="G103" s="5"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="G104" s="29"/>
+      <c r="G104" s="5"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="G105" s="29"/>
+      <c r="G105" s="5"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="G106" s="29"/>
+      <c r="G106" s="5"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="G107" s="29"/>
+      <c r="G107" s="5"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="G108" s="29"/>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="G109" s="29"/>
+      <c r="G109" s="5"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="G110" s="29"/>
+      <c r="G110" s="5"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="G111" s="29"/>
+      <c r="G111" s="5"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="G112" s="29"/>
+      <c r="G112" s="5"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="G113" s="29"/>
+      <c r="G113" s="5"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="G114" s="29"/>
+      <c r="G114" s="5"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="G115" s="29"/>
+      <c r="G115" s="5"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="G116" s="29"/>
+      <c r="G116" s="5"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="G117" s="29"/>
+      <c r="G117" s="5"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="G118" s="29"/>
+      <c r="G118" s="5"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="G119" s="29"/>
+      <c r="G119" s="5"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="G120" s="29"/>
+      <c r="G120" s="5"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="G121" s="29"/>
+      <c r="G121" s="5"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="G122" s="29"/>
+      <c r="G122" s="5"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="G123" s="29"/>
+      <c r="G123" s="5"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="G124" s="29"/>
+      <c r="G124" s="5"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="G125" s="29"/>
+      <c r="G125" s="5"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="G126" s="29"/>
+      <c r="G126" s="5"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="G127" s="29"/>
+      <c r="G127" s="5"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="G128" s="29"/>
+      <c r="G128" s="5"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="G129" s="29"/>
+      <c r="G129" s="5"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="G130" s="29"/>
+      <c r="G130" s="5"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="G131" s="29"/>
+      <c r="G131" s="5"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="G132" s="29"/>
+      <c r="G132" s="5"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="G133" s="29"/>
+      <c r="G133" s="5"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="G134" s="29"/>
+      <c r="G134" s="5"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="G135" s="29"/>
+      <c r="G135" s="5"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="G136" s="29"/>
+      <c r="G136" s="5"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="G137" s="29"/>
+      <c r="G137" s="5"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="G138" s="29"/>
+      <c r="G138" s="5"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="G139" s="29"/>
+      <c r="G139" s="5"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="G140" s="29"/>
+      <c r="G140" s="5"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="G141" s="29"/>
+      <c r="G141" s="5"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="G142" s="29"/>
+      <c r="G142" s="5"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="G143" s="29"/>
+      <c r="G143" s="5"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="G144" s="29"/>
+      <c r="G144" s="5"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="G145" s="29"/>
+      <c r="G145" s="5"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="G146" s="29"/>
+      <c r="G146" s="5"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="G147" s="29"/>
+      <c r="G147" s="5"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="G148" s="29"/>
+      <c r="G148" s="5"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="G149" s="29"/>
+      <c r="G149" s="5"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="G150" s="29"/>
+      <c r="G150" s="5"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="G151" s="29"/>
+      <c r="G151" s="5"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="G152" s="29"/>
+      <c r="G152" s="5"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="G153" s="29"/>
+      <c r="G153" s="5"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="G154" s="29"/>
+      <c r="G154" s="5"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="G155" s="29"/>
+      <c r="G155" s="5"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="G156" s="29"/>
+      <c r="G156" s="5"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="G157" s="29"/>
+      <c r="G157" s="5"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="G158" s="29"/>
+      <c r="G158" s="5"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="G159" s="29"/>
+      <c r="G159" s="5"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="G160" s="29"/>
+      <c r="G160" s="5"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="G161" s="29"/>
+      <c r="G161" s="5"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="G162" s="29"/>
+      <c r="G162" s="5"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="G163" s="29"/>
+      <c r="G163" s="5"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="G164" s="29"/>
+      <c r="G164" s="5"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="G165" s="29"/>
+      <c r="G165" s="5"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="G166" s="29"/>
+      <c r="G166" s="5"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="G167" s="29"/>
+      <c r="G167" s="5"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="G168" s="29"/>
+      <c r="G168" s="5"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="G169" s="29"/>
+      <c r="G169" s="5"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="G170" s="29"/>
+      <c r="G170" s="5"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="G171" s="29"/>
+      <c r="G171" s="5"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="G172" s="29"/>
+      <c r="G172" s="5"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="G173" s="29"/>
+      <c r="G173" s="5"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="G174" s="29"/>
+      <c r="G174" s="5"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="G175" s="29"/>
+      <c r="G175" s="5"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="G176" s="29"/>
+      <c r="G176" s="5"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="G177" s="29"/>
+      <c r="G177" s="5"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="G178" s="29"/>
+      <c r="G178" s="5"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="G179" s="29"/>
+      <c r="G179" s="5"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="G180" s="29"/>
+      <c r="G180" s="5"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="G181" s="29"/>
+      <c r="G181" s="5"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="G182" s="29"/>
+      <c r="G182" s="5"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="G183" s="29"/>
+      <c r="G183" s="5"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="G184" s="29"/>
+      <c r="G184" s="5"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="G185" s="29"/>
+      <c r="G185" s="5"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="G186" s="29"/>
+      <c r="G186" s="5"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="G187" s="29"/>
+      <c r="G187" s="5"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="G188" s="29"/>
+      <c r="G188" s="5"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="G189" s="29"/>
+      <c r="G189" s="5"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="G190" s="29"/>
+      <c r="G190" s="5"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="G191" s="29"/>
+      <c r="G191" s="5"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="G192" s="29"/>
+      <c r="G192" s="5"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="G193" s="29"/>
+      <c r="G193" s="5"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="G194" s="29"/>
+      <c r="G194" s="5"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="G195" s="29"/>
+      <c r="G195" s="5"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="G196" s="29"/>
+      <c r="G196" s="5"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="G197" s="29"/>
+      <c r="G197" s="5"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="G198" s="29"/>
+      <c r="G198" s="5"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="G199" s="29"/>
+      <c r="G199" s="5"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="G200" s="29"/>
+      <c r="G200" s="5"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="G201" s="29"/>
+      <c r="G201" s="5"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="G202" s="29"/>
+      <c r="G202" s="5"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="G203" s="29"/>
+      <c r="G203" s="5"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="G204" s="29"/>
+      <c r="G204" s="5"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="G205" s="29"/>
+      <c r="G205" s="5"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="G206" s="29"/>
+      <c r="G206" s="5"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="G207" s="29"/>
+      <c r="G207" s="5"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="G208" s="29"/>
+      <c r="G208" s="5"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="G209" s="29"/>
+      <c r="G209" s="5"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="G210" s="29"/>
+      <c r="G210" s="5"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="G211" s="29"/>
+      <c r="G211" s="5"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="G212" s="29"/>
+      <c r="G212" s="5"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="G213" s="29"/>
+      <c r="G213" s="5"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="G214" s="29"/>
+      <c r="G214" s="5"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="G215" s="29"/>
+      <c r="G215" s="5"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="G216" s="29"/>
+      <c r="G216" s="5"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="G217" s="29"/>
+      <c r="G217" s="5"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="G218" s="29"/>
+      <c r="G218" s="5"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="G219" s="29"/>
+      <c r="G219" s="5"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="G220" s="29"/>
+      <c r="G220" s="5"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="G221" s="29"/>
+      <c r="G221" s="5"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="G222" s="29"/>
+      <c r="G222" s="5"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="G223" s="29"/>
+      <c r="G223" s="5"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="G224" s="29"/>
+      <c r="G224" s="5"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="G225" s="29"/>
+      <c r="G225" s="5"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="G226" s="29"/>
+      <c r="G226" s="5"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="G227" s="29"/>
+      <c r="G227" s="5"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="G228" s="29"/>
+      <c r="G228" s="5"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="G229" s="29"/>
+      <c r="G229" s="5"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="G230" s="29"/>
+      <c r="G230" s="5"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="G231" s="29"/>
+      <c r="G231" s="5"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="G232" s="29"/>
+      <c r="G232" s="5"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="G233" s="29"/>
+      <c r="G233" s="5"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="G234" s="29"/>
+      <c r="G234" s="5"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="G235" s="29"/>
+      <c r="G235" s="5"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="G236" s="29"/>
+      <c r="G236" s="5"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="G237" s="29"/>
+      <c r="G237" s="5"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="G238" s="29"/>
+      <c r="G238" s="5"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="G239" s="29"/>
+      <c r="G239" s="5"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="G240" s="29"/>
+      <c r="G240" s="5"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="G241" s="29"/>
+      <c r="G241" s="5"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="G242" s="29"/>
+      <c r="G242" s="5"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="G243" s="29"/>
+      <c r="G243" s="5"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="G244" s="29"/>
+      <c r="G244" s="5"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="G245" s="29"/>
+      <c r="G245" s="5"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="G246" s="29"/>
+      <c r="G246" s="5"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="G247" s="29"/>
+      <c r="G247" s="5"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="G248" s="29"/>
+      <c r="G248" s="5"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="G249" s="29"/>
+      <c r="G249" s="5"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="G250" s="29"/>
+      <c r="G250" s="5"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="G251" s="29"/>
+      <c r="G251" s="5"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="G252" s="29"/>
+      <c r="G252" s="5"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="G253" s="29"/>
+      <c r="G253" s="5"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="G254" s="29"/>
+      <c r="G254" s="5"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="G255" s="29"/>
+      <c r="G255" s="5"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="G256" s="29"/>
+      <c r="G256" s="5"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="G257" s="29"/>
+      <c r="G257" s="5"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="G258" s="29"/>
+      <c r="G258" s="5"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="G259" s="29"/>
+      <c r="G259" s="5"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="G260" s="29"/>
+      <c r="G260" s="5"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="G261" s="29"/>
+      <c r="G261" s="5"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="G262" s="29"/>
+      <c r="G262" s="5"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="G263" s="29"/>
+      <c r="G263" s="5"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="G264" s="29"/>
+      <c r="G264" s="5"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="G265" s="29"/>
+      <c r="G265" s="5"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="G266" s="29"/>
+      <c r="G266" s="5"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="G267" s="29"/>
+      <c r="G267" s="5"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="G268" s="29"/>
+      <c r="G268" s="5"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="G269" s="29"/>
+      <c r="G269" s="5"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="G270" s="29"/>
+      <c r="G270" s="5"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="G271" s="29"/>
+      <c r="G271" s="5"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="G272" s="29"/>
+      <c r="G272" s="5"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="G273" s="29"/>
+      <c r="G273" s="5"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="G274" s="29"/>
+      <c r="G274" s="5"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="G275" s="29"/>
+      <c r="G275" s="5"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="G276" s="29"/>
+      <c r="G276" s="5"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="G277" s="29"/>
+      <c r="G277" s="5"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="G278" s="29"/>
+      <c r="G278" s="5"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="G279" s="29"/>
+      <c r="G279" s="5"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="G280" s="29"/>
+      <c r="G280" s="5"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="G281" s="29"/>
+      <c r="G281" s="5"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="G282" s="29"/>
+      <c r="G282" s="5"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="G283" s="29"/>
+      <c r="G283" s="5"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="G284" s="29"/>
+      <c r="G284" s="5"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="G285" s="29"/>
+      <c r="G285" s="5"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="G286" s="29"/>
+      <c r="G286" s="5"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="G287" s="29"/>
+      <c r="G287" s="5"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="G288" s="29"/>
+      <c r="G288" s="5"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="G289" s="29"/>
+      <c r="G289" s="5"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="G290" s="29"/>
+      <c r="G290" s="5"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="G291" s="29"/>
+      <c r="G291" s="5"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="G292" s="29"/>
+      <c r="G292" s="5"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="G293" s="29"/>
+      <c r="G293" s="5"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="G294" s="29"/>
+      <c r="G294" s="5"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="G295" s="29"/>
+      <c r="G295" s="5"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="G296" s="29"/>
+      <c r="G296" s="5"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="G297" s="29"/>
+      <c r="G297" s="5"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="G298" s="29"/>
+      <c r="G298" s="5"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="G299" s="29"/>
+      <c r="G299" s="5"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="G300" s="29"/>
+      <c r="G300" s="5"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="G301" s="29"/>
+      <c r="G301" s="5"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="G302" s="29"/>
+      <c r="G302" s="5"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="G303" s="29"/>
+      <c r="G303" s="5"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="G304" s="29"/>
+      <c r="G304" s="5"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="G305" s="29"/>
+      <c r="G305" s="5"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="G306" s="29"/>
+      <c r="G306" s="5"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="G307" s="29"/>
+      <c r="G307" s="5"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="G308" s="29"/>
+      <c r="G308" s="5"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="G309" s="29"/>
+      <c r="G309" s="5"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="G310" s="29"/>
+      <c r="G310" s="5"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="G311" s="29"/>
+      <c r="G311" s="5"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="G312" s="29"/>
+      <c r="G312" s="5"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="G313" s="29"/>
+      <c r="G313" s="5"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="G314" s="29"/>
+      <c r="G314" s="5"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="G315" s="29"/>
+      <c r="G315" s="5"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="G316" s="29"/>
+      <c r="G316" s="5"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="G317" s="29"/>
+      <c r="G317" s="5"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="G318" s="29"/>
+      <c r="G318" s="5"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="G319" s="29"/>
+      <c r="G319" s="5"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="G320" s="29"/>
+      <c r="G320" s="5"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="G321" s="29"/>
+      <c r="G321" s="5"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="G322" s="29"/>
+      <c r="G322" s="5"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="G323" s="29"/>
+      <c r="G323" s="5"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="G324" s="29"/>
+      <c r="G324" s="5"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="G325" s="29"/>
+      <c r="G325" s="5"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="G326" s="29"/>
+      <c r="G326" s="5"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="G327" s="29"/>
+      <c r="G327" s="5"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="G328" s="29"/>
+      <c r="G328" s="5"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="G329" s="29"/>
+      <c r="G329" s="5"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="G330" s="29"/>
+      <c r="G330" s="5"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="G331" s="29"/>
+      <c r="G331" s="5"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="G332" s="29"/>
+      <c r="G332" s="5"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="G333" s="29"/>
+      <c r="G333" s="5"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="G334" s="29"/>
+      <c r="G334" s="5"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="G335" s="29"/>
+      <c r="G335" s="5"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="G336" s="29"/>
+      <c r="G336" s="5"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="G337" s="29"/>
+      <c r="G337" s="5"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="G338" s="29"/>
+      <c r="G338" s="5"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="G339" s="29"/>
+      <c r="G339" s="5"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="G340" s="29"/>
+      <c r="G340" s="5"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="G341" s="29"/>
+      <c r="G341" s="5"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="G342" s="29"/>
+      <c r="G342" s="5"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="G343" s="29"/>
+      <c r="G343" s="5"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="G344" s="29"/>
+      <c r="G344" s="5"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="G345" s="29"/>
+      <c r="G345" s="5"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="G346" s="29"/>
+      <c r="G346" s="5"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="G347" s="29"/>
+      <c r="G347" s="5"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="G348" s="29"/>
+      <c r="G348" s="5"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="G349" s="29"/>
+      <c r="G349" s="5"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="G350" s="29"/>
+      <c r="G350" s="5"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="G351" s="29"/>
+      <c r="G351" s="5"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="G352" s="29"/>
+      <c r="G352" s="5"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="G353" s="29"/>
+      <c r="G353" s="5"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="G354" s="29"/>
+      <c r="G354" s="5"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="G355" s="29"/>
+      <c r="G355" s="5"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="G356" s="29"/>
+      <c r="G356" s="5"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="G357" s="29"/>
+      <c r="G357" s="5"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="G358" s="29"/>
+      <c r="G358" s="5"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="G359" s="29"/>
+      <c r="G359" s="5"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="G360" s="29"/>
+      <c r="G360" s="5"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="G361" s="29"/>
+      <c r="G361" s="5"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="G362" s="29"/>
+      <c r="G362" s="5"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="G363" s="29"/>
+      <c r="G363" s="5"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="G364" s="29"/>
+      <c r="G364" s="5"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="G365" s="29"/>
+      <c r="G365" s="5"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="G366" s="29"/>
+      <c r="G366" s="5"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="G367" s="29"/>
+      <c r="G367" s="5"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="G368" s="29"/>
+      <c r="G368" s="5"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="G369" s="29"/>
+      <c r="G369" s="5"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="G370" s="29"/>
+      <c r="G370" s="5"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="G371" s="29"/>
+      <c r="G371" s="5"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="G372" s="29"/>
+      <c r="G372" s="5"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="G373" s="29"/>
+      <c r="G373" s="5"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="G374" s="29"/>
+      <c r="G374" s="5"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="G375" s="29"/>
+      <c r="G375" s="5"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="G376" s="29"/>
+      <c r="G376" s="5"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="G377" s="29"/>
+      <c r="G377" s="5"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="G378" s="29"/>
+      <c r="G378" s="5"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="G379" s="29"/>
+      <c r="G379" s="5"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="G380" s="29"/>
+      <c r="G380" s="5"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="G381" s="29"/>
+      <c r="G381" s="5"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="G382" s="29"/>
+      <c r="G382" s="5"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="G383" s="29"/>
+      <c r="G383" s="5"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="G384" s="29"/>
+      <c r="G384" s="5"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="G385" s="29"/>
+      <c r="G385" s="5"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="G386" s="29"/>
+      <c r="G386" s="5"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="G387" s="29"/>
+      <c r="G387" s="5"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="G388" s="29"/>
+      <c r="G388" s="5"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="G389" s="29"/>
+      <c r="G389" s="5"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="G390" s="29"/>
+      <c r="G390" s="5"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="G391" s="29"/>
+      <c r="G391" s="5"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="G392" s="29"/>
+      <c r="G392" s="5"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="G393" s="29"/>
+      <c r="G393" s="5"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="G394" s="29"/>
+      <c r="G394" s="5"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="G395" s="29"/>
+      <c r="G395" s="5"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="G396" s="29"/>
+      <c r="G396" s="5"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="G397" s="29"/>
+      <c r="G397" s="5"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="G398" s="29"/>
+      <c r="G398" s="5"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="G399" s="29"/>
+      <c r="G399" s="5"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="G400" s="29"/>
+      <c r="G400" s="5"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="G401" s="29"/>
+      <c r="G401" s="5"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="G402" s="29"/>
+      <c r="G402" s="5"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="G403" s="29"/>
+      <c r="G403" s="5"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="G404" s="29"/>
+      <c r="G404" s="5"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="G405" s="29"/>
+      <c r="G405" s="5"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="G406" s="29"/>
+      <c r="G406" s="5"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="G407" s="29"/>
+      <c r="G407" s="5"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="G408" s="29"/>
+      <c r="G408" s="5"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="G409" s="29"/>
+      <c r="G409" s="5"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="G410" s="29"/>
+      <c r="G410" s="5"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="G411" s="29"/>
+      <c r="G411" s="5"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="G412" s="29"/>
+      <c r="G412" s="5"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="G413" s="29"/>
+      <c r="G413" s="5"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="G414" s="29"/>
+      <c r="G414" s="5"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="G415" s="29"/>
+      <c r="G415" s="5"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="G416" s="29"/>
+      <c r="G416" s="5"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="G417" s="29"/>
+      <c r="G417" s="5"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="G418" s="29"/>
+      <c r="G418" s="5"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="G419" s="29"/>
+      <c r="G419" s="5"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="G420" s="29"/>
+      <c r="G420" s="5"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="G421" s="29"/>
+      <c r="G421" s="5"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="G422" s="29"/>
+      <c r="G422" s="5"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="G423" s="29"/>
+      <c r="G423" s="5"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="G424" s="29"/>
+      <c r="G424" s="5"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="G425" s="29"/>
+      <c r="G425" s="5"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="G426" s="29"/>
+      <c r="G426" s="5"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="G427" s="29"/>
+      <c r="G427" s="5"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="G428" s="29"/>
+      <c r="G428" s="5"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="G429" s="29"/>
+      <c r="G429" s="5"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="G430" s="29"/>
+      <c r="G430" s="5"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="G431" s="29"/>
+      <c r="G431" s="5"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="G432" s="29"/>
+      <c r="G432" s="5"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="G433" s="29"/>
+      <c r="G433" s="5"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="G434" s="29"/>
+      <c r="G434" s="5"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="G435" s="29"/>
+      <c r="G435" s="5"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="G436" s="29"/>
+      <c r="G436" s="5"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="G437" s="29"/>
+      <c r="G437" s="5"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="G438" s="29"/>
+      <c r="G438" s="5"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="G439" s="29"/>
+      <c r="G439" s="5"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="G440" s="29"/>
+      <c r="G440" s="5"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="G441" s="29"/>
+      <c r="G441" s="5"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="G442" s="29"/>
+      <c r="G442" s="5"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="G443" s="29"/>
+      <c r="G443" s="5"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="G444" s="29"/>
+      <c r="G444" s="5"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="G445" s="29"/>
+      <c r="G445" s="5"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="G446" s="29"/>
+      <c r="G446" s="5"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="G447" s="29"/>
+      <c r="G447" s="5"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="G448" s="29"/>
+      <c r="G448" s="5"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="G449" s="29"/>
+      <c r="G449" s="5"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="G450" s="29"/>
+      <c r="G450" s="5"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="G451" s="29"/>
+      <c r="G451" s="5"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="G452" s="29"/>
+      <c r="G452" s="5"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="G453" s="29"/>
+      <c r="G453" s="5"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="G454" s="29"/>
+      <c r="G454" s="5"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="G455" s="29"/>
+      <c r="G455" s="5"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="G456" s="29"/>
+      <c r="G456" s="5"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="G457" s="29"/>
+      <c r="G457" s="5"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="G458" s="29"/>
+      <c r="G458" s="5"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="G459" s="29"/>
+      <c r="G459" s="5"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="G460" s="29"/>
+      <c r="G460" s="5"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="G461" s="29"/>
+      <c r="G461" s="5"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="G462" s="29"/>
+      <c r="G462" s="5"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="G463" s="29"/>
+      <c r="G463" s="5"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="G464" s="29"/>
+      <c r="G464" s="5"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="G465" s="29"/>
+      <c r="G465" s="5"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="G466" s="29"/>
+      <c r="G466" s="5"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="G467" s="29"/>
+      <c r="G467" s="5"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="G468" s="29"/>
+      <c r="G468" s="5"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="G469" s="29"/>
+      <c r="G469" s="5"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="G470" s="29"/>
+      <c r="G470" s="5"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="G471" s="29"/>
+      <c r="G471" s="5"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="G472" s="29"/>
+      <c r="G472" s="5"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="G473" s="29"/>
+      <c r="G473" s="5"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="G474" s="29"/>
+      <c r="G474" s="5"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="G475" s="29"/>
+      <c r="G475" s="5"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="G476" s="29"/>
+      <c r="G476" s="5"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="G477" s="29"/>
+      <c r="G477" s="5"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="G478" s="29"/>
+      <c r="G478" s="5"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="G479" s="29"/>
+      <c r="G479" s="5"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="G480" s="29"/>
+      <c r="G480" s="5"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="G481" s="29"/>
+      <c r="G481" s="5"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="G482" s="29"/>
+      <c r="G482" s="5"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="G483" s="29"/>
+      <c r="G483" s="5"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="G484" s="29"/>
+      <c r="G484" s="5"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="G485" s="29"/>
+      <c r="G485" s="5"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="G486" s="29"/>
+      <c r="G486" s="5"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="G487" s="29"/>
+      <c r="G487" s="5"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="G488" s="29"/>
+      <c r="G488" s="5"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="G489" s="29"/>
+      <c r="G489" s="5"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="G490" s="29"/>
+      <c r="G490" s="5"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="G491" s="29"/>
+      <c r="G491" s="5"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="G492" s="29"/>
+      <c r="G492" s="5"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="G493" s="29"/>
+      <c r="G493" s="5"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="G494" s="29"/>
+      <c r="G494" s="5"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="G495" s="29"/>
+      <c r="G495" s="5"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="G496" s="29"/>
+      <c r="G496" s="5"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="G497" s="29"/>
+      <c r="G497" s="5"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="G498" s="29"/>
+      <c r="G498" s="5"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="G499" s="29"/>
+      <c r="G499" s="5"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="G500" s="29"/>
+      <c r="G500" s="5"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="G501" s="29"/>
+      <c r="G501" s="5"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="G502" s="29"/>
+      <c r="G502" s="5"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="G503" s="29"/>
+      <c r="G503" s="5"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="G504" s="29"/>
+      <c r="G504" s="5"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="G505" s="29"/>
+      <c r="G505" s="5"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="G506" s="29"/>
+      <c r="G506" s="5"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="G507" s="29"/>
+      <c r="G507" s="5"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="G508" s="29"/>
+      <c r="G508" s="5"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="G509" s="29"/>
+      <c r="G509" s="5"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="G510" s="29"/>
+      <c r="G510" s="5"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="G511" s="29"/>
+      <c r="G511" s="5"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="G512" s="29"/>
+      <c r="G512" s="5"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="G513" s="29"/>
+      <c r="G513" s="5"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="G514" s="29"/>
+      <c r="G514" s="5"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="G515" s="29"/>
+      <c r="G515" s="5"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="G516" s="29"/>
+      <c r="G516" s="5"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="G517" s="29"/>
+      <c r="G517" s="5"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="G518" s="29"/>
+      <c r="G518" s="5"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="G519" s="29"/>
+      <c r="G519" s="5"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="G520" s="29"/>
+      <c r="G520" s="5"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="G521" s="29"/>
+      <c r="G521" s="5"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="G522" s="29"/>
+      <c r="G522" s="5"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="G523" s="29"/>
+      <c r="G523" s="5"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="G524" s="29"/>
+      <c r="G524" s="5"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="G525" s="29"/>
+      <c r="G525" s="5"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="G526" s="29"/>
+      <c r="G526" s="5"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="G527" s="29"/>
+      <c r="G527" s="5"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="G528" s="29"/>
+      <c r="G528" s="5"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="G529" s="29"/>
+      <c r="G529" s="5"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="G530" s="29"/>
+      <c r="G530" s="5"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="G531" s="29"/>
+      <c r="G531" s="5"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="G532" s="29"/>
+      <c r="G532" s="5"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="G533" s="29"/>
+      <c r="G533" s="5"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="G534" s="29"/>
+      <c r="G534" s="5"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="G535" s="29"/>
+      <c r="G535" s="5"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="G536" s="29"/>
+      <c r="G536" s="5"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="G537" s="29"/>
+      <c r="G537" s="5"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="G538" s="29"/>
+      <c r="G538" s="5"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="G539" s="29"/>
+      <c r="G539" s="5"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="G540" s="29"/>
+      <c r="G540" s="5"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="G541" s="29"/>
+      <c r="G541" s="5"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="G542" s="29"/>
+      <c r="G542" s="5"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="G543" s="29"/>
+      <c r="G543" s="5"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="G544" s="29"/>
+      <c r="G544" s="5"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="G545" s="29"/>
+      <c r="G545" s="5"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="G546" s="29"/>
+      <c r="G546" s="5"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="G547" s="29"/>
+      <c r="G547" s="5"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="G548" s="29"/>
+      <c r="G548" s="5"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="G549" s="29"/>
+      <c r="G549" s="5"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="G550" s="29"/>
+      <c r="G550" s="5"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="G551" s="29"/>
+      <c r="G551" s="5"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="G552" s="29"/>
+      <c r="G552" s="5"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="G553" s="29"/>
+      <c r="G553" s="5"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="G554" s="29"/>
+      <c r="G554" s="5"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="G555" s="29"/>
+      <c r="G555" s="5"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="G556" s="29"/>
+      <c r="G556" s="5"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="G557" s="29"/>
+      <c r="G557" s="5"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="G558" s="29"/>
+      <c r="G558" s="5"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="G559" s="29"/>
+      <c r="G559" s="5"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="G560" s="29"/>
+      <c r="G560" s="5"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="G561" s="29"/>
+      <c r="G561" s="5"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="G562" s="29"/>
+      <c r="G562" s="5"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="G563" s="29"/>
+      <c r="G563" s="5"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="G564" s="29"/>
+      <c r="G564" s="5"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="G565" s="29"/>
+      <c r="G565" s="5"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="G566" s="29"/>
+      <c r="G566" s="5"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="G567" s="29"/>
+      <c r="G567" s="5"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="G568" s="29"/>
+      <c r="G568" s="5"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="G569" s="29"/>
+      <c r="G569" s="5"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="G570" s="29"/>
+      <c r="G570" s="5"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="G571" s="29"/>
+      <c r="G571" s="5"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="G572" s="29"/>
+      <c r="G572" s="5"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="G573" s="29"/>
+      <c r="G573" s="5"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="G574" s="29"/>
+      <c r="G574" s="5"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="G575" s="29"/>
+      <c r="G575" s="5"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="G576" s="29"/>
+      <c r="G576" s="5"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="G577" s="29"/>
+      <c r="G577" s="5"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="G578" s="29"/>
+      <c r="G578" s="5"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="G579" s="29"/>
+      <c r="G579" s="5"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="G580" s="29"/>
+      <c r="G580" s="5"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="G581" s="29"/>
+      <c r="G581" s="5"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="G582" s="29"/>
+      <c r="G582" s="5"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="G583" s="29"/>
+      <c r="G583" s="5"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="G584" s="29"/>
+      <c r="G584" s="5"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="G585" s="29"/>
+      <c r="G585" s="5"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="G586" s="29"/>
+      <c r="G586" s="5"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="G587" s="29"/>
+      <c r="G587" s="5"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="G588" s="29"/>
+      <c r="G588" s="5"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="G589" s="29"/>
+      <c r="G589" s="5"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="G590" s="29"/>
+      <c r="G590" s="5"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="G591" s="29"/>
+      <c r="G591" s="5"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="G592" s="29"/>
+      <c r="G592" s="5"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="G593" s="29"/>
+      <c r="G593" s="5"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="G594" s="29"/>
+      <c r="G594" s="5"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="G595" s="29"/>
+      <c r="G595" s="5"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="G596" s="29"/>
+      <c r="G596" s="5"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="G597" s="29"/>
+      <c r="G597" s="5"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="G598" s="29"/>
+      <c r="G598" s="5"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="G599" s="29"/>
+      <c r="G599" s="5"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="G600" s="29"/>
+      <c r="G600" s="5"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="G601" s="29"/>
+      <c r="G601" s="5"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="G602" s="29"/>
+      <c r="G602" s="5"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="G603" s="29"/>
+      <c r="G603" s="5"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="G604" s="29"/>
+      <c r="G604" s="5"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="G605" s="29"/>
+      <c r="G605" s="5"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="G606" s="29"/>
+      <c r="G606" s="5"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="G607" s="29"/>
+      <c r="G607" s="5"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="G608" s="29"/>
+      <c r="G608" s="5"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="G609" s="29"/>
+      <c r="G609" s="5"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="G610" s="29"/>
+      <c r="G610" s="5"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="G611" s="29"/>
+      <c r="G611" s="5"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="G612" s="29"/>
+      <c r="G612" s="5"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="G613" s="29"/>
+      <c r="G613" s="5"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="G614" s="29"/>
+      <c r="G614" s="5"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="G615" s="29"/>
+      <c r="G615" s="5"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="G616" s="29"/>
+      <c r="G616" s="5"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="G617" s="29"/>
+      <c r="G617" s="5"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="G618" s="29"/>
+      <c r="G618" s="5"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="G619" s="29"/>
+      <c r="G619" s="5"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="G620" s="29"/>
+      <c r="G620" s="5"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="G621" s="29"/>
+      <c r="G621" s="5"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="G622" s="29"/>
+      <c r="G622" s="5"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="G623" s="29"/>
+      <c r="G623" s="5"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="G624" s="29"/>
+      <c r="G624" s="5"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="G625" s="29"/>
+      <c r="G625" s="5"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="G626" s="29"/>
+      <c r="G626" s="5"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="G627" s="29"/>
+      <c r="G627" s="5"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="G628" s="29"/>
+      <c r="G628" s="5"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="G629" s="29"/>
+      <c r="G629" s="5"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="G630" s="29"/>
+      <c r="G630" s="5"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="G631" s="29"/>
+      <c r="G631" s="5"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="G632" s="29"/>
+      <c r="G632" s="5"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="G633" s="29"/>
+      <c r="G633" s="5"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="G634" s="29"/>
+      <c r="G634" s="5"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="G635" s="29"/>
+      <c r="G635" s="5"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="G636" s="29"/>
+      <c r="G636" s="5"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="G637" s="29"/>
+      <c r="G637" s="5"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="G638" s="29"/>
+      <c r="G638" s="5"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="G639" s="29"/>
+      <c r="G639" s="5"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="G640" s="29"/>
+      <c r="G640" s="5"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="G641" s="29"/>
+      <c r="G641" s="5"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="G642" s="29"/>
+      <c r="G642" s="5"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="G643" s="29"/>
+      <c r="G643" s="5"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="G644" s="29"/>
+      <c r="G644" s="5"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="G645" s="29"/>
+      <c r="G645" s="5"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="G646" s="29"/>
+      <c r="G646" s="5"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="G647" s="29"/>
+      <c r="G647" s="5"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="G648" s="29"/>
+      <c r="G648" s="5"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="G649" s="29"/>
+      <c r="G649" s="5"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="G650" s="29"/>
+      <c r="G650" s="5"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="G651" s="29"/>
+      <c r="G651" s="5"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="G652" s="29"/>
+      <c r="G652" s="5"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="G653" s="29"/>
+      <c r="G653" s="5"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="G654" s="29"/>
+      <c r="G654" s="5"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="G655" s="29"/>
+      <c r="G655" s="5"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="G656" s="29"/>
+      <c r="G656" s="5"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="G657" s="29"/>
+      <c r="G657" s="5"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="G658" s="29"/>
+      <c r="G658" s="5"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="G659" s="29"/>
+      <c r="G659" s="5"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="G660" s="29"/>
+      <c r="G660" s="5"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="G661" s="29"/>
+      <c r="G661" s="5"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="G662" s="29"/>
+      <c r="G662" s="5"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="G663" s="29"/>
+      <c r="G663" s="5"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="G664" s="29"/>
+      <c r="G664" s="5"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="G665" s="29"/>
+      <c r="G665" s="5"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="G666" s="29"/>
+      <c r="G666" s="5"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="G667" s="29"/>
+      <c r="G667" s="5"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="G668" s="29"/>
+      <c r="G668" s="5"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="G669" s="29"/>
+      <c r="G669" s="5"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="G670" s="29"/>
+      <c r="G670" s="5"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="G671" s="29"/>
+      <c r="G671" s="5"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="G672" s="29"/>
+      <c r="G672" s="5"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="G673" s="29"/>
+      <c r="G673" s="5"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="G674" s="29"/>
+      <c r="G674" s="5"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="G675" s="29"/>
+      <c r="G675" s="5"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="G676" s="29"/>
+      <c r="G676" s="5"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="G677" s="29"/>
+      <c r="G677" s="5"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="G678" s="29"/>
+      <c r="G678" s="5"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="G679" s="29"/>
+      <c r="G679" s="5"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="G680" s="29"/>
+      <c r="G680" s="5"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="G681" s="29"/>
+      <c r="G681" s="5"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="G682" s="29"/>
+      <c r="G682" s="5"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="G683" s="29"/>
+      <c r="G683" s="5"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="G684" s="29"/>
+      <c r="G684" s="5"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="G685" s="29"/>
+      <c r="G685" s="5"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="G686" s="29"/>
+      <c r="G686" s="5"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="G687" s="29"/>
+      <c r="G687" s="5"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="G688" s="29"/>
+      <c r="G688" s="5"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="G689" s="29"/>
+      <c r="G689" s="5"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="G690" s="29"/>
+      <c r="G690" s="5"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="G691" s="29"/>
+      <c r="G691" s="5"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="G692" s="29"/>
+      <c r="G692" s="5"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="G693" s="29"/>
+      <c r="G693" s="5"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="G694" s="29"/>
+      <c r="G694" s="5"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="G695" s="29"/>
+      <c r="G695" s="5"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="G696" s="29"/>
+      <c r="G696" s="5"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="G697" s="29"/>
+      <c r="G697" s="5"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="G698" s="29"/>
+      <c r="G698" s="5"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="G699" s="29"/>
+      <c r="G699" s="5"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="G700" s="29"/>
+      <c r="G700" s="5"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="G701" s="29"/>
+      <c r="G701" s="5"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="G702" s="29"/>
+      <c r="G702" s="5"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="G703" s="29"/>
+      <c r="G703" s="5"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="G704" s="29"/>
+      <c r="G704" s="5"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="G705" s="29"/>
+      <c r="G705" s="5"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="G706" s="29"/>
+      <c r="G706" s="5"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="G707" s="29"/>
+      <c r="G707" s="5"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="G708" s="29"/>
+      <c r="G708" s="5"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="G709" s="29"/>
+      <c r="G709" s="5"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="G710" s="29"/>
+      <c r="G710" s="5"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="G711" s="29"/>
+      <c r="G711" s="5"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="G712" s="29"/>
+      <c r="G712" s="5"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="G713" s="29"/>
+      <c r="G713" s="5"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="G714" s="29"/>
+      <c r="G714" s="5"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="G715" s="29"/>
+      <c r="G715" s="5"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="G716" s="29"/>
+      <c r="G716" s="5"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="G717" s="29"/>
+      <c r="G717" s="5"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="G718" s="29"/>
+      <c r="G718" s="5"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="G719" s="29"/>
+      <c r="G719" s="5"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="G720" s="29"/>
+      <c r="G720" s="5"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="G721" s="29"/>
+      <c r="G721" s="5"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="G722" s="29"/>
+      <c r="G722" s="5"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="G723" s="29"/>
+      <c r="G723" s="5"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="G724" s="29"/>
+      <c r="G724" s="5"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="G725" s="29"/>
+      <c r="G725" s="5"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="G726" s="29"/>
+      <c r="G726" s="5"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="G727" s="29"/>
+      <c r="G727" s="5"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="G728" s="29"/>
+      <c r="G728" s="5"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="G729" s="29"/>
+      <c r="G729" s="5"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="G730" s="29"/>
+      <c r="G730" s="5"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="G731" s="29"/>
+      <c r="G731" s="5"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="G732" s="29"/>
+      <c r="G732" s="5"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="G733" s="29"/>
+      <c r="G733" s="5"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="G734" s="29"/>
+      <c r="G734" s="5"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="G735" s="29"/>
+      <c r="G735" s="5"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="G736" s="29"/>
+      <c r="G736" s="5"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="G737" s="29"/>
+      <c r="G737" s="5"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="G738" s="29"/>
+      <c r="G738" s="5"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="G739" s="29"/>
+      <c r="G739" s="5"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="G740" s="29"/>
+      <c r="G740" s="5"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="G741" s="29"/>
+      <c r="G741" s="5"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="G742" s="29"/>
+      <c r="G742" s="5"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="G743" s="29"/>
+      <c r="G743" s="5"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="G744" s="29"/>
+      <c r="G744" s="5"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="G745" s="29"/>
+      <c r="G745" s="5"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="G746" s="29"/>
+      <c r="G746" s="5"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="G747" s="29"/>
+      <c r="G747" s="5"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="G748" s="29"/>
+      <c r="G748" s="5"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="G749" s="29"/>
+      <c r="G749" s="5"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="G750" s="29"/>
+      <c r="G750" s="5"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="G751" s="29"/>
+      <c r="G751" s="5"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="G752" s="29"/>
+      <c r="G752" s="5"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="G753" s="29"/>
+      <c r="G753" s="5"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="G754" s="29"/>
+      <c r="G754" s="5"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="G755" s="29"/>
+      <c r="G755" s="5"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="G756" s="29"/>
+      <c r="G756" s="5"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="G757" s="29"/>
+      <c r="G757" s="5"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="G758" s="29"/>
+      <c r="G758" s="5"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="G759" s="29"/>
+      <c r="G759" s="5"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="G760" s="29"/>
+      <c r="G760" s="5"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="G761" s="29"/>
+      <c r="G761" s="5"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="G762" s="29"/>
+      <c r="G762" s="5"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="G763" s="29"/>
+      <c r="G763" s="5"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="G764" s="29"/>
+      <c r="G764" s="5"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="G765" s="29"/>
+      <c r="G765" s="5"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="G766" s="29"/>
+      <c r="G766" s="5"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="G767" s="29"/>
+      <c r="G767" s="5"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="G768" s="29"/>
+      <c r="G768" s="5"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="G769" s="29"/>
+      <c r="G769" s="5"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="G770" s="29"/>
+      <c r="G770" s="5"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="G771" s="29"/>
+      <c r="G771" s="5"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="G772" s="29"/>
+      <c r="G772" s="5"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="G773" s="29"/>
+      <c r="G773" s="5"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="G774" s="29"/>
+      <c r="G774" s="5"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="G775" s="29"/>
+      <c r="G775" s="5"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="G776" s="29"/>
+      <c r="G776" s="5"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="G777" s="29"/>
+      <c r="G777" s="5"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="G778" s="29"/>
+      <c r="G778" s="5"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="G779" s="29"/>
+      <c r="G779" s="5"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="G780" s="29"/>
+      <c r="G780" s="5"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="G781" s="29"/>
+      <c r="G781" s="5"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="G782" s="29"/>
+      <c r="G782" s="5"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="G783" s="29"/>
+      <c r="G783" s="5"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="G784" s="29"/>
+      <c r="G784" s="5"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="G785" s="29"/>
+      <c r="G785" s="5"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="G786" s="29"/>
+      <c r="G786" s="5"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="G787" s="29"/>
+      <c r="G787" s="5"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="G788" s="29"/>
+      <c r="G788" s="5"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="G789" s="29"/>
+      <c r="G789" s="5"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="G790" s="29"/>
+      <c r="G790" s="5"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="G791" s="29"/>
+      <c r="G791" s="5"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="G792" s="29"/>
+      <c r="G792" s="5"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="G793" s="29"/>
+      <c r="G793" s="5"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="G794" s="29"/>
+      <c r="G794" s="5"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="G795" s="29"/>
+      <c r="G795" s="5"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="G796" s="29"/>
+      <c r="G796" s="5"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="G797" s="29"/>
+      <c r="G797" s="5"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="G798" s="29"/>
+      <c r="G798" s="5"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="G799" s="29"/>
+      <c r="G799" s="5"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="G800" s="29"/>
+      <c r="G800" s="5"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="G801" s="29"/>
+      <c r="G801" s="5"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="G802" s="29"/>
+      <c r="G802" s="5"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="G803" s="29"/>
+      <c r="G803" s="5"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="G804" s="29"/>
+      <c r="G804" s="5"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="G805" s="29"/>
+      <c r="G805" s="5"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="G806" s="29"/>
+      <c r="G806" s="5"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="G807" s="29"/>
+      <c r="G807" s="5"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="G808" s="29"/>
+      <c r="G808" s="5"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="G809" s="29"/>
+      <c r="G809" s="5"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="G810" s="29"/>
+      <c r="G810" s="5"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="G811" s="29"/>
+      <c r="G811" s="5"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="G812" s="29"/>
+      <c r="G812" s="5"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="G813" s="29"/>
+      <c r="G813" s="5"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="G814" s="29"/>
+      <c r="G814" s="5"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="G815" s="29"/>
+      <c r="G815" s="5"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="G816" s="29"/>
+      <c r="G816" s="5"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="G817" s="29"/>
+      <c r="G817" s="5"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="G818" s="29"/>
+      <c r="G818" s="5"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="G819" s="29"/>
+      <c r="G819" s="5"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="G820" s="29"/>
+      <c r="G820" s="5"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="G821" s="29"/>
+      <c r="G821" s="5"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="G822" s="29"/>
+      <c r="G822" s="5"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="G823" s="29"/>
+      <c r="G823" s="5"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="G824" s="29"/>
+      <c r="G824" s="5"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="G825" s="29"/>
+      <c r="G825" s="5"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="G826" s="29"/>
+      <c r="G826" s="5"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="G827" s="29"/>
+      <c r="G827" s="5"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="G828" s="29"/>
+      <c r="G828" s="5"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="G829" s="29"/>
+      <c r="G829" s="5"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="G830" s="29"/>
+      <c r="G830" s="5"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="G831" s="29"/>
+      <c r="G831" s="5"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="G832" s="29"/>
+      <c r="G832" s="5"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="G833" s="29"/>
+      <c r="G833" s="5"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="G834" s="29"/>
+      <c r="G834" s="5"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="G835" s="29"/>
+      <c r="G835" s="5"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="G836" s="29"/>
+      <c r="G836" s="5"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="G837" s="29"/>
+      <c r="G837" s="5"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="G838" s="29"/>
+      <c r="G838" s="5"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="G839" s="29"/>
+      <c r="G839" s="5"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="G840" s="29"/>
+      <c r="G840" s="5"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="G841" s="29"/>
+      <c r="G841" s="5"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="G842" s="29"/>
+      <c r="G842" s="5"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="G843" s="29"/>
+      <c r="G843" s="5"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="G844" s="29"/>
+      <c r="G844" s="5"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="G845" s="29"/>
+      <c r="G845" s="5"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="G846" s="29"/>
+      <c r="G846" s="5"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="G847" s="29"/>
+      <c r="G847" s="5"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="G848" s="29"/>
+      <c r="G848" s="5"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="G849" s="29"/>
+      <c r="G849" s="5"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="G850" s="29"/>
+      <c r="G850" s="5"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="G851" s="29"/>
+      <c r="G851" s="5"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="G852" s="29"/>
+      <c r="G852" s="5"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="G853" s="29"/>
+      <c r="G853" s="5"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="G854" s="29"/>
+      <c r="G854" s="5"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="G855" s="29"/>
+      <c r="G855" s="5"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="G856" s="29"/>
+      <c r="G856" s="5"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="G857" s="29"/>
+      <c r="G857" s="5"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="G858" s="29"/>
+      <c r="G858" s="5"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="G859" s="29"/>
+      <c r="G859" s="5"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="G860" s="29"/>
+      <c r="G860" s="5"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="G861" s="29"/>
+      <c r="G861" s="5"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="G862" s="29"/>
+      <c r="G862" s="5"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="G863" s="29"/>
+      <c r="G863" s="5"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="G864" s="29"/>
+      <c r="G864" s="5"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="G865" s="29"/>
+      <c r="G865" s="5"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="G866" s="29"/>
+      <c r="G866" s="5"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="G867" s="29"/>
+      <c r="G867" s="5"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="G868" s="29"/>
+      <c r="G868" s="5"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="G869" s="29"/>
+      <c r="G869" s="5"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="G870" s="29"/>
+      <c r="G870" s="5"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="G871" s="29"/>
+      <c r="G871" s="5"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="G872" s="29"/>
+      <c r="G872" s="5"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="G873" s="29"/>
+      <c r="G873" s="5"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="G874" s="29"/>
+      <c r="G874" s="5"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="G875" s="29"/>
+      <c r="G875" s="5"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="G876" s="29"/>
+      <c r="G876" s="5"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="G877" s="29"/>
+      <c r="G877" s="5"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="G878" s="29"/>
+      <c r="G878" s="5"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="G879" s="29"/>
+      <c r="G879" s="5"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="G880" s="29"/>
+      <c r="G880" s="5"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="G881" s="29"/>
+      <c r="G881" s="5"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="G882" s="29"/>
+      <c r="G882" s="5"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="G883" s="29"/>
+      <c r="G883" s="5"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="G884" s="29"/>
+      <c r="G884" s="5"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="G885" s="29"/>
+      <c r="G885" s="5"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="G886" s="29"/>
+      <c r="G886" s="5"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="G887" s="29"/>
+      <c r="G887" s="5"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="G888" s="29"/>
+      <c r="G888" s="5"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="G889" s="29"/>
+      <c r="G889" s="5"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="G890" s="29"/>
+      <c r="G890" s="5"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="G891" s="29"/>
+      <c r="G891" s="5"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="G892" s="29"/>
+      <c r="G892" s="5"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="G893" s="29"/>
+      <c r="G893" s="5"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="G894" s="29"/>
+      <c r="G894" s="5"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="G895" s="29"/>
+      <c r="G895" s="5"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="G896" s="29"/>
+      <c r="G896" s="5"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="G897" s="29"/>
+      <c r="G897" s="5"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="G898" s="29"/>
+      <c r="G898" s="5"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="G899" s="29"/>
+      <c r="G899" s="5"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="G900" s="29"/>
+      <c r="G900" s="5"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="G901" s="29"/>
+      <c r="G901" s="5"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="G902" s="29"/>
+      <c r="G902" s="5"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="G903" s="29"/>
+      <c r="G903" s="5"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="G904" s="29"/>
+      <c r="G904" s="5"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="G905" s="29"/>
+      <c r="G905" s="5"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="G906" s="29"/>
+      <c r="G906" s="5"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="G907" s="29"/>
+      <c r="G907" s="5"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="G908" s="29"/>
+      <c r="G908" s="5"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="G909" s="29"/>
+      <c r="G909" s="5"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="G910" s="29"/>
+      <c r="G910" s="5"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="G911" s="29"/>
+      <c r="G911" s="5"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="G912" s="29"/>
+      <c r="G912" s="5"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="G913" s="29"/>
+      <c r="G913" s="5"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="G914" s="29"/>
+      <c r="G914" s="5"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="G915" s="29"/>
+      <c r="G915" s="5"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="G916" s="29"/>
+      <c r="G916" s="5"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="G917" s="29"/>
+      <c r="G917" s="5"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="G918" s="29"/>
+      <c r="G918" s="5"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="G919" s="29"/>
+      <c r="G919" s="5"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="G920" s="29"/>
+      <c r="G920" s="5"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="G921" s="29"/>
+      <c r="G921" s="5"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="G922" s="29"/>
+      <c r="G922" s="5"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="G923" s="29"/>
+      <c r="G923" s="5"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="G924" s="29"/>
+      <c r="G924" s="5"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="G925" s="29"/>
+      <c r="G925" s="5"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="G926" s="29"/>
+      <c r="G926" s="5"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="G927" s="29"/>
+      <c r="G927" s="5"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="G928" s="29"/>
+      <c r="G928" s="5"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="G929" s="29"/>
+      <c r="G929" s="5"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="G930" s="29"/>
+      <c r="G930" s="5"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="G931" s="29"/>
+      <c r="G931" s="5"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="G932" s="29"/>
+      <c r="G932" s="5"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="G933" s="29"/>
+      <c r="G933" s="5"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="G934" s="29"/>
+      <c r="G934" s="5"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="G935" s="29"/>
+      <c r="G935" s="5"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="G936" s="29"/>
+      <c r="G936" s="5"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="G937" s="29"/>
+      <c r="G937" s="5"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="G938" s="29"/>
+      <c r="G938" s="5"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="G939" s="29"/>
+      <c r="G939" s="5"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="G940" s="29"/>
+      <c r="G940" s="5"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="G941" s="29"/>
+      <c r="G941" s="5"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="G942" s="29"/>
+      <c r="G942" s="5"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="G943" s="29"/>
+      <c r="G943" s="5"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="G944" s="29"/>
+      <c r="G944" s="5"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="G945" s="29"/>
+      <c r="G945" s="5"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="G946" s="29"/>
+      <c r="G946" s="5"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="G947" s="29"/>
+      <c r="G947" s="5"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="G948" s="29"/>
+      <c r="G948" s="5"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="G949" s="29"/>
+      <c r="G949" s="5"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="G950" s="29"/>
+      <c r="G950" s="5"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="G951" s="29"/>
+      <c r="G951" s="5"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="G952" s="29"/>
+      <c r="G952" s="5"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="G953" s="29"/>
+      <c r="G953" s="5"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="G954" s="29"/>
+      <c r="G954" s="5"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="G955" s="29"/>
+      <c r="G955" s="5"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="G956" s="29"/>
+      <c r="G956" s="5"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="G957" s="29"/>
+      <c r="G957" s="5"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="G958" s="29"/>
+      <c r="G958" s="5"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="G959" s="29"/>
+      <c r="G959" s="5"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="G960" s="29"/>
+      <c r="G960" s="5"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="G961" s="29"/>
+      <c r="G961" s="5"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="G962" s="29"/>
+      <c r="G962" s="5"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="G963" s="29"/>
+      <c r="G963" s="5"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="G964" s="29"/>
+      <c r="G964" s="5"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="G965" s="29"/>
+      <c r="G965" s="5"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="G966" s="29"/>
+      <c r="G966" s="5"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="G967" s="29"/>
+      <c r="G967" s="5"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="G968" s="29"/>
+      <c r="G968" s="5"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="G969" s="29"/>
+      <c r="G969" s="5"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="G970" s="29"/>
-    </row>
-    <row r="971" ht="15.75" customHeight="1">
-      <c r="G971" s="29"/>
-    </row>
-    <row r="972" ht="15.75" customHeight="1">
-      <c r="G972" s="29"/>
-    </row>
-    <row r="973" ht="15.75" customHeight="1">
-      <c r="G973" s="29"/>
-    </row>
-    <row r="974" ht="15.75" customHeight="1">
-      <c r="G974" s="29"/>
-    </row>
-    <row r="975" ht="15.75" customHeight="1">
-      <c r="G975" s="29"/>
-    </row>
-    <row r="976" ht="15.75" customHeight="1">
-      <c r="G976" s="29"/>
-    </row>
-    <row r="977" ht="15.75" customHeight="1">
-      <c r="G977" s="29"/>
-    </row>
-    <row r="978" ht="15.75" customHeight="1">
-      <c r="G978" s="29"/>
-    </row>
-    <row r="979" ht="15.75" customHeight="1">
-      <c r="G979" s="29"/>
-    </row>
-    <row r="980" ht="15.75" customHeight="1">
-      <c r="G980" s="29"/>
-    </row>
-    <row r="981" ht="15.75" customHeight="1">
-      <c r="G981" s="29"/>
-    </row>
-    <row r="982" ht="15.75" customHeight="1">
-      <c r="G982" s="29"/>
-    </row>
-    <row r="983" ht="15.75" customHeight="1">
-      <c r="G983" s="29"/>
-    </row>
-    <row r="984" ht="15.75" customHeight="1">
-      <c r="G984" s="29"/>
-    </row>
-    <row r="985" ht="15.75" customHeight="1">
-      <c r="G985" s="29"/>
-    </row>
-    <row r="986" ht="15.75" customHeight="1">
-      <c r="G986" s="29"/>
-    </row>
-    <row r="987" ht="15.75" customHeight="1">
-      <c r="G987" s="29"/>
-    </row>
-    <row r="988" ht="15.75" customHeight="1">
-      <c r="G988" s="29"/>
-    </row>
-    <row r="989" ht="15.75" customHeight="1">
-      <c r="G989" s="29"/>
-    </row>
-    <row r="990" ht="15.75" customHeight="1">
-      <c r="G990" s="29"/>
-    </row>
-    <row r="991" ht="15.75" customHeight="1">
-      <c r="G991" s="29"/>
-    </row>
-    <row r="992" ht="15.75" customHeight="1">
-      <c r="G992" s="29"/>
-    </row>
-    <row r="993" ht="15.75" customHeight="1">
-      <c r="G993" s="29"/>
-    </row>
-    <row r="994" ht="15.75" customHeight="1">
-      <c r="G994" s="29"/>
-    </row>
-    <row r="995" ht="15.75" customHeight="1">
-      <c r="G995" s="29"/>
-    </row>
-    <row r="996" ht="15.75" customHeight="1">
-      <c r="G996" s="29"/>
-    </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="G997" s="29"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="G998" s="29"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="G999" s="29"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="G1000" s="29"/>
+      <c r="G970" s="5"/>
     </row>
   </sheetData>
   <printOptions/>

--- a/documentation/Record Of Tasks.xlsx
+++ b/documentation/Record Of Tasks.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="1vXhrGiLwM1jX7tYdRi1B1LqR1+A818fX26WZp1Su9k="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="RVwEeOQSB5fKmoCyScIGp+h8/eELNMaHyveNNYHJtvM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="202">
   <si>
     <t>Waterfall Methodology</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Planned Outcome</t>
   </si>
   <si>
-    <t>Duration</t>
+    <t>Estimated Duration</t>
   </si>
   <si>
     <t>Completion Date</t>
@@ -63,7 +63,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>,</t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -72,40 +72,132 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
+      <t>scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> idea</t>
+    </r>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>01/15/2025</t>
+  </si>
+  <si>
+    <t>Criterion A: Planning</t>
+  </si>
+  <si>
+    <t>Interview to Discuss project goals and requirements with my uncle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> notes,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> functional solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> notes,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>scenario notes</t>
+    </r>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>Draft explaining the scenario</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> draft,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> functional solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> draft,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
       <t xml:space="preserve"> scenario</t>
     </r>
     <r>
       <rPr>
         <rFont val="Segoe UI"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> (detailed above)</t>
-    </r>
-  </si>
-  <si>
-    <t>1 week</t>
-  </si>
-  <si>
-    <t>01/15/2025</t>
-  </si>
-  <si>
-    <t>Criterion A: Planning</t>
-  </si>
-  <si>
-    <t>Interview to Discuss project goals and requirements with my uncle</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> success criteria notes, functional solution notes,scenario notes</t>
-  </si>
-  <si>
-    <t>2 hours</t>
-  </si>
-  <si>
-    <t>Draft explaining the scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> success criteria draft, functional solution draft, scenario draft</t>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> draft</t>
+    </r>
   </si>
   <si>
     <t>5 hours</t>
@@ -114,7 +206,57 @@
     <t>Meeting with my uncle to Review of the draft for scenario and criteria</t>
   </si>
   <si>
-    <t xml:space="preserve"> success criteria revised, functional solution revised, scenario revised</t>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> revised,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> functional solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> revised, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> revised</t>
+    </r>
   </si>
   <si>
     <t>30 mn</t>
@@ -123,7 +265,57 @@
     <t>success criteria and scenario refinment</t>
   </si>
   <si>
-    <t xml:space="preserve"> success criteria proposal, functional solution proposal, scenario proposal</t>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> proposal,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> functional solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> proposal, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> proposal</t>
+    </r>
   </si>
   <si>
     <t>01/14/2025</t>
@@ -132,10 +324,296 @@
     <t>Meeting with my uncle to validate of the  scenario and criteria</t>
   </si>
   <si>
-    <t xml:space="preserve"> success criteria draft validated ,functional solution draft validated, scenario draft validated</t>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> draft validated </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,functional solutio</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">n draft validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>scenario draft</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated</t>
+    </r>
   </si>
   <si>
     <t>Research on previous solution</t>
+  </si>
+  <si>
+    <t>architecture and technology stack, solution (detailed above)</t>
+  </si>
+  <si>
+    <t>2 weeks</t>
+  </si>
+  <si>
+    <t>01/26/2025</t>
+  </si>
+  <si>
+    <t>Criterion A: Planning; Criterion B: Solution Overview</t>
+  </si>
+  <si>
+    <t>parallel with 5</t>
+  </si>
+  <si>
+    <t>Research on internet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">architecture and technology stack </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="0"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>draft</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, solution </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="0"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>draft</t>
+    </r>
+  </si>
+  <si>
+    <t>01/17/2025</t>
+  </si>
+  <si>
+    <t>Revision with the CTO of my uncle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">advices correction on </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>architecture and technology stack</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> draft, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> draft</t>
+    </r>
+  </si>
+  <si>
+    <t>01/22/2025</t>
+  </si>
+  <si>
+    <t>Correction on technology (use JAVA instead of Mobile app for now)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>architecture and technology</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> stack proposal, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> proposal, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> update</t>
+    </r>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t>01/25/2025</t>
+  </si>
+  <si>
+    <t>Meeting with my uncle and my uncle CTO to validate the solution</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>architecture and technology stack</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> revised</t>
+    </r>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirement Gathering </t>
+  </si>
+  <si>
+    <t>Gather detailed requirements and expectations</t>
   </si>
   <si>
     <r>
@@ -145,7 +623,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">architecture and technology stack, solution </t>
+      <t>Requirement Use Cases, Requirement List, System flow chart/Data flow diagram</t>
     </r>
     <r>
       <rPr>
@@ -154,43 +632,151 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>(detailed above)</t>
-    </r>
-  </si>
-  <si>
-    <t>2 weeks</t>
-  </si>
-  <si>
-    <t>01/29/2025</t>
-  </si>
-  <si>
-    <t>Criterion A: Planning; Criterion B: Solution Overview</t>
-  </si>
-  <si>
-    <t>parallel with 5</t>
-  </si>
-  <si>
-    <t>Research on internet</t>
+      <t xml:space="preserve"> (detailed above)</t>
+    </r>
+  </si>
+  <si>
+    <t>parallel with 6</t>
+  </si>
+  <si>
+    <t>Brainstorming with my uncle to discuss requirements and constraint for players interactions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>DFD</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> and constraints, scope of interaction, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>use case</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour </t>
+  </si>
+  <si>
+    <t>Criterion B: Solution Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brainstorming with my uncle to discussiscuss on Data that must be stored for functional or business needs, review of data privacy needs </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>DFD</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Domain Model</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> ideation. Data we want to keep in DB are defined, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Data privacy </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>taken in account in</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> requirement list</t>
+    </r>
+  </si>
+  <si>
+    <t>Requirement Gathering</t>
+  </si>
+  <si>
+    <t>Brainstorming with my uncle to discussiscussion over game limitation, scoring, and selection, use cases in brainstorming with uncle and its CTO</t>
   </si>
   <si>
     <r>
       <rPr>
         <rFont val="Quattrocento Sans"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Discussion over game limitation, scoring, and selection,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
         <b/>
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">architecture and technology stack </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b val="0"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>draft</t>
-    </r>
+      <t xml:space="preserve"> use cases</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> and  requirement list</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with my uncle and its CTO to check Requirement against Success Criteria and solution for MVP Scope </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Segoe UI"/>
@@ -198,105 +784,79 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">, solution </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b val="0"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>draft</t>
-    </r>
-  </si>
-  <si>
-    <t>01/17/2025</t>
-  </si>
-  <si>
-    <t>Revision with the CTO of my uncle</t>
-  </si>
-  <si>
-    <t>advices correction on architecture and technology stack draft, solution draft</t>
-  </si>
-  <si>
-    <t>01/22/2025</t>
-  </si>
-  <si>
-    <t>Correction on technology (use JAVA instead of Mobile app for now)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Aptos Narrow"/>
+      <t>success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
         <b/>
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t>architecture and technology stack</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Aptos Narrow"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> proposal, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Aptos Narrow"/>
+      <t>requirement list</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
         <b/>
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
+      <t>use cases</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
       <t>solution</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Aptos Narrow"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> proposal</t>
-    </r>
-  </si>
-  <si>
-    <t>01/24/2025</t>
-  </si>
-  <si>
-    <t>Meeting with my uncle and my uncle CTO to validate the solution</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">  validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
         <b/>
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t>architecture and technology stack</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Aptos Narrow"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> validated, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Aptos Narrow"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>solution</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Aptos Narrow"/>
+      <t>UML Domain Model</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
@@ -304,264 +864,7 @@
     </r>
   </si>
   <si>
-    <t>01/26/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirement Gathering </t>
-  </si>
-  <si>
-    <t>Gather detailed requirements and expectations</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Quattrocento Sans"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Requirement Use Cases, Requirement List, System flow chart/Data flow diagram</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> (detailed above)</t>
-    </r>
-  </si>
-  <si>
-    <t>parallel with 6</t>
-  </si>
-  <si>
-    <t>Brainstorming with my uncle to discuss requirements and constraint for players interactions</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>DFD</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> and constraints, scope of interaction, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>use case</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1 hour </t>
-  </si>
-  <si>
-    <t>Criterion B: Solution Overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brainstorming with my uncle to discussiscuss on Data that must be stored for functional or business needs, review of data privacy needs </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>DFD</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Domain Model</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> ideation. Data we want to keep in DB are defined, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">Data privacy </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>taken in account in</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> requirement list</t>
-    </r>
-  </si>
-  <si>
-    <t>Requirement Gathering</t>
-  </si>
-  <si>
-    <t>Brainstorming with my uncle to discussiscussion over game limitation, scoring, and selection, use cases in brainstorming with uncle and its CTO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Quattrocento Sans"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Discussion over game limitation, scoring, and selection,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> use cases</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> and  requirement list</t>
-    </r>
-  </si>
-  <si>
-    <t>1 hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting with my uncle and its CTO to check Requirement against Success Criteria and solution for MVP Scope </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>success criteria</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> validated, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>requirement list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> validated, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>use cases</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> validated, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>solution</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">  validated, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>UML Domain Model</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> validated</t>
-    </r>
+    <t>we are late</t>
   </si>
   <si>
     <t>Test plan</t>
@@ -962,6 +1265,171 @@
   </si>
   <si>
     <t>6 weeks</t>
+  </si>
+  <si>
+    <t>we initially decided to implement the database as first development, but the CTO of my uncle advises to start with the application model and views to obtain a rapid visual prototype (using a database mockup) to my uncle, to detect early errors or requirement misses.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color rgb="FFC00000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">plan of task </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color rgb="FFC00000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">actualized, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color rgb="FFC00000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>gantt</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color rgb="FFC00000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> actualized
+</t>
+    </r>
+  </si>
+  <si>
+    <t>03/27/2025</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Development</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Implement domain model in Java</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>UML Class Model</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> actualized.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> Model Domain objects implemented </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>in JAVA and functional</t>
+    </r>
+  </si>
+  <si>
+    <t>Implement a database Mockup</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>mockup</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> that will acts as a database access  is implemented in JAVA to simulate database access in JAVA</t>
+    </r>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Implement the database</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Physical Database Entity Relation Model, DBMS installed, database scheme deployed</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integration Logic, Database and View</t>
+  </si>
+  <si>
+    <t>Functional platform Criterio C document</t>
   </si>
   <si>
     <t>Testing Phase</t>
@@ -1451,11 +1919,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1507,19 +1974,30 @@
       <name val="Quattrocento Sans"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF156082"/>
-      <name val="&quot;Quattrocento Sans&quot;"/>
-    </font>
-    <font>
       <b/>
       <sz val="12.0"/>
       <color rgb="FF156082"/>
       <name val="Aptos"/>
     </font>
     <font>
+      <b/>
       <sz val="11.0"/>
-      <color rgb="FF0B5394"/>
+      <color rgb="FFC00000"/>
+      <name val="Quattrocento Sans"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFC00000"/>
+      <name val="Quattrocento Sans"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF156082"/>
       <name val="Quattrocento Sans"/>
     </font>
     <font>
@@ -1549,99 +2027,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFAE2D5"/>
+        <bgColor rgb="FFFAE2D5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="10">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF356854"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF284E3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF356854"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF356854"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF284E3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF356854"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF284E3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
     <border>
       <left/>
       <right/>
       <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -1657,93 +2053,9 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
     </border>
     <border>
       <left/>
@@ -1751,9 +2063,21 @@
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
-      </bottom>
+      </top>
+      <bottom/>
     </border>
     <border>
       <left/>
@@ -1766,157 +2090,9 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF2F2F2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF2F2F2"/>
-      </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <top style="thick">
@@ -1926,17 +2102,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1953,248 +2123,214 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="4" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="4" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2204,72 +2340,12 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF356854"/>
-          <bgColor rgb="FF356854"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Hoja1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:G36" displayName="Tabla_1" name="Tabla_1" id="1">
-  <tableColumns count="7">
-    <tableColumn name="Task" id="1"/>
-    <tableColumn name="Planned Action" id="2"/>
-    <tableColumn name="Planned Outcome" id="3"/>
-    <tableColumn name="Duration" id="4"/>
-    <tableColumn name="Completion Date" id="5"/>
-    <tableColumn name="Criterion" id="6"/>
-    <tableColumn name="note" id="7"/>
-  </tableColumns>
-  <tableStyleInfo name="Hoja1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2478,10 +2554,10 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="17.38"/>
     <col customWidth="1" min="2" max="2" width="45.63"/>
-    <col customWidth="1" min="3" max="3" width="37.63"/>
-    <col customWidth="1" min="4" max="4" width="19.63"/>
+    <col customWidth="1" min="3" max="3" width="86.63"/>
+    <col customWidth="1" min="4" max="4" width="23.38"/>
     <col customWidth="1" min="5" max="5" width="22.13"/>
-    <col customWidth="1" min="6" max="6" width="10.63"/>
+    <col customWidth="1" min="6" max="6" width="48.63"/>
     <col customWidth="1" min="7" max="7" width="16.38"/>
     <col customWidth="1" min="8" max="26" width="10.63"/>
   </cols>
@@ -2519,42 +2595,42 @@
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="11"/>
@@ -2594,2263 +2670,2452 @@
       <c r="E5" s="15">
         <v>45839.0</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="15">
         <v>45931.0</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="15">
         <v>45992.0</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-    </row>
-    <row r="9" ht="43.5" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+    </row>
+    <row r="9" ht="40.5" customHeight="1">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
     </row>
     <row r="10" ht="49.5" customHeight="1">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="33" t="s">
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+    </row>
+    <row r="11" ht="34.5" customHeight="1">
+      <c r="A11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="35" t="s">
+      <c r="D11" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
     </row>
     <row r="12">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39" t="s">
+      <c r="D12" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
     </row>
     <row r="13">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="35" t="s">
+      <c r="D13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="E13" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="41" t="s">
+      <c r="G13" s="38"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+    </row>
+    <row r="14" ht="34.5" customHeight="1">
+      <c r="A14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="42" t="s">
+      <c r="B14" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="D14" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
     </row>
     <row r="15">
-      <c r="A15" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="C15" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="29" t="s">
+      <c r="E15" s="9">
+        <v>45840.0</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
+      <c r="G15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="46" t="s">
+      <c r="A16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="C16" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="47">
+      <c r="D16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="40">
         <v>45659.0</v>
       </c>
-      <c r="F16" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
+      <c r="F16" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="43">
+        <v>45690.0</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="E18" s="43">
+        <v>45749.0</v>
+      </c>
+      <c r="F18" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="50">
-        <v>45690.0</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="53">
-        <v>45749.0</v>
-      </c>
-      <c r="F18" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="54">
+      <c r="D19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="15">
         <v>45840.0</v>
       </c>
-      <c r="F19" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
+      <c r="F19" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
     </row>
     <row r="20">
-      <c r="A20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="C20" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
+      <c r="E20" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="B21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="50">
+      <c r="C21" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="43">
         <v>45902.0</v>
       </c>
-      <c r="F21" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
+      <c r="F21" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="59" t="s">
+      <c r="A22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="C22" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="53">
+      <c r="D22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="43">
         <v>45932.0</v>
       </c>
-      <c r="F22" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
+      <c r="F22" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="B23" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="50">
+      <c r="E23" s="43">
         <v>45993.0</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
+      <c r="E24" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="29" t="s">
+      <c r="A25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="C25" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="65"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
+      <c r="E25" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="68" t="s">
+      <c r="A26" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="C26" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="D26" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="70"/>
+      <c r="E26" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="71" t="s">
+      <c r="C27" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
+      <c r="D27" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="46" t="s">
+      <c r="A28" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="C28" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="D28" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
+      <c r="E28" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="D29" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
+      <c r="E29" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="73" t="s">
+      <c r="A30" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="C30" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
+      <c r="E30" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="C31" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
+      <c r="E31" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="43" t="s">
+      <c r="A32" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="B32" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="74">
-        <v>45780.0</v>
-      </c>
-      <c r="F32" s="43" t="s">
+      <c r="C32" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="75"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="76"/>
-      <c r="U32" s="76"/>
-      <c r="V32" s="76"/>
-      <c r="W32" s="76"/>
-      <c r="X32" s="76"/>
-      <c r="Y32" s="76"/>
-      <c r="Z32" s="76"/>
+      <c r="D32" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="53">
+        <v>45660.0</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="55"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+    </row>
+    <row r="34" ht="79.5" customHeight="1">
+      <c r="A34" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="61"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="43">
+        <v>45811.0</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="64"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="42"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="B36" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="43">
+        <v>45841.0</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="64"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="66"/>
+      <c r="F37" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="68"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="69"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="69"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="69"/>
+      <c r="X37" s="69"/>
+      <c r="Y37" s="69"/>
+      <c r="Z37" s="69"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="70"/>
+      <c r="F38" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="71"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="72"/>
+      <c r="Y38" s="72"/>
+      <c r="Z38" s="72"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="70"/>
+      <c r="F39" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="71"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="72"/>
+      <c r="X39" s="72"/>
+      <c r="Y39" s="72"/>
+      <c r="Z39" s="72"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="70"/>
+      <c r="F40" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="71"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="72"/>
+      <c r="Y40" s="72"/>
+      <c r="Z40" s="72"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="73"/>
+      <c r="F41" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="74"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="75"/>
+      <c r="V41" s="75"/>
+      <c r="W41" s="75"/>
+      <c r="X41" s="75"/>
+      <c r="Y41" s="75"/>
+      <c r="Z41" s="75"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="76"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="4"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="4"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="45"/>
+      <c r="F48" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="79"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="80"/>
+      <c r="N48" s="80"/>
+      <c r="O48" s="80"/>
+      <c r="P48" s="80"/>
+      <c r="Q48" s="80"/>
+      <c r="R48" s="80"/>
+      <c r="S48" s="80"/>
+      <c r="T48" s="80"/>
+      <c r="U48" s="80"/>
+      <c r="V48" s="80"/>
+      <c r="W48" s="80"/>
+      <c r="X48" s="80"/>
+      <c r="Y48" s="80"/>
+      <c r="Z48" s="80"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="45"/>
+      <c r="F49" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="79"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="80"/>
+      <c r="S49" s="80"/>
+      <c r="T49" s="80"/>
+      <c r="U49" s="80"/>
+      <c r="V49" s="80"/>
+      <c r="W49" s="80"/>
+      <c r="X49" s="80"/>
+      <c r="Y49" s="80"/>
+      <c r="Z49" s="80"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="45"/>
+      <c r="F50" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50" s="79"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
+      <c r="Q50" s="80"/>
+      <c r="R50" s="80"/>
+      <c r="S50" s="80"/>
+      <c r="T50" s="80"/>
+      <c r="U50" s="80"/>
+      <c r="V50" s="80"/>
+      <c r="W50" s="80"/>
+      <c r="X50" s="80"/>
+      <c r="Y50" s="80"/>
+      <c r="Z50" s="80"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="45"/>
+      <c r="F51" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="79"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="80"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="80"/>
+      <c r="P51" s="80"/>
+      <c r="Q51" s="80"/>
+      <c r="R51" s="80"/>
+      <c r="S51" s="80"/>
+      <c r="T51" s="80"/>
+      <c r="U51" s="80"/>
+      <c r="V51" s="80"/>
+      <c r="W51" s="80"/>
+      <c r="X51" s="80"/>
+      <c r="Y51" s="80"/>
+      <c r="Z51" s="80"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="45"/>
+      <c r="F52" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" s="79"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="80"/>
+      <c r="N52" s="80"/>
+      <c r="O52" s="80"/>
+      <c r="P52" s="80"/>
+      <c r="Q52" s="80"/>
+      <c r="R52" s="80"/>
+      <c r="S52" s="80"/>
+      <c r="T52" s="80"/>
+      <c r="U52" s="80"/>
+      <c r="V52" s="80"/>
+      <c r="W52" s="80"/>
+      <c r="X52" s="80"/>
+      <c r="Y52" s="80"/>
+      <c r="Z52" s="80"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="45"/>
+      <c r="F53" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" s="79"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="80"/>
+      <c r="N53" s="80"/>
+      <c r="O53" s="80"/>
+      <c r="P53" s="80"/>
+      <c r="Q53" s="80"/>
+      <c r="R53" s="80"/>
+      <c r="S53" s="80"/>
+      <c r="T53" s="80"/>
+      <c r="U53" s="80"/>
+      <c r="V53" s="80"/>
+      <c r="W53" s="80"/>
+      <c r="X53" s="80"/>
+      <c r="Y53" s="80"/>
+      <c r="Z53" s="80"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="45"/>
+      <c r="F54" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" s="79"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="80"/>
+      <c r="Q54" s="80"/>
+      <c r="R54" s="80"/>
+      <c r="S54" s="80"/>
+      <c r="T54" s="80"/>
+      <c r="U54" s="80"/>
+      <c r="V54" s="80"/>
+      <c r="W54" s="80"/>
+      <c r="X54" s="80"/>
+      <c r="Y54" s="80"/>
+      <c r="Z54" s="80"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="45"/>
+      <c r="F55" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="G55" s="79"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="80"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="80"/>
+      <c r="Q55" s="80"/>
+      <c r="R55" s="80"/>
+      <c r="S55" s="80"/>
+      <c r="T55" s="80"/>
+      <c r="U55" s="80"/>
+      <c r="V55" s="80"/>
+      <c r="W55" s="80"/>
+      <c r="X55" s="80"/>
+      <c r="Y55" s="80"/>
+      <c r="Z55" s="80"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="45"/>
+      <c r="F56" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G56" s="79"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="80"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="80"/>
+      <c r="M56" s="80"/>
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="80"/>
+      <c r="Q56" s="80"/>
+      <c r="R56" s="80"/>
+      <c r="S56" s="80"/>
+      <c r="T56" s="80"/>
+      <c r="U56" s="80"/>
+      <c r="V56" s="80"/>
+      <c r="W56" s="80"/>
+      <c r="X56" s="80"/>
+      <c r="Y56" s="80"/>
+      <c r="Z56" s="80"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="45"/>
+      <c r="F57" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="G57" s="79"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80"/>
+      <c r="M57" s="80"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="80"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="80"/>
+      <c r="S57" s="80"/>
+      <c r="T57" s="80"/>
+      <c r="U57" s="80"/>
+      <c r="V57" s="80"/>
+      <c r="W57" s="80"/>
+      <c r="X57" s="80"/>
+      <c r="Y57" s="80"/>
+      <c r="Z57" s="80"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="45"/>
+      <c r="F58" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="G58" s="79"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="80"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="80"/>
+      <c r="P58" s="80"/>
+      <c r="Q58" s="80"/>
+      <c r="R58" s="80"/>
+      <c r="S58" s="80"/>
+      <c r="T58" s="80"/>
+      <c r="U58" s="80"/>
+      <c r="V58" s="80"/>
+      <c r="W58" s="80"/>
+      <c r="X58" s="80"/>
+      <c r="Y58" s="80"/>
+      <c r="Z58" s="80"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="45"/>
+      <c r="F59" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="G59" s="79"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="80"/>
+      <c r="M59" s="80"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="80"/>
+      <c r="Q59" s="80"/>
+      <c r="R59" s="80"/>
+      <c r="S59" s="80"/>
+      <c r="T59" s="80"/>
+      <c r="U59" s="80"/>
+      <c r="V59" s="80"/>
+      <c r="W59" s="80"/>
+      <c r="X59" s="80"/>
+      <c r="Y59" s="80"/>
+      <c r="Z59" s="80"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="4"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="4"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="45"/>
+      <c r="F64" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="79"/>
+      <c r="H64" s="80"/>
+      <c r="I64" s="80"/>
+      <c r="J64" s="80"/>
+      <c r="K64" s="80"/>
+      <c r="L64" s="80"/>
+      <c r="M64" s="80"/>
+      <c r="N64" s="80"/>
+      <c r="O64" s="80"/>
+      <c r="P64" s="80"/>
+      <c r="Q64" s="80"/>
+      <c r="R64" s="80"/>
+      <c r="S64" s="80"/>
+      <c r="T64" s="80"/>
+      <c r="U64" s="80"/>
+      <c r="V64" s="80"/>
+      <c r="W64" s="80"/>
+      <c r="X64" s="80"/>
+      <c r="Y64" s="80"/>
+      <c r="Z64" s="80"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="45"/>
+      <c r="F65" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="H65" s="80"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="80"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="80"/>
+      <c r="P65" s="80"/>
+      <c r="Q65" s="80"/>
+      <c r="R65" s="80"/>
+      <c r="S65" s="80"/>
+      <c r="T65" s="80"/>
+      <c r="U65" s="80"/>
+      <c r="V65" s="80"/>
+      <c r="W65" s="80"/>
+      <c r="X65" s="80"/>
+      <c r="Y65" s="80"/>
+      <c r="Z65" s="80"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" s="45"/>
+      <c r="F66" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="G66" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="H66" s="80"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="80"/>
+      <c r="M66" s="80"/>
+      <c r="N66" s="80"/>
+      <c r="O66" s="80"/>
+      <c r="P66" s="80"/>
+      <c r="Q66" s="80"/>
+      <c r="R66" s="80"/>
+      <c r="S66" s="80"/>
+      <c r="T66" s="80"/>
+      <c r="U66" s="80"/>
+      <c r="V66" s="80"/>
+      <c r="W66" s="80"/>
+      <c r="X66" s="80"/>
+      <c r="Y66" s="80"/>
+      <c r="Z66" s="80"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="83"/>
+      <c r="F67" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G67" s="79"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="80"/>
+      <c r="J67" s="80"/>
+      <c r="K67" s="80"/>
+      <c r="L67" s="80"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="80"/>
+      <c r="O67" s="80"/>
+      <c r="P67" s="80"/>
+      <c r="Q67" s="80"/>
+      <c r="R67" s="80"/>
+      <c r="S67" s="80"/>
+      <c r="T67" s="80"/>
+      <c r="U67" s="80"/>
+      <c r="V67" s="80"/>
+      <c r="W67" s="80"/>
+      <c r="X67" s="80"/>
+      <c r="Y67" s="80"/>
+      <c r="Z67" s="80"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="83"/>
+      <c r="F68" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G68" s="79"/>
+      <c r="H68" s="80"/>
+      <c r="I68" s="80"/>
+      <c r="J68" s="80"/>
+      <c r="K68" s="80"/>
+      <c r="L68" s="80"/>
+      <c r="M68" s="80"/>
+      <c r="N68" s="80"/>
+      <c r="O68" s="80"/>
+      <c r="P68" s="80"/>
+      <c r="Q68" s="80"/>
+      <c r="R68" s="80"/>
+      <c r="S68" s="80"/>
+      <c r="T68" s="80"/>
+      <c r="U68" s="80"/>
+      <c r="V68" s="80"/>
+      <c r="W68" s="80"/>
+      <c r="X68" s="80"/>
+      <c r="Y68" s="80"/>
+      <c r="Z68" s="80"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="45"/>
+      <c r="F69" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G69" s="79"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="80"/>
+      <c r="K69" s="80"/>
+      <c r="L69" s="80"/>
+      <c r="M69" s="80"/>
+      <c r="N69" s="80"/>
+      <c r="O69" s="80"/>
+      <c r="P69" s="80"/>
+      <c r="Q69" s="80"/>
+      <c r="R69" s="80"/>
+      <c r="S69" s="80"/>
+      <c r="T69" s="80"/>
+      <c r="U69" s="80"/>
+      <c r="V69" s="80"/>
+      <c r="W69" s="80"/>
+      <c r="X69" s="80"/>
+      <c r="Y69" s="80"/>
+      <c r="Z69" s="80"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="83"/>
+      <c r="F70" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G70" s="79"/>
+      <c r="H70" s="80"/>
+      <c r="I70" s="80"/>
+      <c r="J70" s="80"/>
+      <c r="K70" s="80"/>
+      <c r="L70" s="80"/>
+      <c r="M70" s="80"/>
+      <c r="N70" s="80"/>
+      <c r="O70" s="80"/>
+      <c r="P70" s="80"/>
+      <c r="Q70" s="80"/>
+      <c r="R70" s="80"/>
+      <c r="S70" s="80"/>
+      <c r="T70" s="80"/>
+      <c r="U70" s="80"/>
+      <c r="V70" s="80"/>
+      <c r="W70" s="80"/>
+      <c r="X70" s="80"/>
+      <c r="Y70" s="80"/>
+      <c r="Z70" s="80"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="45"/>
+      <c r="F71" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G71" s="79"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="80"/>
+      <c r="J71" s="80"/>
+      <c r="K71" s="80"/>
+      <c r="L71" s="80"/>
+      <c r="M71" s="80"/>
+      <c r="N71" s="80"/>
+      <c r="O71" s="80"/>
+      <c r="P71" s="80"/>
+      <c r="Q71" s="80"/>
+      <c r="R71" s="80"/>
+      <c r="S71" s="80"/>
+      <c r="T71" s="80"/>
+      <c r="U71" s="80"/>
+      <c r="V71" s="80"/>
+      <c r="W71" s="80"/>
+      <c r="X71" s="80"/>
+      <c r="Y71" s="80"/>
+      <c r="Z71" s="80"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="B72" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="65"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="79"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="80"/>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="80"/>
-      <c r="U34" s="80"/>
-      <c r="V34" s="80"/>
-      <c r="W34" s="80"/>
-      <c r="X34" s="80"/>
-      <c r="Y34" s="80"/>
-      <c r="Z34" s="80"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="78"/>
-      <c r="F35" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G35" s="81"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="80"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="80"/>
-      <c r="X35" s="80"/>
-      <c r="Y35" s="80"/>
-      <c r="Z35" s="80"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="82"/>
-      <c r="F36" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" s="83"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="84"/>
-      <c r="S36" s="84"/>
-      <c r="T36" s="84"/>
-      <c r="U36" s="84"/>
-      <c r="V36" s="84"/>
-      <c r="W36" s="84"/>
-      <c r="X36" s="84"/>
-      <c r="Y36" s="84"/>
-      <c r="Z36" s="84"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="85"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="88" t="s">
+      <c r="C72" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="E72" s="45"/>
+      <c r="F72" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" s="79"/>
+      <c r="H72" s="80"/>
+      <c r="I72" s="80"/>
+      <c r="J72" s="80"/>
+      <c r="K72" s="80"/>
+      <c r="L72" s="80"/>
+      <c r="M72" s="80"/>
+      <c r="N72" s="80"/>
+      <c r="O72" s="80"/>
+      <c r="P72" s="80"/>
+      <c r="Q72" s="80"/>
+      <c r="R72" s="80"/>
+      <c r="S72" s="80"/>
+      <c r="T72" s="80"/>
+      <c r="U72" s="80"/>
+      <c r="V72" s="80"/>
+      <c r="W72" s="80"/>
+      <c r="X72" s="80"/>
+      <c r="Y72" s="80"/>
+      <c r="Z72" s="80"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="88" t="s">
+      <c r="B73" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="89"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="90"/>
-      <c r="N43" s="90"/>
-      <c r="O43" s="90"/>
-      <c r="P43" s="90"/>
-      <c r="Q43" s="90"/>
-      <c r="R43" s="90"/>
-      <c r="S43" s="90"/>
-      <c r="T43" s="90"/>
-      <c r="U43" s="90"/>
-      <c r="V43" s="90"/>
-      <c r="W43" s="90"/>
-      <c r="X43" s="90"/>
-      <c r="Y43" s="90"/>
-      <c r="Z43" s="90"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="88" t="s">
+      <c r="C73" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="45"/>
+      <c r="F73" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="91" t="s">
+      <c r="G73" s="79"/>
+      <c r="H73" s="80"/>
+      <c r="I73" s="80"/>
+      <c r="J73" s="80"/>
+      <c r="K73" s="80"/>
+      <c r="L73" s="80"/>
+      <c r="M73" s="80"/>
+      <c r="N73" s="80"/>
+      <c r="O73" s="80"/>
+      <c r="P73" s="80"/>
+      <c r="Q73" s="80"/>
+      <c r="R73" s="80"/>
+      <c r="S73" s="80"/>
+      <c r="T73" s="80"/>
+      <c r="U73" s="80"/>
+      <c r="V73" s="80"/>
+      <c r="W73" s="80"/>
+      <c r="X73" s="80"/>
+      <c r="Y73" s="80"/>
+      <c r="Z73" s="80"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88" t="s">
+      <c r="B74" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="G44" s="89"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="90"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="90"/>
-      <c r="U44" s="90"/>
-      <c r="V44" s="90"/>
-      <c r="W44" s="90"/>
-      <c r="X44" s="90"/>
-      <c r="Y44" s="90"/>
-      <c r="Z44" s="90"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="88" t="s">
+      <c r="C74" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74" s="83"/>
+      <c r="F74" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="88" t="s">
+      <c r="G74" s="79"/>
+      <c r="H74" s="80"/>
+      <c r="I74" s="80"/>
+      <c r="J74" s="80"/>
+      <c r="K74" s="80"/>
+      <c r="L74" s="80"/>
+      <c r="M74" s="80"/>
+      <c r="N74" s="80"/>
+      <c r="O74" s="80"/>
+      <c r="P74" s="80"/>
+      <c r="Q74" s="80"/>
+      <c r="R74" s="80"/>
+      <c r="S74" s="80"/>
+      <c r="T74" s="80"/>
+      <c r="U74" s="80"/>
+      <c r="V74" s="80"/>
+      <c r="W74" s="80"/>
+      <c r="X74" s="80"/>
+      <c r="Y74" s="80"/>
+      <c r="Z74" s="80"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88" t="s">
+      <c r="B75" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G45" s="89"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="90"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="90"/>
-      <c r="P45" s="90"/>
-      <c r="Q45" s="90"/>
-      <c r="R45" s="90"/>
-      <c r="S45" s="90"/>
-      <c r="T45" s="90"/>
-      <c r="U45" s="90"/>
-      <c r="V45" s="90"/>
-      <c r="W45" s="90"/>
-      <c r="X45" s="90"/>
-      <c r="Y45" s="90"/>
-      <c r="Z45" s="90"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="88" t="s">
+      <c r="C75" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" s="89"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="90"/>
-      <c r="O46" s="90"/>
-      <c r="P46" s="90"/>
-      <c r="Q46" s="90"/>
-      <c r="R46" s="90"/>
-      <c r="S46" s="90"/>
-      <c r="T46" s="90"/>
-      <c r="U46" s="90"/>
-      <c r="V46" s="90"/>
-      <c r="W46" s="90"/>
-      <c r="X46" s="90"/>
-      <c r="Y46" s="90"/>
-      <c r="Z46" s="90"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="G47" s="89"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="90"/>
-      <c r="N47" s="90"/>
-      <c r="O47" s="90"/>
-      <c r="P47" s="90"/>
-      <c r="Q47" s="90"/>
-      <c r="R47" s="90"/>
-      <c r="S47" s="90"/>
-      <c r="T47" s="90"/>
-      <c r="U47" s="90"/>
-      <c r="V47" s="90"/>
-      <c r="W47" s="90"/>
-      <c r="X47" s="90"/>
-      <c r="Y47" s="90"/>
-      <c r="Z47" s="90"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="B48" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88" t="s">
-        <v>132</v>
-      </c>
-      <c r="G48" s="89"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="90"/>
-      <c r="O48" s="90"/>
-      <c r="P48" s="90"/>
-      <c r="Q48" s="90"/>
-      <c r="R48" s="90"/>
-      <c r="S48" s="90"/>
-      <c r="T48" s="90"/>
-      <c r="U48" s="90"/>
-      <c r="V48" s="90"/>
-      <c r="W48" s="90"/>
-      <c r="X48" s="90"/>
-      <c r="Y48" s="90"/>
-      <c r="Z48" s="90"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="G49" s="89"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="90"/>
-      <c r="K49" s="90"/>
-      <c r="L49" s="90"/>
-      <c r="M49" s="90"/>
-      <c r="N49" s="90"/>
-      <c r="O49" s="90"/>
-      <c r="P49" s="90"/>
-      <c r="Q49" s="90"/>
-      <c r="R49" s="90"/>
-      <c r="S49" s="90"/>
-      <c r="T49" s="90"/>
-      <c r="U49" s="90"/>
-      <c r="V49" s="90"/>
-      <c r="W49" s="90"/>
-      <c r="X49" s="90"/>
-      <c r="Y49" s="90"/>
-      <c r="Z49" s="90"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88" t="s">
-        <v>132</v>
-      </c>
-      <c r="G50" s="89"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="90"/>
-      <c r="N50" s="90"/>
-      <c r="O50" s="90"/>
-      <c r="P50" s="90"/>
-      <c r="Q50" s="90"/>
-      <c r="R50" s="90"/>
-      <c r="S50" s="90"/>
-      <c r="T50" s="90"/>
-      <c r="U50" s="90"/>
-      <c r="V50" s="90"/>
-      <c r="W50" s="90"/>
-      <c r="X50" s="90"/>
-      <c r="Y50" s="90"/>
-      <c r="Z50" s="90"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="G51" s="89"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="90"/>
-      <c r="N51" s="90"/>
-      <c r="O51" s="90"/>
-      <c r="P51" s="90"/>
-      <c r="Q51" s="90"/>
-      <c r="R51" s="90"/>
-      <c r="S51" s="90"/>
-      <c r="T51" s="90"/>
-      <c r="U51" s="90"/>
-      <c r="V51" s="90"/>
-      <c r="W51" s="90"/>
-      <c r="X51" s="90"/>
-      <c r="Y51" s="90"/>
-      <c r="Z51" s="90"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="G52" s="89"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="90"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="90"/>
-      <c r="M52" s="90"/>
-      <c r="N52" s="90"/>
-      <c r="O52" s="90"/>
-      <c r="P52" s="90"/>
-      <c r="Q52" s="90"/>
-      <c r="R52" s="90"/>
-      <c r="S52" s="90"/>
-      <c r="T52" s="90"/>
-      <c r="U52" s="90"/>
-      <c r="V52" s="90"/>
-      <c r="W52" s="90"/>
-      <c r="X52" s="90"/>
-      <c r="Y52" s="90"/>
-      <c r="Z52" s="90"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="G53" s="89"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="90"/>
-      <c r="N53" s="90"/>
-      <c r="O53" s="90"/>
-      <c r="P53" s="90"/>
-      <c r="Q53" s="90"/>
-      <c r="R53" s="90"/>
-      <c r="S53" s="90"/>
-      <c r="T53" s="90"/>
-      <c r="U53" s="90"/>
-      <c r="V53" s="90"/>
-      <c r="W53" s="90"/>
-      <c r="X53" s="90"/>
-      <c r="Y53" s="90"/>
-      <c r="Z53" s="90"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="G54" s="89"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
-      <c r="K54" s="90"/>
-      <c r="L54" s="90"/>
-      <c r="M54" s="90"/>
-      <c r="N54" s="90"/>
-      <c r="O54" s="90"/>
-      <c r="P54" s="90"/>
-      <c r="Q54" s="90"/>
-      <c r="R54" s="90"/>
-      <c r="S54" s="90"/>
-      <c r="T54" s="90"/>
-      <c r="U54" s="90"/>
-      <c r="V54" s="90"/>
-      <c r="W54" s="90"/>
-      <c r="X54" s="90"/>
-      <c r="Y54" s="90"/>
-      <c r="Z54" s="90"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="4"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4"/>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="F58" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="89"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="90"/>
-      <c r="K59" s="90"/>
-      <c r="L59" s="90"/>
-      <c r="M59" s="90"/>
-      <c r="N59" s="90"/>
-      <c r="O59" s="90"/>
-      <c r="P59" s="90"/>
-      <c r="Q59" s="90"/>
-      <c r="R59" s="90"/>
-      <c r="S59" s="90"/>
-      <c r="T59" s="90"/>
-      <c r="U59" s="90"/>
-      <c r="V59" s="90"/>
-      <c r="W59" s="90"/>
-      <c r="X59" s="90"/>
-      <c r="Y59" s="90"/>
-      <c r="Z59" s="90"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="H60" s="90"/>
-      <c r="I60" s="90"/>
-      <c r="J60" s="90"/>
-      <c r="K60" s="90"/>
-      <c r="L60" s="90"/>
-      <c r="M60" s="90"/>
-      <c r="N60" s="90"/>
-      <c r="O60" s="90"/>
-      <c r="P60" s="90"/>
-      <c r="Q60" s="90"/>
-      <c r="R60" s="90"/>
-      <c r="S60" s="90"/>
-      <c r="T60" s="90"/>
-      <c r="U60" s="90"/>
-      <c r="V60" s="90"/>
-      <c r="W60" s="90"/>
-      <c r="X60" s="90"/>
-      <c r="Y60" s="90"/>
-      <c r="Z60" s="90"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="88" t="s">
-        <v>163</v>
-      </c>
-      <c r="B61" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="D61" s="88" t="s">
-        <v>165</v>
-      </c>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88" t="s">
-        <v>166</v>
-      </c>
-      <c r="G61" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="H61" s="90"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="90"/>
-      <c r="K61" s="90"/>
-      <c r="L61" s="90"/>
-      <c r="M61" s="90"/>
-      <c r="N61" s="90"/>
-      <c r="O61" s="90"/>
-      <c r="P61" s="90"/>
-      <c r="Q61" s="90"/>
-      <c r="R61" s="90"/>
-      <c r="S61" s="90"/>
-      <c r="T61" s="90"/>
-      <c r="U61" s="90"/>
-      <c r="V61" s="90"/>
-      <c r="W61" s="90"/>
-      <c r="X61" s="90"/>
-      <c r="Y61" s="90"/>
-      <c r="Z61" s="90"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="B62" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="D62" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" s="93"/>
-      <c r="F62" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="G62" s="89"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="90"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="90"/>
-      <c r="M62" s="90"/>
-      <c r="N62" s="90"/>
-      <c r="O62" s="90"/>
-      <c r="P62" s="90"/>
-      <c r="Q62" s="90"/>
-      <c r="R62" s="90"/>
-      <c r="S62" s="90"/>
-      <c r="T62" s="90"/>
-      <c r="U62" s="90"/>
-      <c r="V62" s="90"/>
-      <c r="W62" s="90"/>
-      <c r="X62" s="90"/>
-      <c r="Y62" s="90"/>
-      <c r="Z62" s="90"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="B63" s="88" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="93"/>
-      <c r="F63" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="G63" s="89"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="90"/>
-      <c r="M63" s="90"/>
-      <c r="N63" s="90"/>
-      <c r="O63" s="90"/>
-      <c r="P63" s="90"/>
-      <c r="Q63" s="90"/>
-      <c r="R63" s="90"/>
-      <c r="S63" s="90"/>
-      <c r="T63" s="90"/>
-      <c r="U63" s="90"/>
-      <c r="V63" s="90"/>
-      <c r="W63" s="90"/>
-      <c r="X63" s="90"/>
-      <c r="Y63" s="90"/>
-      <c r="Z63" s="90"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="B64" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="C64" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="D64" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="88"/>
-      <c r="F64" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="G64" s="89"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="90"/>
-      <c r="J64" s="90"/>
-      <c r="K64" s="90"/>
-      <c r="L64" s="90"/>
-      <c r="M64" s="90"/>
-      <c r="N64" s="90"/>
-      <c r="O64" s="90"/>
-      <c r="P64" s="90"/>
-      <c r="Q64" s="90"/>
-      <c r="R64" s="90"/>
-      <c r="S64" s="90"/>
-      <c r="T64" s="90"/>
-      <c r="U64" s="90"/>
-      <c r="V64" s="90"/>
-      <c r="W64" s="90"/>
-      <c r="X64" s="90"/>
-      <c r="Y64" s="90"/>
-      <c r="Z64" s="90"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="88" t="s">
-        <v>176</v>
-      </c>
-      <c r="B65" s="88" t="s">
-        <v>177</v>
-      </c>
-      <c r="C65" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="D65" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" s="93"/>
-      <c r="F65" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="G65" s="89"/>
-      <c r="H65" s="90"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="90"/>
-      <c r="K65" s="90"/>
-      <c r="L65" s="90"/>
-      <c r="M65" s="90"/>
-      <c r="N65" s="90"/>
-      <c r="O65" s="90"/>
-      <c r="P65" s="90"/>
-      <c r="Q65" s="90"/>
-      <c r="R65" s="90"/>
-      <c r="S65" s="90"/>
-      <c r="T65" s="90"/>
-      <c r="U65" s="90"/>
-      <c r="V65" s="90"/>
-      <c r="W65" s="90"/>
-      <c r="X65" s="90"/>
-      <c r="Y65" s="90"/>
-      <c r="Z65" s="90"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="B66" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="C66" s="91" t="s">
-        <v>181</v>
-      </c>
-      <c r="D66" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="G66" s="89"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="90"/>
-      <c r="K66" s="90"/>
-      <c r="L66" s="90"/>
-      <c r="M66" s="90"/>
-      <c r="N66" s="90"/>
-      <c r="O66" s="90"/>
-      <c r="P66" s="90"/>
-      <c r="Q66" s="90"/>
-      <c r="R66" s="90"/>
-      <c r="S66" s="90"/>
-      <c r="T66" s="90"/>
-      <c r="U66" s="90"/>
-      <c r="V66" s="90"/>
-      <c r="W66" s="90"/>
-      <c r="X66" s="90"/>
-      <c r="Y66" s="90"/>
-      <c r="Z66" s="90"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="88" t="s">
-        <v>182</v>
-      </c>
-      <c r="B67" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="C67" s="88" t="s">
-        <v>183</v>
-      </c>
-      <c r="D67" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="E67" s="88"/>
-      <c r="F67" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="G67" s="89"/>
-      <c r="H67" s="90"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="90"/>
-      <c r="K67" s="90"/>
-      <c r="L67" s="90"/>
-      <c r="M67" s="90"/>
-      <c r="N67" s="90"/>
-      <c r="O67" s="90"/>
-      <c r="P67" s="90"/>
-      <c r="Q67" s="90"/>
-      <c r="R67" s="90"/>
-      <c r="S67" s="90"/>
-      <c r="T67" s="90"/>
-      <c r="U67" s="90"/>
-      <c r="V67" s="90"/>
-      <c r="W67" s="90"/>
-      <c r="X67" s="90"/>
-      <c r="Y67" s="90"/>
-      <c r="Z67" s="90"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="B68" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" s="88" t="s">
-        <v>185</v>
-      </c>
-      <c r="D68" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="E68" s="88"/>
-      <c r="F68" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="G68" s="89"/>
-      <c r="H68" s="90"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="90"/>
-      <c r="K68" s="90"/>
-      <c r="L68" s="90"/>
-      <c r="M68" s="90"/>
-      <c r="N68" s="90"/>
-      <c r="O68" s="90"/>
-      <c r="P68" s="90"/>
-      <c r="Q68" s="90"/>
-      <c r="R68" s="90"/>
-      <c r="S68" s="90"/>
-      <c r="T68" s="90"/>
-      <c r="U68" s="90"/>
-      <c r="V68" s="90"/>
-      <c r="W68" s="90"/>
-      <c r="X68" s="90"/>
-      <c r="Y68" s="90"/>
-      <c r="Z68" s="90"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="B69" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" s="88" t="s">
-        <v>186</v>
-      </c>
-      <c r="D69" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" s="93"/>
-      <c r="F69" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="G69" s="89"/>
-      <c r="H69" s="90"/>
-      <c r="I69" s="90"/>
-      <c r="J69" s="90"/>
-      <c r="K69" s="90"/>
-      <c r="L69" s="90"/>
-      <c r="M69" s="90"/>
-      <c r="N69" s="90"/>
-      <c r="O69" s="90"/>
-      <c r="P69" s="90"/>
-      <c r="Q69" s="90"/>
-      <c r="R69" s="90"/>
-      <c r="S69" s="90"/>
-      <c r="T69" s="90"/>
-      <c r="U69" s="90"/>
-      <c r="V69" s="90"/>
-      <c r="W69" s="90"/>
-      <c r="X69" s="90"/>
-      <c r="Y69" s="90"/>
-      <c r="Z69" s="90"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="D70" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="93"/>
-      <c r="F70" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="G70" s="89"/>
-      <c r="H70" s="90"/>
-      <c r="I70" s="90"/>
-      <c r="J70" s="90"/>
-      <c r="K70" s="90"/>
-      <c r="L70" s="90"/>
-      <c r="M70" s="90"/>
-      <c r="N70" s="90"/>
-      <c r="O70" s="90"/>
-      <c r="P70" s="90"/>
-      <c r="Q70" s="90"/>
-      <c r="R70" s="90"/>
-      <c r="S70" s="90"/>
-      <c r="T70" s="90"/>
-      <c r="U70" s="90"/>
-      <c r="V70" s="90"/>
-      <c r="W70" s="90"/>
-      <c r="X70" s="90"/>
-      <c r="Y70" s="90"/>
-      <c r="Z70" s="90"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="4"/>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="94"/>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="G75" s="5"/>
+      <c r="D75" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" s="83"/>
+      <c r="F75" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="G75" s="79"/>
+      <c r="H75" s="80"/>
+      <c r="I75" s="80"/>
+      <c r="J75" s="80"/>
+      <c r="K75" s="80"/>
+      <c r="L75" s="80"/>
+      <c r="M75" s="80"/>
+      <c r="N75" s="80"/>
+      <c r="O75" s="80"/>
+      <c r="P75" s="80"/>
+      <c r="Q75" s="80"/>
+      <c r="R75" s="80"/>
+      <c r="S75" s="80"/>
+      <c r="T75" s="80"/>
+      <c r="U75" s="80"/>
+      <c r="V75" s="80"/>
+      <c r="W75" s="80"/>
+      <c r="X75" s="80"/>
+      <c r="Y75" s="80"/>
+      <c r="Z75" s="80"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="4"/>
       <c r="G76" s="5"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="84"/>
       <c r="G77" s="5"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -7609,14 +7874,23 @@
     </row>
     <row r="996" ht="15.75" customHeight="1">
       <c r="G996" s="5"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="G997" s="5"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="G998" s="5"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="G999" s="5"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="G1000" s="5"/>
     </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/documentation/Record Of Tasks.xlsx
+++ b/documentation/Record Of Tasks.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="RVwEeOQSB5fKmoCyScIGp+h8/eELNMaHyveNNYHJtvM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="M52kuVW8mRZN8chrqIoPPkCVHra5SFvKktRC6XPmuMg="/>
     </ext>
   </extLst>
 </workbook>
@@ -1922,7 +1922,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1994,11 +1994,6 @@
       <sz val="11.0"/>
       <color rgb="FFC00000"/>
       <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF156082"/>
-      <name val="Quattrocento Sans"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -2106,7 +2101,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2304,9 +2299,6 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -2327,7 +2319,7 @@
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -4083,47 +4075,47 @@
       <c r="D41" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="73"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G41" s="74"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="75"/>
-      <c r="S41" s="75"/>
-      <c r="T41" s="75"/>
-      <c r="U41" s="75"/>
-      <c r="V41" s="75"/>
-      <c r="W41" s="75"/>
-      <c r="X41" s="75"/>
-      <c r="Y41" s="75"/>
-      <c r="Z41" s="75"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74"/>
+      <c r="S41" s="74"/>
+      <c r="T41" s="74"/>
+      <c r="U41" s="74"/>
+      <c r="V41" s="74"/>
+      <c r="W41" s="74"/>
+      <c r="X41" s="74"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="74"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="76"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="78"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="77"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="76"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="78"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="77"/>
       <c r="G43" s="5"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -4178,26 +4170,26 @@
       <c r="F48" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="79"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="80"/>
-      <c r="O48" s="80"/>
-      <c r="P48" s="80"/>
-      <c r="Q48" s="80"/>
-      <c r="R48" s="80"/>
-      <c r="S48" s="80"/>
-      <c r="T48" s="80"/>
-      <c r="U48" s="80"/>
-      <c r="V48" s="80"/>
-      <c r="W48" s="80"/>
-      <c r="X48" s="80"/>
-      <c r="Y48" s="80"/>
-      <c r="Z48" s="80"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="79"/>
+      <c r="O48" s="79"/>
+      <c r="P48" s="79"/>
+      <c r="Q48" s="79"/>
+      <c r="R48" s="79"/>
+      <c r="S48" s="79"/>
+      <c r="T48" s="79"/>
+      <c r="U48" s="79"/>
+      <c r="V48" s="79"/>
+      <c r="W48" s="79"/>
+      <c r="X48" s="79"/>
+      <c r="Y48" s="79"/>
+      <c r="Z48" s="79"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="45" t="s">
@@ -4206,7 +4198,7 @@
       <c r="B49" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="80" t="s">
         <v>146</v>
       </c>
       <c r="D49" s="45" t="s">
@@ -4216,26 +4208,26 @@
       <c r="F49" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="G49" s="79"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80"/>
-      <c r="O49" s="80"/>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="80"/>
-      <c r="R49" s="80"/>
-      <c r="S49" s="80"/>
-      <c r="T49" s="80"/>
-      <c r="U49" s="80"/>
-      <c r="V49" s="80"/>
-      <c r="W49" s="80"/>
-      <c r="X49" s="80"/>
-      <c r="Y49" s="80"/>
-      <c r="Z49" s="80"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
+      <c r="N49" s="79"/>
+      <c r="O49" s="79"/>
+      <c r="P49" s="79"/>
+      <c r="Q49" s="79"/>
+      <c r="R49" s="79"/>
+      <c r="S49" s="79"/>
+      <c r="T49" s="79"/>
+      <c r="U49" s="79"/>
+      <c r="V49" s="79"/>
+      <c r="W49" s="79"/>
+      <c r="X49" s="79"/>
+      <c r="Y49" s="79"/>
+      <c r="Z49" s="79"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="45" t="s">
@@ -4254,26 +4246,26 @@
       <c r="F50" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="G50" s="79"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="80"/>
-      <c r="Q50" s="80"/>
-      <c r="R50" s="80"/>
-      <c r="S50" s="80"/>
-      <c r="T50" s="80"/>
-      <c r="U50" s="80"/>
-      <c r="V50" s="80"/>
-      <c r="W50" s="80"/>
-      <c r="X50" s="80"/>
-      <c r="Y50" s="80"/>
-      <c r="Z50" s="80"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="79"/>
+      <c r="O50" s="79"/>
+      <c r="P50" s="79"/>
+      <c r="Q50" s="79"/>
+      <c r="R50" s="79"/>
+      <c r="S50" s="79"/>
+      <c r="T50" s="79"/>
+      <c r="U50" s="79"/>
+      <c r="V50" s="79"/>
+      <c r="W50" s="79"/>
+      <c r="X50" s="79"/>
+      <c r="Y50" s="79"/>
+      <c r="Z50" s="79"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="45" t="s">
@@ -4282,7 +4274,7 @@
       <c r="B51" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="81" t="s">
+      <c r="C51" s="80" t="s">
         <v>154</v>
       </c>
       <c r="D51" s="45" t="s">
@@ -4292,26 +4284,26 @@
       <c r="F51" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="G51" s="79"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
-      <c r="N51" s="80"/>
-      <c r="O51" s="80"/>
-      <c r="P51" s="80"/>
-      <c r="Q51" s="80"/>
-      <c r="R51" s="80"/>
-      <c r="S51" s="80"/>
-      <c r="T51" s="80"/>
-      <c r="U51" s="80"/>
-      <c r="V51" s="80"/>
-      <c r="W51" s="80"/>
-      <c r="X51" s="80"/>
-      <c r="Y51" s="80"/>
-      <c r="Z51" s="80"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="79"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="79"/>
+      <c r="P51" s="79"/>
+      <c r="Q51" s="79"/>
+      <c r="R51" s="79"/>
+      <c r="S51" s="79"/>
+      <c r="T51" s="79"/>
+      <c r="U51" s="79"/>
+      <c r="V51" s="79"/>
+      <c r="W51" s="79"/>
+      <c r="X51" s="79"/>
+      <c r="Y51" s="79"/>
+      <c r="Z51" s="79"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="45" t="s">
@@ -4330,26 +4322,26 @@
       <c r="F52" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="G52" s="79"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="80"/>
-      <c r="N52" s="80"/>
-      <c r="O52" s="80"/>
-      <c r="P52" s="80"/>
-      <c r="Q52" s="80"/>
-      <c r="R52" s="80"/>
-      <c r="S52" s="80"/>
-      <c r="T52" s="80"/>
-      <c r="U52" s="80"/>
-      <c r="V52" s="80"/>
-      <c r="W52" s="80"/>
-      <c r="X52" s="80"/>
-      <c r="Y52" s="80"/>
-      <c r="Z52" s="80"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="79"/>
+      <c r="N52" s="79"/>
+      <c r="O52" s="79"/>
+      <c r="P52" s="79"/>
+      <c r="Q52" s="79"/>
+      <c r="R52" s="79"/>
+      <c r="S52" s="79"/>
+      <c r="T52" s="79"/>
+      <c r="U52" s="79"/>
+      <c r="V52" s="79"/>
+      <c r="W52" s="79"/>
+      <c r="X52" s="79"/>
+      <c r="Y52" s="79"/>
+      <c r="Z52" s="79"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="45" t="s">
@@ -4358,7 +4350,7 @@
       <c r="B53" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="81" t="s">
+      <c r="C53" s="80" t="s">
         <v>159</v>
       </c>
       <c r="D53" s="45" t="s">
@@ -4368,26 +4360,26 @@
       <c r="F53" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="79"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="80"/>
-      <c r="O53" s="80"/>
-      <c r="P53" s="80"/>
-      <c r="Q53" s="80"/>
-      <c r="R53" s="80"/>
-      <c r="S53" s="80"/>
-      <c r="T53" s="80"/>
-      <c r="U53" s="80"/>
-      <c r="V53" s="80"/>
-      <c r="W53" s="80"/>
-      <c r="X53" s="80"/>
-      <c r="Y53" s="80"/>
-      <c r="Z53" s="80"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="79"/>
+      <c r="M53" s="79"/>
+      <c r="N53" s="79"/>
+      <c r="O53" s="79"/>
+      <c r="P53" s="79"/>
+      <c r="Q53" s="79"/>
+      <c r="R53" s="79"/>
+      <c r="S53" s="79"/>
+      <c r="T53" s="79"/>
+      <c r="U53" s="79"/>
+      <c r="V53" s="79"/>
+      <c r="W53" s="79"/>
+      <c r="X53" s="79"/>
+      <c r="Y53" s="79"/>
+      <c r="Z53" s="79"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="45" t="s">
@@ -4406,26 +4398,26 @@
       <c r="F54" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="G54" s="79"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="80"/>
-      <c r="N54" s="80"/>
-      <c r="O54" s="80"/>
-      <c r="P54" s="80"/>
-      <c r="Q54" s="80"/>
-      <c r="R54" s="80"/>
-      <c r="S54" s="80"/>
-      <c r="T54" s="80"/>
-      <c r="U54" s="80"/>
-      <c r="V54" s="80"/>
-      <c r="W54" s="80"/>
-      <c r="X54" s="80"/>
-      <c r="Y54" s="80"/>
-      <c r="Z54" s="80"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="79"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="79"/>
+      <c r="O54" s="79"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="79"/>
+      <c r="S54" s="79"/>
+      <c r="T54" s="79"/>
+      <c r="U54" s="79"/>
+      <c r="V54" s="79"/>
+      <c r="W54" s="79"/>
+      <c r="X54" s="79"/>
+      <c r="Y54" s="79"/>
+      <c r="Z54" s="79"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="45" t="s">
@@ -4434,7 +4426,7 @@
       <c r="B55" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="82" t="s">
+      <c r="C55" s="81" t="s">
         <v>164</v>
       </c>
       <c r="D55" s="45" t="s">
@@ -4444,26 +4436,26 @@
       <c r="F55" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="G55" s="79"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="80"/>
-      <c r="N55" s="80"/>
-      <c r="O55" s="80"/>
-      <c r="P55" s="80"/>
-      <c r="Q55" s="80"/>
-      <c r="R55" s="80"/>
-      <c r="S55" s="80"/>
-      <c r="T55" s="80"/>
-      <c r="U55" s="80"/>
-      <c r="V55" s="80"/>
-      <c r="W55" s="80"/>
-      <c r="X55" s="80"/>
-      <c r="Y55" s="80"/>
-      <c r="Z55" s="80"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
+      <c r="M55" s="79"/>
+      <c r="N55" s="79"/>
+      <c r="O55" s="79"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="79"/>
+      <c r="R55" s="79"/>
+      <c r="S55" s="79"/>
+      <c r="T55" s="79"/>
+      <c r="U55" s="79"/>
+      <c r="V55" s="79"/>
+      <c r="W55" s="79"/>
+      <c r="X55" s="79"/>
+      <c r="Y55" s="79"/>
+      <c r="Z55" s="79"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="45" t="s">
@@ -4482,26 +4474,26 @@
       <c r="F56" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="G56" s="79"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="80"/>
-      <c r="M56" s="80"/>
-      <c r="N56" s="80"/>
-      <c r="O56" s="80"/>
-      <c r="P56" s="80"/>
-      <c r="Q56" s="80"/>
-      <c r="R56" s="80"/>
-      <c r="S56" s="80"/>
-      <c r="T56" s="80"/>
-      <c r="U56" s="80"/>
-      <c r="V56" s="80"/>
-      <c r="W56" s="80"/>
-      <c r="X56" s="80"/>
-      <c r="Y56" s="80"/>
-      <c r="Z56" s="80"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="79"/>
+      <c r="M56" s="79"/>
+      <c r="N56" s="79"/>
+      <c r="O56" s="79"/>
+      <c r="P56" s="79"/>
+      <c r="Q56" s="79"/>
+      <c r="R56" s="79"/>
+      <c r="S56" s="79"/>
+      <c r="T56" s="79"/>
+      <c r="U56" s="79"/>
+      <c r="V56" s="79"/>
+      <c r="W56" s="79"/>
+      <c r="X56" s="79"/>
+      <c r="Y56" s="79"/>
+      <c r="Z56" s="79"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="45" t="s">
@@ -4510,7 +4502,7 @@
       <c r="B57" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="82" t="s">
+      <c r="C57" s="81" t="s">
         <v>168</v>
       </c>
       <c r="D57" s="45" t="s">
@@ -4520,26 +4512,26 @@
       <c r="F57" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="G57" s="79"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="80"/>
-      <c r="N57" s="80"/>
-      <c r="O57" s="80"/>
-      <c r="P57" s="80"/>
-      <c r="Q57" s="80"/>
-      <c r="R57" s="80"/>
-      <c r="S57" s="80"/>
-      <c r="T57" s="80"/>
-      <c r="U57" s="80"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
-      <c r="X57" s="80"/>
-      <c r="Y57" s="80"/>
-      <c r="Z57" s="80"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="79"/>
+      <c r="O57" s="79"/>
+      <c r="P57" s="79"/>
+      <c r="Q57" s="79"/>
+      <c r="R57" s="79"/>
+      <c r="S57" s="79"/>
+      <c r="T57" s="79"/>
+      <c r="U57" s="79"/>
+      <c r="V57" s="79"/>
+      <c r="W57" s="79"/>
+      <c r="X57" s="79"/>
+      <c r="Y57" s="79"/>
+      <c r="Z57" s="79"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="45" t="s">
@@ -4558,26 +4550,26 @@
       <c r="F58" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="G58" s="79"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="80"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="80"/>
-      <c r="P58" s="80"/>
-      <c r="Q58" s="80"/>
-      <c r="R58" s="80"/>
-      <c r="S58" s="80"/>
-      <c r="T58" s="80"/>
-      <c r="U58" s="80"/>
-      <c r="V58" s="80"/>
-      <c r="W58" s="80"/>
-      <c r="X58" s="80"/>
-      <c r="Y58" s="80"/>
-      <c r="Z58" s="80"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="79"/>
+      <c r="O58" s="79"/>
+      <c r="P58" s="79"/>
+      <c r="Q58" s="79"/>
+      <c r="R58" s="79"/>
+      <c r="S58" s="79"/>
+      <c r="T58" s="79"/>
+      <c r="U58" s="79"/>
+      <c r="V58" s="79"/>
+      <c r="W58" s="79"/>
+      <c r="X58" s="79"/>
+      <c r="Y58" s="79"/>
+      <c r="Z58" s="79"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="45" t="s">
@@ -4596,26 +4588,26 @@
       <c r="F59" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="G59" s="79"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="80"/>
-      <c r="N59" s="80"/>
-      <c r="O59" s="80"/>
-      <c r="P59" s="80"/>
-      <c r="Q59" s="80"/>
-      <c r="R59" s="80"/>
-      <c r="S59" s="80"/>
-      <c r="T59" s="80"/>
-      <c r="U59" s="80"/>
-      <c r="V59" s="80"/>
-      <c r="W59" s="80"/>
-      <c r="X59" s="80"/>
-      <c r="Y59" s="80"/>
-      <c r="Z59" s="80"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="79"/>
+      <c r="P59" s="79"/>
+      <c r="Q59" s="79"/>
+      <c r="R59" s="79"/>
+      <c r="S59" s="79"/>
+      <c r="T59" s="79"/>
+      <c r="U59" s="79"/>
+      <c r="V59" s="79"/>
+      <c r="W59" s="79"/>
+      <c r="X59" s="79"/>
+      <c r="Y59" s="79"/>
+      <c r="Z59" s="79"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="4"/>
@@ -4657,7 +4649,7 @@
       <c r="B64" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="C64" s="81" t="s">
+      <c r="C64" s="80" t="s">
         <v>173</v>
       </c>
       <c r="D64" s="45" t="s">
@@ -4667,26 +4659,26 @@
       <c r="F64" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="79"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="80"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="80"/>
-      <c r="L64" s="80"/>
-      <c r="M64" s="80"/>
-      <c r="N64" s="80"/>
-      <c r="O64" s="80"/>
-      <c r="P64" s="80"/>
-      <c r="Q64" s="80"/>
-      <c r="R64" s="80"/>
-      <c r="S64" s="80"/>
-      <c r="T64" s="80"/>
-      <c r="U64" s="80"/>
-      <c r="V64" s="80"/>
-      <c r="W64" s="80"/>
-      <c r="X64" s="80"/>
-      <c r="Y64" s="80"/>
-      <c r="Z64" s="80"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="79"/>
+      <c r="K64" s="79"/>
+      <c r="L64" s="79"/>
+      <c r="M64" s="79"/>
+      <c r="N64" s="79"/>
+      <c r="O64" s="79"/>
+      <c r="P64" s="79"/>
+      <c r="Q64" s="79"/>
+      <c r="R64" s="79"/>
+      <c r="S64" s="79"/>
+      <c r="T64" s="79"/>
+      <c r="U64" s="79"/>
+      <c r="V64" s="79"/>
+      <c r="W64" s="79"/>
+      <c r="X64" s="79"/>
+      <c r="Y64" s="79"/>
+      <c r="Z64" s="79"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="45" t="s">
@@ -4695,7 +4687,7 @@
       <c r="B65" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="C65" s="81" t="s">
+      <c r="C65" s="80" t="s">
         <v>176</v>
       </c>
       <c r="D65" s="45" t="s">
@@ -4708,25 +4700,25 @@
       <c r="G65" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="H65" s="80"/>
-      <c r="I65" s="80"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
-      <c r="L65" s="80"/>
-      <c r="M65" s="80"/>
-      <c r="N65" s="80"/>
-      <c r="O65" s="80"/>
-      <c r="P65" s="80"/>
-      <c r="Q65" s="80"/>
-      <c r="R65" s="80"/>
-      <c r="S65" s="80"/>
-      <c r="T65" s="80"/>
-      <c r="U65" s="80"/>
-      <c r="V65" s="80"/>
-      <c r="W65" s="80"/>
-      <c r="X65" s="80"/>
-      <c r="Y65" s="80"/>
-      <c r="Z65" s="80"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="79"/>
+      <c r="O65" s="79"/>
+      <c r="P65" s="79"/>
+      <c r="Q65" s="79"/>
+      <c r="R65" s="79"/>
+      <c r="S65" s="79"/>
+      <c r="T65" s="79"/>
+      <c r="U65" s="79"/>
+      <c r="V65" s="79"/>
+      <c r="W65" s="79"/>
+      <c r="X65" s="79"/>
+      <c r="Y65" s="79"/>
+      <c r="Z65" s="79"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="45" t="s">
@@ -4735,7 +4727,7 @@
       <c r="B66" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="81" t="s">
+      <c r="C66" s="80" t="s">
         <v>179</v>
       </c>
       <c r="D66" s="45" t="s">
@@ -4748,25 +4740,25 @@
       <c r="G66" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
-      <c r="L66" s="80"/>
-      <c r="M66" s="80"/>
-      <c r="N66" s="80"/>
-      <c r="O66" s="80"/>
-      <c r="P66" s="80"/>
-      <c r="Q66" s="80"/>
-      <c r="R66" s="80"/>
-      <c r="S66" s="80"/>
-      <c r="T66" s="80"/>
-      <c r="U66" s="80"/>
-      <c r="V66" s="80"/>
-      <c r="W66" s="80"/>
-      <c r="X66" s="80"/>
-      <c r="Y66" s="80"/>
-      <c r="Z66" s="80"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="79"/>
+      <c r="N66" s="79"/>
+      <c r="O66" s="79"/>
+      <c r="P66" s="79"/>
+      <c r="Q66" s="79"/>
+      <c r="R66" s="79"/>
+      <c r="S66" s="79"/>
+      <c r="T66" s="79"/>
+      <c r="U66" s="79"/>
+      <c r="V66" s="79"/>
+      <c r="W66" s="79"/>
+      <c r="X66" s="79"/>
+      <c r="Y66" s="79"/>
+      <c r="Z66" s="79"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="45" t="s">
@@ -4781,30 +4773,30 @@
       <c r="D67" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="83"/>
+      <c r="E67" s="82"/>
       <c r="F67" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="G67" s="79"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="80"/>
-      <c r="J67" s="80"/>
-      <c r="K67" s="80"/>
-      <c r="L67" s="80"/>
-      <c r="M67" s="80"/>
-      <c r="N67" s="80"/>
-      <c r="O67" s="80"/>
-      <c r="P67" s="80"/>
-      <c r="Q67" s="80"/>
-      <c r="R67" s="80"/>
-      <c r="S67" s="80"/>
-      <c r="T67" s="80"/>
-      <c r="U67" s="80"/>
-      <c r="V67" s="80"/>
-      <c r="W67" s="80"/>
-      <c r="X67" s="80"/>
-      <c r="Y67" s="80"/>
-      <c r="Z67" s="80"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="79"/>
+      <c r="I67" s="79"/>
+      <c r="J67" s="79"/>
+      <c r="K67" s="79"/>
+      <c r="L67" s="79"/>
+      <c r="M67" s="79"/>
+      <c r="N67" s="79"/>
+      <c r="O67" s="79"/>
+      <c r="P67" s="79"/>
+      <c r="Q67" s="79"/>
+      <c r="R67" s="79"/>
+      <c r="S67" s="79"/>
+      <c r="T67" s="79"/>
+      <c r="U67" s="79"/>
+      <c r="V67" s="79"/>
+      <c r="W67" s="79"/>
+      <c r="X67" s="79"/>
+      <c r="Y67" s="79"/>
+      <c r="Z67" s="79"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="45" t="s">
@@ -4819,30 +4811,30 @@
       <c r="D68" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="83"/>
+      <c r="E68" s="82"/>
       <c r="F68" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="G68" s="79"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="80"/>
-      <c r="J68" s="80"/>
-      <c r="K68" s="80"/>
-      <c r="L68" s="80"/>
-      <c r="M68" s="80"/>
-      <c r="N68" s="80"/>
-      <c r="O68" s="80"/>
-      <c r="P68" s="80"/>
-      <c r="Q68" s="80"/>
-      <c r="R68" s="80"/>
-      <c r="S68" s="80"/>
-      <c r="T68" s="80"/>
-      <c r="U68" s="80"/>
-      <c r="V68" s="80"/>
-      <c r="W68" s="80"/>
-      <c r="X68" s="80"/>
-      <c r="Y68" s="80"/>
-      <c r="Z68" s="80"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="79"/>
+      <c r="I68" s="79"/>
+      <c r="J68" s="79"/>
+      <c r="K68" s="79"/>
+      <c r="L68" s="79"/>
+      <c r="M68" s="79"/>
+      <c r="N68" s="79"/>
+      <c r="O68" s="79"/>
+      <c r="P68" s="79"/>
+      <c r="Q68" s="79"/>
+      <c r="R68" s="79"/>
+      <c r="S68" s="79"/>
+      <c r="T68" s="79"/>
+      <c r="U68" s="79"/>
+      <c r="V68" s="79"/>
+      <c r="W68" s="79"/>
+      <c r="X68" s="79"/>
+      <c r="Y68" s="79"/>
+      <c r="Z68" s="79"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="45" t="s">
@@ -4851,7 +4843,7 @@
       <c r="B69" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="C69" s="81" t="s">
+      <c r="C69" s="80" t="s">
         <v>190</v>
       </c>
       <c r="D69" s="45" t="s">
@@ -4861,26 +4853,26 @@
       <c r="F69" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G69" s="79"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="80"/>
-      <c r="M69" s="80"/>
-      <c r="N69" s="80"/>
-      <c r="O69" s="80"/>
-      <c r="P69" s="80"/>
-      <c r="Q69" s="80"/>
-      <c r="R69" s="80"/>
-      <c r="S69" s="80"/>
-      <c r="T69" s="80"/>
-      <c r="U69" s="80"/>
-      <c r="V69" s="80"/>
-      <c r="W69" s="80"/>
-      <c r="X69" s="80"/>
-      <c r="Y69" s="80"/>
-      <c r="Z69" s="80"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="79"/>
+      <c r="I69" s="79"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="79"/>
+      <c r="N69" s="79"/>
+      <c r="O69" s="79"/>
+      <c r="P69" s="79"/>
+      <c r="Q69" s="79"/>
+      <c r="R69" s="79"/>
+      <c r="S69" s="79"/>
+      <c r="T69" s="79"/>
+      <c r="U69" s="79"/>
+      <c r="V69" s="79"/>
+      <c r="W69" s="79"/>
+      <c r="X69" s="79"/>
+      <c r="Y69" s="79"/>
+      <c r="Z69" s="79"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="45" t="s">
@@ -4895,30 +4887,30 @@
       <c r="D70" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E70" s="83"/>
+      <c r="E70" s="82"/>
       <c r="F70" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G70" s="79"/>
-      <c r="H70" s="80"/>
-      <c r="I70" s="80"/>
-      <c r="J70" s="80"/>
-      <c r="K70" s="80"/>
-      <c r="L70" s="80"/>
-      <c r="M70" s="80"/>
-      <c r="N70" s="80"/>
-      <c r="O70" s="80"/>
-      <c r="P70" s="80"/>
-      <c r="Q70" s="80"/>
-      <c r="R70" s="80"/>
-      <c r="S70" s="80"/>
-      <c r="T70" s="80"/>
-      <c r="U70" s="80"/>
-      <c r="V70" s="80"/>
-      <c r="W70" s="80"/>
-      <c r="X70" s="80"/>
-      <c r="Y70" s="80"/>
-      <c r="Z70" s="80"/>
+      <c r="G70" s="78"/>
+      <c r="H70" s="79"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="79"/>
+      <c r="L70" s="79"/>
+      <c r="M70" s="79"/>
+      <c r="N70" s="79"/>
+      <c r="O70" s="79"/>
+      <c r="P70" s="79"/>
+      <c r="Q70" s="79"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="79"/>
+      <c r="T70" s="79"/>
+      <c r="U70" s="79"/>
+      <c r="V70" s="79"/>
+      <c r="W70" s="79"/>
+      <c r="X70" s="79"/>
+      <c r="Y70" s="79"/>
+      <c r="Z70" s="79"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="45" t="s">
@@ -4927,7 +4919,7 @@
       <c r="B71" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="C71" s="81" t="s">
+      <c r="C71" s="80" t="s">
         <v>196</v>
       </c>
       <c r="D71" s="45" t="s">
@@ -4937,26 +4929,26 @@
       <c r="F71" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="G71" s="79"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="80"/>
-      <c r="K71" s="80"/>
-      <c r="L71" s="80"/>
-      <c r="M71" s="80"/>
-      <c r="N71" s="80"/>
-      <c r="O71" s="80"/>
-      <c r="P71" s="80"/>
-      <c r="Q71" s="80"/>
-      <c r="R71" s="80"/>
-      <c r="S71" s="80"/>
-      <c r="T71" s="80"/>
-      <c r="U71" s="80"/>
-      <c r="V71" s="80"/>
-      <c r="W71" s="80"/>
-      <c r="X71" s="80"/>
-      <c r="Y71" s="80"/>
-      <c r="Z71" s="80"/>
+      <c r="G71" s="78"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="79"/>
+      <c r="N71" s="79"/>
+      <c r="O71" s="79"/>
+      <c r="P71" s="79"/>
+      <c r="Q71" s="79"/>
+      <c r="R71" s="79"/>
+      <c r="S71" s="79"/>
+      <c r="T71" s="79"/>
+      <c r="U71" s="79"/>
+      <c r="V71" s="79"/>
+      <c r="W71" s="79"/>
+      <c r="X71" s="79"/>
+      <c r="Y71" s="79"/>
+      <c r="Z71" s="79"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="45" t="s">
@@ -4975,26 +4967,26 @@
       <c r="F72" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="G72" s="79"/>
-      <c r="H72" s="80"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="80"/>
-      <c r="K72" s="80"/>
-      <c r="L72" s="80"/>
-      <c r="M72" s="80"/>
-      <c r="N72" s="80"/>
-      <c r="O72" s="80"/>
-      <c r="P72" s="80"/>
-      <c r="Q72" s="80"/>
-      <c r="R72" s="80"/>
-      <c r="S72" s="80"/>
-      <c r="T72" s="80"/>
-      <c r="U72" s="80"/>
-      <c r="V72" s="80"/>
-      <c r="W72" s="80"/>
-      <c r="X72" s="80"/>
-      <c r="Y72" s="80"/>
-      <c r="Z72" s="80"/>
+      <c r="G72" s="78"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
+      <c r="M72" s="79"/>
+      <c r="N72" s="79"/>
+      <c r="O72" s="79"/>
+      <c r="P72" s="79"/>
+      <c r="Q72" s="79"/>
+      <c r="R72" s="79"/>
+      <c r="S72" s="79"/>
+      <c r="T72" s="79"/>
+      <c r="U72" s="79"/>
+      <c r="V72" s="79"/>
+      <c r="W72" s="79"/>
+      <c r="X72" s="79"/>
+      <c r="Y72" s="79"/>
+      <c r="Z72" s="79"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="45" t="s">
@@ -5013,26 +5005,26 @@
       <c r="F73" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="G73" s="79"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="80"/>
-      <c r="K73" s="80"/>
-      <c r="L73" s="80"/>
-      <c r="M73" s="80"/>
-      <c r="N73" s="80"/>
-      <c r="O73" s="80"/>
-      <c r="P73" s="80"/>
-      <c r="Q73" s="80"/>
-      <c r="R73" s="80"/>
-      <c r="S73" s="80"/>
-      <c r="T73" s="80"/>
-      <c r="U73" s="80"/>
-      <c r="V73" s="80"/>
-      <c r="W73" s="80"/>
-      <c r="X73" s="80"/>
-      <c r="Y73" s="80"/>
-      <c r="Z73" s="80"/>
+      <c r="G73" s="78"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="79"/>
+      <c r="O73" s="79"/>
+      <c r="P73" s="79"/>
+      <c r="Q73" s="79"/>
+      <c r="R73" s="79"/>
+      <c r="S73" s="79"/>
+      <c r="T73" s="79"/>
+      <c r="U73" s="79"/>
+      <c r="V73" s="79"/>
+      <c r="W73" s="79"/>
+      <c r="X73" s="79"/>
+      <c r="Y73" s="79"/>
+      <c r="Z73" s="79"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="45" t="s">
@@ -5047,30 +5039,30 @@
       <c r="D74" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="E74" s="83"/>
+      <c r="E74" s="82"/>
       <c r="F74" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="G74" s="79"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="80"/>
-      <c r="J74" s="80"/>
-      <c r="K74" s="80"/>
-      <c r="L74" s="80"/>
-      <c r="M74" s="80"/>
-      <c r="N74" s="80"/>
-      <c r="O74" s="80"/>
-      <c r="P74" s="80"/>
-      <c r="Q74" s="80"/>
-      <c r="R74" s="80"/>
-      <c r="S74" s="80"/>
-      <c r="T74" s="80"/>
-      <c r="U74" s="80"/>
-      <c r="V74" s="80"/>
-      <c r="W74" s="80"/>
-      <c r="X74" s="80"/>
-      <c r="Y74" s="80"/>
-      <c r="Z74" s="80"/>
+      <c r="G74" s="78"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="79"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
+      <c r="M74" s="79"/>
+      <c r="N74" s="79"/>
+      <c r="O74" s="79"/>
+      <c r="P74" s="79"/>
+      <c r="Q74" s="79"/>
+      <c r="R74" s="79"/>
+      <c r="S74" s="79"/>
+      <c r="T74" s="79"/>
+      <c r="U74" s="79"/>
+      <c r="V74" s="79"/>
+      <c r="W74" s="79"/>
+      <c r="X74" s="79"/>
+      <c r="Y74" s="79"/>
+      <c r="Z74" s="79"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="45" t="s">
@@ -5085,37 +5077,37 @@
       <c r="D75" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="E75" s="83"/>
+      <c r="E75" s="82"/>
       <c r="F75" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="G75" s="79"/>
-      <c r="H75" s="80"/>
-      <c r="I75" s="80"/>
-      <c r="J75" s="80"/>
-      <c r="K75" s="80"/>
-      <c r="L75" s="80"/>
-      <c r="M75" s="80"/>
-      <c r="N75" s="80"/>
-      <c r="O75" s="80"/>
-      <c r="P75" s="80"/>
-      <c r="Q75" s="80"/>
-      <c r="R75" s="80"/>
-      <c r="S75" s="80"/>
-      <c r="T75" s="80"/>
-      <c r="U75" s="80"/>
-      <c r="V75" s="80"/>
-      <c r="W75" s="80"/>
-      <c r="X75" s="80"/>
-      <c r="Y75" s="80"/>
-      <c r="Z75" s="80"/>
+      <c r="G75" s="78"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="79"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
+      <c r="M75" s="79"/>
+      <c r="N75" s="79"/>
+      <c r="O75" s="79"/>
+      <c r="P75" s="79"/>
+      <c r="Q75" s="79"/>
+      <c r="R75" s="79"/>
+      <c r="S75" s="79"/>
+      <c r="T75" s="79"/>
+      <c r="U75" s="79"/>
+      <c r="V75" s="79"/>
+      <c r="W75" s="79"/>
+      <c r="X75" s="79"/>
+      <c r="Y75" s="79"/>
+      <c r="Z75" s="79"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="4"/>
       <c r="G76" s="5"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="84"/>
+      <c r="A77" s="83"/>
       <c r="G77" s="5"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">

--- a/documentation/Record Of Tasks.xlsx
+++ b/documentation/Record Of Tasks.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="M52kuVW8mRZN8chrqIoPPkCVHra5SFvKktRC6XPmuMg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="mSOLnJlHQS9tEmlAYMTMBf0i4q6yQ6CnumUiyuKYyXs="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="204">
   <si>
     <t>Waterfall Methodology</t>
   </si>
@@ -1395,6 +1395,12 @@
       </rPr>
       <t xml:space="preserve"> that will acts as a database access  is implemented in JAVA to simulate database access in JAVA</t>
     </r>
+  </si>
+  <si>
+    <t>Implement inheritance for Db id and debug functionalies in Domain Model</t>
+  </si>
+  <si>
+    <t>Classes in model domain inherits the DbId class that implements db id and debug functionalities</t>
   </si>
   <si>
     <t>Development</t>
@@ -3911,97 +3917,99 @@
       <c r="Z36" s="42"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="C37" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="D37" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="43">
+        <v>45872.0</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="64"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="B38" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="67" t="s">
+      <c r="E38" s="66"/>
+      <c r="F38" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="69"/>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="69"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G38" s="71"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="69"/>
+      <c r="W38" s="69"/>
+      <c r="X38" s="69"/>
+      <c r="Y38" s="69"/>
+      <c r="Z38" s="69"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="C39" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>128</v>
-      </c>
       <c r="D39" s="25" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E39" s="70"/>
       <c r="F39" s="28" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="G39" s="71"/>
       <c r="H39" s="72"/>
@@ -4026,20 +4034,20 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="25" t="s">
         <v>131</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="E40" s="70"/>
       <c r="F40" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G40" s="71"/>
       <c r="H40" s="72"/>
@@ -4063,51 +4071,80 @@
       <c r="Z40" s="72"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="D41" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="70"/>
+      <c r="F41" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="G41" s="71"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="72"/>
+      <c r="W41" s="72"/>
+      <c r="X41" s="72"/>
+      <c r="Y41" s="72"/>
+      <c r="Z41" s="72"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="B42" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" s="73"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="74"/>
-      <c r="S41" s="74"/>
-      <c r="T41" s="74"/>
-      <c r="U41" s="74"/>
-      <c r="V41" s="74"/>
-      <c r="W41" s="74"/>
-      <c r="X41" s="74"/>
-      <c r="Y41" s="74"/>
-      <c r="Z41" s="74"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="75"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="5"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="73"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="74"/>
+      <c r="T42" s="74"/>
+      <c r="U42" s="74"/>
+      <c r="V42" s="74"/>
+      <c r="W42" s="74"/>
+      <c r="X42" s="74"/>
+      <c r="Y42" s="74"/>
+      <c r="Z42" s="74"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="75"/>
@@ -4119,94 +4156,65 @@
       <c r="G43" s="5"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="4"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="77"/>
       <c r="G44" s="5"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="A45" s="4"/>
       <c r="G45" s="5"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="4"/>
+      <c r="A46" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="G46" s="5"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F47" s="7" t="s">
+      <c r="D48" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="78"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
-      <c r="Q48" s="79"/>
-      <c r="R48" s="79"/>
-      <c r="S48" s="79"/>
-      <c r="T48" s="79"/>
-      <c r="U48" s="79"/>
-      <c r="V48" s="79"/>
-      <c r="W48" s="79"/>
-      <c r="X48" s="79"/>
-      <c r="Y48" s="79"/>
-      <c r="Z48" s="79"/>
+      <c r="G48" s="5"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="C49" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="80" t="s">
-        <v>146</v>
-      </c>
       <c r="D49" s="45" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E49" s="45"/>
       <c r="F49" s="44" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="G49" s="78"/>
       <c r="H49" s="79"/>
@@ -4231,20 +4239,20 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="45" t="s">
-        <v>150</v>
-      </c>
       <c r="D50" s="45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E50" s="45"/>
       <c r="F50" s="44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G50" s="78"/>
       <c r="H50" s="79"/>
@@ -4269,20 +4277,20 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" s="80" t="s">
-        <v>154</v>
-      </c>
       <c r="D51" s="45" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E51" s="45"/>
       <c r="F51" s="44" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G51" s="78"/>
       <c r="H51" s="79"/>
@@ -4307,20 +4315,20 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="45" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B52" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="80" t="s">
         <v>156</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E52" s="45"/>
       <c r="F52" s="44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G52" s="78"/>
       <c r="H52" s="79"/>
@@ -4345,20 +4353,20 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="C53" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="80" t="s">
-        <v>159</v>
-      </c>
       <c r="D53" s="45" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E53" s="45"/>
       <c r="F53" s="44" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G53" s="78"/>
       <c r="H53" s="79"/>
@@ -4383,20 +4391,20 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="45" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B54" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="80" t="s">
         <v>161</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E54" s="45"/>
       <c r="F54" s="44" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="G54" s="78"/>
       <c r="H54" s="79"/>
@@ -4421,20 +4429,20 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="C55" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="81" t="s">
-        <v>164</v>
-      </c>
       <c r="D55" s="45" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E55" s="45"/>
       <c r="F55" s="44" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="G55" s="78"/>
       <c r="H55" s="79"/>
@@ -4459,20 +4467,20 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="45" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B56" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="45" t="s">
-        <v>161</v>
+      <c r="C56" s="81" t="s">
+        <v>166</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E56" s="45"/>
       <c r="F56" s="44" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="G56" s="78"/>
       <c r="H56" s="79"/>
@@ -4497,20 +4505,20 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="45" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B57" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="81" t="s">
-        <v>168</v>
+      <c r="C57" s="45" t="s">
+        <v>163</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E57" s="45"/>
       <c r="F57" s="44" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="G57" s="78"/>
       <c r="H57" s="79"/>
@@ -4535,20 +4543,20 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="45" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="45" t="s">
-        <v>133</v>
+        <v>169</v>
+      </c>
+      <c r="C58" s="81" t="s">
+        <v>170</v>
       </c>
       <c r="D58" s="45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E58" s="45"/>
       <c r="F58" s="44" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="G58" s="78"/>
       <c r="H58" s="79"/>
@@ -4573,20 +4581,20 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="45" t="s">
         <v>135</v>
-      </c>
-      <c r="B59" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="45" t="s">
-        <v>137</v>
       </c>
       <c r="D59" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E59" s="45"/>
       <c r="F59" s="44" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G59" s="78"/>
       <c r="H59" s="79"/>
@@ -4610,96 +4618,94 @@
       <c r="Z59" s="79"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="4"/>
-      <c r="G60" s="5"/>
+      <c r="A60" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="45"/>
+      <c r="F60" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G60" s="78"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="79"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="79"/>
+      <c r="P60" s="79"/>
+      <c r="Q60" s="79"/>
+      <c r="R60" s="79"/>
+      <c r="S60" s="79"/>
+      <c r="T60" s="79"/>
+      <c r="U60" s="79"/>
+      <c r="V60" s="79"/>
+      <c r="W60" s="79"/>
+      <c r="X60" s="79"/>
+      <c r="Y60" s="79"/>
+      <c r="Z60" s="79"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="A61" s="4"/>
       <c r="G61" s="5"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="4"/>
+      <c r="A62" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="G62" s="5"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="4"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="7" t="s">
+      <c r="D64" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B64" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="C64" s="80" t="s">
-        <v>173</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="45"/>
-      <c r="F64" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="78"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="79"/>
-      <c r="K64" s="79"/>
-      <c r="L64" s="79"/>
-      <c r="M64" s="79"/>
-      <c r="N64" s="79"/>
-      <c r="O64" s="79"/>
-      <c r="P64" s="79"/>
-      <c r="Q64" s="79"/>
-      <c r="R64" s="79"/>
-      <c r="S64" s="79"/>
-      <c r="T64" s="79"/>
-      <c r="U64" s="79"/>
-      <c r="V64" s="79"/>
-      <c r="W64" s="79"/>
-      <c r="X64" s="79"/>
-      <c r="Y64" s="79"/>
-      <c r="Z64" s="79"/>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="B65" s="45" t="s">
+      <c r="C65" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="C65" s="80" t="s">
-        <v>176</v>
-      </c>
       <c r="D65" s="45" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="45" t="s">
-        <v>177</v>
-      </c>
+      <c r="G65" s="78"/>
       <c r="H65" s="79"/>
       <c r="I65" s="79"/>
       <c r="J65" s="79"/>
@@ -4722,23 +4728,23 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="B66" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="80" t="s">
-        <v>179</v>
-      </c>
       <c r="D66" s="45" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="E66" s="45"/>
       <c r="F66" s="44" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="G66" s="45" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H66" s="79"/>
       <c r="I66" s="79"/>
@@ -4762,22 +4768,24 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="45"/>
+      <c r="F67" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="45" t="s">
+      <c r="G67" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="D67" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E67" s="82"/>
-      <c r="F67" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G67" s="78"/>
       <c r="H67" s="79"/>
       <c r="I67" s="79"/>
       <c r="J67" s="79"/>
@@ -4803,17 +4811,17 @@
         <v>185</v>
       </c>
       <c r="B68" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="C68" s="45" t="s">
-        <v>187</v>
-      </c>
       <c r="D68" s="45" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E68" s="82"/>
       <c r="F68" s="44" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="G68" s="78"/>
       <c r="H68" s="79"/>
@@ -4838,20 +4846,20 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="B69" s="45" t="s">
+      <c r="C69" s="45" t="s">
         <v>189</v>
-      </c>
-      <c r="C69" s="80" t="s">
-        <v>190</v>
       </c>
       <c r="D69" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="45"/>
+      <c r="E69" s="82"/>
       <c r="F69" s="44" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="G69" s="78"/>
       <c r="H69" s="79"/>
@@ -4876,18 +4884,18 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="B70" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B70" s="45" t="s">
+      <c r="C70" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="C70" s="45" t="s">
-        <v>193</v>
-      </c>
       <c r="D70" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E70" s="82"/>
+        <v>11</v>
+      </c>
+      <c r="E70" s="45"/>
       <c r="F70" s="44" t="s">
         <v>54</v>
       </c>
@@ -4914,20 +4922,20 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="C71" s="45" t="s">
         <v>195</v>
-      </c>
-      <c r="C71" s="80" t="s">
-        <v>196</v>
       </c>
       <c r="D71" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="45"/>
+      <c r="E71" s="82"/>
       <c r="F71" s="44" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="G71" s="78"/>
       <c r="H71" s="79"/>
@@ -4952,16 +4960,16 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="B72" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C72" s="45" t="s">
+      <c r="C72" s="80" t="s">
         <v>198</v>
       </c>
       <c r="D72" s="45" t="s">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="E72" s="45"/>
       <c r="F72" s="44" t="s">
@@ -4990,20 +4998,20 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="45" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C73" s="45" t="s">
         <v>200</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="E73" s="45"/>
       <c r="F73" s="44" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="G73" s="78"/>
       <c r="H73" s="79"/>
@@ -5028,20 +5036,20 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="45" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B74" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="45"/>
+      <c r="F74" s="44" t="s">
         <v>132</v>
-      </c>
-      <c r="C74" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E74" s="82"/>
-      <c r="F74" s="44" t="s">
-        <v>134</v>
       </c>
       <c r="G74" s="78"/>
       <c r="H74" s="79"/>
@@ -5066,20 +5074,20 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C75" s="45" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="D75" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E75" s="82"/>
       <c r="F75" s="44" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G75" s="78"/>
       <c r="H75" s="79"/>
@@ -5103,14 +5111,49 @@
       <c r="Z75" s="79"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="4"/>
-      <c r="G76" s="5"/>
+      <c r="A76" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" s="82"/>
+      <c r="F76" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G76" s="78"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
+      <c r="M76" s="79"/>
+      <c r="N76" s="79"/>
+      <c r="O76" s="79"/>
+      <c r="P76" s="79"/>
+      <c r="Q76" s="79"/>
+      <c r="R76" s="79"/>
+      <c r="S76" s="79"/>
+      <c r="T76" s="79"/>
+      <c r="U76" s="79"/>
+      <c r="V76" s="79"/>
+      <c r="W76" s="79"/>
+      <c r="X76" s="79"/>
+      <c r="Y76" s="79"/>
+      <c r="Z76" s="79"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="83"/>
+      <c r="A77" s="4"/>
       <c r="G77" s="5"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="83"/>
       <c r="G78" s="5"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">

--- a/documentation/Record Of Tasks.xlsx
+++ b/documentation/Record Of Tasks.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="mSOLnJlHQS9tEmlAYMTMBf0i4q6yQ6CnumUiyuKYyXs="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="cjTK7CeZuVzKWMAuZRk7pYViYT1P7addmWiQOAXdj9k="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="206">
   <si>
     <t>Waterfall Methodology</t>
   </si>
@@ -1401,6 +1401,12 @@
   </si>
   <si>
     <t>Classes in model domain inherits the DbId class that implements db id and debug functionalities</t>
+  </si>
+  <si>
+    <t>Implement a Test Mode</t>
+  </si>
+  <si>
+    <t>java app may be started in normal or unit test mode</t>
   </si>
   <si>
     <t>Development</t>
@@ -3957,97 +3963,99 @@
       <c r="Z37" s="42"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="C38" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="D38" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="43">
+        <v>45872.0</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="64"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="B39" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="67" t="s">
+      <c r="E39" s="66"/>
+      <c r="F39" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="68"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="69"/>
-      <c r="R38" s="69"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="69"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="69"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="69"/>
-      <c r="Y38" s="69"/>
-      <c r="Z38" s="69"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="70"/>
-      <c r="F39" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="71"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="69"/>
+      <c r="R39" s="69"/>
+      <c r="S39" s="69"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
+      <c r="V39" s="69"/>
+      <c r="W39" s="69"/>
+      <c r="X39" s="69"/>
+      <c r="Y39" s="69"/>
+      <c r="Z39" s="69"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="C40" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>130</v>
-      </c>
       <c r="D40" s="25" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="E40" s="70"/>
       <c r="F40" s="28" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="G40" s="71"/>
       <c r="H40" s="72"/>
@@ -4072,20 +4080,20 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>133</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="E41" s="70"/>
       <c r="F41" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G41" s="71"/>
       <c r="H41" s="72"/>
@@ -4109,51 +4117,80 @@
       <c r="Z41" s="72"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="D42" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="70"/>
+      <c r="F42" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="G42" s="71"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="72"/>
+      <c r="Y42" s="72"/>
+      <c r="Z42" s="72"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="B43" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G42" s="73"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
-      <c r="T42" s="74"/>
-      <c r="U42" s="74"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
-      <c r="X42" s="74"/>
-      <c r="Y42" s="74"/>
-      <c r="Z42" s="74"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="75"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="5"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" s="73"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="74"/>
+      <c r="S43" s="74"/>
+      <c r="T43" s="74"/>
+      <c r="U43" s="74"/>
+      <c r="V43" s="74"/>
+      <c r="W43" s="74"/>
+      <c r="X43" s="74"/>
+      <c r="Y43" s="74"/>
+      <c r="Z43" s="74"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="75"/>
@@ -4165,94 +4202,65 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="4"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="77"/>
       <c r="G45" s="5"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="A46" s="4"/>
       <c r="G46" s="5"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="4"/>
+      <c r="A47" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="G47" s="5"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F48" s="7" t="s">
+      <c r="D49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="78"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="79"/>
-      <c r="Q49" s="79"/>
-      <c r="R49" s="79"/>
-      <c r="S49" s="79"/>
-      <c r="T49" s="79"/>
-      <c r="U49" s="79"/>
-      <c r="V49" s="79"/>
-      <c r="W49" s="79"/>
-      <c r="X49" s="79"/>
-      <c r="Y49" s="79"/>
-      <c r="Z49" s="79"/>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="C50" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="80" t="s">
-        <v>148</v>
-      </c>
       <c r="D50" s="45" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E50" s="45"/>
       <c r="F50" s="44" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="G50" s="78"/>
       <c r="H50" s="79"/>
@@ -4277,20 +4285,20 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="45" t="s">
-        <v>152</v>
-      </c>
       <c r="D51" s="45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E51" s="45"/>
       <c r="F51" s="44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G51" s="78"/>
       <c r="H51" s="79"/>
@@ -4315,20 +4323,20 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="80" t="s">
-        <v>156</v>
-      </c>
       <c r="D52" s="45" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E52" s="45"/>
       <c r="F52" s="44" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G52" s="78"/>
       <c r="H52" s="79"/>
@@ -4353,20 +4361,20 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="45" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B53" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="45" t="s">
+      <c r="C53" s="80" t="s">
         <v>158</v>
       </c>
       <c r="D53" s="45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E53" s="45"/>
       <c r="F53" s="44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G53" s="78"/>
       <c r="H53" s="79"/>
@@ -4391,20 +4399,20 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="C54" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="80" t="s">
-        <v>161</v>
-      </c>
       <c r="D54" s="45" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E54" s="45"/>
       <c r="F54" s="44" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G54" s="78"/>
       <c r="H54" s="79"/>
@@ -4429,20 +4437,20 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="45" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B55" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="80" t="s">
         <v>163</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E55" s="45"/>
       <c r="F55" s="44" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="G55" s="78"/>
       <c r="H55" s="79"/>
@@ -4467,20 +4475,20 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="C56" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="81" t="s">
-        <v>166</v>
-      </c>
       <c r="D56" s="45" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E56" s="45"/>
       <c r="F56" s="44" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G56" s="78"/>
       <c r="H56" s="79"/>
@@ -4505,20 +4513,20 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="45" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B57" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="45" t="s">
-        <v>163</v>
+      <c r="C57" s="81" t="s">
+        <v>168</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E57" s="45"/>
       <c r="F57" s="44" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="G57" s="78"/>
       <c r="H57" s="79"/>
@@ -4543,20 +4551,20 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="45" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B58" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="81" t="s">
-        <v>170</v>
+      <c r="C58" s="45" t="s">
+        <v>165</v>
       </c>
       <c r="D58" s="45" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E58" s="45"/>
       <c r="F58" s="44" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="G58" s="78"/>
       <c r="H58" s="79"/>
@@ -4581,20 +4589,20 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="45" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" s="45" t="s">
-        <v>135</v>
+        <v>171</v>
+      </c>
+      <c r="C59" s="81" t="s">
+        <v>172</v>
       </c>
       <c r="D59" s="45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E59" s="45"/>
       <c r="F59" s="44" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="G59" s="78"/>
       <c r="H59" s="79"/>
@@ -4619,20 +4627,20 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="45" t="s">
         <v>137</v>
-      </c>
-      <c r="B60" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="45" t="s">
-        <v>139</v>
       </c>
       <c r="D60" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E60" s="45"/>
       <c r="F60" s="44" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G60" s="78"/>
       <c r="H60" s="79"/>
@@ -4656,96 +4664,96 @@
       <c r="Z60" s="79"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="4"/>
-      <c r="G61" s="5"/>
+      <c r="A61" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="45"/>
+      <c r="F61" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G61" s="78"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79"/>
+      <c r="M61" s="79"/>
+      <c r="N61" s="79"/>
+      <c r="O61" s="79"/>
+      <c r="P61" s="79"/>
+      <c r="Q61" s="79"/>
+      <c r="R61" s="79"/>
+      <c r="S61" s="79"/>
+      <c r="T61" s="79"/>
+      <c r="U61" s="79"/>
+      <c r="V61" s="79"/>
+      <c r="W61" s="79"/>
+      <c r="X61" s="79"/>
+      <c r="Y61" s="79"/>
+      <c r="Z61" s="79"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="1" t="s">
-        <v>172</v>
-      </c>
+      <c r="A62" s="4"/>
       <c r="G62" s="5"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="4"/>
+      <c r="A63" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="G63" s="5"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="4"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="7" t="s">
+      <c r="D65" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="B65" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="C65" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="D65" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="45"/>
-      <c r="F65" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="78"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="79"/>
-      <c r="L65" s="79"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="79"/>
-      <c r="O65" s="79"/>
-      <c r="P65" s="79"/>
-      <c r="Q65" s="79"/>
-      <c r="R65" s="79"/>
-      <c r="S65" s="79"/>
-      <c r="T65" s="79"/>
-      <c r="U65" s="79"/>
-      <c r="V65" s="79"/>
-      <c r="W65" s="79"/>
-      <c r="X65" s="79"/>
-      <c r="Y65" s="79"/>
-      <c r="Z65" s="79"/>
+      <c r="G65" s="5"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="C66" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="C66" s="80" t="s">
-        <v>178</v>
-      </c>
       <c r="D66" s="45" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E66" s="45"/>
       <c r="F66" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="45" t="s">
-        <v>179</v>
-      </c>
+      <c r="G66" s="78"/>
       <c r="H66" s="79"/>
       <c r="I66" s="79"/>
       <c r="J66" s="79"/>
@@ -4768,23 +4776,23 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="B67" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="80" t="s">
-        <v>181</v>
-      </c>
       <c r="D67" s="45" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="E67" s="45"/>
       <c r="F67" s="44" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="G67" s="45" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H67" s="79"/>
       <c r="I67" s="79"/>
@@ -4808,22 +4816,24 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" s="45"/>
+      <c r="F68" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="B68" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="45" t="s">
+      <c r="G68" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="D68" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E68" s="82"/>
-      <c r="F68" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G68" s="78"/>
       <c r="H68" s="79"/>
       <c r="I68" s="79"/>
       <c r="J68" s="79"/>
@@ -4849,17 +4859,17 @@
         <v>187</v>
       </c>
       <c r="B69" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C69" s="45" t="s">
-        <v>189</v>
-      </c>
       <c r="D69" s="45" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E69" s="82"/>
       <c r="F69" s="44" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="G69" s="78"/>
       <c r="H69" s="79"/>
@@ -4884,20 +4894,20 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="B70" s="45" t="s">
+      <c r="C70" s="45" t="s">
         <v>191</v>
-      </c>
-      <c r="C70" s="80" t="s">
-        <v>192</v>
       </c>
       <c r="D70" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="45"/>
+      <c r="E70" s="82"/>
       <c r="F70" s="44" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="G70" s="78"/>
       <c r="H70" s="79"/>
@@ -4922,18 +4932,18 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="C71" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="C71" s="45" t="s">
-        <v>195</v>
-      </c>
       <c r="D71" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E71" s="82"/>
+        <v>11</v>
+      </c>
+      <c r="E71" s="45"/>
       <c r="F71" s="44" t="s">
         <v>54</v>
       </c>
@@ -4960,20 +4970,20 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="B72" s="45" t="s">
+      <c r="C72" s="45" t="s">
         <v>197</v>
-      </c>
-      <c r="C72" s="80" t="s">
-        <v>198</v>
       </c>
       <c r="D72" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E72" s="45"/>
+      <c r="E72" s="82"/>
       <c r="F72" s="44" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="G72" s="78"/>
       <c r="H72" s="79"/>
@@ -4998,16 +5008,16 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="B73" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73" s="45" t="s">
+      <c r="C73" s="80" t="s">
         <v>200</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="E73" s="45"/>
       <c r="F73" s="44" t="s">
@@ -5036,20 +5046,20 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="45" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C74" s="45" t="s">
         <v>202</v>
       </c>
       <c r="D74" s="45" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="E74" s="45"/>
       <c r="F74" s="44" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="G74" s="78"/>
       <c r="H74" s="79"/>
@@ -5074,20 +5084,20 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B75" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="45"/>
+      <c r="F75" s="44" t="s">
         <v>134</v>
-      </c>
-      <c r="C75" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="D75" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E75" s="82"/>
-      <c r="F75" s="44" t="s">
-        <v>136</v>
       </c>
       <c r="G75" s="78"/>
       <c r="H75" s="79"/>
@@ -5112,20 +5122,20 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="D76" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E76" s="82"/>
       <c r="F76" s="44" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G76" s="78"/>
       <c r="H76" s="79"/>
@@ -5149,14 +5159,49 @@
       <c r="Z76" s="79"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="4"/>
-      <c r="G77" s="5"/>
+      <c r="A77" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77" s="82"/>
+      <c r="F77" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G77" s="78"/>
+      <c r="H77" s="79"/>
+      <c r="I77" s="79"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="79"/>
+      <c r="M77" s="79"/>
+      <c r="N77" s="79"/>
+      <c r="O77" s="79"/>
+      <c r="P77" s="79"/>
+      <c r="Q77" s="79"/>
+      <c r="R77" s="79"/>
+      <c r="S77" s="79"/>
+      <c r="T77" s="79"/>
+      <c r="U77" s="79"/>
+      <c r="V77" s="79"/>
+      <c r="W77" s="79"/>
+      <c r="X77" s="79"/>
+      <c r="Y77" s="79"/>
+      <c r="Z77" s="79"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="83"/>
+      <c r="A78" s="4"/>
       <c r="G78" s="5"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="83"/>
       <c r="G79" s="5"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">

--- a/documentation/Record Of Tasks.xlsx
+++ b/documentation/Record Of Tasks.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="cjTK7CeZuVzKWMAuZRk7pYViYT1P7addmWiQOAXdj9k="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="dYR/5zj6Yh8IA4Fo6YHHu5GO1ectRsQA/RX8o6LhJdM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="208">
   <si>
     <t>Waterfall Methodology</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Planned Outcome</t>
   </si>
   <si>
-    <t>Estimated Duration</t>
+    <t>Duration</t>
   </si>
   <si>
     <t>Completion Date</t>
@@ -63,7 +63,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -72,28 +72,112 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
+      <t xml:space="preserve"> scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> (detailed above)</t>
+    </r>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>01/15/2025</t>
+  </si>
+  <si>
+    <t>Criterion A: Planning</t>
+  </si>
+  <si>
+    <t>Interview to Discuss project goals and requirements with my uncle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>notes,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> notes</t>
+    </r>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>Draft explaining the scenario</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> draft, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
       <t>scenario</t>
     </r>
     <r>
       <rPr>
         <rFont val="Segoe UI"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> idea</t>
-    </r>
-  </si>
-  <si>
-    <t>1 week</t>
-  </si>
-  <si>
-    <t>01/15/2025</t>
-  </si>
-  <si>
-    <t>Criterion A: Planning</t>
-  </si>
-  <si>
-    <t>Interview to Discuss project goals and requirements with my uncle</t>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> draft</t>
+    </r>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t>Meeting with my uncle to Review of the draft for scenario and criteria</t>
   </si>
   <si>
     <r>
@@ -111,7 +195,7 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> notes,</t>
+      <t xml:space="preserve"> revised, </t>
     </r>
     <r>
       <rPr>
@@ -120,16 +204,24 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> functional solution</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> notes,</t>
-    </r>
+      <t>scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> revised</t>
+    </r>
+  </si>
+  <si>
+    <t>30 mn</t>
+  </si>
+  <si>
+    <t>success criteria and scenario refinment</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Segoe UI"/>
@@ -137,16 +229,16 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t>scenario notes</t>
-    </r>
-  </si>
-  <si>
-    <t>2 hours</t>
-  </si>
-  <si>
-    <t>Draft explaining the scenario</t>
-  </si>
-  <si>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> proposal, </t>
+    </r>
     <r>
       <rPr>
         <rFont val="Segoe UI"/>
@@ -154,6 +246,31 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
+      <t>scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> proposal</t>
+    </r>
+  </si>
+  <si>
+    <t>01/14/2025</t>
+  </si>
+  <si>
+    <t>Meeting with my uncle to validate of the  scenario and criteria</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
       <t xml:space="preserve"> success criteria</t>
     </r>
     <r>
@@ -162,7 +279,7 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> draft,</t>
+      <t xml:space="preserve"> and </t>
     </r>
     <r>
       <rPr>
@@ -171,82 +288,6 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> functional solution</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> draft,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> draft</t>
-    </r>
-  </si>
-  <si>
-    <t>5 hours</t>
-  </si>
-  <si>
-    <t>Meeting with my uncle to Review of the draft for scenario and criteria</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> success criteria</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> revised,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> functional solution</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> revised, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
       <t>scenario</t>
     </r>
     <r>
@@ -255,365 +296,11 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> revised</t>
-    </r>
-  </si>
-  <si>
-    <t>30 mn</t>
-  </si>
-  <si>
-    <t>success criteria and scenario refinment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> success criteria</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> proposal,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> functional solution</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> proposal, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> proposal</t>
-    </r>
-  </si>
-  <si>
-    <t>01/14/2025</t>
-  </si>
-  <si>
-    <t>Meeting with my uncle to validate of the  scenario and criteria</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> success criteria</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> draft validated </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,functional solutio</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">n draft validated, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>scenario draft</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
       <t xml:space="preserve"> validated</t>
     </r>
   </si>
   <si>
     <t>Research on previous solution</t>
-  </si>
-  <si>
-    <t>architecture and technology stack, solution (detailed above)</t>
-  </si>
-  <si>
-    <t>2 weeks</t>
-  </si>
-  <si>
-    <t>01/26/2025</t>
-  </si>
-  <si>
-    <t>Criterion A: Planning; Criterion B: Solution Overview</t>
-  </si>
-  <si>
-    <t>parallel with 5</t>
-  </si>
-  <si>
-    <t>Research on internet</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Quattrocento Sans"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">architecture and technology stack </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b val="0"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>draft</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">, solution </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b val="0"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>draft</t>
-    </r>
-  </si>
-  <si>
-    <t>01/17/2025</t>
-  </si>
-  <si>
-    <t>Revision with the CTO of my uncle</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Quattrocento Sans"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">advices correction on </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>architecture and technology stack</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> draft, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>solution</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> draft</t>
-    </r>
-  </si>
-  <si>
-    <t>01/22/2025</t>
-  </si>
-  <si>
-    <t>Correction on technology (use JAVA instead of Mobile app for now)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>architecture and technology</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> stack proposal, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>solution</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> proposal, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>success criteria</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> update</t>
-    </r>
-  </si>
-  <si>
-    <t>4 hours</t>
-  </si>
-  <si>
-    <t>01/25/2025</t>
-  </si>
-  <si>
-    <t>Meeting with my uncle and my uncle CTO to validate the solution</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>architecture and technology stack</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> validated,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> solution</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> validated, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>success criteria</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> revised</t>
-    </r>
-  </si>
-  <si>
-    <t>1 hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirement Gathering </t>
-  </si>
-  <si>
-    <t>Gather detailed requirements and expectations</t>
   </si>
   <si>
     <r>
@@ -623,7 +310,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Requirement Use Cases, Requirement List, System flow chart/Data flow diagram</t>
+      <t xml:space="preserve">architecture and technology stack, solution </t>
     </r>
     <r>
       <rPr>
@@ -632,6 +319,178 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
+      <t>(detailed above)</t>
+    </r>
+  </si>
+  <si>
+    <t>2 weeks</t>
+  </si>
+  <si>
+    <t>01/26/2025</t>
+  </si>
+  <si>
+    <t>Criterion A: Planning; Criterion B: Solution Overview</t>
+  </si>
+  <si>
+    <t>parallel with 5</t>
+  </si>
+  <si>
+    <t>Research on internet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">architecture and technology stack </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="0"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>draft</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, solution </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="0"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>draft</t>
+    </r>
+  </si>
+  <si>
+    <t>01/17/2025</t>
+  </si>
+  <si>
+    <t>Revision with the CTO of my uncle</t>
+  </si>
+  <si>
+    <t>advices correction on architecture and technology stack draft, solution draft</t>
+  </si>
+  <si>
+    <t>01/22/2025</t>
+  </si>
+  <si>
+    <t>Correction on technology (use JAVA instead of Mobile app for now)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Aptos Narrow"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>architecture and technology stack</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Aptos Narrow"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> proposal, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Aptos Narrow"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Aptos Narrow"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> proposal</t>
+    </r>
+  </si>
+  <si>
+    <t>01/25/2025</t>
+  </si>
+  <si>
+    <t>Meeting with my uncle and my uncle CTO to validate the solution</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Aptos Narrow"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>architecture and technology stack</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Aptos Narrow"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Aptos Narrow"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Aptos Narrow"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirement Gathering </t>
+  </si>
+  <si>
+    <t>Gather detailed requirements and expectations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Requirement Use Cases, Requirement List, System flow chart/Data flow diagram</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
       <t xml:space="preserve"> (detailed above)</t>
     </r>
   </si>
@@ -774,6 +633,9 @@
     </r>
   </si>
   <si>
+    <t>1 hour</t>
+  </si>
+  <si>
     <t xml:space="preserve">Meeting with my uncle and its CTO to check Requirement against Success Criteria and solution for MVP Scope </t>
   </si>
   <si>
@@ -862,9 +724,6 @@
       </rPr>
       <t xml:space="preserve"> validated</t>
     </r>
-  </si>
-  <si>
-    <t>we are late</t>
   </si>
   <si>
     <t>Test plan</t>
@@ -1267,6 +1126,9 @@
     <t>6 weeks</t>
   </si>
   <si>
+    <t>04/16/2025</t>
+  </si>
+  <si>
     <t>we initially decided to implement the database as first development, but the CTO of my uncle advises to start with the application model and views to obtain a rapid visual prototype (using a database mockup) to my uncle, to detect early errors or requirement misses.</t>
   </si>
   <si>
@@ -1307,7 +1169,7 @@
     </r>
   </si>
   <si>
-    <t>03/27/2025</t>
+    <t>today date</t>
   </si>
   <si>
     <r>
@@ -1407,6 +1269,15 @@
   </si>
   <si>
     <t>java app may be started in normal or unit test mode</t>
+  </si>
+  <si>
+    <t>Implement a Unit Test</t>
+  </si>
+  <si>
+    <t>unit test implemented for Model Domain (generated by chatGPT) and DbMockup (manual done)</t>
+  </si>
+  <si>
+    <t>2 hour</t>
   </si>
   <si>
     <t>Development</t>
@@ -1934,7 +1805,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1978,6 +1849,11 @@
       <sz val="11.0"/>
       <color theme="4"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF156082"/>
+      <name val="Quattrocento Sans"/>
     </font>
     <font>
       <b/>
@@ -2039,7 +1915,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border/>
     <border>
       <left/>
@@ -2047,9 +1923,7 @@
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
     </border>
     <border>
       <top style="thin">
@@ -2067,16 +1941,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left/>
@@ -2085,16 +1961,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <top style="thick">
@@ -2113,7 +1979,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2133,32 +1999,24 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2168,92 +2026,81 @@
     <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2263,65 +2110,44 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2331,7 +2157,7 @@
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -2558,10 +2384,10 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="17.38"/>
     <col customWidth="1" min="2" max="2" width="45.63"/>
-    <col customWidth="1" min="3" max="3" width="86.63"/>
-    <col customWidth="1" min="4" max="4" width="23.38"/>
+    <col customWidth="1" min="3" max="3" width="58.63"/>
+    <col customWidth="1" min="4" max="4" width="19.63"/>
     <col customWidth="1" min="5" max="5" width="22.13"/>
-    <col customWidth="1" min="6" max="6" width="48.63"/>
+    <col customWidth="1" min="6" max="6" width="49.25"/>
     <col customWidth="1" min="7" max="7" width="16.38"/>
     <col customWidth="1" min="8" max="26" width="10.63"/>
   </cols>
@@ -2611,7 +2437,7 @@
       <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -2619,87 +2445,87 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="10">
         <v>45839.0</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -2711,35 +2537,35 @@
       <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <v>45931.0</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -2751,35 +2577,35 @@
       <c r="D7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="10">
         <v>45992.0</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -2791,2420 +2617,2449 @@
       <c r="D8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-    </row>
-    <row r="9" ht="40.5" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
     </row>
     <row r="10" ht="49.5" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-    </row>
-    <row r="11" ht="34.5" customHeight="1">
-      <c r="A11" s="30" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="32" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
     </row>
     <row r="12">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="31">
+        <v>45840.0</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="33">
+        <v>45659.0</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="35">
+        <v>45690.0</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="35">
+        <v>45749.0</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="10">
+        <v>45840.0</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="35">
+        <v>45902.0</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="35">
+        <v>45932.0</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-    </row>
-    <row r="14" ht="34.5" customHeight="1">
-      <c r="A14" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="9">
-        <v>45840.0</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="E23" s="35">
+        <v>45993.0</v>
+      </c>
+      <c r="F23" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="40">
-        <v>45659.0</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="43">
-        <v>45690.0</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="43">
-        <v>45749.0</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="15">
-        <v>45840.0</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="43">
-        <v>45902.0</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="43">
-        <v>45932.0</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="43">
-        <v>45993.0</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="D24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="45" t="s">
+      <c r="B25" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="C25" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="D25" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="F25" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="C26" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="46">
+        <v>45660.0</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="47"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="40"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+    </row>
+    <row r="34" ht="79.5" customHeight="1">
+      <c r="A34" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="51"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="54"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="55"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="20" t="s">
+      <c r="E41" s="7"/>
+      <c r="F41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="56"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="57"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="57"/>
+      <c r="V41" s="57"/>
+      <c r="W41" s="57"/>
+      <c r="X41" s="57"/>
+      <c r="Y41" s="57"/>
+      <c r="Z41" s="57"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="58"/>
+      <c r="F42" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="56"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="57"/>
+      <c r="Y42" s="57"/>
+      <c r="Z42" s="57"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="52" t="s">
+      <c r="E43" s="58"/>
+      <c r="F43" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="56"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="57"/>
+      <c r="X43" s="57"/>
+      <c r="Y43" s="57"/>
+      <c r="Z43" s="57"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="59"/>
+      <c r="F44" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="60"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="61"/>
+      <c r="U44" s="61"/>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="61"/>
+      <c r="Y44" s="61"/>
+      <c r="Z44" s="61"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="62"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="62"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="4"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="4"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="64"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="65"/>
+      <c r="R51" s="65"/>
+      <c r="S51" s="65"/>
+      <c r="T51" s="65"/>
+      <c r="U51" s="65"/>
+      <c r="V51" s="65"/>
+      <c r="W51" s="65"/>
+      <c r="X51" s="65"/>
+      <c r="Y51" s="65"/>
+      <c r="Z51" s="65"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" s="64"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="65"/>
+      <c r="S52" s="65"/>
+      <c r="T52" s="65"/>
+      <c r="U52" s="65"/>
+      <c r="V52" s="65"/>
+      <c r="W52" s="65"/>
+      <c r="X52" s="65"/>
+      <c r="Y52" s="65"/>
+      <c r="Z52" s="65"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" s="64"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="65"/>
+      <c r="P53" s="65"/>
+      <c r="Q53" s="65"/>
+      <c r="R53" s="65"/>
+      <c r="S53" s="65"/>
+      <c r="T53" s="65"/>
+      <c r="U53" s="65"/>
+      <c r="V53" s="65"/>
+      <c r="W53" s="65"/>
+      <c r="X53" s="65"/>
+      <c r="Y53" s="65"/>
+      <c r="Z53" s="65"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" s="64"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="65"/>
+      <c r="P54" s="65"/>
+      <c r="Q54" s="65"/>
+      <c r="R54" s="65"/>
+      <c r="S54" s="65"/>
+      <c r="T54" s="65"/>
+      <c r="U54" s="65"/>
+      <c r="V54" s="65"/>
+      <c r="W54" s="65"/>
+      <c r="X54" s="65"/>
+      <c r="Y54" s="65"/>
+      <c r="Z54" s="65"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" s="64"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="65"/>
+      <c r="P55" s="65"/>
+      <c r="Q55" s="65"/>
+      <c r="R55" s="65"/>
+      <c r="S55" s="65"/>
+      <c r="T55" s="65"/>
+      <c r="U55" s="65"/>
+      <c r="V55" s="65"/>
+      <c r="W55" s="65"/>
+      <c r="X55" s="65"/>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="65"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G56" s="64"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="65"/>
+      <c r="R56" s="65"/>
+      <c r="S56" s="65"/>
+      <c r="T56" s="65"/>
+      <c r="U56" s="65"/>
+      <c r="V56" s="65"/>
+      <c r="W56" s="65"/>
+      <c r="X56" s="65"/>
+      <c r="Y56" s="65"/>
+      <c r="Z56" s="65"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="G57" s="64"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="65"/>
+      <c r="V57" s="65"/>
+      <c r="W57" s="65"/>
+      <c r="X57" s="65"/>
+      <c r="Y57" s="65"/>
+      <c r="Z57" s="65"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="64"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="65"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="65"/>
+      <c r="Q58" s="65"/>
+      <c r="R58" s="65"/>
+      <c r="S58" s="65"/>
+      <c r="T58" s="65"/>
+      <c r="U58" s="65"/>
+      <c r="V58" s="65"/>
+      <c r="W58" s="65"/>
+      <c r="X58" s="65"/>
+      <c r="Y58" s="65"/>
+      <c r="Z58" s="65"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" s="64"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="65"/>
+      <c r="O59" s="65"/>
+      <c r="P59" s="65"/>
+      <c r="Q59" s="65"/>
+      <c r="R59" s="65"/>
+      <c r="S59" s="65"/>
+      <c r="T59" s="65"/>
+      <c r="U59" s="65"/>
+      <c r="V59" s="65"/>
+      <c r="W59" s="65"/>
+      <c r="X59" s="65"/>
+      <c r="Y59" s="65"/>
+      <c r="Z59" s="65"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="G60" s="64"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="65"/>
+      <c r="S60" s="65"/>
+      <c r="T60" s="65"/>
+      <c r="U60" s="65"/>
+      <c r="V60" s="65"/>
+      <c r="W60" s="65"/>
+      <c r="X60" s="65"/>
+      <c r="Y60" s="65"/>
+      <c r="Z60" s="65"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="G61" s="64"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
+      <c r="M61" s="65"/>
+      <c r="N61" s="65"/>
+      <c r="O61" s="65"/>
+      <c r="P61" s="65"/>
+      <c r="Q61" s="65"/>
+      <c r="R61" s="65"/>
+      <c r="S61" s="65"/>
+      <c r="T61" s="65"/>
+      <c r="U61" s="65"/>
+      <c r="V61" s="65"/>
+      <c r="W61" s="65"/>
+      <c r="X61" s="65"/>
+      <c r="Y61" s="65"/>
+      <c r="Z61" s="65"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="G62" s="64"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="65"/>
+      <c r="N62" s="65"/>
+      <c r="O62" s="65"/>
+      <c r="P62" s="65"/>
+      <c r="Q62" s="65"/>
+      <c r="R62" s="65"/>
+      <c r="S62" s="65"/>
+      <c r="T62" s="65"/>
+      <c r="U62" s="65"/>
+      <c r="V62" s="65"/>
+      <c r="W62" s="65"/>
+      <c r="X62" s="65"/>
+      <c r="Y62" s="65"/>
+      <c r="Z62" s="65"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="4"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="4"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="64"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+      <c r="M67" s="65"/>
+      <c r="N67" s="65"/>
+      <c r="O67" s="65"/>
+      <c r="P67" s="65"/>
+      <c r="Q67" s="65"/>
+      <c r="R67" s="65"/>
+      <c r="S67" s="65"/>
+      <c r="T67" s="65"/>
+      <c r="U67" s="65"/>
+      <c r="V67" s="65"/>
+      <c r="W67" s="65"/>
+      <c r="X67" s="65"/>
+      <c r="Y67" s="65"/>
+      <c r="Z67" s="65"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
+      <c r="M68" s="65"/>
+      <c r="N68" s="65"/>
+      <c r="O68" s="65"/>
+      <c r="P68" s="65"/>
+      <c r="Q68" s="65"/>
+      <c r="R68" s="65"/>
+      <c r="S68" s="65"/>
+      <c r="T68" s="65"/>
+      <c r="U68" s="65"/>
+      <c r="V68" s="65"/>
+      <c r="W68" s="65"/>
+      <c r="X68" s="65"/>
+      <c r="Y68" s="65"/>
+      <c r="Z68" s="65"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="G69" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
+      <c r="M69" s="65"/>
+      <c r="N69" s="65"/>
+      <c r="O69" s="65"/>
+      <c r="P69" s="65"/>
+      <c r="Q69" s="65"/>
+      <c r="R69" s="65"/>
+      <c r="S69" s="65"/>
+      <c r="T69" s="65"/>
+      <c r="U69" s="65"/>
+      <c r="V69" s="65"/>
+      <c r="W69" s="65"/>
+      <c r="X69" s="65"/>
+      <c r="Y69" s="65"/>
+      <c r="Z69" s="65"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="68"/>
+      <c r="F70" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="53">
-        <v>45660.0</v>
-      </c>
-      <c r="F32" s="54" t="s">
+      <c r="G70" s="64"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
+      <c r="M70" s="65"/>
+      <c r="N70" s="65"/>
+      <c r="O70" s="65"/>
+      <c r="P70" s="65"/>
+      <c r="Q70" s="65"/>
+      <c r="R70" s="65"/>
+      <c r="S70" s="65"/>
+      <c r="T70" s="65"/>
+      <c r="U70" s="65"/>
+      <c r="V70" s="65"/>
+      <c r="W70" s="65"/>
+      <c r="X70" s="65"/>
+      <c r="Y70" s="65"/>
+      <c r="Z70" s="65"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="68"/>
+      <c r="F71" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="64"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="65"/>
+      <c r="M71" s="65"/>
+      <c r="N71" s="65"/>
+      <c r="O71" s="65"/>
+      <c r="P71" s="65"/>
+      <c r="Q71" s="65"/>
+      <c r="R71" s="65"/>
+      <c r="S71" s="65"/>
+      <c r="T71" s="65"/>
+      <c r="U71" s="65"/>
+      <c r="V71" s="65"/>
+      <c r="W71" s="65"/>
+      <c r="X71" s="65"/>
+      <c r="Y71" s="65"/>
+      <c r="Z71" s="65"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72" s="64"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="65"/>
+      <c r="L72" s="65"/>
+      <c r="M72" s="65"/>
+      <c r="N72" s="65"/>
+      <c r="O72" s="65"/>
+      <c r="P72" s="65"/>
+      <c r="Q72" s="65"/>
+      <c r="R72" s="65"/>
+      <c r="S72" s="65"/>
+      <c r="T72" s="65"/>
+      <c r="U72" s="65"/>
+      <c r="V72" s="65"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="65"/>
+      <c r="Z72" s="65"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="68"/>
+      <c r="F73" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73" s="64"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
+      <c r="M73" s="65"/>
+      <c r="N73" s="65"/>
+      <c r="O73" s="65"/>
+      <c r="P73" s="65"/>
+      <c r="Q73" s="65"/>
+      <c r="R73" s="65"/>
+      <c r="S73" s="65"/>
+      <c r="T73" s="65"/>
+      <c r="U73" s="65"/>
+      <c r="V73" s="65"/>
+      <c r="W73" s="65"/>
+      <c r="X73" s="65"/>
+      <c r="Y73" s="65"/>
+      <c r="Z73" s="65"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G74" s="64"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="65"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="65"/>
+      <c r="N74" s="65"/>
+      <c r="O74" s="65"/>
+      <c r="P74" s="65"/>
+      <c r="Q74" s="65"/>
+      <c r="R74" s="65"/>
+      <c r="S74" s="65"/>
+      <c r="T74" s="65"/>
+      <c r="U74" s="65"/>
+      <c r="V74" s="65"/>
+      <c r="W74" s="65"/>
+      <c r="X74" s="65"/>
+      <c r="Y74" s="65"/>
+      <c r="Z74" s="65"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-    </row>
-    <row r="34" ht="79.5" customHeight="1">
-      <c r="A34" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="61"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="43">
-        <v>45811.0</v>
-      </c>
-      <c r="F35" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="42"/>
-      <c r="Z35" s="42"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="43">
-        <v>45841.0</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="43">
-        <v>45872.0</v>
-      </c>
-      <c r="F37" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="64"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="43">
-        <v>45872.0</v>
-      </c>
-      <c r="F38" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
-      <c r="Y38" s="42"/>
-      <c r="Z38" s="42"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="68"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="69"/>
-      <c r="R39" s="69"/>
-      <c r="S39" s="69"/>
-      <c r="T39" s="69"/>
-      <c r="U39" s="69"/>
-      <c r="V39" s="69"/>
-      <c r="W39" s="69"/>
-      <c r="X39" s="69"/>
-      <c r="Y39" s="69"/>
-      <c r="Z39" s="69"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="25" t="s">
+      <c r="C75" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G75" s="64"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="65"/>
+      <c r="M75" s="65"/>
+      <c r="N75" s="65"/>
+      <c r="O75" s="65"/>
+      <c r="P75" s="65"/>
+      <c r="Q75" s="65"/>
+      <c r="R75" s="65"/>
+      <c r="S75" s="65"/>
+      <c r="T75" s="65"/>
+      <c r="U75" s="65"/>
+      <c r="V75" s="65"/>
+      <c r="W75" s="65"/>
+      <c r="X75" s="65"/>
+      <c r="Y75" s="65"/>
+      <c r="Z75" s="65"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="70"/>
-      <c r="F40" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="71"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" s="71"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="72"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
-      <c r="X41" s="72"/>
-      <c r="Y41" s="72"/>
-      <c r="Z41" s="72"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="25" t="s">
+      <c r="E76" s="36"/>
+      <c r="F76" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="G76" s="64"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="65"/>
+      <c r="K76" s="65"/>
+      <c r="L76" s="65"/>
+      <c r="M76" s="65"/>
+      <c r="N76" s="65"/>
+      <c r="O76" s="65"/>
+      <c r="P76" s="65"/>
+      <c r="Q76" s="65"/>
+      <c r="R76" s="65"/>
+      <c r="S76" s="65"/>
+      <c r="T76" s="65"/>
+      <c r="U76" s="65"/>
+      <c r="V76" s="65"/>
+      <c r="W76" s="65"/>
+      <c r="X76" s="65"/>
+      <c r="Y76" s="65"/>
+      <c r="Z76" s="65"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D42" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="70"/>
-      <c r="F42" s="28" t="s">
+      <c r="B77" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="G42" s="71"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B43" s="8" t="s">
+      <c r="C77" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" s="68"/>
+      <c r="F77" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="G77" s="64"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="65"/>
+      <c r="K77" s="65"/>
+      <c r="L77" s="65"/>
+      <c r="M77" s="65"/>
+      <c r="N77" s="65"/>
+      <c r="O77" s="65"/>
+      <c r="P77" s="65"/>
+      <c r="Q77" s="65"/>
+      <c r="R77" s="65"/>
+      <c r="S77" s="65"/>
+      <c r="T77" s="65"/>
+      <c r="U77" s="65"/>
+      <c r="V77" s="65"/>
+      <c r="W77" s="65"/>
+      <c r="X77" s="65"/>
+      <c r="Y77" s="65"/>
+      <c r="Z77" s="65"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G43" s="73"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="74"/>
-      <c r="T43" s="74"/>
-      <c r="U43" s="74"/>
-      <c r="V43" s="74"/>
-      <c r="W43" s="74"/>
-      <c r="X43" s="74"/>
-      <c r="Y43" s="74"/>
-      <c r="Z43" s="74"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="75"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="75"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="4"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
+      <c r="B78" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="C78" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="45"/>
-      <c r="F50" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="78"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="79"/>
-      <c r="O50" s="79"/>
-      <c r="P50" s="79"/>
-      <c r="Q50" s="79"/>
-      <c r="R50" s="79"/>
-      <c r="S50" s="79"/>
-      <c r="T50" s="79"/>
-      <c r="U50" s="79"/>
-      <c r="V50" s="79"/>
-      <c r="W50" s="79"/>
-      <c r="X50" s="79"/>
-      <c r="Y50" s="79"/>
-      <c r="Z50" s="79"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="G51" s="78"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="79"/>
-      <c r="N51" s="79"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="79"/>
-      <c r="R51" s="79"/>
-      <c r="S51" s="79"/>
-      <c r="T51" s="79"/>
-      <c r="U51" s="79"/>
-      <c r="V51" s="79"/>
-      <c r="W51" s="79"/>
-      <c r="X51" s="79"/>
-      <c r="Y51" s="79"/>
-      <c r="Z51" s="79"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="G52" s="78"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="79"/>
-      <c r="N52" s="79"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="79"/>
-      <c r="Q52" s="79"/>
-      <c r="R52" s="79"/>
-      <c r="S52" s="79"/>
-      <c r="T52" s="79"/>
-      <c r="U52" s="79"/>
-      <c r="V52" s="79"/>
-      <c r="W52" s="79"/>
-      <c r="X52" s="79"/>
-      <c r="Y52" s="79"/>
-      <c r="Z52" s="79"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="80" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="G53" s="78"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="79"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="79"/>
-      <c r="R53" s="79"/>
-      <c r="S53" s="79"/>
-      <c r="T53" s="79"/>
-      <c r="U53" s="79"/>
-      <c r="V53" s="79"/>
-      <c r="W53" s="79"/>
-      <c r="X53" s="79"/>
-      <c r="Y53" s="79"/>
-      <c r="Z53" s="79"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="G54" s="78"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="79"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="79"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="79"/>
-      <c r="U54" s="79"/>
-      <c r="V54" s="79"/>
-      <c r="W54" s="79"/>
-      <c r="X54" s="79"/>
-      <c r="Y54" s="79"/>
-      <c r="Z54" s="79"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="45"/>
-      <c r="F55" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="G55" s="78"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="79"/>
-      <c r="S55" s="79"/>
-      <c r="T55" s="79"/>
-      <c r="U55" s="79"/>
-      <c r="V55" s="79"/>
-      <c r="W55" s="79"/>
-      <c r="X55" s="79"/>
-      <c r="Y55" s="79"/>
-      <c r="Z55" s="79"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="D56" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="45"/>
-      <c r="F56" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="G56" s="78"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
-      <c r="Q56" s="79"/>
-      <c r="R56" s="79"/>
-      <c r="S56" s="79"/>
-      <c r="T56" s="79"/>
-      <c r="U56" s="79"/>
-      <c r="V56" s="79"/>
-      <c r="W56" s="79"/>
-      <c r="X56" s="79"/>
-      <c r="Y56" s="79"/>
-      <c r="Z56" s="79"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="D57" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="45"/>
-      <c r="F57" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="G57" s="78"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="79"/>
-      <c r="R57" s="79"/>
-      <c r="S57" s="79"/>
-      <c r="T57" s="79"/>
-      <c r="U57" s="79"/>
-      <c r="V57" s="79"/>
-      <c r="W57" s="79"/>
-      <c r="X57" s="79"/>
-      <c r="Y57" s="79"/>
-      <c r="Z57" s="79"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="B58" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="45"/>
-      <c r="F58" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="G58" s="78"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="79"/>
-      <c r="R58" s="79"/>
-      <c r="S58" s="79"/>
-      <c r="T58" s="79"/>
-      <c r="U58" s="79"/>
-      <c r="V58" s="79"/>
-      <c r="W58" s="79"/>
-      <c r="X58" s="79"/>
-      <c r="Y58" s="79"/>
-      <c r="Z58" s="79"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="B59" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="45"/>
-      <c r="F59" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="G59" s="78"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="79"/>
-      <c r="R59" s="79"/>
-      <c r="S59" s="79"/>
-      <c r="T59" s="79"/>
-      <c r="U59" s="79"/>
-      <c r="V59" s="79"/>
-      <c r="W59" s="79"/>
-      <c r="X59" s="79"/>
-      <c r="Y59" s="79"/>
-      <c r="Z59" s="79"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="G60" s="78"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="79"/>
-      <c r="P60" s="79"/>
-      <c r="Q60" s="79"/>
-      <c r="R60" s="79"/>
-      <c r="S60" s="79"/>
-      <c r="T60" s="79"/>
-      <c r="U60" s="79"/>
-      <c r="V60" s="79"/>
-      <c r="W60" s="79"/>
-      <c r="X60" s="79"/>
-      <c r="Y60" s="79"/>
-      <c r="Z60" s="79"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" s="45" t="s">
+      <c r="D78" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" s="68"/>
+      <c r="F78" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="45"/>
-      <c r="F61" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="G61" s="78"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="79"/>
-      <c r="O61" s="79"/>
-      <c r="P61" s="79"/>
-      <c r="Q61" s="79"/>
-      <c r="R61" s="79"/>
-      <c r="S61" s="79"/>
-      <c r="T61" s="79"/>
-      <c r="U61" s="79"/>
-      <c r="V61" s="79"/>
-      <c r="W61" s="79"/>
-      <c r="X61" s="79"/>
-      <c r="Y61" s="79"/>
-      <c r="Z61" s="79"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="4"/>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="4"/>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="B66" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" s="45"/>
-      <c r="F66" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="78"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="79"/>
-      <c r="K66" s="79"/>
-      <c r="L66" s="79"/>
-      <c r="M66" s="79"/>
-      <c r="N66" s="79"/>
-      <c r="O66" s="79"/>
-      <c r="P66" s="79"/>
-      <c r="Q66" s="79"/>
-      <c r="R66" s="79"/>
-      <c r="S66" s="79"/>
-      <c r="T66" s="79"/>
-      <c r="U66" s="79"/>
-      <c r="V66" s="79"/>
-      <c r="W66" s="79"/>
-      <c r="X66" s="79"/>
-      <c r="Y66" s="79"/>
-      <c r="Z66" s="79"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="B67" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C67" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="D67" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="45"/>
-      <c r="F67" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="79"/>
-      <c r="M67" s="79"/>
-      <c r="N67" s="79"/>
-      <c r="O67" s="79"/>
-      <c r="P67" s="79"/>
-      <c r="Q67" s="79"/>
-      <c r="R67" s="79"/>
-      <c r="S67" s="79"/>
-      <c r="T67" s="79"/>
-      <c r="U67" s="79"/>
-      <c r="V67" s="79"/>
-      <c r="W67" s="79"/>
-      <c r="X67" s="79"/>
-      <c r="Y67" s="79"/>
-      <c r="Z67" s="79"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="B68" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="D68" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="E68" s="45"/>
-      <c r="F68" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="G68" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="H68" s="79"/>
-      <c r="I68" s="79"/>
-      <c r="J68" s="79"/>
-      <c r="K68" s="79"/>
-      <c r="L68" s="79"/>
-      <c r="M68" s="79"/>
-      <c r="N68" s="79"/>
-      <c r="O68" s="79"/>
-      <c r="P68" s="79"/>
-      <c r="Q68" s="79"/>
-      <c r="R68" s="79"/>
-      <c r="S68" s="79"/>
-      <c r="T68" s="79"/>
-      <c r="U68" s="79"/>
-      <c r="V68" s="79"/>
-      <c r="W68" s="79"/>
-      <c r="X68" s="79"/>
-      <c r="Y68" s="79"/>
-      <c r="Z68" s="79"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="B69" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="D69" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E69" s="82"/>
-      <c r="F69" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G69" s="78"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="79"/>
-      <c r="N69" s="79"/>
-      <c r="O69" s="79"/>
-      <c r="P69" s="79"/>
-      <c r="Q69" s="79"/>
-      <c r="R69" s="79"/>
-      <c r="S69" s="79"/>
-      <c r="T69" s="79"/>
-      <c r="U69" s="79"/>
-      <c r="V69" s="79"/>
-      <c r="W69" s="79"/>
-      <c r="X69" s="79"/>
-      <c r="Y69" s="79"/>
-      <c r="Z69" s="79"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="B70" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="82"/>
-      <c r="F70" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="G70" s="78"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="79"/>
-      <c r="N70" s="79"/>
-      <c r="O70" s="79"/>
-      <c r="P70" s="79"/>
-      <c r="Q70" s="79"/>
-      <c r="R70" s="79"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="79"/>
-      <c r="U70" s="79"/>
-      <c r="V70" s="79"/>
-      <c r="W70" s="79"/>
-      <c r="X70" s="79"/>
-      <c r="Y70" s="79"/>
-      <c r="Z70" s="79"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="B71" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="D71" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="45"/>
-      <c r="F71" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G71" s="78"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
-      <c r="J71" s="79"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="79"/>
-      <c r="N71" s="79"/>
-      <c r="O71" s="79"/>
-      <c r="P71" s="79"/>
-      <c r="Q71" s="79"/>
-      <c r="R71" s="79"/>
-      <c r="S71" s="79"/>
-      <c r="T71" s="79"/>
-      <c r="U71" s="79"/>
-      <c r="V71" s="79"/>
-      <c r="W71" s="79"/>
-      <c r="X71" s="79"/>
-      <c r="Y71" s="79"/>
-      <c r="Z71" s="79"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="B72" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="D72" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E72" s="82"/>
-      <c r="F72" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G72" s="78"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="79"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="79"/>
-      <c r="N72" s="79"/>
-      <c r="O72" s="79"/>
-      <c r="P72" s="79"/>
-      <c r="Q72" s="79"/>
-      <c r="R72" s="79"/>
-      <c r="S72" s="79"/>
-      <c r="T72" s="79"/>
-      <c r="U72" s="79"/>
-      <c r="V72" s="79"/>
-      <c r="W72" s="79"/>
-      <c r="X72" s="79"/>
-      <c r="Y72" s="79"/>
-      <c r="Z72" s="79"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="B73" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="C73" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="D73" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E73" s="45"/>
-      <c r="F73" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G73" s="78"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="79"/>
-      <c r="P73" s="79"/>
-      <c r="Q73" s="79"/>
-      <c r="R73" s="79"/>
-      <c r="S73" s="79"/>
-      <c r="T73" s="79"/>
-      <c r="U73" s="79"/>
-      <c r="V73" s="79"/>
-      <c r="W73" s="79"/>
-      <c r="X73" s="79"/>
-      <c r="Y73" s="79"/>
-      <c r="Z73" s="79"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="B74" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="D74" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E74" s="45"/>
-      <c r="F74" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G74" s="78"/>
-      <c r="H74" s="79"/>
-      <c r="I74" s="79"/>
-      <c r="J74" s="79"/>
-      <c r="K74" s="79"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="79"/>
-      <c r="N74" s="79"/>
-      <c r="O74" s="79"/>
-      <c r="P74" s="79"/>
-      <c r="Q74" s="79"/>
-      <c r="R74" s="79"/>
-      <c r="S74" s="79"/>
-      <c r="T74" s="79"/>
-      <c r="U74" s="79"/>
-      <c r="V74" s="79"/>
-      <c r="W74" s="79"/>
-      <c r="X74" s="79"/>
-      <c r="Y74" s="79"/>
-      <c r="Z74" s="79"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B75" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C75" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="D75" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E75" s="45"/>
-      <c r="F75" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="G75" s="78"/>
-      <c r="H75" s="79"/>
-      <c r="I75" s="79"/>
-      <c r="J75" s="79"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="79"/>
-      <c r="N75" s="79"/>
-      <c r="O75" s="79"/>
-      <c r="P75" s="79"/>
-      <c r="Q75" s="79"/>
-      <c r="R75" s="79"/>
-      <c r="S75" s="79"/>
-      <c r="T75" s="79"/>
-      <c r="U75" s="79"/>
-      <c r="V75" s="79"/>
-      <c r="W75" s="79"/>
-      <c r="X75" s="79"/>
-      <c r="Y75" s="79"/>
-      <c r="Z75" s="79"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="B76" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C76" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D76" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E76" s="82"/>
-      <c r="F76" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="G76" s="78"/>
-      <c r="H76" s="79"/>
-      <c r="I76" s="79"/>
-      <c r="J76" s="79"/>
-      <c r="K76" s="79"/>
-      <c r="L76" s="79"/>
-      <c r="M76" s="79"/>
-      <c r="N76" s="79"/>
-      <c r="O76" s="79"/>
-      <c r="P76" s="79"/>
-      <c r="Q76" s="79"/>
-      <c r="R76" s="79"/>
-      <c r="S76" s="79"/>
-      <c r="T76" s="79"/>
-      <c r="U76" s="79"/>
-      <c r="V76" s="79"/>
-      <c r="W76" s="79"/>
-      <c r="X76" s="79"/>
-      <c r="Y76" s="79"/>
-      <c r="Z76" s="79"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="B77" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="C77" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="D77" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E77" s="82"/>
-      <c r="F77" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="G77" s="78"/>
-      <c r="H77" s="79"/>
-      <c r="I77" s="79"/>
-      <c r="J77" s="79"/>
-      <c r="K77" s="79"/>
-      <c r="L77" s="79"/>
-      <c r="M77" s="79"/>
-      <c r="N77" s="79"/>
-      <c r="O77" s="79"/>
-      <c r="P77" s="79"/>
-      <c r="Q77" s="79"/>
-      <c r="R77" s="79"/>
-      <c r="S77" s="79"/>
-      <c r="T77" s="79"/>
-      <c r="U77" s="79"/>
-      <c r="V77" s="79"/>
-      <c r="W77" s="79"/>
-      <c r="X77" s="79"/>
-      <c r="Y77" s="79"/>
-      <c r="Z77" s="79"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="4"/>
-      <c r="G78" s="5"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="65"/>
+      <c r="K78" s="65"/>
+      <c r="L78" s="65"/>
+      <c r="M78" s="65"/>
+      <c r="N78" s="65"/>
+      <c r="O78" s="65"/>
+      <c r="P78" s="65"/>
+      <c r="Q78" s="65"/>
+      <c r="R78" s="65"/>
+      <c r="S78" s="65"/>
+      <c r="T78" s="65"/>
+      <c r="U78" s="65"/>
+      <c r="V78" s="65"/>
+      <c r="W78" s="65"/>
+      <c r="X78" s="65"/>
+      <c r="Y78" s="65"/>
+      <c r="Z78" s="65"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="83"/>
+      <c r="A79" s="4"/>
       <c r="G79" s="5"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="69"/>
       <c r="G80" s="5"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">

--- a/documentation/Record Of Tasks.xlsx
+++ b/documentation/Record Of Tasks.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="dYR/5zj6Yh8IA4Fo6YHHu5GO1ectRsQA/RX8o6LhJdM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="6AsrQOzvsaAWM3w7gUsjvQconsHAEQV1XvBR0/kvfiQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="211">
   <si>
     <t>Waterfall Methodology</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Planned Outcome</t>
   </si>
   <si>
-    <t>Duration</t>
+    <t>Estimated Duration</t>
   </si>
   <si>
     <t>Completion Date</t>
@@ -63,7 +63,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>,</t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -72,28 +72,138 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
+      <t>scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> idea</t>
+    </r>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>01/15/2025</t>
+  </si>
+  <si>
+    <t>Criterion A: Planning</t>
+  </si>
+  <si>
+    <t>Interview to Discuss project goals and requirements with my uncle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> notes,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> functional solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> notes,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>scenario notes</t>
+    </r>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>Draft explaining the scenario</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> draft,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> functional solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> draft,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
       <t xml:space="preserve"> scenario</t>
     </r>
     <r>
       <rPr>
         <rFont val="Segoe UI"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> (detailed above)</t>
-    </r>
-  </si>
-  <si>
-    <t>1 week</t>
-  </si>
-  <si>
-    <t>01/15/2025</t>
-  </si>
-  <si>
-    <t>Criterion A: Planning</t>
-  </si>
-  <si>
-    <t>Interview to Discuss project goals and requirements with my uncle</t>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> draft</t>
+    </r>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t>Meeting with my uncle to Review of the draft for scenario and criteria</t>
   </si>
   <si>
     <r>
@@ -103,15 +213,15 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> success criteria </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>notes,</t>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> revised,</t>
     </r>
     <r>
       <rPr>
@@ -120,24 +230,16 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> notes</t>
-    </r>
-  </si>
-  <si>
-    <t>2 hours</t>
-  </si>
-  <si>
-    <t>Draft explaining the scenario</t>
-  </si>
-  <si>
+      <t xml:space="preserve"> functional solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> revised, </t>
+    </r>
     <r>
       <rPr>
         <rFont val="Segoe UI"/>
@@ -145,6 +247,31 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
+      <t>scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> revised</t>
+    </r>
+  </si>
+  <si>
+    <t>30 mn</t>
+  </si>
+  <si>
+    <t>success criteria and scenario refinment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
       <t xml:space="preserve"> success criteria</t>
     </r>
     <r>
@@ -153,6 +280,191 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
+      <t xml:space="preserve"> proposal,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> functional solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> proposal, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> proposal</t>
+    </r>
+  </si>
+  <si>
+    <t>01/14/2025</t>
+  </si>
+  <si>
+    <t>Meeting with my uncle to validate of the  scenario and criteria</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> draft validated </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,functional solutio</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">n draft validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>scenario draft</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated</t>
+    </r>
+  </si>
+  <si>
+    <t>Research on previous solution</t>
+  </si>
+  <si>
+    <t>architecture and technology stack, solution (detailed above)</t>
+  </si>
+  <si>
+    <t>2 weeks</t>
+  </si>
+  <si>
+    <t>01/26/2025</t>
+  </si>
+  <si>
+    <t>Criterion A: Planning; Criterion B: Solution Overview</t>
+  </si>
+  <si>
+    <t>parallel with 5</t>
+  </si>
+  <si>
+    <t>Research on internet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">architecture and technology stack </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="0"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>draft</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, solution </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="0"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>draft</t>
+    </r>
+  </si>
+  <si>
+    <t>01/17/2025</t>
+  </si>
+  <si>
+    <t>Revision with the CTO of my uncle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">advices correction on </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>architecture and technology stack</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
       <t xml:space="preserve"> draft, </t>
     </r>
     <r>
@@ -162,7 +474,7 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t>scenario</t>
+      <t>solution</t>
     </r>
     <r>
       <rPr>
@@ -174,10 +486,10 @@
     </r>
   </si>
   <si>
-    <t>5 hours</t>
-  </si>
-  <si>
-    <t>Meeting with my uncle to Review of the draft for scenario and criteria</t>
+    <t>01/22/2025</t>
+  </si>
+  <si>
+    <t>Correction on technology (use JAVA instead of Mobile app for now)</t>
   </si>
   <si>
     <r>
@@ -187,15 +499,15 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> success criteria</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> revised, </t>
+      <t>architecture and technology</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> stack proposal, </t>
     </r>
     <r>
       <rPr>
@@ -204,7 +516,86 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t>scenario</t>
+      <t>solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> proposal, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> update</t>
+    </r>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t>01/25/2025</t>
+  </si>
+  <si>
+    <t>Meeting with my uncle and my uncle CTO to validate the solution</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>architecture and technology stack</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> solution</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>success criteria</t>
     </r>
     <r>
       <rPr>
@@ -216,91 +607,13 @@
     </r>
   </si>
   <si>
-    <t>30 mn</t>
-  </si>
-  <si>
-    <t>success criteria and scenario refinment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> success criteria</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> proposal, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> proposal</t>
-    </r>
-  </si>
-  <si>
-    <t>01/14/2025</t>
-  </si>
-  <si>
-    <t>Meeting with my uncle to validate of the  scenario and criteria</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> success criteria</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> validated</t>
-    </r>
-  </si>
-  <si>
-    <t>Research on previous solution</t>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirement Gathering </t>
+  </si>
+  <si>
+    <t>Gather detailed requirements and expectations</t>
   </si>
   <si>
     <r>
@@ -310,7 +623,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">architecture and technology stack, solution </t>
+      <t>Requirement Use Cases, Requirement List, System flow chart/Data flow diagram</t>
     </r>
     <r>
       <rPr>
@@ -319,43 +632,151 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>(detailed above)</t>
-    </r>
-  </si>
-  <si>
-    <t>2 weeks</t>
-  </si>
-  <si>
-    <t>01/26/2025</t>
-  </si>
-  <si>
-    <t>Criterion A: Planning; Criterion B: Solution Overview</t>
-  </si>
-  <si>
-    <t>parallel with 5</t>
-  </si>
-  <si>
-    <t>Research on internet</t>
+      <t xml:space="preserve"> (detailed above)</t>
+    </r>
+  </si>
+  <si>
+    <t>parallel with 6</t>
+  </si>
+  <si>
+    <t>Brainstorming with my uncle to discuss requirements and constraint for players interactions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>DFD</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> and constraints, scope of interaction, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>use case</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour </t>
+  </si>
+  <si>
+    <t>Criterion B: Solution Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brainstorming with my uncle to discussiscuss on Data that must be stored for functional or business needs, review of data privacy needs </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>DFD</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Domain Model</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> ideation. Data we want to keep in DB are defined, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Data privacy </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>taken in account in</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> requirement list</t>
+    </r>
+  </si>
+  <si>
+    <t>Requirement Gathering</t>
+  </si>
+  <si>
+    <t>Brainstorming with my uncle to discussiscussion over game limitation, scoring, and selection, use cases in brainstorming with uncle and its CTO</t>
   </si>
   <si>
     <r>
       <rPr>
         <rFont val="Quattrocento Sans"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Discussion over game limitation, scoring, and selection,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
         <b/>
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">architecture and technology stack </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b val="0"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>draft</t>
-    </r>
+      <t xml:space="preserve"> use cases</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> and  requirement list</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with my uncle and its CTO to check Requirement against Success Criteria and solution for MVP Scope </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Segoe UI"/>
@@ -363,105 +784,79 @@
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">, solution </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b val="0"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>draft</t>
-    </r>
-  </si>
-  <si>
-    <t>01/17/2025</t>
-  </si>
-  <si>
-    <t>Revision with the CTO of my uncle</t>
-  </si>
-  <si>
-    <t>advices correction on architecture and technology stack draft, solution draft</t>
-  </si>
-  <si>
-    <t>01/22/2025</t>
-  </si>
-  <si>
-    <t>Correction on technology (use JAVA instead of Mobile app for now)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Aptos Narrow"/>
+      <t>success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
         <b/>
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t>architecture and technology stack</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Aptos Narrow"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> proposal, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Aptos Narrow"/>
+      <t>requirement list</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
         <b/>
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
+      <t>use cases</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
       <t>solution</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Aptos Narrow"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> proposal</t>
-    </r>
-  </si>
-  <si>
-    <t>01/25/2025</t>
-  </si>
-  <si>
-    <t>Meeting with my uncle and my uncle CTO to validate the solution</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">  validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
         <b/>
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
-      <t>architecture and technology stack</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Aptos Narrow"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> validated, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Aptos Narrow"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>solution</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Aptos Narrow"/>
+      <t>UML Domain Model</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
         <color theme="4"/>
         <sz val="11.0"/>
       </rPr>
@@ -469,261 +864,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Requirement Gathering </t>
-  </si>
-  <si>
-    <t>Gather detailed requirements and expectations</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Quattrocento Sans"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Requirement Use Cases, Requirement List, System flow chart/Data flow diagram</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> (detailed above)</t>
-    </r>
-  </si>
-  <si>
-    <t>parallel with 6</t>
-  </si>
-  <si>
-    <t>Brainstorming with my uncle to discuss requirements and constraint for players interactions</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>DFD</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> and constraints, scope of interaction, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>use case</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1 hour </t>
-  </si>
-  <si>
-    <t>Criterion B: Solution Overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brainstorming with my uncle to discussiscuss on Data that must be stored for functional or business needs, review of data privacy needs </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>DFD</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Domain Model</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> ideation. Data we want to keep in DB are defined, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">Data privacy </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>taken in account in</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> requirement list</t>
-    </r>
-  </si>
-  <si>
-    <t>Requirement Gathering</t>
-  </si>
-  <si>
-    <t>Brainstorming with my uncle to discussiscussion over game limitation, scoring, and selection, use cases in brainstorming with uncle and its CTO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Quattrocento Sans"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Discussion over game limitation, scoring, and selection,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> use cases</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> and  requirement list</t>
-    </r>
-  </si>
-  <si>
-    <t>1 hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting with my uncle and its CTO to check Requirement against Success Criteria and solution for MVP Scope </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>success criteria</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> validated, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>requirement list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> validated, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>use cases</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> validated, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>solution</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">  validated, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <b/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>UML Domain Model</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <color theme="4"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> validated</t>
-    </r>
+    <t>we are late</t>
   </si>
   <si>
     <t>Test plan</t>
@@ -1126,9 +1267,6 @@
     <t>6 weeks</t>
   </si>
   <si>
-    <t>04/16/2025</t>
-  </si>
-  <si>
     <t>we initially decided to implement the database as first development, but the CTO of my uncle advises to start with the application model and views to obtain a rapid visual prototype (using a database mockup) to my uncle, to detect early errors or requirement misses.</t>
   </si>
   <si>
@@ -1169,7 +1307,7 @@
     </r>
   </si>
   <si>
-    <t>today date</t>
+    <t>03/27/2025</t>
   </si>
   <si>
     <r>
@@ -1278,6 +1416,12 @@
   </si>
   <si>
     <t>2 hour</t>
+  </si>
+  <si>
+    <t>Implement HomeView (without game logic and without navigation)</t>
+  </si>
+  <si>
+    <t>HomeView can be visualized</t>
   </si>
   <si>
     <t>Development</t>
@@ -1805,7 +1949,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1849,11 +1993,6 @@
       <sz val="11.0"/>
       <color theme="4"/>
       <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF156082"/>
-      <name val="Quattrocento Sans"/>
     </font>
     <font>
       <b/>
@@ -1915,7 +2054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border/>
     <border>
       <left/>
@@ -1923,7 +2062,9 @@
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <top style="thin">
@@ -1941,18 +2082,16 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
     </border>
     <border>
       <left/>
@@ -1961,6 +2100,16 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <top style="thick">
@@ -1979,7 +2128,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="84">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1999,24 +2148,32 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2026,81 +2183,92 @@
     <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2110,44 +2278,65 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2157,7 +2346,7 @@
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -2384,10 +2573,10 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="17.38"/>
     <col customWidth="1" min="2" max="2" width="45.63"/>
-    <col customWidth="1" min="3" max="3" width="58.63"/>
-    <col customWidth="1" min="4" max="4" width="19.63"/>
+    <col customWidth="1" min="3" max="3" width="86.63"/>
+    <col customWidth="1" min="4" max="4" width="23.38"/>
     <col customWidth="1" min="5" max="5" width="22.13"/>
-    <col customWidth="1" min="6" max="6" width="49.25"/>
+    <col customWidth="1" min="6" max="6" width="48.63"/>
     <col customWidth="1" min="7" max="7" width="16.38"/>
     <col customWidth="1" min="8" max="26" width="10.63"/>
   </cols>
@@ -2437,7 +2626,7 @@
       <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -2445,87 +2634,87 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="15">
         <v>45839.0</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -2537,35 +2726,35 @@
       <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="15">
         <v>45931.0</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -2577,35 +2766,35 @@
       <c r="D7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="15">
         <v>45992.0</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -2617,2452 +2806,2497 @@
       <c r="D8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+    </row>
+    <row r="9" ht="40.5" customHeight="1">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
     </row>
     <row r="10" ht="49.5" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="21" t="s">
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+    </row>
+    <row r="11" ht="34.5" customHeight="1">
+      <c r="A11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26" t="s">
+      <c r="D12" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26" t="s">
+      <c r="D13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="E13" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="21" t="s">
+      <c r="G13" s="38"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+    </row>
+    <row r="14" ht="34.5" customHeight="1">
+      <c r="A14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
     </row>
     <row r="15">
-      <c r="A15" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="9">
+        <v>45840.0</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="40">
+        <v>45659.0</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="43">
+        <v>45690.0</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="31">
+      <c r="E18" s="43">
+        <v>45749.0</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="15">
         <v>45840.0</v>
       </c>
-      <c r="F15" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="33">
-        <v>45659.0</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="F19" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="E21" s="43">
+        <v>45902.0</v>
+      </c>
+      <c r="F21" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="35">
-        <v>45690.0</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="35">
-        <v>45749.0</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="10">
-        <v>45840.0</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="38" t="s">
+      <c r="G21" s="13"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="35">
-        <v>45902.0</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="35">
+      <c r="C22" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="43">
         <v>45932.0</v>
       </c>
-      <c r="F22" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
+      <c r="F22" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="38" t="s">
+      <c r="A23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="B23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="43">
         <v>45993.0</v>
       </c>
-      <c r="F23" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
+      <c r="F23" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>78</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="30" t="s">
+      <c r="A25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="B25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
+      <c r="E25" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="42" t="s">
+      <c r="A26" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="F31" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="53">
+        <v>45660.0</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="55"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+    </row>
+    <row r="34" ht="79.5" customHeight="1">
+      <c r="A34" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="61"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="46">
-        <v>45660.0</v>
-      </c>
-      <c r="F32" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="29" t="s">
+      <c r="E35" s="43">
+        <v>45811.0</v>
+      </c>
+      <c r="F35" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="G35" s="64"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="42"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="B36" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="43">
+        <v>45841.0</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="64"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="43">
+        <v>45872.0</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="64"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="43">
+        <v>45872.0</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="64"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="43">
+        <v>45872.0</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="64"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="42"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="43">
+        <v>45933.0</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="64"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="66"/>
+      <c r="F41" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="68"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="69"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="69"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="69"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="69"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="70"/>
+      <c r="F42" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="71"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="72"/>
+      <c r="Y42" s="72"/>
+      <c r="Z42" s="72"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="70"/>
+      <c r="F43" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="71"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="72"/>
+      <c r="V43" s="72"/>
+      <c r="W43" s="72"/>
+      <c r="X43" s="72"/>
+      <c r="Y43" s="72"/>
+      <c r="Z43" s="72"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="70"/>
+      <c r="F44" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="71"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="72"/>
+      <c r="Y44" s="72"/>
+      <c r="Z44" s="72"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="73"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="74"/>
+      <c r="S45" s="74"/>
+      <c r="T45" s="74"/>
+      <c r="U45" s="74"/>
+      <c r="V45" s="74"/>
+      <c r="W45" s="74"/>
+      <c r="X45" s="74"/>
+      <c r="Y45" s="74"/>
+      <c r="Z45" s="74"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="75"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="75"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="4"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="4"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="45"/>
+      <c r="F52" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="78"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="79"/>
+      <c r="N52" s="79"/>
+      <c r="O52" s="79"/>
+      <c r="P52" s="79"/>
+      <c r="Q52" s="79"/>
+      <c r="R52" s="79"/>
+      <c r="S52" s="79"/>
+      <c r="T52" s="79"/>
+      <c r="U52" s="79"/>
+      <c r="V52" s="79"/>
+      <c r="W52" s="79"/>
+      <c r="X52" s="79"/>
+      <c r="Y52" s="79"/>
+      <c r="Z52" s="79"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="45"/>
+      <c r="F53" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="78"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="79"/>
+      <c r="M53" s="79"/>
+      <c r="N53" s="79"/>
+      <c r="O53" s="79"/>
+      <c r="P53" s="79"/>
+      <c r="Q53" s="79"/>
+      <c r="R53" s="79"/>
+      <c r="S53" s="79"/>
+      <c r="T53" s="79"/>
+      <c r="U53" s="79"/>
+      <c r="V53" s="79"/>
+      <c r="W53" s="79"/>
+      <c r="X53" s="79"/>
+      <c r="Y53" s="79"/>
+      <c r="Z53" s="79"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="45"/>
+      <c r="F54" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G54" s="78"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="79"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="79"/>
+      <c r="O54" s="79"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="79"/>
+      <c r="S54" s="79"/>
+      <c r="T54" s="79"/>
+      <c r="U54" s="79"/>
+      <c r="V54" s="79"/>
+      <c r="W54" s="79"/>
+      <c r="X54" s="79"/>
+      <c r="Y54" s="79"/>
+      <c r="Z54" s="79"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="45"/>
+      <c r="F55" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="78"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
+      <c r="M55" s="79"/>
+      <c r="N55" s="79"/>
+      <c r="O55" s="79"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="79"/>
+      <c r="R55" s="79"/>
+      <c r="S55" s="79"/>
+      <c r="T55" s="79"/>
+      <c r="U55" s="79"/>
+      <c r="V55" s="79"/>
+      <c r="W55" s="79"/>
+      <c r="X55" s="79"/>
+      <c r="Y55" s="79"/>
+      <c r="Z55" s="79"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="45"/>
+      <c r="F56" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G56" s="78"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="79"/>
+      <c r="M56" s="79"/>
+      <c r="N56" s="79"/>
+      <c r="O56" s="79"/>
+      <c r="P56" s="79"/>
+      <c r="Q56" s="79"/>
+      <c r="R56" s="79"/>
+      <c r="S56" s="79"/>
+      <c r="T56" s="79"/>
+      <c r="U56" s="79"/>
+      <c r="V56" s="79"/>
+      <c r="W56" s="79"/>
+      <c r="X56" s="79"/>
+      <c r="Y56" s="79"/>
+      <c r="Z56" s="79"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="45"/>
+      <c r="F57" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="G57" s="78"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="79"/>
+      <c r="O57" s="79"/>
+      <c r="P57" s="79"/>
+      <c r="Q57" s="79"/>
+      <c r="R57" s="79"/>
+      <c r="S57" s="79"/>
+      <c r="T57" s="79"/>
+      <c r="U57" s="79"/>
+      <c r="V57" s="79"/>
+      <c r="W57" s="79"/>
+      <c r="X57" s="79"/>
+      <c r="Y57" s="79"/>
+      <c r="Z57" s="79"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="45"/>
+      <c r="F58" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58" s="78"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="79"/>
+      <c r="O58" s="79"/>
+      <c r="P58" s="79"/>
+      <c r="Q58" s="79"/>
+      <c r="R58" s="79"/>
+      <c r="S58" s="79"/>
+      <c r="T58" s="79"/>
+      <c r="U58" s="79"/>
+      <c r="V58" s="79"/>
+      <c r="W58" s="79"/>
+      <c r="X58" s="79"/>
+      <c r="Y58" s="79"/>
+      <c r="Z58" s="79"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="45"/>
+      <c r="F59" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" s="78"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="79"/>
+      <c r="P59" s="79"/>
+      <c r="Q59" s="79"/>
+      <c r="R59" s="79"/>
+      <c r="S59" s="79"/>
+      <c r="T59" s="79"/>
+      <c r="U59" s="79"/>
+      <c r="V59" s="79"/>
+      <c r="W59" s="79"/>
+      <c r="X59" s="79"/>
+      <c r="Y59" s="79"/>
+      <c r="Z59" s="79"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="45"/>
+      <c r="F60" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G60" s="78"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="79"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="79"/>
+      <c r="P60" s="79"/>
+      <c r="Q60" s="79"/>
+      <c r="R60" s="79"/>
+      <c r="S60" s="79"/>
+      <c r="T60" s="79"/>
+      <c r="U60" s="79"/>
+      <c r="V60" s="79"/>
+      <c r="W60" s="79"/>
+      <c r="X60" s="79"/>
+      <c r="Y60" s="79"/>
+      <c r="Z60" s="79"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="45"/>
+      <c r="F61" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="G61" s="78"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79"/>
+      <c r="M61" s="79"/>
+      <c r="N61" s="79"/>
+      <c r="O61" s="79"/>
+      <c r="P61" s="79"/>
+      <c r="Q61" s="79"/>
+      <c r="R61" s="79"/>
+      <c r="S61" s="79"/>
+      <c r="T61" s="79"/>
+      <c r="U61" s="79"/>
+      <c r="V61" s="79"/>
+      <c r="W61" s="79"/>
+      <c r="X61" s="79"/>
+      <c r="Y61" s="79"/>
+      <c r="Z61" s="79"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="45"/>
+      <c r="F62" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="78"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="79"/>
+      <c r="M62" s="79"/>
+      <c r="N62" s="79"/>
+      <c r="O62" s="79"/>
+      <c r="P62" s="79"/>
+      <c r="Q62" s="79"/>
+      <c r="R62" s="79"/>
+      <c r="S62" s="79"/>
+      <c r="T62" s="79"/>
+      <c r="U62" s="79"/>
+      <c r="V62" s="79"/>
+      <c r="W62" s="79"/>
+      <c r="X62" s="79"/>
+      <c r="Y62" s="79"/>
+      <c r="Z62" s="79"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="45"/>
+      <c r="F63" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="78"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="L63" s="79"/>
+      <c r="M63" s="79"/>
+      <c r="N63" s="79"/>
+      <c r="O63" s="79"/>
+      <c r="P63" s="79"/>
+      <c r="Q63" s="79"/>
+      <c r="R63" s="79"/>
+      <c r="S63" s="79"/>
+      <c r="T63" s="79"/>
+      <c r="U63" s="79"/>
+      <c r="V63" s="79"/>
+      <c r="W63" s="79"/>
+      <c r="X63" s="79"/>
+      <c r="Y63" s="79"/>
+      <c r="Z63" s="79"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="4"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="4"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="45"/>
+      <c r="F68" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="78"/>
+      <c r="H68" s="79"/>
+      <c r="I68" s="79"/>
+      <c r="J68" s="79"/>
+      <c r="K68" s="79"/>
+      <c r="L68" s="79"/>
+      <c r="M68" s="79"/>
+      <c r="N68" s="79"/>
+      <c r="O68" s="79"/>
+      <c r="P68" s="79"/>
+      <c r="Q68" s="79"/>
+      <c r="R68" s="79"/>
+      <c r="S68" s="79"/>
+      <c r="T68" s="79"/>
+      <c r="U68" s="79"/>
+      <c r="V68" s="79"/>
+      <c r="W68" s="79"/>
+      <c r="X68" s="79"/>
+      <c r="Y68" s="79"/>
+      <c r="Z68" s="79"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="45"/>
+      <c r="F69" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="H69" s="79"/>
+      <c r="I69" s="79"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="79"/>
+      <c r="N69" s="79"/>
+      <c r="O69" s="79"/>
+      <c r="P69" s="79"/>
+      <c r="Q69" s="79"/>
+      <c r="R69" s="79"/>
+      <c r="S69" s="79"/>
+      <c r="T69" s="79"/>
+      <c r="U69" s="79"/>
+      <c r="V69" s="79"/>
+      <c r="W69" s="79"/>
+      <c r="X69" s="79"/>
+      <c r="Y69" s="79"/>
+      <c r="Z69" s="79"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" s="45"/>
+      <c r="F70" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="G70" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="H70" s="79"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="79"/>
+      <c r="L70" s="79"/>
+      <c r="M70" s="79"/>
+      <c r="N70" s="79"/>
+      <c r="O70" s="79"/>
+      <c r="P70" s="79"/>
+      <c r="Q70" s="79"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="79"/>
+      <c r="T70" s="79"/>
+      <c r="U70" s="79"/>
+      <c r="V70" s="79"/>
+      <c r="W70" s="79"/>
+      <c r="X70" s="79"/>
+      <c r="Y70" s="79"/>
+      <c r="Z70" s="79"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="82"/>
+      <c r="F71" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G71" s="78"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="79"/>
+      <c r="N71" s="79"/>
+      <c r="O71" s="79"/>
+      <c r="P71" s="79"/>
+      <c r="Q71" s="79"/>
+      <c r="R71" s="79"/>
+      <c r="S71" s="79"/>
+      <c r="T71" s="79"/>
+      <c r="U71" s="79"/>
+      <c r="V71" s="79"/>
+      <c r="W71" s="79"/>
+      <c r="X71" s="79"/>
+      <c r="Y71" s="79"/>
+      <c r="Z71" s="79"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="82"/>
+      <c r="F72" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G72" s="78"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
+      <c r="M72" s="79"/>
+      <c r="N72" s="79"/>
+      <c r="O72" s="79"/>
+      <c r="P72" s="79"/>
+      <c r="Q72" s="79"/>
+      <c r="R72" s="79"/>
+      <c r="S72" s="79"/>
+      <c r="T72" s="79"/>
+      <c r="U72" s="79"/>
+      <c r="V72" s="79"/>
+      <c r="W72" s="79"/>
+      <c r="X72" s="79"/>
+      <c r="Y72" s="79"/>
+      <c r="Z72" s="79"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="45"/>
+      <c r="F73" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G73" s="78"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="79"/>
+      <c r="O73" s="79"/>
+      <c r="P73" s="79"/>
+      <c r="Q73" s="79"/>
+      <c r="R73" s="79"/>
+      <c r="S73" s="79"/>
+      <c r="T73" s="79"/>
+      <c r="U73" s="79"/>
+      <c r="V73" s="79"/>
+      <c r="W73" s="79"/>
+      <c r="X73" s="79"/>
+      <c r="Y73" s="79"/>
+      <c r="Z73" s="79"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="82"/>
+      <c r="F74" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G74" s="78"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="79"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
+      <c r="M74" s="79"/>
+      <c r="N74" s="79"/>
+      <c r="O74" s="79"/>
+      <c r="P74" s="79"/>
+      <c r="Q74" s="79"/>
+      <c r="R74" s="79"/>
+      <c r="S74" s="79"/>
+      <c r="T74" s="79"/>
+      <c r="U74" s="79"/>
+      <c r="V74" s="79"/>
+      <c r="W74" s="79"/>
+      <c r="X74" s="79"/>
+      <c r="Y74" s="79"/>
+      <c r="Z74" s="79"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="D75" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="45"/>
+      <c r="F75" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G75" s="78"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="79"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
+      <c r="M75" s="79"/>
+      <c r="N75" s="79"/>
+      <c r="O75" s="79"/>
+      <c r="P75" s="79"/>
+      <c r="Q75" s="79"/>
+      <c r="R75" s="79"/>
+      <c r="S75" s="79"/>
+      <c r="T75" s="79"/>
+      <c r="U75" s="79"/>
+      <c r="V75" s="79"/>
+      <c r="W75" s="79"/>
+      <c r="X75" s="79"/>
+      <c r="Y75" s="79"/>
+      <c r="Z75" s="79"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-    </row>
-    <row r="34" ht="79.5" customHeight="1">
-      <c r="A34" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="51"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="54"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="55"/>
-      <c r="Z40" s="55"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="C76" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" s="45"/>
+      <c r="F76" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G76" s="78"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
+      <c r="M76" s="79"/>
+      <c r="N76" s="79"/>
+      <c r="O76" s="79"/>
+      <c r="P76" s="79"/>
+      <c r="Q76" s="79"/>
+      <c r="R76" s="79"/>
+      <c r="S76" s="79"/>
+      <c r="T76" s="79"/>
+      <c r="U76" s="79"/>
+      <c r="V76" s="79"/>
+      <c r="W76" s="79"/>
+      <c r="X76" s="79"/>
+      <c r="Y76" s="79"/>
+      <c r="Z76" s="79"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="56"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="57"/>
-      <c r="T41" s="57"/>
-      <c r="U41" s="57"/>
-      <c r="V41" s="57"/>
-      <c r="W41" s="57"/>
-      <c r="X41" s="57"/>
-      <c r="Y41" s="57"/>
-      <c r="Z41" s="57"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G42" s="56"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="57"/>
-      <c r="T42" s="57"/>
-      <c r="U42" s="57"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="57"/>
-      <c r="X42" s="57"/>
-      <c r="Y42" s="57"/>
-      <c r="Z42" s="57"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="E77" s="45"/>
+      <c r="F77" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="7" t="s">
+      <c r="G77" s="78"/>
+      <c r="H77" s="79"/>
+      <c r="I77" s="79"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="79"/>
+      <c r="M77" s="79"/>
+      <c r="N77" s="79"/>
+      <c r="O77" s="79"/>
+      <c r="P77" s="79"/>
+      <c r="Q77" s="79"/>
+      <c r="R77" s="79"/>
+      <c r="S77" s="79"/>
+      <c r="T77" s="79"/>
+      <c r="U77" s="79"/>
+      <c r="V77" s="79"/>
+      <c r="W77" s="79"/>
+      <c r="X77" s="79"/>
+      <c r="Y77" s="79"/>
+      <c r="Z77" s="79"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="G43" s="56"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="57"/>
-      <c r="T43" s="57"/>
-      <c r="U43" s="57"/>
-      <c r="V43" s="57"/>
-      <c r="W43" s="57"/>
-      <c r="X43" s="57"/>
-      <c r="Y43" s="57"/>
-      <c r="Z43" s="57"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="29" t="s">
+      <c r="B78" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="29" t="s">
+      <c r="C78" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D78" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" s="82"/>
+      <c r="F78" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D44" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="59"/>
-      <c r="F44" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="G44" s="60"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="61"/>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="61"/>
-      <c r="S44" s="61"/>
-      <c r="T44" s="61"/>
-      <c r="U44" s="61"/>
-      <c r="V44" s="61"/>
-      <c r="W44" s="61"/>
-      <c r="X44" s="61"/>
-      <c r="Y44" s="61"/>
-      <c r="Z44" s="61"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
+      <c r="G78" s="78"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="79"/>
+      <c r="J78" s="79"/>
+      <c r="K78" s="79"/>
+      <c r="L78" s="79"/>
+      <c r="M78" s="79"/>
+      <c r="N78" s="79"/>
+      <c r="O78" s="79"/>
+      <c r="P78" s="79"/>
+      <c r="Q78" s="79"/>
+      <c r="R78" s="79"/>
+      <c r="S78" s="79"/>
+      <c r="T78" s="79"/>
+      <c r="U78" s="79"/>
+      <c r="V78" s="79"/>
+      <c r="W78" s="79"/>
+      <c r="X78" s="79"/>
+      <c r="Y78" s="79"/>
+      <c r="Z78" s="79"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="B79" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="C79" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="64"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="65"/>
-      <c r="R51" s="65"/>
-      <c r="S51" s="65"/>
-      <c r="T51" s="65"/>
-      <c r="U51" s="65"/>
-      <c r="V51" s="65"/>
-      <c r="W51" s="65"/>
-      <c r="X51" s="65"/>
-      <c r="Y51" s="65"/>
-      <c r="Z51" s="65"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="G52" s="64"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="65"/>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="65"/>
-      <c r="S52" s="65"/>
-      <c r="T52" s="65"/>
-      <c r="U52" s="65"/>
-      <c r="V52" s="65"/>
-      <c r="W52" s="65"/>
-      <c r="X52" s="65"/>
-      <c r="Y52" s="65"/>
-      <c r="Z52" s="65"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="G53" s="64"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="65"/>
-      <c r="O53" s="65"/>
-      <c r="P53" s="65"/>
-      <c r="Q53" s="65"/>
-      <c r="R53" s="65"/>
-      <c r="S53" s="65"/>
-      <c r="T53" s="65"/>
-      <c r="U53" s="65"/>
-      <c r="V53" s="65"/>
-      <c r="W53" s="65"/>
-      <c r="X53" s="65"/>
-      <c r="Y53" s="65"/>
-      <c r="Z53" s="65"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="G54" s="64"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="65"/>
-      <c r="O54" s="65"/>
-      <c r="P54" s="65"/>
-      <c r="Q54" s="65"/>
-      <c r="R54" s="65"/>
-      <c r="S54" s="65"/>
-      <c r="T54" s="65"/>
-      <c r="U54" s="65"/>
-      <c r="V54" s="65"/>
-      <c r="W54" s="65"/>
-      <c r="X54" s="65"/>
-      <c r="Y54" s="65"/>
-      <c r="Z54" s="65"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="D55" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="G55" s="64"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
-      <c r="O55" s="65"/>
-      <c r="P55" s="65"/>
-      <c r="Q55" s="65"/>
-      <c r="R55" s="65"/>
-      <c r="S55" s="65"/>
-      <c r="T55" s="65"/>
-      <c r="U55" s="65"/>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="65"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="D56" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="G56" s="64"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="65"/>
-      <c r="O56" s="65"/>
-      <c r="P56" s="65"/>
-      <c r="Q56" s="65"/>
-      <c r="R56" s="65"/>
-      <c r="S56" s="65"/>
-      <c r="T56" s="65"/>
-      <c r="U56" s="65"/>
-      <c r="V56" s="65"/>
-      <c r="W56" s="65"/>
-      <c r="X56" s="65"/>
-      <c r="Y56" s="65"/>
-      <c r="Z56" s="65"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G57" s="64"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="65"/>
-      <c r="O57" s="65"/>
-      <c r="P57" s="65"/>
-      <c r="Q57" s="65"/>
-      <c r="R57" s="65"/>
-      <c r="S57" s="65"/>
-      <c r="T57" s="65"/>
-      <c r="U57" s="65"/>
-      <c r="V57" s="65"/>
-      <c r="W57" s="65"/>
-      <c r="X57" s="65"/>
-      <c r="Y57" s="65"/>
-      <c r="Z57" s="65"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="G58" s="64"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
-      <c r="O58" s="65"/>
-      <c r="P58" s="65"/>
-      <c r="Q58" s="65"/>
-      <c r="R58" s="65"/>
-      <c r="S58" s="65"/>
-      <c r="T58" s="65"/>
-      <c r="U58" s="65"/>
-      <c r="V58" s="65"/>
-      <c r="W58" s="65"/>
-      <c r="X58" s="65"/>
-      <c r="Y58" s="65"/>
-      <c r="Z58" s="65"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D59" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G59" s="64"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
-      <c r="O59" s="65"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="65"/>
-      <c r="R59" s="65"/>
-      <c r="S59" s="65"/>
-      <c r="T59" s="65"/>
-      <c r="U59" s="65"/>
-      <c r="V59" s="65"/>
-      <c r="W59" s="65"/>
-      <c r="X59" s="65"/>
-      <c r="Y59" s="65"/>
-      <c r="Z59" s="65"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="C60" s="67" t="s">
-        <v>174</v>
-      </c>
-      <c r="D60" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="G60" s="64"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="65"/>
-      <c r="O60" s="65"/>
-      <c r="P60" s="65"/>
-      <c r="Q60" s="65"/>
-      <c r="R60" s="65"/>
-      <c r="S60" s="65"/>
-      <c r="T60" s="65"/>
-      <c r="U60" s="65"/>
-      <c r="V60" s="65"/>
-      <c r="W60" s="65"/>
-      <c r="X60" s="65"/>
-      <c r="Y60" s="65"/>
-      <c r="Z60" s="65"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="G61" s="64"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="65"/>
-      <c r="N61" s="65"/>
-      <c r="O61" s="65"/>
-      <c r="P61" s="65"/>
-      <c r="Q61" s="65"/>
-      <c r="R61" s="65"/>
-      <c r="S61" s="65"/>
-      <c r="T61" s="65"/>
-      <c r="U61" s="65"/>
-      <c r="V61" s="65"/>
-      <c r="W61" s="65"/>
-      <c r="X61" s="65"/>
-      <c r="Y61" s="65"/>
-      <c r="Z61" s="65"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C62" s="36" t="s">
+      <c r="D79" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79" s="82"/>
+      <c r="F79" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="G62" s="64"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="65"/>
-      <c r="O62" s="65"/>
-      <c r="P62" s="65"/>
-      <c r="Q62" s="65"/>
-      <c r="R62" s="65"/>
-      <c r="S62" s="65"/>
-      <c r="T62" s="65"/>
-      <c r="U62" s="65"/>
-      <c r="V62" s="65"/>
-      <c r="W62" s="65"/>
-      <c r="X62" s="65"/>
-      <c r="Y62" s="65"/>
-      <c r="Z62" s="65"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="4"/>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="4"/>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="B67" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C67" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="D67" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="64"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="65"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="65"/>
-      <c r="M67" s="65"/>
-      <c r="N67" s="65"/>
-      <c r="O67" s="65"/>
-      <c r="P67" s="65"/>
-      <c r="Q67" s="65"/>
-      <c r="R67" s="65"/>
-      <c r="S67" s="65"/>
-      <c r="T67" s="65"/>
-      <c r="U67" s="65"/>
-      <c r="V67" s="65"/>
-      <c r="W67" s="65"/>
-      <c r="X67" s="65"/>
-      <c r="Y67" s="65"/>
-      <c r="Z67" s="65"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="C68" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="D68" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="65"/>
-      <c r="M68" s="65"/>
-      <c r="N68" s="65"/>
-      <c r="O68" s="65"/>
-      <c r="P68" s="65"/>
-      <c r="Q68" s="65"/>
-      <c r="R68" s="65"/>
-      <c r="S68" s="65"/>
-      <c r="T68" s="65"/>
-      <c r="U68" s="65"/>
-      <c r="V68" s="65"/>
-      <c r="W68" s="65"/>
-      <c r="X68" s="65"/>
-      <c r="Y68" s="65"/>
-      <c r="Z68" s="65"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69" s="66" t="s">
-        <v>185</v>
-      </c>
-      <c r="D69" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="G69" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="H69" s="65"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="65"/>
-      <c r="K69" s="65"/>
-      <c r="L69" s="65"/>
-      <c r="M69" s="65"/>
-      <c r="N69" s="65"/>
-      <c r="O69" s="65"/>
-      <c r="P69" s="65"/>
-      <c r="Q69" s="65"/>
-      <c r="R69" s="65"/>
-      <c r="S69" s="65"/>
-      <c r="T69" s="65"/>
-      <c r="U69" s="65"/>
-      <c r="V69" s="65"/>
-      <c r="W69" s="65"/>
-      <c r="X69" s="65"/>
-      <c r="Y69" s="65"/>
-      <c r="Z69" s="65"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B70" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C70" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="D70" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E70" s="68"/>
-      <c r="F70" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G70" s="64"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="65"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="65"/>
-      <c r="M70" s="65"/>
-      <c r="N70" s="65"/>
-      <c r="O70" s="65"/>
-      <c r="P70" s="65"/>
-      <c r="Q70" s="65"/>
-      <c r="R70" s="65"/>
-      <c r="S70" s="65"/>
-      <c r="T70" s="65"/>
-      <c r="U70" s="65"/>
-      <c r="V70" s="65"/>
-      <c r="W70" s="65"/>
-      <c r="X70" s="65"/>
-      <c r="Y70" s="65"/>
-      <c r="Z70" s="65"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C71" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="D71" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="68"/>
-      <c r="F71" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G71" s="64"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="65"/>
-      <c r="M71" s="65"/>
-      <c r="N71" s="65"/>
-      <c r="O71" s="65"/>
-      <c r="P71" s="65"/>
-      <c r="Q71" s="65"/>
-      <c r="R71" s="65"/>
-      <c r="S71" s="65"/>
-      <c r="T71" s="65"/>
-      <c r="U71" s="65"/>
-      <c r="V71" s="65"/>
-      <c r="W71" s="65"/>
-      <c r="X71" s="65"/>
-      <c r="Y71" s="65"/>
-      <c r="Z71" s="65"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B72" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="C72" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="D72" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G72" s="64"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="65"/>
-      <c r="J72" s="65"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="65"/>
-      <c r="M72" s="65"/>
-      <c r="N72" s="65"/>
-      <c r="O72" s="65"/>
-      <c r="P72" s="65"/>
-      <c r="Q72" s="65"/>
-      <c r="R72" s="65"/>
-      <c r="S72" s="65"/>
-      <c r="T72" s="65"/>
-      <c r="U72" s="65"/>
-      <c r="V72" s="65"/>
-      <c r="W72" s="65"/>
-      <c r="X72" s="65"/>
-      <c r="Y72" s="65"/>
-      <c r="Z72" s="65"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B73" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="C73" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="D73" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E73" s="68"/>
-      <c r="F73" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G73" s="64"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="65"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="65"/>
-      <c r="M73" s="65"/>
-      <c r="N73" s="65"/>
-      <c r="O73" s="65"/>
-      <c r="P73" s="65"/>
-      <c r="Q73" s="65"/>
-      <c r="R73" s="65"/>
-      <c r="S73" s="65"/>
-      <c r="T73" s="65"/>
-      <c r="U73" s="65"/>
-      <c r="V73" s="65"/>
-      <c r="W73" s="65"/>
-      <c r="X73" s="65"/>
-      <c r="Y73" s="65"/>
-      <c r="Z73" s="65"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="B74" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="C74" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="D74" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G74" s="64"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="65"/>
-      <c r="K74" s="65"/>
-      <c r="L74" s="65"/>
-      <c r="M74" s="65"/>
-      <c r="N74" s="65"/>
-      <c r="O74" s="65"/>
-      <c r="P74" s="65"/>
-      <c r="Q74" s="65"/>
-      <c r="R74" s="65"/>
-      <c r="S74" s="65"/>
-      <c r="T74" s="65"/>
-      <c r="U74" s="65"/>
-      <c r="V74" s="65"/>
-      <c r="W74" s="65"/>
-      <c r="X74" s="65"/>
-      <c r="Y74" s="65"/>
-      <c r="Z74" s="65"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="D75" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G75" s="64"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="65"/>
-      <c r="N75" s="65"/>
-      <c r="O75" s="65"/>
-      <c r="P75" s="65"/>
-      <c r="Q75" s="65"/>
-      <c r="R75" s="65"/>
-      <c r="S75" s="65"/>
-      <c r="T75" s="65"/>
-      <c r="U75" s="65"/>
-      <c r="V75" s="65"/>
-      <c r="W75" s="65"/>
-      <c r="X75" s="65"/>
-      <c r="Y75" s="65"/>
-      <c r="Z75" s="65"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B76" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="D76" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G76" s="64"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="65"/>
-      <c r="K76" s="65"/>
-      <c r="L76" s="65"/>
-      <c r="M76" s="65"/>
-      <c r="N76" s="65"/>
-      <c r="O76" s="65"/>
-      <c r="P76" s="65"/>
-      <c r="Q76" s="65"/>
-      <c r="R76" s="65"/>
-      <c r="S76" s="65"/>
-      <c r="T76" s="65"/>
-      <c r="U76" s="65"/>
-      <c r="V76" s="65"/>
-      <c r="W76" s="65"/>
-      <c r="X76" s="65"/>
-      <c r="Y76" s="65"/>
-      <c r="Z76" s="65"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B77" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="D77" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E77" s="68"/>
-      <c r="F77" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="G77" s="64"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="65"/>
-      <c r="M77" s="65"/>
-      <c r="N77" s="65"/>
-      <c r="O77" s="65"/>
-      <c r="P77" s="65"/>
-      <c r="Q77" s="65"/>
-      <c r="R77" s="65"/>
-      <c r="S77" s="65"/>
-      <c r="T77" s="65"/>
-      <c r="U77" s="65"/>
-      <c r="V77" s="65"/>
-      <c r="W77" s="65"/>
-      <c r="X77" s="65"/>
-      <c r="Y77" s="65"/>
-      <c r="Z77" s="65"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B78" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C78" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="D78" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E78" s="68"/>
-      <c r="F78" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="G78" s="64"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="65"/>
-      <c r="J78" s="65"/>
-      <c r="K78" s="65"/>
-      <c r="L78" s="65"/>
-      <c r="M78" s="65"/>
-      <c r="N78" s="65"/>
-      <c r="O78" s="65"/>
-      <c r="P78" s="65"/>
-      <c r="Q78" s="65"/>
-      <c r="R78" s="65"/>
-      <c r="S78" s="65"/>
-      <c r="T78" s="65"/>
-      <c r="U78" s="65"/>
-      <c r="V78" s="65"/>
-      <c r="W78" s="65"/>
-      <c r="X78" s="65"/>
-      <c r="Y78" s="65"/>
-      <c r="Z78" s="65"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="4"/>
-      <c r="G79" s="5"/>
+      <c r="G79" s="78"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="79"/>
+      <c r="J79" s="79"/>
+      <c r="K79" s="79"/>
+      <c r="L79" s="79"/>
+      <c r="M79" s="79"/>
+      <c r="N79" s="79"/>
+      <c r="O79" s="79"/>
+      <c r="P79" s="79"/>
+      <c r="Q79" s="79"/>
+      <c r="R79" s="79"/>
+      <c r="S79" s="79"/>
+      <c r="T79" s="79"/>
+      <c r="U79" s="79"/>
+      <c r="V79" s="79"/>
+      <c r="W79" s="79"/>
+      <c r="X79" s="79"/>
+      <c r="Y79" s="79"/>
+      <c r="Z79" s="79"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="69"/>
+      <c r="A80" s="4"/>
       <c r="G80" s="5"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="83"/>
       <c r="G81" s="5"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">

--- a/documentation/Record Of Tasks.xlsx
+++ b/documentation/Record Of Tasks.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="6AsrQOzvsaAWM3w7gUsjvQconsHAEQV1XvBR0/kvfiQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="9RE5WWv/1Z/enEj8mWwpWuwrwng687r8dWKhSScwD+w="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="239">
   <si>
     <t>Waterfall Methodology</t>
   </si>
@@ -1424,7 +1424,281 @@
     <t>HomeView can be visualized</t>
   </si>
   <si>
+    <t>Design, test plan</t>
+  </si>
+  <si>
+    <t>For design complexity. we deleted the option of deleting user for now and we only show the top 5 players. Accepted by phone call by my uncles</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color rgb="FF980000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>updated</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <b/>
+        <color rgb="FF980000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> requirements list</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color rgb="FF980000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <b/>
+        <color rgb="FF980000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">use cases </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color rgb="FF980000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <b/>
+        <color rgb="FF980000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>test plan</t>
+    </r>
+  </si>
+  <si>
+    <t>Implement PlayerSelection (without navigation)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color rgb="FF156082"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>PlayerSelectionView can be visualized. Found a third party class to properly show jcombo with objects. We changed</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF156082"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> Sketch, View and Navigation Model </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF156082"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>to better UX</t>
+    </r>
+  </si>
+  <si>
+    <t>Call phone to my uncle CTO to validate the change in the view of PlayerSelection</t>
+  </si>
+  <si>
+    <t>Implement GameView (without game logic and without navigation)</t>
+  </si>
+  <si>
+    <t>GameView can be visualized.</t>
+  </si>
+  <si>
+    <t>Implement ResultView (without game logic and without navigation)</t>
+  </si>
+  <si>
+    <t>ResultView Can be visualized for null match anf won match</t>
+  </si>
+  <si>
+    <t>03/13/2025</t>
+  </si>
+  <si>
     <t>Development</t>
+  </si>
+  <si>
+    <t>Implement PlayerCreateView and PlayerEditView (without game logic and without navigation)</t>
+  </si>
+  <si>
+    <t>PlayerCreate and PlayerEditView can be visualized</t>
+  </si>
+  <si>
+    <t>03/14/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we actualized MockUpDB to add create and edit players and match result submit </t>
+  </si>
+  <si>
+    <t>Actualize code comments</t>
+  </si>
+  <si>
+    <t>Code comment revised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review View Implementation with my uncle and some users (players) of my family: Demo, and feedback </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>feedback</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> refinment, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>requirement list</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> actualization</t>
+    </r>
+  </si>
+  <si>
+    <t>03/15/2025</t>
+  </si>
+  <si>
+    <t>Revise Doc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Documentation according to client review and features implemented </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>to now: UML Domain Model, UML class Model</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Sketch-View </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> Navigation Model</t>
+    </r>
+  </si>
+  <si>
+    <t>03/18/2025</t>
+  </si>
+  <si>
+    <t>Criterion C: Development  Criterion B: Solution Overview</t>
+  </si>
+  <si>
+    <t>Note: we change 2 requirements (number of top players shown, and delete player is not anymore in MVP). Validated by client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Status for our App that will manage the players and game ' s selection </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color rgb="FF156082"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Added a AppStatus class with unit test for main flow views (homeview, selectplayerview, gameview,resultview). Other views (PlayerEditView and PlayerCreateView) dont requires it since they dont requires a selection change. See</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF156082"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>•	Navigation and AppStatus</t>
+    </r>
+  </si>
+  <si>
+    <t>6 hours</t>
   </si>
   <si>
     <t>Implement the database</t>
@@ -1946,10 +2220,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -2023,12 +2298,34 @@
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF980000"/>
+      <name val="Quattrocento Sans"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF980000"/>
+      <name val="Quattrocento Sans"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF156082"/>
+      <name val="Quattrocento Sans"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <color theme="4"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FFFF0000"/>
       <name val="Quattrocento Sans"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2051,6 +2348,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFAE2D5"/>
         <bgColor rgb="FFFAE2D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8AF"/>
+        <bgColor rgb="FFE6B8AF"/>
       </patternFill>
     </fill>
   </fills>
@@ -2128,7 +2431,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="93">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2306,6 +2609,29 @@
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="2" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="5" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -2346,7 +2672,7 @@
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -4101,20 +4427,16 @@
       <c r="A41" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="G41" s="68"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="69"/>
       <c r="H41" s="69"/>
       <c r="I41" s="69"/>
       <c r="J41" s="69"/>
@@ -4136,1194 +4458,1529 @@
       <c r="Z41" s="69"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="C42" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="D42" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="43">
+        <v>45964.0</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="42"/>
+      <c r="Z42" s="42"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="43">
+        <v>45994.0</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="64"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="42"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="64"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="41"/>
+      <c r="G45" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="64"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="42"/>
+    </row>
+    <row r="47" ht="52.5" customHeight="1">
+      <c r="A47" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="64"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+    </row>
+    <row r="48" ht="51.75" customHeight="1">
+      <c r="A48" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18"/>
+      <c r="Y48" s="18"/>
+      <c r="Z48" s="18"/>
+    </row>
+    <row r="49" ht="85.5" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="72"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="18"/>
+    </row>
+    <row r="50" ht="45.75" customHeight="1">
+      <c r="A50" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="75"/>
+      <c r="F50" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="77"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="78"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="78"/>
+      <c r="T50" s="78"/>
+      <c r="U50" s="78"/>
+      <c r="V50" s="78"/>
+      <c r="W50" s="78"/>
+      <c r="X50" s="78"/>
+      <c r="Y50" s="78"/>
+      <c r="Z50" s="78"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="70"/>
-      <c r="F42" s="28" t="s">
+      <c r="E51" s="79"/>
+      <c r="F51" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="71"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="70"/>
-      <c r="F43" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="71"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
-      <c r="X43" s="72"/>
-      <c r="Y43" s="72"/>
-      <c r="Z43" s="72"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="25" t="s">
+      <c r="G51" s="80"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="81"/>
+      <c r="O51" s="81"/>
+      <c r="P51" s="81"/>
+      <c r="Q51" s="81"/>
+      <c r="R51" s="81"/>
+      <c r="S51" s="81"/>
+      <c r="T51" s="81"/>
+      <c r="U51" s="81"/>
+      <c r="V51" s="81"/>
+      <c r="W51" s="81"/>
+      <c r="X51" s="81"/>
+      <c r="Y51" s="81"/>
+      <c r="Z51" s="81"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="79"/>
+      <c r="F52" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" s="80"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="81"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="81"/>
+      <c r="P52" s="81"/>
+      <c r="Q52" s="81"/>
+      <c r="R52" s="81"/>
+      <c r="S52" s="81"/>
+      <c r="T52" s="81"/>
+      <c r="U52" s="81"/>
+      <c r="V52" s="81"/>
+      <c r="W52" s="81"/>
+      <c r="X52" s="81"/>
+      <c r="Y52" s="81"/>
+      <c r="Z52" s="81"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" s="71"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="72"/>
-      <c r="Z44" s="72"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="E53" s="79"/>
+      <c r="F53" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G53" s="80"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="81"/>
+      <c r="N53" s="81"/>
+      <c r="O53" s="81"/>
+      <c r="P53" s="81"/>
+      <c r="Q53" s="81"/>
+      <c r="R53" s="81"/>
+      <c r="S53" s="81"/>
+      <c r="T53" s="81"/>
+      <c r="U53" s="81"/>
+      <c r="V53" s="81"/>
+      <c r="W53" s="81"/>
+      <c r="X53" s="81"/>
+      <c r="Y53" s="81"/>
+      <c r="Z53" s="81"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G45" s="73"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="74"/>
-      <c r="R45" s="74"/>
-      <c r="S45" s="74"/>
-      <c r="T45" s="74"/>
-      <c r="U45" s="74"/>
-      <c r="V45" s="74"/>
-      <c r="W45" s="74"/>
-      <c r="X45" s="74"/>
-      <c r="Y45" s="74"/>
-      <c r="Z45" s="74"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="75"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="75"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="6" t="s">
+      <c r="E54" s="9"/>
+      <c r="F54" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" s="82"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="83"/>
+      <c r="N54" s="83"/>
+      <c r="O54" s="83"/>
+      <c r="P54" s="83"/>
+      <c r="Q54" s="83"/>
+      <c r="R54" s="83"/>
+      <c r="S54" s="83"/>
+      <c r="T54" s="83"/>
+      <c r="U54" s="83"/>
+      <c r="V54" s="83"/>
+      <c r="W54" s="83"/>
+      <c r="X54" s="83"/>
+      <c r="Y54" s="83"/>
+      <c r="Z54" s="83"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="84"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="84"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="4"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="4"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F51" s="7" t="s">
+      <c r="D60" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="78"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="79"/>
-      <c r="N52" s="79"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="79"/>
-      <c r="Q52" s="79"/>
-      <c r="R52" s="79"/>
-      <c r="S52" s="79"/>
-      <c r="T52" s="79"/>
-      <c r="U52" s="79"/>
-      <c r="V52" s="79"/>
-      <c r="W52" s="79"/>
-      <c r="X52" s="79"/>
-      <c r="Y52" s="79"/>
-      <c r="Z52" s="79"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="G53" s="78"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="79"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="79"/>
-      <c r="R53" s="79"/>
-      <c r="S53" s="79"/>
-      <c r="T53" s="79"/>
-      <c r="U53" s="79"/>
-      <c r="V53" s="79"/>
-      <c r="W53" s="79"/>
-      <c r="X53" s="79"/>
-      <c r="Y53" s="79"/>
-      <c r="Z53" s="79"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="G54" s="78"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="79"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="79"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="79"/>
-      <c r="U54" s="79"/>
-      <c r="V54" s="79"/>
-      <c r="W54" s="79"/>
-      <c r="X54" s="79"/>
-      <c r="Y54" s="79"/>
-      <c r="Z54" s="79"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="45"/>
-      <c r="F55" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="G55" s="78"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="79"/>
-      <c r="S55" s="79"/>
-      <c r="T55" s="79"/>
-      <c r="U55" s="79"/>
-      <c r="V55" s="79"/>
-      <c r="W55" s="79"/>
-      <c r="X55" s="79"/>
-      <c r="Y55" s="79"/>
-      <c r="Z55" s="79"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="D56" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="45"/>
-      <c r="F56" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="G56" s="78"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
-      <c r="Q56" s="79"/>
-      <c r="R56" s="79"/>
-      <c r="S56" s="79"/>
-      <c r="T56" s="79"/>
-      <c r="U56" s="79"/>
-      <c r="V56" s="79"/>
-      <c r="W56" s="79"/>
-      <c r="X56" s="79"/>
-      <c r="Y56" s="79"/>
-      <c r="Z56" s="79"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="D57" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="45"/>
-      <c r="F57" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="G57" s="78"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="79"/>
-      <c r="R57" s="79"/>
-      <c r="S57" s="79"/>
-      <c r="T57" s="79"/>
-      <c r="U57" s="79"/>
-      <c r="V57" s="79"/>
-      <c r="W57" s="79"/>
-      <c r="X57" s="79"/>
-      <c r="Y57" s="79"/>
-      <c r="Z57" s="79"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="45"/>
-      <c r="F58" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="G58" s="78"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="79"/>
-      <c r="R58" s="79"/>
-      <c r="S58" s="79"/>
-      <c r="T58" s="79"/>
-      <c r="U58" s="79"/>
-      <c r="V58" s="79"/>
-      <c r="W58" s="79"/>
-      <c r="X58" s="79"/>
-      <c r="Y58" s="79"/>
-      <c r="Z58" s="79"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B59" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="C59" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="45"/>
-      <c r="F59" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="G59" s="78"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="79"/>
-      <c r="R59" s="79"/>
-      <c r="S59" s="79"/>
-      <c r="T59" s="79"/>
-      <c r="U59" s="79"/>
-      <c r="V59" s="79"/>
-      <c r="W59" s="79"/>
-      <c r="X59" s="79"/>
-      <c r="Y59" s="79"/>
-      <c r="Z59" s="79"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="D60" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="G60" s="78"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="79"/>
-      <c r="P60" s="79"/>
-      <c r="Q60" s="79"/>
-      <c r="R60" s="79"/>
-      <c r="S60" s="79"/>
-      <c r="T60" s="79"/>
-      <c r="U60" s="79"/>
-      <c r="V60" s="79"/>
-      <c r="W60" s="79"/>
-      <c r="X60" s="79"/>
-      <c r="Y60" s="79"/>
-      <c r="Z60" s="79"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="45" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" s="81" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>180</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E61" s="45"/>
       <c r="F61" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="G61" s="78"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="79"/>
-      <c r="O61" s="79"/>
-      <c r="P61" s="79"/>
-      <c r="Q61" s="79"/>
-      <c r="R61" s="79"/>
-      <c r="S61" s="79"/>
-      <c r="T61" s="79"/>
-      <c r="U61" s="79"/>
-      <c r="V61" s="79"/>
-      <c r="W61" s="79"/>
-      <c r="X61" s="79"/>
-      <c r="Y61" s="79"/>
-      <c r="Z61" s="79"/>
+        <v>13</v>
+      </c>
+      <c r="G61" s="87"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="88"/>
+      <c r="M61" s="88"/>
+      <c r="N61" s="88"/>
+      <c r="O61" s="88"/>
+      <c r="P61" s="88"/>
+      <c r="Q61" s="88"/>
+      <c r="R61" s="88"/>
+      <c r="S61" s="88"/>
+      <c r="T61" s="88"/>
+      <c r="U61" s="88"/>
+      <c r="V61" s="88"/>
+      <c r="W61" s="88"/>
+      <c r="X61" s="88"/>
+      <c r="Y61" s="88"/>
+      <c r="Z61" s="88"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="45" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" s="45" t="s">
-        <v>142</v>
+        <v>182</v>
+      </c>
+      <c r="C62" s="89" t="s">
+        <v>183</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E62" s="45"/>
       <c r="F62" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="G62" s="78"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
-      <c r="L62" s="79"/>
-      <c r="M62" s="79"/>
-      <c r="N62" s="79"/>
-      <c r="O62" s="79"/>
-      <c r="P62" s="79"/>
-      <c r="Q62" s="79"/>
-      <c r="R62" s="79"/>
-      <c r="S62" s="79"/>
-      <c r="T62" s="79"/>
-      <c r="U62" s="79"/>
-      <c r="V62" s="79"/>
-      <c r="W62" s="79"/>
-      <c r="X62" s="79"/>
-      <c r="Y62" s="79"/>
-      <c r="Z62" s="79"/>
+        <v>184</v>
+      </c>
+      <c r="G62" s="87"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="88"/>
+      <c r="O62" s="88"/>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="88"/>
+      <c r="R62" s="88"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="88"/>
+      <c r="U62" s="88"/>
+      <c r="V62" s="88"/>
+      <c r="W62" s="88"/>
+      <c r="X62" s="88"/>
+      <c r="Y62" s="88"/>
+      <c r="Z62" s="88"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="45" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E63" s="45"/>
       <c r="F63" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="G63" s="78"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
-      <c r="L63" s="79"/>
-      <c r="M63" s="79"/>
-      <c r="N63" s="79"/>
-      <c r="O63" s="79"/>
-      <c r="P63" s="79"/>
-      <c r="Q63" s="79"/>
-      <c r="R63" s="79"/>
-      <c r="S63" s="79"/>
-      <c r="T63" s="79"/>
-      <c r="U63" s="79"/>
-      <c r="V63" s="79"/>
-      <c r="W63" s="79"/>
-      <c r="X63" s="79"/>
-      <c r="Y63" s="79"/>
-      <c r="Z63" s="79"/>
+        <v>188</v>
+      </c>
+      <c r="G63" s="87"/>
+      <c r="H63" s="88"/>
+      <c r="I63" s="88"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="88"/>
+      <c r="L63" s="88"/>
+      <c r="M63" s="88"/>
+      <c r="N63" s="88"/>
+      <c r="O63" s="88"/>
+      <c r="P63" s="88"/>
+      <c r="Q63" s="88"/>
+      <c r="R63" s="88"/>
+      <c r="S63" s="88"/>
+      <c r="T63" s="88"/>
+      <c r="U63" s="88"/>
+      <c r="V63" s="88"/>
+      <c r="W63" s="88"/>
+      <c r="X63" s="88"/>
+      <c r="Y63" s="88"/>
+      <c r="Z63" s="88"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="4"/>
-      <c r="G64" s="5"/>
+      <c r="A64" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="89" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="45"/>
+      <c r="F64" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="G64" s="87"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="88"/>
+      <c r="M64" s="88"/>
+      <c r="N64" s="88"/>
+      <c r="O64" s="88"/>
+      <c r="P64" s="88"/>
+      <c r="Q64" s="88"/>
+      <c r="R64" s="88"/>
+      <c r="S64" s="88"/>
+      <c r="T64" s="88"/>
+      <c r="U64" s="88"/>
+      <c r="V64" s="88"/>
+      <c r="W64" s="88"/>
+      <c r="X64" s="88"/>
+      <c r="Y64" s="88"/>
+      <c r="Z64" s="88"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G65" s="5"/>
+      <c r="A65" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="45"/>
+      <c r="F65" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="G65" s="87"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="88"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="88"/>
+      <c r="O65" s="88"/>
+      <c r="P65" s="88"/>
+      <c r="Q65" s="88"/>
+      <c r="R65" s="88"/>
+      <c r="S65" s="88"/>
+      <c r="T65" s="88"/>
+      <c r="U65" s="88"/>
+      <c r="V65" s="88"/>
+      <c r="W65" s="88"/>
+      <c r="X65" s="88"/>
+      <c r="Y65" s="88"/>
+      <c r="Z65" s="88"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="4"/>
-      <c r="G66" s="5"/>
+      <c r="A66" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="45"/>
+      <c r="F66" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="G66" s="87"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="88"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="88"/>
+      <c r="M66" s="88"/>
+      <c r="N66" s="88"/>
+      <c r="O66" s="88"/>
+      <c r="P66" s="88"/>
+      <c r="Q66" s="88"/>
+      <c r="R66" s="88"/>
+      <c r="S66" s="88"/>
+      <c r="T66" s="88"/>
+      <c r="U66" s="88"/>
+      <c r="V66" s="88"/>
+      <c r="W66" s="88"/>
+      <c r="X66" s="88"/>
+      <c r="Y66" s="88"/>
+      <c r="Z66" s="88"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="5"/>
+      <c r="A67" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" s="45"/>
+      <c r="F67" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="G67" s="87"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="88"/>
+      <c r="L67" s="88"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="88"/>
+      <c r="Q67" s="88"/>
+      <c r="R67" s="88"/>
+      <c r="S67" s="88"/>
+      <c r="T67" s="88"/>
+      <c r="U67" s="88"/>
+      <c r="V67" s="88"/>
+      <c r="W67" s="88"/>
+      <c r="X67" s="88"/>
+      <c r="Y67" s="88"/>
+      <c r="Z67" s="88"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="45" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="C68" s="80" t="s">
-        <v>182</v>
+        <v>200</v>
+      </c>
+      <c r="C68" s="90" t="s">
+        <v>201</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E68" s="45"/>
       <c r="F68" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="78"/>
-      <c r="H68" s="79"/>
-      <c r="I68" s="79"/>
-      <c r="J68" s="79"/>
-      <c r="K68" s="79"/>
-      <c r="L68" s="79"/>
-      <c r="M68" s="79"/>
-      <c r="N68" s="79"/>
-      <c r="O68" s="79"/>
-      <c r="P68" s="79"/>
-      <c r="Q68" s="79"/>
-      <c r="R68" s="79"/>
-      <c r="S68" s="79"/>
-      <c r="T68" s="79"/>
-      <c r="U68" s="79"/>
-      <c r="V68" s="79"/>
-      <c r="W68" s="79"/>
-      <c r="X68" s="79"/>
-      <c r="Y68" s="79"/>
-      <c r="Z68" s="79"/>
+        <v>184</v>
+      </c>
+      <c r="G68" s="87"/>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
+      <c r="J68" s="88"/>
+      <c r="K68" s="88"/>
+      <c r="L68" s="88"/>
+      <c r="M68" s="88"/>
+      <c r="N68" s="88"/>
+      <c r="O68" s="88"/>
+      <c r="P68" s="88"/>
+      <c r="Q68" s="88"/>
+      <c r="R68" s="88"/>
+      <c r="S68" s="88"/>
+      <c r="T68" s="88"/>
+      <c r="U68" s="88"/>
+      <c r="V68" s="88"/>
+      <c r="W68" s="88"/>
+      <c r="X68" s="88"/>
+      <c r="Y68" s="88"/>
+      <c r="Z68" s="88"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="45" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="C69" s="80" t="s">
-        <v>185</v>
+        <v>202</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>198</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="E69" s="45"/>
       <c r="F69" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="79"/>
-      <c r="N69" s="79"/>
-      <c r="O69" s="79"/>
-      <c r="P69" s="79"/>
-      <c r="Q69" s="79"/>
-      <c r="R69" s="79"/>
-      <c r="S69" s="79"/>
-      <c r="T69" s="79"/>
-      <c r="U69" s="79"/>
-      <c r="V69" s="79"/>
-      <c r="W69" s="79"/>
-      <c r="X69" s="79"/>
-      <c r="Y69" s="79"/>
-      <c r="Z69" s="79"/>
+        <v>167</v>
+      </c>
+      <c r="G69" s="87"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
+      <c r="J69" s="88"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="88"/>
+      <c r="M69" s="88"/>
+      <c r="N69" s="88"/>
+      <c r="O69" s="88"/>
+      <c r="P69" s="88"/>
+      <c r="Q69" s="88"/>
+      <c r="R69" s="88"/>
+      <c r="S69" s="88"/>
+      <c r="T69" s="88"/>
+      <c r="U69" s="88"/>
+      <c r="V69" s="88"/>
+      <c r="W69" s="88"/>
+      <c r="X69" s="88"/>
+      <c r="Y69" s="88"/>
+      <c r="Z69" s="88"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="45" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" s="80" t="s">
-        <v>188</v>
+        <v>204</v>
+      </c>
+      <c r="C70" s="90" t="s">
+        <v>205</v>
       </c>
       <c r="D70" s="45" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="E70" s="45"/>
       <c r="F70" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="G70" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="79"/>
-      <c r="N70" s="79"/>
-      <c r="O70" s="79"/>
-      <c r="P70" s="79"/>
-      <c r="Q70" s="79"/>
-      <c r="R70" s="79"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="79"/>
-      <c r="U70" s="79"/>
-      <c r="V70" s="79"/>
-      <c r="W70" s="79"/>
-      <c r="X70" s="79"/>
-      <c r="Y70" s="79"/>
-      <c r="Z70" s="79"/>
+        <v>206</v>
+      </c>
+      <c r="G70" s="87"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="88"/>
+      <c r="J70" s="88"/>
+      <c r="K70" s="88"/>
+      <c r="L70" s="88"/>
+      <c r="M70" s="88"/>
+      <c r="N70" s="88"/>
+      <c r="O70" s="88"/>
+      <c r="P70" s="88"/>
+      <c r="Q70" s="88"/>
+      <c r="R70" s="88"/>
+      <c r="S70" s="88"/>
+      <c r="T70" s="88"/>
+      <c r="U70" s="88"/>
+      <c r="V70" s="88"/>
+      <c r="W70" s="88"/>
+      <c r="X70" s="88"/>
+      <c r="Y70" s="88"/>
+      <c r="Z70" s="88"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="45" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="D71" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E71" s="82"/>
+        <v>86</v>
+      </c>
+      <c r="E71" s="45"/>
       <c r="F71" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G71" s="78"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
-      <c r="J71" s="79"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="79"/>
-      <c r="N71" s="79"/>
-      <c r="O71" s="79"/>
-      <c r="P71" s="79"/>
-      <c r="Q71" s="79"/>
-      <c r="R71" s="79"/>
-      <c r="S71" s="79"/>
-      <c r="T71" s="79"/>
-      <c r="U71" s="79"/>
-      <c r="V71" s="79"/>
-      <c r="W71" s="79"/>
-      <c r="X71" s="79"/>
-      <c r="Y71" s="79"/>
-      <c r="Z71" s="79"/>
+        <v>171</v>
+      </c>
+      <c r="G71" s="87"/>
+      <c r="H71" s="88"/>
+      <c r="I71" s="88"/>
+      <c r="J71" s="88"/>
+      <c r="K71" s="88"/>
+      <c r="L71" s="88"/>
+      <c r="M71" s="88"/>
+      <c r="N71" s="88"/>
+      <c r="O71" s="88"/>
+      <c r="P71" s="88"/>
+      <c r="Q71" s="88"/>
+      <c r="R71" s="88"/>
+      <c r="S71" s="88"/>
+      <c r="T71" s="88"/>
+      <c r="U71" s="88"/>
+      <c r="V71" s="88"/>
+      <c r="W71" s="88"/>
+      <c r="X71" s="88"/>
+      <c r="Y71" s="88"/>
+      <c r="Z71" s="88"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="45" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="D72" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="82"/>
+        <v>86</v>
+      </c>
+      <c r="E72" s="45"/>
       <c r="F72" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="G72" s="78"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="79"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="79"/>
-      <c r="N72" s="79"/>
-      <c r="O72" s="79"/>
-      <c r="P72" s="79"/>
-      <c r="Q72" s="79"/>
-      <c r="R72" s="79"/>
-      <c r="S72" s="79"/>
-      <c r="T72" s="79"/>
-      <c r="U72" s="79"/>
-      <c r="V72" s="79"/>
-      <c r="W72" s="79"/>
-      <c r="X72" s="79"/>
-      <c r="Y72" s="79"/>
-      <c r="Z72" s="79"/>
+        <v>171</v>
+      </c>
+      <c r="G72" s="87"/>
+      <c r="H72" s="88"/>
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
+      <c r="K72" s="88"/>
+      <c r="L72" s="88"/>
+      <c r="M72" s="88"/>
+      <c r="N72" s="88"/>
+      <c r="O72" s="88"/>
+      <c r="P72" s="88"/>
+      <c r="Q72" s="88"/>
+      <c r="R72" s="88"/>
+      <c r="S72" s="88"/>
+      <c r="T72" s="88"/>
+      <c r="U72" s="88"/>
+      <c r="V72" s="88"/>
+      <c r="W72" s="88"/>
+      <c r="X72" s="88"/>
+      <c r="Y72" s="88"/>
+      <c r="Z72" s="88"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="B73" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="C73" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="D73" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="45"/>
-      <c r="F73" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G73" s="78"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="79"/>
-      <c r="P73" s="79"/>
-      <c r="Q73" s="79"/>
-      <c r="R73" s="79"/>
-      <c r="S73" s="79"/>
-      <c r="T73" s="79"/>
-      <c r="U73" s="79"/>
-      <c r="V73" s="79"/>
-      <c r="W73" s="79"/>
-      <c r="X73" s="79"/>
-      <c r="Y73" s="79"/>
-      <c r="Z73" s="79"/>
+      <c r="A73" s="4"/>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="B74" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="C74" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="D74" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74" s="82"/>
-      <c r="F74" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G74" s="78"/>
-      <c r="H74" s="79"/>
-      <c r="I74" s="79"/>
-      <c r="J74" s="79"/>
-      <c r="K74" s="79"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="79"/>
-      <c r="N74" s="79"/>
-      <c r="O74" s="79"/>
-      <c r="P74" s="79"/>
-      <c r="Q74" s="79"/>
-      <c r="R74" s="79"/>
-      <c r="S74" s="79"/>
-      <c r="T74" s="79"/>
-      <c r="U74" s="79"/>
-      <c r="V74" s="79"/>
-      <c r="W74" s="79"/>
-      <c r="X74" s="79"/>
-      <c r="Y74" s="79"/>
-      <c r="Z74" s="79"/>
+      <c r="A74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G74" s="5"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C75" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="D75" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E75" s="45"/>
-      <c r="F75" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G75" s="78"/>
-      <c r="H75" s="79"/>
-      <c r="I75" s="79"/>
-      <c r="J75" s="79"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="79"/>
-      <c r="N75" s="79"/>
-      <c r="O75" s="79"/>
-      <c r="P75" s="79"/>
-      <c r="Q75" s="79"/>
-      <c r="R75" s="79"/>
-      <c r="S75" s="79"/>
-      <c r="T75" s="79"/>
-      <c r="U75" s="79"/>
-      <c r="V75" s="79"/>
-      <c r="W75" s="79"/>
-      <c r="X75" s="79"/>
-      <c r="Y75" s="79"/>
-      <c r="Z75" s="79"/>
+      <c r="A75" s="4"/>
+      <c r="G75" s="5"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="B76" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="D76" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="E76" s="45"/>
-      <c r="F76" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G76" s="78"/>
-      <c r="H76" s="79"/>
-      <c r="I76" s="79"/>
-      <c r="J76" s="79"/>
-      <c r="K76" s="79"/>
-      <c r="L76" s="79"/>
-      <c r="M76" s="79"/>
-      <c r="N76" s="79"/>
-      <c r="O76" s="79"/>
-      <c r="P76" s="79"/>
-      <c r="Q76" s="79"/>
-      <c r="R76" s="79"/>
-      <c r="S76" s="79"/>
-      <c r="T76" s="79"/>
-      <c r="U76" s="79"/>
-      <c r="V76" s="79"/>
-      <c r="W76" s="79"/>
-      <c r="X76" s="79"/>
-      <c r="Y76" s="79"/>
-      <c r="Z76" s="79"/>
+      <c r="A76" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="5"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="45" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="45" t="s">
         <v>209</v>
       </c>
+      <c r="C77" s="89" t="s">
+        <v>210</v>
+      </c>
       <c r="D77" s="45" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E77" s="45"/>
       <c r="F77" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="G77" s="78"/>
-      <c r="H77" s="79"/>
-      <c r="I77" s="79"/>
-      <c r="J77" s="79"/>
-      <c r="K77" s="79"/>
-      <c r="L77" s="79"/>
-      <c r="M77" s="79"/>
-      <c r="N77" s="79"/>
-      <c r="O77" s="79"/>
-      <c r="P77" s="79"/>
-      <c r="Q77" s="79"/>
-      <c r="R77" s="79"/>
-      <c r="S77" s="79"/>
-      <c r="T77" s="79"/>
-      <c r="U77" s="79"/>
-      <c r="V77" s="79"/>
-      <c r="W77" s="79"/>
-      <c r="X77" s="79"/>
-      <c r="Y77" s="79"/>
-      <c r="Z77" s="79"/>
+        <v>13</v>
+      </c>
+      <c r="G77" s="87"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="88"/>
+      <c r="M77" s="88"/>
+      <c r="N77" s="88"/>
+      <c r="O77" s="88"/>
+      <c r="P77" s="88"/>
+      <c r="Q77" s="88"/>
+      <c r="R77" s="88"/>
+      <c r="S77" s="88"/>
+      <c r="T77" s="88"/>
+      <c r="U77" s="88"/>
+      <c r="V77" s="88"/>
+      <c r="W77" s="88"/>
+      <c r="X77" s="88"/>
+      <c r="Y77" s="88"/>
+      <c r="Z77" s="88"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="45" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" s="45" t="s">
-        <v>210</v>
+        <v>212</v>
+      </c>
+      <c r="C78" s="89" t="s">
+        <v>213</v>
       </c>
       <c r="D78" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E78" s="82"/>
+        <v>11</v>
+      </c>
+      <c r="E78" s="45"/>
       <c r="F78" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="G78" s="78"/>
-      <c r="H78" s="79"/>
-      <c r="I78" s="79"/>
-      <c r="J78" s="79"/>
-      <c r="K78" s="79"/>
-      <c r="L78" s="79"/>
-      <c r="M78" s="79"/>
-      <c r="N78" s="79"/>
-      <c r="O78" s="79"/>
-      <c r="P78" s="79"/>
-      <c r="Q78" s="79"/>
-      <c r="R78" s="79"/>
-      <c r="S78" s="79"/>
-      <c r="T78" s="79"/>
-      <c r="U78" s="79"/>
-      <c r="V78" s="79"/>
-      <c r="W78" s="79"/>
-      <c r="X78" s="79"/>
-      <c r="Y78" s="79"/>
-      <c r="Z78" s="79"/>
+        <v>13</v>
+      </c>
+      <c r="G78" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="H78" s="88"/>
+      <c r="I78" s="88"/>
+      <c r="J78" s="88"/>
+      <c r="K78" s="88"/>
+      <c r="L78" s="88"/>
+      <c r="M78" s="88"/>
+      <c r="N78" s="88"/>
+      <c r="O78" s="88"/>
+      <c r="P78" s="88"/>
+      <c r="Q78" s="88"/>
+      <c r="R78" s="88"/>
+      <c r="S78" s="88"/>
+      <c r="T78" s="88"/>
+      <c r="U78" s="88"/>
+      <c r="V78" s="88"/>
+      <c r="W78" s="88"/>
+      <c r="X78" s="88"/>
+      <c r="Y78" s="88"/>
+      <c r="Z78" s="88"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="45" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C79" s="45" t="s">
-        <v>146</v>
+        <v>28</v>
+      </c>
+      <c r="C79" s="89" t="s">
+        <v>216</v>
       </c>
       <c r="D79" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="E79" s="45"/>
+      <c r="F79" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="G79" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="H79" s="88"/>
+      <c r="I79" s="88"/>
+      <c r="J79" s="88"/>
+      <c r="K79" s="88"/>
+      <c r="L79" s="88"/>
+      <c r="M79" s="88"/>
+      <c r="N79" s="88"/>
+      <c r="O79" s="88"/>
+      <c r="P79" s="88"/>
+      <c r="Q79" s="88"/>
+      <c r="R79" s="88"/>
+      <c r="S79" s="88"/>
+      <c r="T79" s="88"/>
+      <c r="U79" s="88"/>
+      <c r="V79" s="88"/>
+      <c r="W79" s="88"/>
+      <c r="X79" s="88"/>
+      <c r="Y79" s="88"/>
+      <c r="Z79" s="88"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="91"/>
+      <c r="F80" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G80" s="87"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="88"/>
+      <c r="J80" s="88"/>
+      <c r="K80" s="88"/>
+      <c r="L80" s="88"/>
+      <c r="M80" s="88"/>
+      <c r="N80" s="88"/>
+      <c r="O80" s="88"/>
+      <c r="P80" s="88"/>
+      <c r="Q80" s="88"/>
+      <c r="R80" s="88"/>
+      <c r="S80" s="88"/>
+      <c r="T80" s="88"/>
+      <c r="U80" s="88"/>
+      <c r="V80" s="88"/>
+      <c r="W80" s="88"/>
+      <c r="X80" s="88"/>
+      <c r="Y80" s="88"/>
+      <c r="Z80" s="88"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="91"/>
+      <c r="F81" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="G81" s="87"/>
+      <c r="H81" s="88"/>
+      <c r="I81" s="88"/>
+      <c r="J81" s="88"/>
+      <c r="K81" s="88"/>
+      <c r="L81" s="88"/>
+      <c r="M81" s="88"/>
+      <c r="N81" s="88"/>
+      <c r="O81" s="88"/>
+      <c r="P81" s="88"/>
+      <c r="Q81" s="88"/>
+      <c r="R81" s="88"/>
+      <c r="S81" s="88"/>
+      <c r="T81" s="88"/>
+      <c r="U81" s="88"/>
+      <c r="V81" s="88"/>
+      <c r="W81" s="88"/>
+      <c r="X81" s="88"/>
+      <c r="Y81" s="88"/>
+      <c r="Z81" s="88"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="B82" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="C82" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="D82" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="45"/>
+      <c r="F82" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G82" s="87"/>
+      <c r="H82" s="88"/>
+      <c r="I82" s="88"/>
+      <c r="J82" s="88"/>
+      <c r="K82" s="88"/>
+      <c r="L82" s="88"/>
+      <c r="M82" s="88"/>
+      <c r="N82" s="88"/>
+      <c r="O82" s="88"/>
+      <c r="P82" s="88"/>
+      <c r="Q82" s="88"/>
+      <c r="R82" s="88"/>
+      <c r="S82" s="88"/>
+      <c r="T82" s="88"/>
+      <c r="U82" s="88"/>
+      <c r="V82" s="88"/>
+      <c r="W82" s="88"/>
+      <c r="X82" s="88"/>
+      <c r="Y82" s="88"/>
+      <c r="Z82" s="88"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="91"/>
+      <c r="F83" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G83" s="87"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="88"/>
+      <c r="J83" s="88"/>
+      <c r="K83" s="88"/>
+      <c r="L83" s="88"/>
+      <c r="M83" s="88"/>
+      <c r="N83" s="88"/>
+      <c r="O83" s="88"/>
+      <c r="P83" s="88"/>
+      <c r="Q83" s="88"/>
+      <c r="R83" s="88"/>
+      <c r="S83" s="88"/>
+      <c r="T83" s="88"/>
+      <c r="U83" s="88"/>
+      <c r="V83" s="88"/>
+      <c r="W83" s="88"/>
+      <c r="X83" s="88"/>
+      <c r="Y83" s="88"/>
+      <c r="Z83" s="88"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="45"/>
+      <c r="F84" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G84" s="87"/>
+      <c r="H84" s="88"/>
+      <c r="I84" s="88"/>
+      <c r="J84" s="88"/>
+      <c r="K84" s="88"/>
+      <c r="L84" s="88"/>
+      <c r="M84" s="88"/>
+      <c r="N84" s="88"/>
+      <c r="O84" s="88"/>
+      <c r="P84" s="88"/>
+      <c r="Q84" s="88"/>
+      <c r="R84" s="88"/>
+      <c r="S84" s="88"/>
+      <c r="T84" s="88"/>
+      <c r="U84" s="88"/>
+      <c r="V84" s="88"/>
+      <c r="W84" s="88"/>
+      <c r="X84" s="88"/>
+      <c r="Y84" s="88"/>
+      <c r="Z84" s="88"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="B85" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E85" s="45"/>
+      <c r="F85" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85" s="87"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="88"/>
+      <c r="J85" s="88"/>
+      <c r="K85" s="88"/>
+      <c r="L85" s="88"/>
+      <c r="M85" s="88"/>
+      <c r="N85" s="88"/>
+      <c r="O85" s="88"/>
+      <c r="P85" s="88"/>
+      <c r="Q85" s="88"/>
+      <c r="R85" s="88"/>
+      <c r="S85" s="88"/>
+      <c r="T85" s="88"/>
+      <c r="U85" s="88"/>
+      <c r="V85" s="88"/>
+      <c r="W85" s="88"/>
+      <c r="X85" s="88"/>
+      <c r="Y85" s="88"/>
+      <c r="Z85" s="88"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" s="45"/>
+      <c r="F86" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="G86" s="87"/>
+      <c r="H86" s="88"/>
+      <c r="I86" s="88"/>
+      <c r="J86" s="88"/>
+      <c r="K86" s="88"/>
+      <c r="L86" s="88"/>
+      <c r="M86" s="88"/>
+      <c r="N86" s="88"/>
+      <c r="O86" s="88"/>
+      <c r="P86" s="88"/>
+      <c r="Q86" s="88"/>
+      <c r="R86" s="88"/>
+      <c r="S86" s="88"/>
+      <c r="T86" s="88"/>
+      <c r="U86" s="88"/>
+      <c r="V86" s="88"/>
+      <c r="W86" s="88"/>
+      <c r="X86" s="88"/>
+      <c r="Y86" s="88"/>
+      <c r="Z86" s="88"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="E79" s="82"/>
-      <c r="F79" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="G79" s="78"/>
-      <c r="H79" s="79"/>
-      <c r="I79" s="79"/>
-      <c r="J79" s="79"/>
-      <c r="K79" s="79"/>
-      <c r="L79" s="79"/>
-      <c r="M79" s="79"/>
-      <c r="N79" s="79"/>
-      <c r="O79" s="79"/>
-      <c r="P79" s="79"/>
-      <c r="Q79" s="79"/>
-      <c r="R79" s="79"/>
-      <c r="S79" s="79"/>
-      <c r="T79" s="79"/>
-      <c r="U79" s="79"/>
-      <c r="V79" s="79"/>
-      <c r="W79" s="79"/>
-      <c r="X79" s="79"/>
-      <c r="Y79" s="79"/>
-      <c r="Z79" s="79"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="4"/>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="83"/>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="G87" s="5"/>
+      <c r="E87" s="91"/>
+      <c r="F87" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="G87" s="87"/>
+      <c r="H87" s="88"/>
+      <c r="I87" s="88"/>
+      <c r="J87" s="88"/>
+      <c r="K87" s="88"/>
+      <c r="L87" s="88"/>
+      <c r="M87" s="88"/>
+      <c r="N87" s="88"/>
+      <c r="O87" s="88"/>
+      <c r="P87" s="88"/>
+      <c r="Q87" s="88"/>
+      <c r="R87" s="88"/>
+      <c r="S87" s="88"/>
+      <c r="T87" s="88"/>
+      <c r="U87" s="88"/>
+      <c r="V87" s="88"/>
+      <c r="W87" s="88"/>
+      <c r="X87" s="88"/>
+      <c r="Y87" s="88"/>
+      <c r="Z87" s="88"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="G88" s="5"/>
+      <c r="A88" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E88" s="91"/>
+      <c r="F88" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="G88" s="87"/>
+      <c r="H88" s="88"/>
+      <c r="I88" s="88"/>
+      <c r="J88" s="88"/>
+      <c r="K88" s="88"/>
+      <c r="L88" s="88"/>
+      <c r="M88" s="88"/>
+      <c r="N88" s="88"/>
+      <c r="O88" s="88"/>
+      <c r="P88" s="88"/>
+      <c r="Q88" s="88"/>
+      <c r="R88" s="88"/>
+      <c r="S88" s="88"/>
+      <c r="T88" s="88"/>
+      <c r="U88" s="88"/>
+      <c r="V88" s="88"/>
+      <c r="W88" s="88"/>
+      <c r="X88" s="88"/>
+      <c r="Y88" s="88"/>
+      <c r="Z88" s="88"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="4"/>
       <c r="G89" s="5"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="92"/>
       <c r="G90" s="5"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
@@ -8046,15 +8703,6 @@
     </row>
     <row r="997" ht="15.75" customHeight="1">
       <c r="G997" s="5"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="G998" s="5"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="G999" s="5"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="G1000" s="5"/>
     </row>
   </sheetData>
   <printOptions/>

--- a/documentation/Record Of Tasks.xlsx
+++ b/documentation/Record Of Tasks.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="9RE5WWv/1Z/enEj8mWwpWuwrwng687r8dWKhSScwD+w="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="pgWysHQ5Yo9Prt6sSqAqWa/b/LCqrBERFY36Uj/DZCU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="247">
   <si>
     <t>Waterfall Methodology</t>
   </si>
@@ -1694,11 +1694,35 @@
         <color rgb="FF156082"/>
         <sz val="11.0"/>
       </rPr>
-      <t>•	Navigation and AppStatus</t>
+      <t xml:space="preserve"> •        Navigation and AppStatus</t>
     </r>
   </si>
   <si>
     <t>6 hours</t>
+  </si>
+  <si>
+    <t>Create a NavigationController to handle the View Flow</t>
+  </si>
+  <si>
+    <t>NavigationController can be tested via Unit Test</t>
+  </si>
+  <si>
+    <t>03/20/2025</t>
+  </si>
+  <si>
+    <t>Integrate NavigationController in views</t>
+  </si>
+  <si>
+    <t>The views are know working the navigation flow</t>
+  </si>
+  <si>
+    <t>12 hours</t>
+  </si>
+  <si>
+    <t>03/25/2025</t>
+  </si>
+  <si>
+    <t>we had to adapt and change a lot the previous navigation controller</t>
   </si>
   <si>
     <t>Implement the database</t>
@@ -2221,10 +2245,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -2312,6 +2336,11 @@
       <sz val="11.0"/>
       <color rgb="FF156082"/>
       <name val="Quattrocento Sans"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF156082"/>
+      <name val="Aptos Narrow"/>
     </font>
     <font>
       <i/>
@@ -2431,7 +2460,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2610,23 +2639,33 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="5" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2652,6 +2691,9 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="15" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -2672,7 +2714,7 @@
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -4436,68 +4478,68 @@
       <c r="D41" s="67"/>
       <c r="E41" s="68"/>
       <c r="F41" s="67"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="69"/>
-      <c r="R41" s="69"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="69"/>
-      <c r="U41" s="69"/>
-      <c r="V41" s="69"/>
-      <c r="W41" s="69"/>
-      <c r="X41" s="69"/>
-      <c r="Y41" s="69"/>
-      <c r="Z41" s="69"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="67"/>
+      <c r="S41" s="67"/>
+      <c r="T41" s="67"/>
+      <c r="U41" s="67"/>
+      <c r="V41" s="67"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="67"/>
+      <c r="Z41" s="67"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="70">
         <v>45964.0</v>
       </c>
-      <c r="F42" s="41" t="s">
+      <c r="F42" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="64" t="s">
+      <c r="G42" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
-      <c r="Y42" s="42"/>
-      <c r="Z42" s="42"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="73"/>
+      <c r="W42" s="73"/>
+      <c r="X42" s="73"/>
+      <c r="Y42" s="73"/>
+      <c r="Z42" s="73"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="13" t="s">
@@ -4718,7 +4760,7 @@
       <c r="F48" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="G48" s="72" t="s">
+      <c r="G48" s="74" t="s">
         <v>154</v>
       </c>
       <c r="H48" s="18"/>
@@ -4748,7 +4790,7 @@
       <c r="B49" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="73" t="s">
+      <c r="C49" s="75" t="s">
         <v>156</v>
       </c>
       <c r="D49" s="14" t="s">
@@ -4760,7 +4802,7 @@
       <c r="F49" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="G49" s="72"/>
+      <c r="G49" s="74"/>
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
@@ -4781,119 +4823,125 @@
       <c r="Y49" s="18"/>
       <c r="Z49" s="18"/>
     </row>
-    <row r="50" ht="45.75" customHeight="1">
-      <c r="A50" s="74" t="s">
+    <row r="50" ht="51.75" customHeight="1">
+      <c r="A50" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C50" s="74" t="s">
+      <c r="C50" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D50" s="74" t="s">
+      <c r="D50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="74"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+    </row>
+    <row r="51" ht="51.75" customHeight="1">
+      <c r="A51" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="75"/>
-      <c r="F50" s="76" t="s">
+      <c r="E52" s="77"/>
+      <c r="F52" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="G50" s="77"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
-      <c r="Q50" s="78"/>
-      <c r="R50" s="78"/>
-      <c r="S50" s="78"/>
-      <c r="T50" s="78"/>
-      <c r="U50" s="78"/>
-      <c r="V50" s="78"/>
-      <c r="W50" s="78"/>
-      <c r="X50" s="78"/>
-      <c r="Y50" s="78"/>
-      <c r="Z50" s="78"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="79"/>
-      <c r="F51" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="80"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="81"/>
-      <c r="P51" s="81"/>
-      <c r="Q51" s="81"/>
-      <c r="R51" s="81"/>
-      <c r="S51" s="81"/>
-      <c r="T51" s="81"/>
-      <c r="U51" s="81"/>
-      <c r="V51" s="81"/>
-      <c r="W51" s="81"/>
-      <c r="X51" s="81"/>
-      <c r="Y51" s="81"/>
-      <c r="Z51" s="81"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" s="79"/>
-      <c r="F52" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G52" s="80"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="81"/>
-      <c r="Q52" s="81"/>
-      <c r="R52" s="81"/>
-      <c r="S52" s="81"/>
-      <c r="T52" s="81"/>
-      <c r="U52" s="81"/>
-      <c r="V52" s="81"/>
-      <c r="W52" s="81"/>
-      <c r="X52" s="81"/>
-      <c r="Y52" s="81"/>
-      <c r="Z52" s="81"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="80"/>
+      <c r="N52" s="80"/>
+      <c r="O52" s="80"/>
+      <c r="P52" s="80"/>
+      <c r="Q52" s="80"/>
+      <c r="R52" s="80"/>
+      <c r="S52" s="80"/>
+      <c r="T52" s="80"/>
+      <c r="U52" s="80"/>
+      <c r="V52" s="80"/>
+      <c r="W52" s="80"/>
+      <c r="X52" s="80"/>
+      <c r="Y52" s="80"/>
+      <c r="Z52" s="80"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="25" t="s">
@@ -4906,49 +4954,49 @@
         <v>170</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="79"/>
+        <v>30</v>
+      </c>
+      <c r="E53" s="81"/>
       <c r="F53" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" s="82"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="83"/>
+      <c r="N53" s="83"/>
+      <c r="O53" s="83"/>
+      <c r="P53" s="83"/>
+      <c r="Q53" s="83"/>
+      <c r="R53" s="83"/>
+      <c r="S53" s="83"/>
+      <c r="T53" s="83"/>
+      <c r="U53" s="83"/>
+      <c r="V53" s="83"/>
+      <c r="W53" s="83"/>
+      <c r="X53" s="83"/>
+      <c r="Y53" s="83"/>
+      <c r="Z53" s="83"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="G53" s="80"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="81"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="81"/>
-      <c r="N53" s="81"/>
-      <c r="O53" s="81"/>
-      <c r="P53" s="81"/>
-      <c r="Q53" s="81"/>
-      <c r="R53" s="81"/>
-      <c r="S53" s="81"/>
-      <c r="T53" s="81"/>
-      <c r="U53" s="81"/>
-      <c r="V53" s="81"/>
-      <c r="W53" s="81"/>
-      <c r="X53" s="81"/>
-      <c r="Y53" s="81"/>
-      <c r="Z53" s="81"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="8" t="s">
+      <c r="B54" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="C54" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="10" t="s">
-        <v>171</v>
+      <c r="E54" s="81"/>
+      <c r="F54" s="28" t="s">
+        <v>175</v>
       </c>
       <c r="G54" s="82"/>
       <c r="H54" s="83"/>
@@ -4972,31 +5020,97 @@
       <c r="Z54" s="83"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="84"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="5"/>
+      <c r="A55" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="81"/>
+      <c r="F55" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G55" s="82"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="83"/>
+      <c r="O55" s="83"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="83"/>
+      <c r="T55" s="83"/>
+      <c r="U55" s="83"/>
+      <c r="V55" s="83"/>
+      <c r="W55" s="83"/>
+      <c r="X55" s="83"/>
+      <c r="Y55" s="83"/>
+      <c r="Z55" s="83"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="84"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="5"/>
+      <c r="A56" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="84"/>
+      <c r="F56" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G56" s="85"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="86"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="86"/>
+      <c r="L56" s="86"/>
+      <c r="M56" s="86"/>
+      <c r="N56" s="86"/>
+      <c r="O56" s="86"/>
+      <c r="P56" s="86"/>
+      <c r="Q56" s="86"/>
+      <c r="R56" s="86"/>
+      <c r="S56" s="86"/>
+      <c r="T56" s="86"/>
+      <c r="U56" s="86"/>
+      <c r="V56" s="86"/>
+      <c r="W56" s="86"/>
+      <c r="X56" s="86"/>
+      <c r="Y56" s="86"/>
+      <c r="Z56" s="86"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4"/>
+      <c r="A57" s="87"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="89"/>
       <c r="G57" s="5"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="A58" s="87"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="89"/>
       <c r="G58" s="5"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -5004,139 +5118,73 @@
       <c r="G59" s="5"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="4"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F60" s="7" t="s">
+      <c r="D62" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="B61" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C61" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="D61" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="45"/>
-      <c r="F61" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="87"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="88"/>
-      <c r="M61" s="88"/>
-      <c r="N61" s="88"/>
-      <c r="O61" s="88"/>
-      <c r="P61" s="88"/>
-      <c r="Q61" s="88"/>
-      <c r="R61" s="88"/>
-      <c r="S61" s="88"/>
-      <c r="T61" s="88"/>
-      <c r="U61" s="88"/>
-      <c r="V61" s="88"/>
-      <c r="W61" s="88"/>
-      <c r="X61" s="88"/>
-      <c r="Y61" s="88"/>
-      <c r="Z61" s="88"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="B62" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="C62" s="89" t="s">
-        <v>183</v>
-      </c>
-      <c r="D62" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" s="45"/>
-      <c r="F62" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="G62" s="87"/>
-      <c r="H62" s="88"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="88"/>
-      <c r="K62" s="88"/>
-      <c r="L62" s="88"/>
-      <c r="M62" s="88"/>
-      <c r="N62" s="88"/>
-      <c r="O62" s="88"/>
-      <c r="P62" s="88"/>
-      <c r="Q62" s="88"/>
-      <c r="R62" s="88"/>
-      <c r="S62" s="88"/>
-      <c r="T62" s="88"/>
-      <c r="U62" s="88"/>
-      <c r="V62" s="88"/>
-      <c r="W62" s="88"/>
-      <c r="X62" s="88"/>
-      <c r="Y62" s="88"/>
-      <c r="Z62" s="88"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E63" s="45"/>
       <c r="F63" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="G63" s="87"/>
-      <c r="H63" s="88"/>
-      <c r="I63" s="88"/>
-      <c r="J63" s="88"/>
-      <c r="K63" s="88"/>
-      <c r="L63" s="88"/>
-      <c r="M63" s="88"/>
-      <c r="N63" s="88"/>
-      <c r="O63" s="88"/>
-      <c r="P63" s="88"/>
-      <c r="Q63" s="88"/>
-      <c r="R63" s="88"/>
-      <c r="S63" s="88"/>
-      <c r="T63" s="88"/>
-      <c r="U63" s="88"/>
-      <c r="V63" s="88"/>
-      <c r="W63" s="88"/>
-      <c r="X63" s="88"/>
-      <c r="Y63" s="88"/>
-      <c r="Z63" s="88"/>
+        <v>13</v>
+      </c>
+      <c r="G63" s="90"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="91"/>
+      <c r="L63" s="91"/>
+      <c r="M63" s="91"/>
+      <c r="N63" s="91"/>
+      <c r="O63" s="91"/>
+      <c r="P63" s="91"/>
+      <c r="Q63" s="91"/>
+      <c r="R63" s="91"/>
+      <c r="S63" s="91"/>
+      <c r="T63" s="91"/>
+      <c r="U63" s="91"/>
+      <c r="V63" s="91"/>
+      <c r="W63" s="91"/>
+      <c r="X63" s="91"/>
+      <c r="Y63" s="91"/>
+      <c r="Z63" s="91"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="45" t="s">
@@ -5145,7 +5193,7 @@
       <c r="B64" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="89" t="s">
+      <c r="C64" s="92" t="s">
         <v>191</v>
       </c>
       <c r="D64" s="45" t="s">
@@ -5153,840 +5201,910 @@
       </c>
       <c r="E64" s="45"/>
       <c r="F64" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="G64" s="87"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="88"/>
-      <c r="L64" s="88"/>
-      <c r="M64" s="88"/>
-      <c r="N64" s="88"/>
-      <c r="O64" s="88"/>
-      <c r="P64" s="88"/>
-      <c r="Q64" s="88"/>
-      <c r="R64" s="88"/>
-      <c r="S64" s="88"/>
-      <c r="T64" s="88"/>
-      <c r="U64" s="88"/>
-      <c r="V64" s="88"/>
-      <c r="W64" s="88"/>
-      <c r="X64" s="88"/>
-      <c r="Y64" s="88"/>
-      <c r="Z64" s="88"/>
+        <v>192</v>
+      </c>
+      <c r="G64" s="90"/>
+      <c r="H64" s="91"/>
+      <c r="I64" s="91"/>
+      <c r="J64" s="91"/>
+      <c r="K64" s="91"/>
+      <c r="L64" s="91"/>
+      <c r="M64" s="91"/>
+      <c r="N64" s="91"/>
+      <c r="O64" s="91"/>
+      <c r="P64" s="91"/>
+      <c r="Q64" s="91"/>
+      <c r="R64" s="91"/>
+      <c r="S64" s="91"/>
+      <c r="T64" s="91"/>
+      <c r="U64" s="91"/>
+      <c r="V64" s="91"/>
+      <c r="W64" s="91"/>
+      <c r="X64" s="91"/>
+      <c r="Y64" s="91"/>
+      <c r="Z64" s="91"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="45" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="G65" s="87"/>
-      <c r="H65" s="88"/>
-      <c r="I65" s="88"/>
-      <c r="J65" s="88"/>
-      <c r="K65" s="88"/>
-      <c r="L65" s="88"/>
-      <c r="M65" s="88"/>
-      <c r="N65" s="88"/>
-      <c r="O65" s="88"/>
-      <c r="P65" s="88"/>
-      <c r="Q65" s="88"/>
-      <c r="R65" s="88"/>
-      <c r="S65" s="88"/>
-      <c r="T65" s="88"/>
-      <c r="U65" s="88"/>
-      <c r="V65" s="88"/>
-      <c r="W65" s="88"/>
-      <c r="X65" s="88"/>
-      <c r="Y65" s="88"/>
-      <c r="Z65" s="88"/>
+        <v>196</v>
+      </c>
+      <c r="G65" s="90"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="91"/>
+      <c r="K65" s="91"/>
+      <c r="L65" s="91"/>
+      <c r="M65" s="91"/>
+      <c r="N65" s="91"/>
+      <c r="O65" s="91"/>
+      <c r="P65" s="91"/>
+      <c r="Q65" s="91"/>
+      <c r="R65" s="91"/>
+      <c r="S65" s="91"/>
+      <c r="T65" s="91"/>
+      <c r="U65" s="91"/>
+      <c r="V65" s="91"/>
+      <c r="W65" s="91"/>
+      <c r="X65" s="91"/>
+      <c r="Y65" s="91"/>
+      <c r="Z65" s="91"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="45" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="C66" s="89" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+      <c r="C66" s="92" t="s">
+        <v>199</v>
       </c>
       <c r="D66" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E66" s="45"/>
       <c r="F66" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="G66" s="87"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="88"/>
-      <c r="K66" s="88"/>
-      <c r="L66" s="88"/>
-      <c r="M66" s="88"/>
-      <c r="N66" s="88"/>
-      <c r="O66" s="88"/>
-      <c r="P66" s="88"/>
-      <c r="Q66" s="88"/>
-      <c r="R66" s="88"/>
-      <c r="S66" s="88"/>
-      <c r="T66" s="88"/>
-      <c r="U66" s="88"/>
-      <c r="V66" s="88"/>
-      <c r="W66" s="88"/>
-      <c r="X66" s="88"/>
-      <c r="Y66" s="88"/>
-      <c r="Z66" s="88"/>
+        <v>192</v>
+      </c>
+      <c r="G66" s="90"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="91"/>
+      <c r="M66" s="91"/>
+      <c r="N66" s="91"/>
+      <c r="O66" s="91"/>
+      <c r="P66" s="91"/>
+      <c r="Q66" s="91"/>
+      <c r="R66" s="91"/>
+      <c r="S66" s="91"/>
+      <c r="T66" s="91"/>
+      <c r="U66" s="91"/>
+      <c r="V66" s="91"/>
+      <c r="W66" s="91"/>
+      <c r="X66" s="91"/>
+      <c r="Y66" s="91"/>
+      <c r="Z66" s="91"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="45" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D67" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E67" s="45"/>
       <c r="F67" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="G67" s="87"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="88"/>
-      <c r="K67" s="88"/>
-      <c r="L67" s="88"/>
-      <c r="M67" s="88"/>
-      <c r="N67" s="88"/>
-      <c r="O67" s="88"/>
-      <c r="P67" s="88"/>
-      <c r="Q67" s="88"/>
-      <c r="R67" s="88"/>
-      <c r="S67" s="88"/>
-      <c r="T67" s="88"/>
-      <c r="U67" s="88"/>
-      <c r="V67" s="88"/>
-      <c r="W67" s="88"/>
-      <c r="X67" s="88"/>
-      <c r="Y67" s="88"/>
-      <c r="Z67" s="88"/>
+        <v>196</v>
+      </c>
+      <c r="G67" s="90"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="91"/>
+      <c r="K67" s="91"/>
+      <c r="L67" s="91"/>
+      <c r="M67" s="91"/>
+      <c r="N67" s="91"/>
+      <c r="O67" s="91"/>
+      <c r="P67" s="91"/>
+      <c r="Q67" s="91"/>
+      <c r="R67" s="91"/>
+      <c r="S67" s="91"/>
+      <c r="T67" s="91"/>
+      <c r="U67" s="91"/>
+      <c r="V67" s="91"/>
+      <c r="W67" s="91"/>
+      <c r="X67" s="91"/>
+      <c r="Y67" s="91"/>
+      <c r="Z67" s="91"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="45" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="C68" s="90" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="C68" s="92" t="s">
+        <v>204</v>
       </c>
       <c r="D68" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E68" s="45"/>
       <c r="F68" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="G68" s="87"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="88"/>
-      <c r="K68" s="88"/>
-      <c r="L68" s="88"/>
-      <c r="M68" s="88"/>
-      <c r="N68" s="88"/>
-      <c r="O68" s="88"/>
-      <c r="P68" s="88"/>
-      <c r="Q68" s="88"/>
-      <c r="R68" s="88"/>
-      <c r="S68" s="88"/>
-      <c r="T68" s="88"/>
-      <c r="U68" s="88"/>
-      <c r="V68" s="88"/>
-      <c r="W68" s="88"/>
-      <c r="X68" s="88"/>
-      <c r="Y68" s="88"/>
-      <c r="Z68" s="88"/>
+        <v>192</v>
+      </c>
+      <c r="G68" s="90"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="91"/>
+      <c r="J68" s="91"/>
+      <c r="K68" s="91"/>
+      <c r="L68" s="91"/>
+      <c r="M68" s="91"/>
+      <c r="N68" s="91"/>
+      <c r="O68" s="91"/>
+      <c r="P68" s="91"/>
+      <c r="Q68" s="91"/>
+      <c r="R68" s="91"/>
+      <c r="S68" s="91"/>
+      <c r="T68" s="91"/>
+      <c r="U68" s="91"/>
+      <c r="V68" s="91"/>
+      <c r="W68" s="91"/>
+      <c r="X68" s="91"/>
+      <c r="Y68" s="91"/>
+      <c r="Z68" s="91"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="45" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D69" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E69" s="45"/>
       <c r="F69" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="G69" s="87"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="88"/>
-      <c r="K69" s="88"/>
-      <c r="L69" s="88"/>
-      <c r="M69" s="88"/>
-      <c r="N69" s="88"/>
-      <c r="O69" s="88"/>
-      <c r="P69" s="88"/>
-      <c r="Q69" s="88"/>
-      <c r="R69" s="88"/>
-      <c r="S69" s="88"/>
-      <c r="T69" s="88"/>
-      <c r="U69" s="88"/>
-      <c r="V69" s="88"/>
-      <c r="W69" s="88"/>
-      <c r="X69" s="88"/>
-      <c r="Y69" s="88"/>
-      <c r="Z69" s="88"/>
+        <v>175</v>
+      </c>
+      <c r="G69" s="90"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="91"/>
+      <c r="L69" s="91"/>
+      <c r="M69" s="91"/>
+      <c r="N69" s="91"/>
+      <c r="O69" s="91"/>
+      <c r="P69" s="91"/>
+      <c r="Q69" s="91"/>
+      <c r="R69" s="91"/>
+      <c r="S69" s="91"/>
+      <c r="T69" s="91"/>
+      <c r="U69" s="91"/>
+      <c r="V69" s="91"/>
+      <c r="W69" s="91"/>
+      <c r="X69" s="91"/>
+      <c r="Y69" s="91"/>
+      <c r="Z69" s="91"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="45" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70" s="90" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="C70" s="93" t="s">
+        <v>209</v>
       </c>
       <c r="D70" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E70" s="45"/>
       <c r="F70" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="G70" s="87"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
-      <c r="J70" s="88"/>
-      <c r="K70" s="88"/>
-      <c r="L70" s="88"/>
-      <c r="M70" s="88"/>
-      <c r="N70" s="88"/>
-      <c r="O70" s="88"/>
-      <c r="P70" s="88"/>
-      <c r="Q70" s="88"/>
-      <c r="R70" s="88"/>
-      <c r="S70" s="88"/>
-      <c r="T70" s="88"/>
-      <c r="U70" s="88"/>
-      <c r="V70" s="88"/>
-      <c r="W70" s="88"/>
-      <c r="X70" s="88"/>
-      <c r="Y70" s="88"/>
-      <c r="Z70" s="88"/>
+        <v>192</v>
+      </c>
+      <c r="G70" s="90"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="91"/>
+      <c r="M70" s="91"/>
+      <c r="N70" s="91"/>
+      <c r="O70" s="91"/>
+      <c r="P70" s="91"/>
+      <c r="Q70" s="91"/>
+      <c r="R70" s="91"/>
+      <c r="S70" s="91"/>
+      <c r="T70" s="91"/>
+      <c r="U70" s="91"/>
+      <c r="V70" s="91"/>
+      <c r="W70" s="91"/>
+      <c r="X70" s="91"/>
+      <c r="Y70" s="91"/>
+      <c r="Z70" s="91"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="45" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="D71" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E71" s="45"/>
       <c r="F71" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="G71" s="87"/>
-      <c r="H71" s="88"/>
-      <c r="I71" s="88"/>
-      <c r="J71" s="88"/>
-      <c r="K71" s="88"/>
-      <c r="L71" s="88"/>
-      <c r="M71" s="88"/>
-      <c r="N71" s="88"/>
-      <c r="O71" s="88"/>
-      <c r="P71" s="88"/>
-      <c r="Q71" s="88"/>
-      <c r="R71" s="88"/>
-      <c r="S71" s="88"/>
-      <c r="T71" s="88"/>
-      <c r="U71" s="88"/>
-      <c r="V71" s="88"/>
-      <c r="W71" s="88"/>
-      <c r="X71" s="88"/>
-      <c r="Y71" s="88"/>
-      <c r="Z71" s="88"/>
+        <v>175</v>
+      </c>
+      <c r="G71" s="90"/>
+      <c r="H71" s="91"/>
+      <c r="I71" s="91"/>
+      <c r="J71" s="91"/>
+      <c r="K71" s="91"/>
+      <c r="L71" s="91"/>
+      <c r="M71" s="91"/>
+      <c r="N71" s="91"/>
+      <c r="O71" s="91"/>
+      <c r="P71" s="91"/>
+      <c r="Q71" s="91"/>
+      <c r="R71" s="91"/>
+      <c r="S71" s="91"/>
+      <c r="T71" s="91"/>
+      <c r="U71" s="91"/>
+      <c r="V71" s="91"/>
+      <c r="W71" s="91"/>
+      <c r="X71" s="91"/>
+      <c r="Y71" s="91"/>
+      <c r="Z71" s="91"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="45" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C72" s="45" t="s">
-        <v>174</v>
+        <v>212</v>
+      </c>
+      <c r="C72" s="93" t="s">
+        <v>213</v>
       </c>
       <c r="D72" s="45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E72" s="45"/>
       <c r="F72" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="G72" s="87"/>
-      <c r="H72" s="88"/>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
-      <c r="K72" s="88"/>
-      <c r="L72" s="88"/>
-      <c r="M72" s="88"/>
-      <c r="N72" s="88"/>
-      <c r="O72" s="88"/>
-      <c r="P72" s="88"/>
-      <c r="Q72" s="88"/>
-      <c r="R72" s="88"/>
-      <c r="S72" s="88"/>
-      <c r="T72" s="88"/>
-      <c r="U72" s="88"/>
-      <c r="V72" s="88"/>
-      <c r="W72" s="88"/>
-      <c r="X72" s="88"/>
-      <c r="Y72" s="88"/>
-      <c r="Z72" s="88"/>
+        <v>214</v>
+      </c>
+      <c r="G72" s="90"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
+      <c r="M72" s="91"/>
+      <c r="N72" s="91"/>
+      <c r="O72" s="91"/>
+      <c r="P72" s="91"/>
+      <c r="Q72" s="91"/>
+      <c r="R72" s="91"/>
+      <c r="S72" s="91"/>
+      <c r="T72" s="91"/>
+      <c r="U72" s="91"/>
+      <c r="V72" s="91"/>
+      <c r="W72" s="91"/>
+      <c r="X72" s="91"/>
+      <c r="Y72" s="91"/>
+      <c r="Z72" s="91"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="4"/>
-      <c r="G73" s="5"/>
+      <c r="A73" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" s="45"/>
+      <c r="F73" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="G73" s="90"/>
+      <c r="H73" s="91"/>
+      <c r="I73" s="91"/>
+      <c r="J73" s="91"/>
+      <c r="K73" s="91"/>
+      <c r="L73" s="91"/>
+      <c r="M73" s="91"/>
+      <c r="N73" s="91"/>
+      <c r="O73" s="91"/>
+      <c r="P73" s="91"/>
+      <c r="Q73" s="91"/>
+      <c r="R73" s="91"/>
+      <c r="S73" s="91"/>
+      <c r="T73" s="91"/>
+      <c r="U73" s="91"/>
+      <c r="V73" s="91"/>
+      <c r="W73" s="91"/>
+      <c r="X73" s="91"/>
+      <c r="Y73" s="91"/>
+      <c r="Z73" s="91"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G74" s="5"/>
+      <c r="A74" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74" s="45"/>
+      <c r="F74" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="G74" s="90"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="91"/>
+      <c r="K74" s="91"/>
+      <c r="L74" s="91"/>
+      <c r="M74" s="91"/>
+      <c r="N74" s="91"/>
+      <c r="O74" s="91"/>
+      <c r="P74" s="91"/>
+      <c r="Q74" s="91"/>
+      <c r="R74" s="91"/>
+      <c r="S74" s="91"/>
+      <c r="T74" s="91"/>
+      <c r="U74" s="91"/>
+      <c r="V74" s="91"/>
+      <c r="W74" s="91"/>
+      <c r="X74" s="91"/>
+      <c r="Y74" s="91"/>
+      <c r="Z74" s="91"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="4"/>
       <c r="G75" s="5"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="4"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B78" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F76" s="7" t="s">
+      <c r="D78" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="B77" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" s="89" t="s">
-        <v>210</v>
-      </c>
-      <c r="D77" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" s="45"/>
-      <c r="F77" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="87"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="88"/>
-      <c r="K77" s="88"/>
-      <c r="L77" s="88"/>
-      <c r="M77" s="88"/>
-      <c r="N77" s="88"/>
-      <c r="O77" s="88"/>
-      <c r="P77" s="88"/>
-      <c r="Q77" s="88"/>
-      <c r="R77" s="88"/>
-      <c r="S77" s="88"/>
-      <c r="T77" s="88"/>
-      <c r="U77" s="88"/>
-      <c r="V77" s="88"/>
-      <c r="W77" s="88"/>
-      <c r="X77" s="88"/>
-      <c r="Y77" s="88"/>
-      <c r="Z77" s="88"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="B78" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="C78" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="D78" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="45"/>
-      <c r="F78" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="88"/>
-      <c r="K78" s="88"/>
-      <c r="L78" s="88"/>
-      <c r="M78" s="88"/>
-      <c r="N78" s="88"/>
-      <c r="O78" s="88"/>
-      <c r="P78" s="88"/>
-      <c r="Q78" s="88"/>
-      <c r="R78" s="88"/>
-      <c r="S78" s="88"/>
-      <c r="T78" s="88"/>
-      <c r="U78" s="88"/>
-      <c r="V78" s="88"/>
-      <c r="W78" s="88"/>
-      <c r="X78" s="88"/>
-      <c r="Y78" s="88"/>
-      <c r="Z78" s="88"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="89" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="C79" s="92" t="s">
+        <v>218</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="E79" s="45"/>
       <c r="F79" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="G79" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="H79" s="88"/>
-      <c r="I79" s="88"/>
-      <c r="J79" s="88"/>
-      <c r="K79" s="88"/>
-      <c r="L79" s="88"/>
-      <c r="M79" s="88"/>
-      <c r="N79" s="88"/>
-      <c r="O79" s="88"/>
-      <c r="P79" s="88"/>
-      <c r="Q79" s="88"/>
-      <c r="R79" s="88"/>
-      <c r="S79" s="88"/>
-      <c r="T79" s="88"/>
-      <c r="U79" s="88"/>
-      <c r="V79" s="88"/>
-      <c r="W79" s="88"/>
-      <c r="X79" s="88"/>
-      <c r="Y79" s="88"/>
-      <c r="Z79" s="88"/>
+        <v>13</v>
+      </c>
+      <c r="G79" s="90"/>
+      <c r="H79" s="91"/>
+      <c r="I79" s="91"/>
+      <c r="J79" s="91"/>
+      <c r="K79" s="91"/>
+      <c r="L79" s="91"/>
+      <c r="M79" s="91"/>
+      <c r="N79" s="91"/>
+      <c r="O79" s="91"/>
+      <c r="P79" s="91"/>
+      <c r="Q79" s="91"/>
+      <c r="R79" s="91"/>
+      <c r="S79" s="91"/>
+      <c r="T79" s="91"/>
+      <c r="U79" s="91"/>
+      <c r="V79" s="91"/>
+      <c r="W79" s="91"/>
+      <c r="X79" s="91"/>
+      <c r="Y79" s="91"/>
+      <c r="Z79" s="91"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B80" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="B80" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="C80" s="45" t="s">
+      <c r="C80" s="92" t="s">
         <v>221</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E80" s="91"/>
+        <v>11</v>
+      </c>
+      <c r="E80" s="45"/>
       <c r="F80" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G80" s="87"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="88"/>
-      <c r="J80" s="88"/>
-      <c r="K80" s="88"/>
-      <c r="L80" s="88"/>
-      <c r="M80" s="88"/>
-      <c r="N80" s="88"/>
-      <c r="O80" s="88"/>
-      <c r="P80" s="88"/>
-      <c r="Q80" s="88"/>
-      <c r="R80" s="88"/>
-      <c r="S80" s="88"/>
-      <c r="T80" s="88"/>
-      <c r="U80" s="88"/>
-      <c r="V80" s="88"/>
-      <c r="W80" s="88"/>
-      <c r="X80" s="88"/>
-      <c r="Y80" s="88"/>
-      <c r="Z80" s="88"/>
+        <v>13</v>
+      </c>
+      <c r="G80" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="H80" s="91"/>
+      <c r="I80" s="91"/>
+      <c r="J80" s="91"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="91"/>
+      <c r="M80" s="91"/>
+      <c r="N80" s="91"/>
+      <c r="O80" s="91"/>
+      <c r="P80" s="91"/>
+      <c r="Q80" s="91"/>
+      <c r="R80" s="91"/>
+      <c r="S80" s="91"/>
+      <c r="T80" s="91"/>
+      <c r="U80" s="91"/>
+      <c r="V80" s="91"/>
+      <c r="W80" s="91"/>
+      <c r="X80" s="91"/>
+      <c r="Y80" s="91"/>
+      <c r="Z80" s="91"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="C81" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="92" t="s">
         <v>224</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="91"/>
+        <v>225</v>
+      </c>
+      <c r="E81" s="45"/>
       <c r="F81" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="G81" s="87"/>
-      <c r="H81" s="88"/>
-      <c r="I81" s="88"/>
-      <c r="J81" s="88"/>
-      <c r="K81" s="88"/>
-      <c r="L81" s="88"/>
-      <c r="M81" s="88"/>
-      <c r="N81" s="88"/>
-      <c r="O81" s="88"/>
-      <c r="P81" s="88"/>
-      <c r="Q81" s="88"/>
-      <c r="R81" s="88"/>
-      <c r="S81" s="88"/>
-      <c r="T81" s="88"/>
-      <c r="U81" s="88"/>
-      <c r="V81" s="88"/>
-      <c r="W81" s="88"/>
-      <c r="X81" s="88"/>
-      <c r="Y81" s="88"/>
-      <c r="Z81" s="88"/>
+        <v>226</v>
+      </c>
+      <c r="G81" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="H81" s="91"/>
+      <c r="I81" s="91"/>
+      <c r="J81" s="91"/>
+      <c r="K81" s="91"/>
+      <c r="L81" s="91"/>
+      <c r="M81" s="91"/>
+      <c r="N81" s="91"/>
+      <c r="O81" s="91"/>
+      <c r="P81" s="91"/>
+      <c r="Q81" s="91"/>
+      <c r="R81" s="91"/>
+      <c r="S81" s="91"/>
+      <c r="T81" s="91"/>
+      <c r="U81" s="91"/>
+      <c r="V81" s="91"/>
+      <c r="W81" s="91"/>
+      <c r="X81" s="91"/>
+      <c r="Y81" s="91"/>
+      <c r="Z81" s="91"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="45" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="C82" s="89" t="s">
-        <v>227</v>
+        <v>190</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>229</v>
       </c>
       <c r="D82" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="45"/>
+        <v>30</v>
+      </c>
+      <c r="E82" s="94"/>
       <c r="F82" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G82" s="87"/>
-      <c r="H82" s="88"/>
-      <c r="I82" s="88"/>
-      <c r="J82" s="88"/>
-      <c r="K82" s="88"/>
-      <c r="L82" s="88"/>
-      <c r="M82" s="88"/>
-      <c r="N82" s="88"/>
-      <c r="O82" s="88"/>
-      <c r="P82" s="88"/>
-      <c r="Q82" s="88"/>
-      <c r="R82" s="88"/>
-      <c r="S82" s="88"/>
-      <c r="T82" s="88"/>
-      <c r="U82" s="88"/>
-      <c r="V82" s="88"/>
-      <c r="W82" s="88"/>
-      <c r="X82" s="88"/>
-      <c r="Y82" s="88"/>
-      <c r="Z82" s="88"/>
+        <v>107</v>
+      </c>
+      <c r="G82" s="90"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="91"/>
+      <c r="J82" s="91"/>
+      <c r="K82" s="91"/>
+      <c r="L82" s="91"/>
+      <c r="M82" s="91"/>
+      <c r="N82" s="91"/>
+      <c r="O82" s="91"/>
+      <c r="P82" s="91"/>
+      <c r="Q82" s="91"/>
+      <c r="R82" s="91"/>
+      <c r="S82" s="91"/>
+      <c r="T82" s="91"/>
+      <c r="U82" s="91"/>
+      <c r="V82" s="91"/>
+      <c r="W82" s="91"/>
+      <c r="X82" s="91"/>
+      <c r="Y82" s="91"/>
+      <c r="Z82" s="91"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="45" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C83" s="45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D83" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E83" s="91"/>
+        <v>11</v>
+      </c>
+      <c r="E83" s="94"/>
       <c r="F83" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G83" s="87"/>
-      <c r="H83" s="88"/>
-      <c r="I83" s="88"/>
-      <c r="J83" s="88"/>
-      <c r="K83" s="88"/>
-      <c r="L83" s="88"/>
-      <c r="M83" s="88"/>
-      <c r="N83" s="88"/>
-      <c r="O83" s="88"/>
-      <c r="P83" s="88"/>
-      <c r="Q83" s="88"/>
-      <c r="R83" s="88"/>
-      <c r="S83" s="88"/>
-      <c r="T83" s="88"/>
-      <c r="U83" s="88"/>
-      <c r="V83" s="88"/>
-      <c r="W83" s="88"/>
-      <c r="X83" s="88"/>
-      <c r="Y83" s="88"/>
-      <c r="Z83" s="88"/>
+        <v>175</v>
+      </c>
+      <c r="G83" s="90"/>
+      <c r="H83" s="91"/>
+      <c r="I83" s="91"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="91"/>
+      <c r="L83" s="91"/>
+      <c r="M83" s="91"/>
+      <c r="N83" s="91"/>
+      <c r="O83" s="91"/>
+      <c r="P83" s="91"/>
+      <c r="Q83" s="91"/>
+      <c r="R83" s="91"/>
+      <c r="S83" s="91"/>
+      <c r="T83" s="91"/>
+      <c r="U83" s="91"/>
+      <c r="V83" s="91"/>
+      <c r="W83" s="91"/>
+      <c r="X83" s="91"/>
+      <c r="Y83" s="91"/>
+      <c r="Z83" s="91"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="45" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="C84" s="89" t="s">
-        <v>233</v>
+        <v>234</v>
+      </c>
+      <c r="C84" s="92" t="s">
+        <v>235</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E84" s="45"/>
       <c r="F84" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G84" s="87"/>
-      <c r="H84" s="88"/>
-      <c r="I84" s="88"/>
-      <c r="J84" s="88"/>
-      <c r="K84" s="88"/>
-      <c r="L84" s="88"/>
-      <c r="M84" s="88"/>
-      <c r="N84" s="88"/>
-      <c r="O84" s="88"/>
-      <c r="P84" s="88"/>
-      <c r="Q84" s="88"/>
-      <c r="R84" s="88"/>
-      <c r="S84" s="88"/>
-      <c r="T84" s="88"/>
-      <c r="U84" s="88"/>
-      <c r="V84" s="88"/>
-      <c r="W84" s="88"/>
-      <c r="X84" s="88"/>
-      <c r="Y84" s="88"/>
-      <c r="Z84" s="88"/>
+        <v>54</v>
+      </c>
+      <c r="G84" s="90"/>
+      <c r="H84" s="91"/>
+      <c r="I84" s="91"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="91"/>
+      <c r="L84" s="91"/>
+      <c r="M84" s="91"/>
+      <c r="N84" s="91"/>
+      <c r="O84" s="91"/>
+      <c r="P84" s="91"/>
+      <c r="Q84" s="91"/>
+      <c r="R84" s="91"/>
+      <c r="S84" s="91"/>
+      <c r="T84" s="91"/>
+      <c r="U84" s="91"/>
+      <c r="V84" s="91"/>
+      <c r="W84" s="91"/>
+      <c r="X84" s="91"/>
+      <c r="Y84" s="91"/>
+      <c r="Z84" s="91"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="45" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="C85" s="45" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="E85" s="45"/>
+        <v>30</v>
+      </c>
+      <c r="E85" s="94"/>
       <c r="F85" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G85" s="87"/>
-      <c r="H85" s="88"/>
-      <c r="I85" s="88"/>
-      <c r="J85" s="88"/>
-      <c r="K85" s="88"/>
-      <c r="L85" s="88"/>
-      <c r="M85" s="88"/>
-      <c r="N85" s="88"/>
-      <c r="O85" s="88"/>
-      <c r="P85" s="88"/>
-      <c r="Q85" s="88"/>
-      <c r="R85" s="88"/>
-      <c r="S85" s="88"/>
-      <c r="T85" s="88"/>
-      <c r="U85" s="88"/>
-      <c r="V85" s="88"/>
-      <c r="W85" s="88"/>
-      <c r="X85" s="88"/>
-      <c r="Y85" s="88"/>
-      <c r="Z85" s="88"/>
+        <v>54</v>
+      </c>
+      <c r="G85" s="90"/>
+      <c r="H85" s="91"/>
+      <c r="I85" s="91"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="91"/>
+      <c r="L85" s="91"/>
+      <c r="M85" s="91"/>
+      <c r="N85" s="91"/>
+      <c r="O85" s="91"/>
+      <c r="P85" s="91"/>
+      <c r="Q85" s="91"/>
+      <c r="R85" s="91"/>
+      <c r="S85" s="91"/>
+      <c r="T85" s="91"/>
+      <c r="U85" s="91"/>
+      <c r="V85" s="91"/>
+      <c r="W85" s="91"/>
+      <c r="X85" s="91"/>
+      <c r="Y85" s="91"/>
+      <c r="Z85" s="91"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="45" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="C86" s="45" t="s">
-        <v>237</v>
+        <v>240</v>
+      </c>
+      <c r="C86" s="92" t="s">
+        <v>241</v>
       </c>
       <c r="D86" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E86" s="45"/>
       <c r="F86" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="G86" s="87"/>
-      <c r="H86" s="88"/>
-      <c r="I86" s="88"/>
-      <c r="J86" s="88"/>
-      <c r="K86" s="88"/>
-      <c r="L86" s="88"/>
-      <c r="M86" s="88"/>
-      <c r="N86" s="88"/>
-      <c r="O86" s="88"/>
-      <c r="P86" s="88"/>
-      <c r="Q86" s="88"/>
-      <c r="R86" s="88"/>
-      <c r="S86" s="88"/>
-      <c r="T86" s="88"/>
-      <c r="U86" s="88"/>
-      <c r="V86" s="88"/>
-      <c r="W86" s="88"/>
-      <c r="X86" s="88"/>
-      <c r="Y86" s="88"/>
-      <c r="Z86" s="88"/>
+        <v>107</v>
+      </c>
+      <c r="G86" s="90"/>
+      <c r="H86" s="91"/>
+      <c r="I86" s="91"/>
+      <c r="J86" s="91"/>
+      <c r="K86" s="91"/>
+      <c r="L86" s="91"/>
+      <c r="M86" s="91"/>
+      <c r="N86" s="91"/>
+      <c r="O86" s="91"/>
+      <c r="P86" s="91"/>
+      <c r="Q86" s="91"/>
+      <c r="R86" s="91"/>
+      <c r="S86" s="91"/>
+      <c r="T86" s="91"/>
+      <c r="U86" s="91"/>
+      <c r="V86" s="91"/>
+      <c r="W86" s="91"/>
+      <c r="X86" s="91"/>
+      <c r="Y86" s="91"/>
+      <c r="Z86" s="91"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="45" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="C87" s="45" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E87" s="91"/>
+        <v>244</v>
+      </c>
+      <c r="E87" s="45"/>
       <c r="F87" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="G87" s="87"/>
-      <c r="H87" s="88"/>
-      <c r="I87" s="88"/>
-      <c r="J87" s="88"/>
-      <c r="K87" s="88"/>
-      <c r="L87" s="88"/>
-      <c r="M87" s="88"/>
-      <c r="N87" s="88"/>
-      <c r="O87" s="88"/>
-      <c r="P87" s="88"/>
-      <c r="Q87" s="88"/>
-      <c r="R87" s="88"/>
-      <c r="S87" s="88"/>
-      <c r="T87" s="88"/>
-      <c r="U87" s="88"/>
-      <c r="V87" s="88"/>
-      <c r="W87" s="88"/>
-      <c r="X87" s="88"/>
-      <c r="Y87" s="88"/>
-      <c r="Z87" s="88"/>
+        <v>107</v>
+      </c>
+      <c r="G87" s="90"/>
+      <c r="H87" s="91"/>
+      <c r="I87" s="91"/>
+      <c r="J87" s="91"/>
+      <c r="K87" s="91"/>
+      <c r="L87" s="91"/>
+      <c r="M87" s="91"/>
+      <c r="N87" s="91"/>
+      <c r="O87" s="91"/>
+      <c r="P87" s="91"/>
+      <c r="Q87" s="91"/>
+      <c r="R87" s="91"/>
+      <c r="S87" s="91"/>
+      <c r="T87" s="91"/>
+      <c r="U87" s="91"/>
+      <c r="V87" s="91"/>
+      <c r="W87" s="91"/>
+      <c r="X87" s="91"/>
+      <c r="Y87" s="91"/>
+      <c r="Z87" s="91"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="B88" s="45" t="s">
-        <v>173</v>
-      </c>
       <c r="C88" s="45" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="D88" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="45"/>
+      <c r="F88" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="G88" s="90"/>
+      <c r="H88" s="91"/>
+      <c r="I88" s="91"/>
+      <c r="J88" s="91"/>
+      <c r="K88" s="91"/>
+      <c r="L88" s="91"/>
+      <c r="M88" s="91"/>
+      <c r="N88" s="91"/>
+      <c r="O88" s="91"/>
+      <c r="P88" s="91"/>
+      <c r="Q88" s="91"/>
+      <c r="R88" s="91"/>
+      <c r="S88" s="91"/>
+      <c r="T88" s="91"/>
+      <c r="U88" s="91"/>
+      <c r="V88" s="91"/>
+      <c r="W88" s="91"/>
+      <c r="X88" s="91"/>
+      <c r="Y88" s="91"/>
+      <c r="Z88" s="91"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="E88" s="91"/>
-      <c r="F88" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="G88" s="87"/>
-      <c r="H88" s="88"/>
-      <c r="I88" s="88"/>
-      <c r="J88" s="88"/>
-      <c r="K88" s="88"/>
-      <c r="L88" s="88"/>
-      <c r="M88" s="88"/>
-      <c r="N88" s="88"/>
-      <c r="O88" s="88"/>
-      <c r="P88" s="88"/>
-      <c r="Q88" s="88"/>
-      <c r="R88" s="88"/>
-      <c r="S88" s="88"/>
-      <c r="T88" s="88"/>
-      <c r="U88" s="88"/>
-      <c r="V88" s="88"/>
-      <c r="W88" s="88"/>
-      <c r="X88" s="88"/>
-      <c r="Y88" s="88"/>
-      <c r="Z88" s="88"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="4"/>
-      <c r="G89" s="5"/>
+      <c r="E89" s="94"/>
+      <c r="F89" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="G89" s="90"/>
+      <c r="H89" s="91"/>
+      <c r="I89" s="91"/>
+      <c r="J89" s="91"/>
+      <c r="K89" s="91"/>
+      <c r="L89" s="91"/>
+      <c r="M89" s="91"/>
+      <c r="N89" s="91"/>
+      <c r="O89" s="91"/>
+      <c r="P89" s="91"/>
+      <c r="Q89" s="91"/>
+      <c r="R89" s="91"/>
+      <c r="S89" s="91"/>
+      <c r="T89" s="91"/>
+      <c r="U89" s="91"/>
+      <c r="V89" s="91"/>
+      <c r="W89" s="91"/>
+      <c r="X89" s="91"/>
+      <c r="Y89" s="91"/>
+      <c r="Z89" s="91"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="92"/>
-      <c r="G90" s="5"/>
+      <c r="A90" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E90" s="94"/>
+      <c r="F90" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="G90" s="90"/>
+      <c r="H90" s="91"/>
+      <c r="I90" s="91"/>
+      <c r="J90" s="91"/>
+      <c r="K90" s="91"/>
+      <c r="L90" s="91"/>
+      <c r="M90" s="91"/>
+      <c r="N90" s="91"/>
+      <c r="O90" s="91"/>
+      <c r="P90" s="91"/>
+      <c r="Q90" s="91"/>
+      <c r="R90" s="91"/>
+      <c r="S90" s="91"/>
+      <c r="T90" s="91"/>
+      <c r="U90" s="91"/>
+      <c r="V90" s="91"/>
+      <c r="W90" s="91"/>
+      <c r="X90" s="91"/>
+      <c r="Y90" s="91"/>
+      <c r="Z90" s="91"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="4"/>
       <c r="G91" s="5"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="95"/>
       <c r="G92" s="5"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
@@ -8703,6 +8821,12 @@
     </row>
     <row r="997" ht="15.75" customHeight="1">
       <c r="G997" s="5"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="G998" s="5"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="G999" s="5"/>
     </row>
   </sheetData>
   <printOptions/>

--- a/documentation/Record Of Tasks.xlsx
+++ b/documentation/Record Of Tasks.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="pgWysHQ5Yo9Prt6sSqAqWa/b/LCqrBERFY36Uj/DZCU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="9RE5WWv/1Z/enEj8mWwpWuwrwng687r8dWKhSScwD+w="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="250">
   <si>
     <t>Waterfall Methodology</t>
   </si>
@@ -1694,7 +1694,24 @@
         <color rgb="FF156082"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> •        Navigation and AppStatus</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color rgb="FF156082"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">•	</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <b/>
+        <color rgb="FF156082"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Navigation and AppStatus</t>
     </r>
   </si>
   <si>
@@ -1723,6 +1740,48 @@
   </si>
   <si>
     <t>we had to adapt and change a lot the previous navigation controller</t>
+  </si>
+  <si>
+    <t>Create a BaseView that all Views will inherit for the communs utilities of views</t>
+  </si>
+  <si>
+    <t>BaseView Implemented and all view inherits from it</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Quattrocento Sans"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Documentation according to client review and features implemented </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>to now:  AppStatus State Machinel, UML View Class Model</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b/>
+        <color theme="4"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Sketch-View </t>
+    </r>
   </si>
   <si>
     <t>Implement the database</t>
@@ -2691,9 +2750,6 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="15" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -2716,6 +2772,9 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -4879,9 +4938,7 @@
       <c r="E51" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F51" s="44" t="s">
-        <v>153</v>
-      </c>
+      <c r="F51" s="44"/>
       <c r="G51" s="74" t="s">
         <v>165</v>
       </c>
@@ -4906,135 +4963,141 @@
       <c r="Z51" s="18"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G52" s="64"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="42"/>
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="42"/>
+    </row>
+    <row r="53" ht="51.75" customHeight="1">
+      <c r="A53" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="18"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="C52" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52" s="76" t="s">
+      <c r="B54" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="77"/>
-      <c r="F52" s="78" t="s">
+      <c r="E54" s="77"/>
+      <c r="F54" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="G52" s="79"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="80"/>
-      <c r="N52" s="80"/>
-      <c r="O52" s="80"/>
-      <c r="P52" s="80"/>
-      <c r="Q52" s="80"/>
-      <c r="R52" s="80"/>
-      <c r="S52" s="80"/>
-      <c r="T52" s="80"/>
-      <c r="U52" s="80"/>
-      <c r="V52" s="80"/>
-      <c r="W52" s="80"/>
-      <c r="X52" s="80"/>
-      <c r="Y52" s="80"/>
-      <c r="Z52" s="80"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="81"/>
-      <c r="F53" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G53" s="82"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="83"/>
-      <c r="Q53" s="83"/>
-      <c r="R53" s="83"/>
-      <c r="S53" s="83"/>
-      <c r="T53" s="83"/>
-      <c r="U53" s="83"/>
-      <c r="V53" s="83"/>
-      <c r="W53" s="83"/>
-      <c r="X53" s="83"/>
-      <c r="Y53" s="83"/>
-      <c r="Z53" s="83"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E54" s="81"/>
-      <c r="F54" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="G54" s="82"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="83"/>
-      <c r="O54" s="83"/>
-      <c r="P54" s="83"/>
-      <c r="Q54" s="83"/>
-      <c r="R54" s="83"/>
-      <c r="S54" s="83"/>
-      <c r="T54" s="83"/>
-      <c r="U54" s="83"/>
-      <c r="V54" s="83"/>
-      <c r="W54" s="83"/>
-      <c r="X54" s="83"/>
-      <c r="Y54" s="83"/>
-      <c r="Z54" s="83"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="80"/>
+      <c r="Q54" s="80"/>
+      <c r="R54" s="80"/>
+      <c r="S54" s="80"/>
+      <c r="T54" s="80"/>
+      <c r="U54" s="80"/>
+      <c r="V54" s="80"/>
+      <c r="W54" s="80"/>
+      <c r="X54" s="80"/>
+      <c r="Y54" s="80"/>
+      <c r="Z54" s="80"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="25" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E55" s="81"/>
       <c r="F55" s="28" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="G55" s="82"/>
       <c r="H55" s="83"/>
@@ -5058,69 +5121,135 @@
       <c r="Z55" s="83"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" s="81"/>
+      <c r="F56" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="G56" s="82"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="83"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="83"/>
+      <c r="T56" s="83"/>
+      <c r="U56" s="83"/>
+      <c r="V56" s="83"/>
+      <c r="W56" s="83"/>
+      <c r="X56" s="83"/>
+      <c r="Y56" s="83"/>
+      <c r="Z56" s="83"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="C57" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="D57" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="81"/>
+      <c r="F57" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="G57" s="82"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="83"/>
+      <c r="N57" s="83"/>
+      <c r="O57" s="83"/>
+      <c r="P57" s="83"/>
+      <c r="Q57" s="83"/>
+      <c r="R57" s="83"/>
+      <c r="S57" s="83"/>
+      <c r="T57" s="83"/>
+      <c r="U57" s="83"/>
+      <c r="V57" s="83"/>
+      <c r="W57" s="83"/>
+      <c r="X57" s="83"/>
+      <c r="Y57" s="83"/>
+      <c r="Z57" s="83"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E56" s="84"/>
-      <c r="F56" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G56" s="85"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="86"/>
-      <c r="K56" s="86"/>
-      <c r="L56" s="86"/>
-      <c r="M56" s="86"/>
-      <c r="N56" s="86"/>
-      <c r="O56" s="86"/>
-      <c r="P56" s="86"/>
-      <c r="Q56" s="86"/>
-      <c r="R56" s="86"/>
-      <c r="S56" s="86"/>
-      <c r="T56" s="86"/>
-      <c r="U56" s="86"/>
-      <c r="V56" s="86"/>
-      <c r="W56" s="86"/>
-      <c r="X56" s="86"/>
-      <c r="Y56" s="86"/>
-      <c r="Z56" s="86"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="87"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="87"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="5"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" s="84"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="85"/>
+      <c r="M58" s="85"/>
+      <c r="N58" s="85"/>
+      <c r="O58" s="85"/>
+      <c r="P58" s="85"/>
+      <c r="Q58" s="85"/>
+      <c r="R58" s="85"/>
+      <c r="S58" s="85"/>
+      <c r="T58" s="85"/>
+      <c r="U58" s="85"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
+      <c r="X58" s="85"/>
+      <c r="Y58" s="85"/>
+      <c r="Z58" s="85"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="4"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="88"/>
       <c r="G59" s="5"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="A60" s="86"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="88"/>
       <c r="G60" s="5"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -5128,989 +5257,993 @@
       <c r="G61" s="5"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="4"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F62" s="7" t="s">
+      <c r="D64" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="B63" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="C63" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="D63" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="45"/>
-      <c r="F63" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="90"/>
-      <c r="H63" s="91"/>
-      <c r="I63" s="91"/>
-      <c r="J63" s="91"/>
-      <c r="K63" s="91"/>
-      <c r="L63" s="91"/>
-      <c r="M63" s="91"/>
-      <c r="N63" s="91"/>
-      <c r="O63" s="91"/>
-      <c r="P63" s="91"/>
-      <c r="Q63" s="91"/>
-      <c r="R63" s="91"/>
-      <c r="S63" s="91"/>
-      <c r="T63" s="91"/>
-      <c r="U63" s="91"/>
-      <c r="V63" s="91"/>
-      <c r="W63" s="91"/>
-      <c r="X63" s="91"/>
-      <c r="Y63" s="91"/>
-      <c r="Z63" s="91"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="B64" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="C64" s="92" t="s">
-        <v>191</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E64" s="45"/>
-      <c r="F64" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="G64" s="90"/>
-      <c r="H64" s="91"/>
-      <c r="I64" s="91"/>
-      <c r="J64" s="91"/>
-      <c r="K64" s="91"/>
-      <c r="L64" s="91"/>
-      <c r="M64" s="91"/>
-      <c r="N64" s="91"/>
-      <c r="O64" s="91"/>
-      <c r="P64" s="91"/>
-      <c r="Q64" s="91"/>
-      <c r="R64" s="91"/>
-      <c r="S64" s="91"/>
-      <c r="T64" s="91"/>
-      <c r="U64" s="91"/>
-      <c r="V64" s="91"/>
-      <c r="W64" s="91"/>
-      <c r="X64" s="91"/>
-      <c r="Y64" s="91"/>
-      <c r="Z64" s="91"/>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="45" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D65" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="G65" s="90"/>
-      <c r="H65" s="91"/>
-      <c r="I65" s="91"/>
-      <c r="J65" s="91"/>
-      <c r="K65" s="91"/>
-      <c r="L65" s="91"/>
-      <c r="M65" s="91"/>
-      <c r="N65" s="91"/>
-      <c r="O65" s="91"/>
-      <c r="P65" s="91"/>
-      <c r="Q65" s="91"/>
-      <c r="R65" s="91"/>
-      <c r="S65" s="91"/>
-      <c r="T65" s="91"/>
-      <c r="U65" s="91"/>
-      <c r="V65" s="91"/>
-      <c r="W65" s="91"/>
-      <c r="X65" s="91"/>
-      <c r="Y65" s="91"/>
-      <c r="Z65" s="91"/>
+        <v>13</v>
+      </c>
+      <c r="G65" s="89"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="90"/>
+      <c r="L65" s="90"/>
+      <c r="M65" s="90"/>
+      <c r="N65" s="90"/>
+      <c r="O65" s="90"/>
+      <c r="P65" s="90"/>
+      <c r="Q65" s="90"/>
+      <c r="R65" s="90"/>
+      <c r="S65" s="90"/>
+      <c r="T65" s="90"/>
+      <c r="U65" s="90"/>
+      <c r="V65" s="90"/>
+      <c r="W65" s="90"/>
+      <c r="X65" s="90"/>
+      <c r="Y65" s="90"/>
+      <c r="Z65" s="90"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="45" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" s="92" t="s">
-        <v>199</v>
+        <v>193</v>
+      </c>
+      <c r="C66" s="91" t="s">
+        <v>194</v>
       </c>
       <c r="D66" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E66" s="45"/>
       <c r="F66" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="G66" s="90"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="91"/>
-      <c r="J66" s="91"/>
-      <c r="K66" s="91"/>
-      <c r="L66" s="91"/>
-      <c r="M66" s="91"/>
-      <c r="N66" s="91"/>
-      <c r="O66" s="91"/>
-      <c r="P66" s="91"/>
-      <c r="Q66" s="91"/>
-      <c r="R66" s="91"/>
-      <c r="S66" s="91"/>
-      <c r="T66" s="91"/>
-      <c r="U66" s="91"/>
-      <c r="V66" s="91"/>
-      <c r="W66" s="91"/>
-      <c r="X66" s="91"/>
-      <c r="Y66" s="91"/>
-      <c r="Z66" s="91"/>
+        <v>195</v>
+      </c>
+      <c r="G66" s="89"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="90"/>
+      <c r="J66" s="90"/>
+      <c r="K66" s="90"/>
+      <c r="L66" s="90"/>
+      <c r="M66" s="90"/>
+      <c r="N66" s="90"/>
+      <c r="O66" s="90"/>
+      <c r="P66" s="90"/>
+      <c r="Q66" s="90"/>
+      <c r="R66" s="90"/>
+      <c r="S66" s="90"/>
+      <c r="T66" s="90"/>
+      <c r="U66" s="90"/>
+      <c r="V66" s="90"/>
+      <c r="W66" s="90"/>
+      <c r="X66" s="90"/>
+      <c r="Y66" s="90"/>
+      <c r="Z66" s="90"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="45" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D67" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E67" s="45"/>
       <c r="F67" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="G67" s="90"/>
-      <c r="H67" s="91"/>
-      <c r="I67" s="91"/>
-      <c r="J67" s="91"/>
-      <c r="K67" s="91"/>
-      <c r="L67" s="91"/>
-      <c r="M67" s="91"/>
-      <c r="N67" s="91"/>
-      <c r="O67" s="91"/>
-      <c r="P67" s="91"/>
-      <c r="Q67" s="91"/>
-      <c r="R67" s="91"/>
-      <c r="S67" s="91"/>
-      <c r="T67" s="91"/>
-      <c r="U67" s="91"/>
-      <c r="V67" s="91"/>
-      <c r="W67" s="91"/>
-      <c r="X67" s="91"/>
-      <c r="Y67" s="91"/>
-      <c r="Z67" s="91"/>
+        <v>199</v>
+      </c>
+      <c r="G67" s="89"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="90"/>
+      <c r="K67" s="90"/>
+      <c r="L67" s="90"/>
+      <c r="M67" s="90"/>
+      <c r="N67" s="90"/>
+      <c r="O67" s="90"/>
+      <c r="P67" s="90"/>
+      <c r="Q67" s="90"/>
+      <c r="R67" s="90"/>
+      <c r="S67" s="90"/>
+      <c r="T67" s="90"/>
+      <c r="U67" s="90"/>
+      <c r="V67" s="90"/>
+      <c r="W67" s="90"/>
+      <c r="X67" s="90"/>
+      <c r="Y67" s="90"/>
+      <c r="Z67" s="90"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="91" t="s">
         <v>202</v>
-      </c>
-      <c r="B68" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" s="92" t="s">
-        <v>204</v>
       </c>
       <c r="D68" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E68" s="45"/>
       <c r="F68" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="G68" s="90"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="91"/>
-      <c r="J68" s="91"/>
-      <c r="K68" s="91"/>
-      <c r="L68" s="91"/>
-      <c r="M68" s="91"/>
-      <c r="N68" s="91"/>
-      <c r="O68" s="91"/>
-      <c r="P68" s="91"/>
-      <c r="Q68" s="91"/>
-      <c r="R68" s="91"/>
-      <c r="S68" s="91"/>
-      <c r="T68" s="91"/>
-      <c r="U68" s="91"/>
-      <c r="V68" s="91"/>
-      <c r="W68" s="91"/>
-      <c r="X68" s="91"/>
-      <c r="Y68" s="91"/>
-      <c r="Z68" s="91"/>
+        <v>195</v>
+      </c>
+      <c r="G68" s="89"/>
+      <c r="H68" s="90"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="90"/>
+      <c r="K68" s="90"/>
+      <c r="L68" s="90"/>
+      <c r="M68" s="90"/>
+      <c r="N68" s="90"/>
+      <c r="O68" s="90"/>
+      <c r="P68" s="90"/>
+      <c r="Q68" s="90"/>
+      <c r="R68" s="90"/>
+      <c r="S68" s="90"/>
+      <c r="T68" s="90"/>
+      <c r="U68" s="90"/>
+      <c r="V68" s="90"/>
+      <c r="W68" s="90"/>
+      <c r="X68" s="90"/>
+      <c r="Y68" s="90"/>
+      <c r="Z68" s="90"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="45" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E69" s="45"/>
       <c r="F69" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="G69" s="90"/>
-      <c r="H69" s="91"/>
-      <c r="I69" s="91"/>
-      <c r="J69" s="91"/>
-      <c r="K69" s="91"/>
-      <c r="L69" s="91"/>
-      <c r="M69" s="91"/>
-      <c r="N69" s="91"/>
-      <c r="O69" s="91"/>
-      <c r="P69" s="91"/>
-      <c r="Q69" s="91"/>
-      <c r="R69" s="91"/>
-      <c r="S69" s="91"/>
-      <c r="T69" s="91"/>
-      <c r="U69" s="91"/>
-      <c r="V69" s="91"/>
-      <c r="W69" s="91"/>
-      <c r="X69" s="91"/>
-      <c r="Y69" s="91"/>
-      <c r="Z69" s="91"/>
+        <v>199</v>
+      </c>
+      <c r="G69" s="89"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="90"/>
+      <c r="M69" s="90"/>
+      <c r="N69" s="90"/>
+      <c r="O69" s="90"/>
+      <c r="P69" s="90"/>
+      <c r="Q69" s="90"/>
+      <c r="R69" s="90"/>
+      <c r="S69" s="90"/>
+      <c r="T69" s="90"/>
+      <c r="U69" s="90"/>
+      <c r="V69" s="90"/>
+      <c r="W69" s="90"/>
+      <c r="X69" s="90"/>
+      <c r="Y69" s="90"/>
+      <c r="Z69" s="90"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="91" t="s">
         <v>207</v>
-      </c>
-      <c r="B70" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="C70" s="93" t="s">
-        <v>209</v>
       </c>
       <c r="D70" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E70" s="45"/>
       <c r="F70" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="G70" s="90"/>
-      <c r="H70" s="91"/>
-      <c r="I70" s="91"/>
-      <c r="J70" s="91"/>
-      <c r="K70" s="91"/>
-      <c r="L70" s="91"/>
-      <c r="M70" s="91"/>
-      <c r="N70" s="91"/>
-      <c r="O70" s="91"/>
-      <c r="P70" s="91"/>
-      <c r="Q70" s="91"/>
-      <c r="R70" s="91"/>
-      <c r="S70" s="91"/>
-      <c r="T70" s="91"/>
-      <c r="U70" s="91"/>
-      <c r="V70" s="91"/>
-      <c r="W70" s="91"/>
-      <c r="X70" s="91"/>
-      <c r="Y70" s="91"/>
-      <c r="Z70" s="91"/>
+        <v>195</v>
+      </c>
+      <c r="G70" s="89"/>
+      <c r="H70" s="90"/>
+      <c r="I70" s="90"/>
+      <c r="J70" s="90"/>
+      <c r="K70" s="90"/>
+      <c r="L70" s="90"/>
+      <c r="M70" s="90"/>
+      <c r="N70" s="90"/>
+      <c r="O70" s="90"/>
+      <c r="P70" s="90"/>
+      <c r="Q70" s="90"/>
+      <c r="R70" s="90"/>
+      <c r="S70" s="90"/>
+      <c r="T70" s="90"/>
+      <c r="U70" s="90"/>
+      <c r="V70" s="90"/>
+      <c r="W70" s="90"/>
+      <c r="X70" s="90"/>
+      <c r="Y70" s="90"/>
+      <c r="Z70" s="90"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="45" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D71" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E71" s="45"/>
       <c r="F71" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="G71" s="90"/>
-      <c r="H71" s="91"/>
-      <c r="I71" s="91"/>
-      <c r="J71" s="91"/>
-      <c r="K71" s="91"/>
-      <c r="L71" s="91"/>
-      <c r="M71" s="91"/>
-      <c r="N71" s="91"/>
-      <c r="O71" s="91"/>
-      <c r="P71" s="91"/>
-      <c r="Q71" s="91"/>
-      <c r="R71" s="91"/>
-      <c r="S71" s="91"/>
-      <c r="T71" s="91"/>
-      <c r="U71" s="91"/>
-      <c r="V71" s="91"/>
-      <c r="W71" s="91"/>
-      <c r="X71" s="91"/>
-      <c r="Y71" s="91"/>
-      <c r="Z71" s="91"/>
+        <v>178</v>
+      </c>
+      <c r="G71" s="89"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="90"/>
+      <c r="J71" s="90"/>
+      <c r="K71" s="90"/>
+      <c r="L71" s="90"/>
+      <c r="M71" s="90"/>
+      <c r="N71" s="90"/>
+      <c r="O71" s="90"/>
+      <c r="P71" s="90"/>
+      <c r="Q71" s="90"/>
+      <c r="R71" s="90"/>
+      <c r="S71" s="90"/>
+      <c r="T71" s="90"/>
+      <c r="U71" s="90"/>
+      <c r="V71" s="90"/>
+      <c r="W71" s="90"/>
+      <c r="X71" s="90"/>
+      <c r="Y71" s="90"/>
+      <c r="Z71" s="90"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="B72" s="45" t="s">
+      <c r="C72" s="92" t="s">
         <v>212</v>
-      </c>
-      <c r="C72" s="93" t="s">
-        <v>213</v>
       </c>
       <c r="D72" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E72" s="45"/>
       <c r="F72" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="G72" s="90"/>
-      <c r="H72" s="91"/>
-      <c r="I72" s="91"/>
-      <c r="J72" s="91"/>
-      <c r="K72" s="91"/>
-      <c r="L72" s="91"/>
-      <c r="M72" s="91"/>
-      <c r="N72" s="91"/>
-      <c r="O72" s="91"/>
-      <c r="P72" s="91"/>
-      <c r="Q72" s="91"/>
-      <c r="R72" s="91"/>
-      <c r="S72" s="91"/>
-      <c r="T72" s="91"/>
-      <c r="U72" s="91"/>
-      <c r="V72" s="91"/>
-      <c r="W72" s="91"/>
-      <c r="X72" s="91"/>
-      <c r="Y72" s="91"/>
-      <c r="Z72" s="91"/>
+        <v>195</v>
+      </c>
+      <c r="G72" s="89"/>
+      <c r="H72" s="90"/>
+      <c r="I72" s="90"/>
+      <c r="J72" s="90"/>
+      <c r="K72" s="90"/>
+      <c r="L72" s="90"/>
+      <c r="M72" s="90"/>
+      <c r="N72" s="90"/>
+      <c r="O72" s="90"/>
+      <c r="P72" s="90"/>
+      <c r="Q72" s="90"/>
+      <c r="R72" s="90"/>
+      <c r="S72" s="90"/>
+      <c r="T72" s="90"/>
+      <c r="U72" s="90"/>
+      <c r="V72" s="90"/>
+      <c r="W72" s="90"/>
+      <c r="X72" s="90"/>
+      <c r="Y72" s="90"/>
+      <c r="Z72" s="90"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="45" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="D73" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E73" s="45"/>
       <c r="F73" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="G73" s="90"/>
-      <c r="H73" s="91"/>
-      <c r="I73" s="91"/>
-      <c r="J73" s="91"/>
-      <c r="K73" s="91"/>
-      <c r="L73" s="91"/>
-      <c r="M73" s="91"/>
-      <c r="N73" s="91"/>
-      <c r="O73" s="91"/>
-      <c r="P73" s="91"/>
-      <c r="Q73" s="91"/>
-      <c r="R73" s="91"/>
-      <c r="S73" s="91"/>
-      <c r="T73" s="91"/>
-      <c r="U73" s="91"/>
-      <c r="V73" s="91"/>
-      <c r="W73" s="91"/>
-      <c r="X73" s="91"/>
-      <c r="Y73" s="91"/>
-      <c r="Z73" s="91"/>
+        <v>178</v>
+      </c>
+      <c r="G73" s="89"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="90"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="90"/>
+      <c r="L73" s="90"/>
+      <c r="M73" s="90"/>
+      <c r="N73" s="90"/>
+      <c r="O73" s="90"/>
+      <c r="P73" s="90"/>
+      <c r="Q73" s="90"/>
+      <c r="R73" s="90"/>
+      <c r="S73" s="90"/>
+      <c r="T73" s="90"/>
+      <c r="U73" s="90"/>
+      <c r="V73" s="90"/>
+      <c r="W73" s="90"/>
+      <c r="X73" s="90"/>
+      <c r="Y73" s="90"/>
+      <c r="Z73" s="90"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="45" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="C74" s="45" t="s">
-        <v>182</v>
+        <v>215</v>
+      </c>
+      <c r="C74" s="92" t="s">
+        <v>216</v>
       </c>
       <c r="D74" s="45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E74" s="45"/>
       <c r="F74" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="G74" s="89"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="90"/>
+      <c r="J74" s="90"/>
+      <c r="K74" s="90"/>
+      <c r="L74" s="90"/>
+      <c r="M74" s="90"/>
+      <c r="N74" s="90"/>
+      <c r="O74" s="90"/>
+      <c r="P74" s="90"/>
+      <c r="Q74" s="90"/>
+      <c r="R74" s="90"/>
+      <c r="S74" s="90"/>
+      <c r="T74" s="90"/>
+      <c r="U74" s="90"/>
+      <c r="V74" s="90"/>
+      <c r="W74" s="90"/>
+      <c r="X74" s="90"/>
+      <c r="Y74" s="90"/>
+      <c r="Z74" s="90"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="G74" s="90"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="91"/>
-      <c r="J74" s="91"/>
-      <c r="K74" s="91"/>
-      <c r="L74" s="91"/>
-      <c r="M74" s="91"/>
-      <c r="N74" s="91"/>
-      <c r="O74" s="91"/>
-      <c r="P74" s="91"/>
-      <c r="Q74" s="91"/>
-      <c r="R74" s="91"/>
-      <c r="S74" s="91"/>
-      <c r="T74" s="91"/>
-      <c r="U74" s="91"/>
-      <c r="V74" s="91"/>
-      <c r="W74" s="91"/>
-      <c r="X74" s="91"/>
-      <c r="Y74" s="91"/>
-      <c r="Z74" s="91"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="4"/>
-      <c r="G75" s="5"/>
+      <c r="B75" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" s="45"/>
+      <c r="F75" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="G75" s="89"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="90"/>
+      <c r="J75" s="90"/>
+      <c r="K75" s="90"/>
+      <c r="L75" s="90"/>
+      <c r="M75" s="90"/>
+      <c r="N75" s="90"/>
+      <c r="O75" s="90"/>
+      <c r="P75" s="90"/>
+      <c r="Q75" s="90"/>
+      <c r="R75" s="90"/>
+      <c r="S75" s="90"/>
+      <c r="T75" s="90"/>
+      <c r="U75" s="90"/>
+      <c r="V75" s="90"/>
+      <c r="W75" s="90"/>
+      <c r="X75" s="90"/>
+      <c r="Y75" s="90"/>
+      <c r="Z75" s="90"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G76" s="5"/>
+      <c r="A76" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" s="45"/>
+      <c r="F76" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="G76" s="89"/>
+      <c r="H76" s="90"/>
+      <c r="I76" s="90"/>
+      <c r="J76" s="90"/>
+      <c r="K76" s="90"/>
+      <c r="L76" s="90"/>
+      <c r="M76" s="90"/>
+      <c r="N76" s="90"/>
+      <c r="O76" s="90"/>
+      <c r="P76" s="90"/>
+      <c r="Q76" s="90"/>
+      <c r="R76" s="90"/>
+      <c r="S76" s="90"/>
+      <c r="T76" s="90"/>
+      <c r="U76" s="90"/>
+      <c r="V76" s="90"/>
+      <c r="W76" s="90"/>
+      <c r="X76" s="90"/>
+      <c r="Y76" s="90"/>
+      <c r="Z76" s="90"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="4"/>
       <c r="G77" s="5"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="4"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B80" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F78" s="7" t="s">
+      <c r="D80" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="B79" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="D79" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E79" s="45"/>
-      <c r="F79" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="90"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
-      <c r="J79" s="91"/>
-      <c r="K79" s="91"/>
-      <c r="L79" s="91"/>
-      <c r="M79" s="91"/>
-      <c r="N79" s="91"/>
-      <c r="O79" s="91"/>
-      <c r="P79" s="91"/>
-      <c r="Q79" s="91"/>
-      <c r="R79" s="91"/>
-      <c r="S79" s="91"/>
-      <c r="T79" s="91"/>
-      <c r="U79" s="91"/>
-      <c r="V79" s="91"/>
-      <c r="W79" s="91"/>
-      <c r="X79" s="91"/>
-      <c r="Y79" s="91"/>
-      <c r="Z79" s="91"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="B80" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="C80" s="92" t="s">
-        <v>221</v>
-      </c>
-      <c r="D80" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="45"/>
-      <c r="F80" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="H80" s="91"/>
-      <c r="I80" s="91"/>
-      <c r="J80" s="91"/>
-      <c r="K80" s="91"/>
-      <c r="L80" s="91"/>
-      <c r="M80" s="91"/>
-      <c r="N80" s="91"/>
-      <c r="O80" s="91"/>
-      <c r="P80" s="91"/>
-      <c r="Q80" s="91"/>
-      <c r="R80" s="91"/>
-      <c r="S80" s="91"/>
-      <c r="T80" s="91"/>
-      <c r="U80" s="91"/>
-      <c r="V80" s="91"/>
-      <c r="W80" s="91"/>
-      <c r="X80" s="91"/>
-      <c r="Y80" s="91"/>
-      <c r="Z80" s="91"/>
+      <c r="G80" s="5"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="45" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="92" t="s">
-        <v>224</v>
+        <v>220</v>
+      </c>
+      <c r="C81" s="91" t="s">
+        <v>221</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="E81" s="45"/>
+        <v>16</v>
+      </c>
+      <c r="E81" s="93"/>
       <c r="F81" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="G81" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="H81" s="91"/>
-      <c r="I81" s="91"/>
-      <c r="J81" s="91"/>
-      <c r="K81" s="91"/>
-      <c r="L81" s="91"/>
-      <c r="M81" s="91"/>
-      <c r="N81" s="91"/>
-      <c r="O81" s="91"/>
-      <c r="P81" s="91"/>
-      <c r="Q81" s="91"/>
-      <c r="R81" s="91"/>
-      <c r="S81" s="91"/>
-      <c r="T81" s="91"/>
-      <c r="U81" s="91"/>
-      <c r="V81" s="91"/>
-      <c r="W81" s="91"/>
-      <c r="X81" s="91"/>
-      <c r="Y81" s="91"/>
-      <c r="Z81" s="91"/>
+        <v>13</v>
+      </c>
+      <c r="G81" s="89"/>
+      <c r="H81" s="90"/>
+      <c r="I81" s="90"/>
+      <c r="J81" s="90"/>
+      <c r="K81" s="90"/>
+      <c r="L81" s="90"/>
+      <c r="M81" s="90"/>
+      <c r="N81" s="90"/>
+      <c r="O81" s="90"/>
+      <c r="P81" s="90"/>
+      <c r="Q81" s="90"/>
+      <c r="R81" s="90"/>
+      <c r="S81" s="90"/>
+      <c r="T81" s="90"/>
+      <c r="U81" s="90"/>
+      <c r="V81" s="90"/>
+      <c r="W81" s="90"/>
+      <c r="X81" s="90"/>
+      <c r="Y81" s="90"/>
+      <c r="Z81" s="90"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="45" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="C82" s="45" t="s">
-        <v>229</v>
+        <v>223</v>
+      </c>
+      <c r="C82" s="91" t="s">
+        <v>224</v>
       </c>
       <c r="D82" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E82" s="94"/>
+        <v>11</v>
+      </c>
+      <c r="E82" s="45"/>
       <c r="F82" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G82" s="90"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="91"/>
-      <c r="J82" s="91"/>
-      <c r="K82" s="91"/>
-      <c r="L82" s="91"/>
-      <c r="M82" s="91"/>
-      <c r="N82" s="91"/>
-      <c r="O82" s="91"/>
-      <c r="P82" s="91"/>
-      <c r="Q82" s="91"/>
-      <c r="R82" s="91"/>
-      <c r="S82" s="91"/>
-      <c r="T82" s="91"/>
-      <c r="U82" s="91"/>
-      <c r="V82" s="91"/>
-      <c r="W82" s="91"/>
-      <c r="X82" s="91"/>
-      <c r="Y82" s="91"/>
-      <c r="Z82" s="91"/>
+        <v>13</v>
+      </c>
+      <c r="G82" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="H82" s="90"/>
+      <c r="I82" s="90"/>
+      <c r="J82" s="90"/>
+      <c r="K82" s="90"/>
+      <c r="L82" s="90"/>
+      <c r="M82" s="90"/>
+      <c r="N82" s="90"/>
+      <c r="O82" s="90"/>
+      <c r="P82" s="90"/>
+      <c r="Q82" s="90"/>
+      <c r="R82" s="90"/>
+      <c r="S82" s="90"/>
+      <c r="T82" s="90"/>
+      <c r="U82" s="90"/>
+      <c r="V82" s="90"/>
+      <c r="W82" s="90"/>
+      <c r="X82" s="90"/>
+      <c r="Y82" s="90"/>
+      <c r="Z82" s="90"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E83" s="45"/>
+      <c r="F83" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="G83" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="B83" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="C83" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="D83" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="94"/>
-      <c r="F83" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="G83" s="90"/>
-      <c r="H83" s="91"/>
-      <c r="I83" s="91"/>
-      <c r="J83" s="91"/>
-      <c r="K83" s="91"/>
-      <c r="L83" s="91"/>
-      <c r="M83" s="91"/>
-      <c r="N83" s="91"/>
-      <c r="O83" s="91"/>
-      <c r="P83" s="91"/>
-      <c r="Q83" s="91"/>
-      <c r="R83" s="91"/>
-      <c r="S83" s="91"/>
-      <c r="T83" s="91"/>
-      <c r="U83" s="91"/>
-      <c r="V83" s="91"/>
-      <c r="W83" s="91"/>
-      <c r="X83" s="91"/>
-      <c r="Y83" s="91"/>
-      <c r="Z83" s="91"/>
+      <c r="H83" s="90"/>
+      <c r="I83" s="90"/>
+      <c r="J83" s="90"/>
+      <c r="K83" s="90"/>
+      <c r="L83" s="90"/>
+      <c r="M83" s="90"/>
+      <c r="N83" s="90"/>
+      <c r="O83" s="90"/>
+      <c r="P83" s="90"/>
+      <c r="Q83" s="90"/>
+      <c r="R83" s="90"/>
+      <c r="S83" s="90"/>
+      <c r="T83" s="90"/>
+      <c r="U83" s="90"/>
+      <c r="V83" s="90"/>
+      <c r="W83" s="90"/>
+      <c r="X83" s="90"/>
+      <c r="Y83" s="90"/>
+      <c r="Z83" s="90"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="C84" s="92" t="s">
-        <v>235</v>
+        <v>193</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>232</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="45"/>
+        <v>30</v>
+      </c>
+      <c r="E84" s="94"/>
       <c r="F84" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G84" s="90"/>
-      <c r="H84" s="91"/>
-      <c r="I84" s="91"/>
-      <c r="J84" s="91"/>
-      <c r="K84" s="91"/>
-      <c r="L84" s="91"/>
-      <c r="M84" s="91"/>
-      <c r="N84" s="91"/>
-      <c r="O84" s="91"/>
-      <c r="P84" s="91"/>
-      <c r="Q84" s="91"/>
-      <c r="R84" s="91"/>
-      <c r="S84" s="91"/>
-      <c r="T84" s="91"/>
-      <c r="U84" s="91"/>
-      <c r="V84" s="91"/>
-      <c r="W84" s="91"/>
-      <c r="X84" s="91"/>
-      <c r="Y84" s="91"/>
-      <c r="Z84" s="91"/>
+        <v>107</v>
+      </c>
+      <c r="G84" s="89"/>
+      <c r="H84" s="90"/>
+      <c r="I84" s="90"/>
+      <c r="J84" s="90"/>
+      <c r="K84" s="90"/>
+      <c r="L84" s="90"/>
+      <c r="M84" s="90"/>
+      <c r="N84" s="90"/>
+      <c r="O84" s="90"/>
+      <c r="P84" s="90"/>
+      <c r="Q84" s="90"/>
+      <c r="R84" s="90"/>
+      <c r="S84" s="90"/>
+      <c r="T84" s="90"/>
+      <c r="U84" s="90"/>
+      <c r="V84" s="90"/>
+      <c r="W84" s="90"/>
+      <c r="X84" s="90"/>
+      <c r="Y84" s="90"/>
+      <c r="Z84" s="90"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="45" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C85" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E85" s="94"/>
       <c r="F85" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G85" s="90"/>
-      <c r="H85" s="91"/>
-      <c r="I85" s="91"/>
-      <c r="J85" s="91"/>
-      <c r="K85" s="91"/>
-      <c r="L85" s="91"/>
-      <c r="M85" s="91"/>
-      <c r="N85" s="91"/>
-      <c r="O85" s="91"/>
-      <c r="P85" s="91"/>
-      <c r="Q85" s="91"/>
-      <c r="R85" s="91"/>
-      <c r="S85" s="91"/>
-      <c r="T85" s="91"/>
-      <c r="U85" s="91"/>
-      <c r="V85" s="91"/>
-      <c r="W85" s="91"/>
-      <c r="X85" s="91"/>
-      <c r="Y85" s="91"/>
-      <c r="Z85" s="91"/>
+        <v>178</v>
+      </c>
+      <c r="G85" s="89"/>
+      <c r="H85" s="90"/>
+      <c r="I85" s="90"/>
+      <c r="J85" s="90"/>
+      <c r="K85" s="90"/>
+      <c r="L85" s="90"/>
+      <c r="M85" s="90"/>
+      <c r="N85" s="90"/>
+      <c r="O85" s="90"/>
+      <c r="P85" s="90"/>
+      <c r="Q85" s="90"/>
+      <c r="R85" s="90"/>
+      <c r="S85" s="90"/>
+      <c r="T85" s="90"/>
+      <c r="U85" s="90"/>
+      <c r="V85" s="90"/>
+      <c r="W85" s="90"/>
+      <c r="X85" s="90"/>
+      <c r="Y85" s="90"/>
+      <c r="Z85" s="90"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="45" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="C86" s="92" t="s">
-        <v>241</v>
+        <v>237</v>
+      </c>
+      <c r="C86" s="91" t="s">
+        <v>238</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E86" s="45"/>
       <c r="F86" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G86" s="90"/>
-      <c r="H86" s="91"/>
-      <c r="I86" s="91"/>
-      <c r="J86" s="91"/>
-      <c r="K86" s="91"/>
-      <c r="L86" s="91"/>
-      <c r="M86" s="91"/>
-      <c r="N86" s="91"/>
-      <c r="O86" s="91"/>
-      <c r="P86" s="91"/>
-      <c r="Q86" s="91"/>
-      <c r="R86" s="91"/>
-      <c r="S86" s="91"/>
-      <c r="T86" s="91"/>
-      <c r="U86" s="91"/>
-      <c r="V86" s="91"/>
-      <c r="W86" s="91"/>
-      <c r="X86" s="91"/>
-      <c r="Y86" s="91"/>
-      <c r="Z86" s="91"/>
+        <v>54</v>
+      </c>
+      <c r="G86" s="89"/>
+      <c r="H86" s="90"/>
+      <c r="I86" s="90"/>
+      <c r="J86" s="90"/>
+      <c r="K86" s="90"/>
+      <c r="L86" s="90"/>
+      <c r="M86" s="90"/>
+      <c r="N86" s="90"/>
+      <c r="O86" s="90"/>
+      <c r="P86" s="90"/>
+      <c r="Q86" s="90"/>
+      <c r="R86" s="90"/>
+      <c r="S86" s="90"/>
+      <c r="T86" s="90"/>
+      <c r="U86" s="90"/>
+      <c r="V86" s="90"/>
+      <c r="W86" s="90"/>
+      <c r="X86" s="90"/>
+      <c r="Y86" s="90"/>
+      <c r="Z86" s="90"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="45" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="C87" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="E87" s="45"/>
+        <v>30</v>
+      </c>
+      <c r="E87" s="94"/>
       <c r="F87" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G87" s="90"/>
-      <c r="H87" s="91"/>
-      <c r="I87" s="91"/>
-      <c r="J87" s="91"/>
-      <c r="K87" s="91"/>
-      <c r="L87" s="91"/>
-      <c r="M87" s="91"/>
-      <c r="N87" s="91"/>
-      <c r="O87" s="91"/>
-      <c r="P87" s="91"/>
-      <c r="Q87" s="91"/>
-      <c r="R87" s="91"/>
-      <c r="S87" s="91"/>
-      <c r="T87" s="91"/>
-      <c r="U87" s="91"/>
-      <c r="V87" s="91"/>
-      <c r="W87" s="91"/>
-      <c r="X87" s="91"/>
-      <c r="Y87" s="91"/>
-      <c r="Z87" s="91"/>
+        <v>54</v>
+      </c>
+      <c r="G87" s="89"/>
+      <c r="H87" s="90"/>
+      <c r="I87" s="90"/>
+      <c r="J87" s="90"/>
+      <c r="K87" s="90"/>
+      <c r="L87" s="90"/>
+      <c r="M87" s="90"/>
+      <c r="N87" s="90"/>
+      <c r="O87" s="90"/>
+      <c r="P87" s="90"/>
+      <c r="Q87" s="90"/>
+      <c r="R87" s="90"/>
+      <c r="S87" s="90"/>
+      <c r="T87" s="90"/>
+      <c r="U87" s="90"/>
+      <c r="V87" s="90"/>
+      <c r="W87" s="90"/>
+      <c r="X87" s="90"/>
+      <c r="Y87" s="90"/>
+      <c r="Z87" s="90"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="45" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="B88" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="C88" s="45" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+      <c r="C88" s="91" t="s">
+        <v>244</v>
       </c>
       <c r="D88" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E88" s="45"/>
       <c r="F88" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="G88" s="90"/>
-      <c r="H88" s="91"/>
-      <c r="I88" s="91"/>
-      <c r="J88" s="91"/>
-      <c r="K88" s="91"/>
-      <c r="L88" s="91"/>
-      <c r="M88" s="91"/>
-      <c r="N88" s="91"/>
-      <c r="O88" s="91"/>
-      <c r="P88" s="91"/>
-      <c r="Q88" s="91"/>
-      <c r="R88" s="91"/>
-      <c r="S88" s="91"/>
-      <c r="T88" s="91"/>
-      <c r="U88" s="91"/>
-      <c r="V88" s="91"/>
-      <c r="W88" s="91"/>
-      <c r="X88" s="91"/>
-      <c r="Y88" s="91"/>
-      <c r="Z88" s="91"/>
+        <v>107</v>
+      </c>
+      <c r="G88" s="89"/>
+      <c r="H88" s="90"/>
+      <c r="I88" s="90"/>
+      <c r="J88" s="90"/>
+      <c r="K88" s="90"/>
+      <c r="L88" s="90"/>
+      <c r="M88" s="90"/>
+      <c r="N88" s="90"/>
+      <c r="O88" s="90"/>
+      <c r="P88" s="90"/>
+      <c r="Q88" s="90"/>
+      <c r="R88" s="90"/>
+      <c r="S88" s="90"/>
+      <c r="T88" s="90"/>
+      <c r="U88" s="90"/>
+      <c r="V88" s="90"/>
+      <c r="W88" s="90"/>
+      <c r="X88" s="90"/>
+      <c r="Y88" s="90"/>
+      <c r="Z88" s="90"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="45" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C89" s="45" t="s">
         <v>246</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E89" s="94"/>
+        <v>247</v>
+      </c>
+      <c r="E89" s="45"/>
       <c r="F89" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="G89" s="90"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="91"/>
-      <c r="J89" s="91"/>
-      <c r="K89" s="91"/>
-      <c r="L89" s="91"/>
-      <c r="M89" s="91"/>
-      <c r="N89" s="91"/>
-      <c r="O89" s="91"/>
-      <c r="P89" s="91"/>
-      <c r="Q89" s="91"/>
-      <c r="R89" s="91"/>
-      <c r="S89" s="91"/>
-      <c r="T89" s="91"/>
-      <c r="U89" s="91"/>
-      <c r="V89" s="91"/>
-      <c r="W89" s="91"/>
-      <c r="X89" s="91"/>
-      <c r="Y89" s="91"/>
-      <c r="Z89" s="91"/>
+        <v>107</v>
+      </c>
+      <c r="G89" s="89"/>
+      <c r="H89" s="90"/>
+      <c r="I89" s="90"/>
+      <c r="J89" s="90"/>
+      <c r="K89" s="90"/>
+      <c r="L89" s="90"/>
+      <c r="M89" s="90"/>
+      <c r="N89" s="90"/>
+      <c r="O89" s="90"/>
+      <c r="P89" s="90"/>
+      <c r="Q89" s="90"/>
+      <c r="R89" s="90"/>
+      <c r="S89" s="90"/>
+      <c r="T89" s="90"/>
+      <c r="U89" s="90"/>
+      <c r="V89" s="90"/>
+      <c r="W89" s="90"/>
+      <c r="X89" s="90"/>
+      <c r="Y89" s="90"/>
+      <c r="Z89" s="90"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="D90" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="45"/>
+      <c r="F90" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="G90" s="89"/>
+      <c r="H90" s="90"/>
+      <c r="I90" s="90"/>
+      <c r="J90" s="90"/>
+      <c r="K90" s="90"/>
+      <c r="L90" s="90"/>
+      <c r="M90" s="90"/>
+      <c r="N90" s="90"/>
+      <c r="O90" s="90"/>
+      <c r="P90" s="90"/>
+      <c r="Q90" s="90"/>
+      <c r="R90" s="90"/>
+      <c r="S90" s="90"/>
+      <c r="T90" s="90"/>
+      <c r="U90" s="90"/>
+      <c r="V90" s="90"/>
+      <c r="W90" s="90"/>
+      <c r="X90" s="90"/>
+      <c r="Y90" s="90"/>
+      <c r="Z90" s="90"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="B90" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="C90" s="45" t="s">
+      <c r="C91" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="D91" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E91" s="94"/>
+      <c r="F91" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="D90" s="45" t="s">
+      <c r="G91" s="89"/>
+      <c r="H91" s="90"/>
+      <c r="I91" s="90"/>
+      <c r="J91" s="90"/>
+      <c r="K91" s="90"/>
+      <c r="L91" s="90"/>
+      <c r="M91" s="90"/>
+      <c r="N91" s="90"/>
+      <c r="O91" s="90"/>
+      <c r="P91" s="90"/>
+      <c r="Q91" s="90"/>
+      <c r="R91" s="90"/>
+      <c r="S91" s="90"/>
+      <c r="T91" s="90"/>
+      <c r="U91" s="90"/>
+      <c r="V91" s="90"/>
+      <c r="W91" s="90"/>
+      <c r="X91" s="90"/>
+      <c r="Y91" s="90"/>
+      <c r="Z91" s="90"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="E90" s="94"/>
-      <c r="F90" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="G90" s="90"/>
-      <c r="H90" s="91"/>
-      <c r="I90" s="91"/>
-      <c r="J90" s="91"/>
-      <c r="K90" s="91"/>
-      <c r="L90" s="91"/>
-      <c r="M90" s="91"/>
-      <c r="N90" s="91"/>
-      <c r="O90" s="91"/>
-      <c r="P90" s="91"/>
-      <c r="Q90" s="91"/>
-      <c r="R90" s="91"/>
-      <c r="S90" s="91"/>
-      <c r="T90" s="91"/>
-      <c r="U90" s="91"/>
-      <c r="V90" s="91"/>
-      <c r="W90" s="91"/>
-      <c r="X90" s="91"/>
-      <c r="Y90" s="91"/>
-      <c r="Z90" s="91"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="4"/>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="95"/>
-      <c r="G92" s="5"/>
+      <c r="E92" s="94"/>
+      <c r="F92" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="G92" s="89"/>
+      <c r="H92" s="90"/>
+      <c r="I92" s="90"/>
+      <c r="J92" s="90"/>
+      <c r="K92" s="90"/>
+      <c r="L92" s="90"/>
+      <c r="M92" s="90"/>
+      <c r="N92" s="90"/>
+      <c r="O92" s="90"/>
+      <c r="P92" s="90"/>
+      <c r="Q92" s="90"/>
+      <c r="R92" s="90"/>
+      <c r="S92" s="90"/>
+      <c r="T92" s="90"/>
+      <c r="U92" s="90"/>
+      <c r="V92" s="90"/>
+      <c r="W92" s="90"/>
+      <c r="X92" s="90"/>
+      <c r="Y92" s="90"/>
+      <c r="Z92" s="90"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="4"/>
       <c r="G93" s="5"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="95"/>
       <c r="G94" s="5"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
@@ -8827,6 +8960,12 @@
     </row>
     <row r="999" ht="15.75" customHeight="1">
       <c r="G999" s="5"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="G1000" s="5"/>
+    </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="G1001" s="5"/>
     </row>
   </sheetData>
   <printOptions/>

--- a/documentation/Record Of Tasks.xlsx
+++ b/documentation/Record Of Tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SERVERMS30\usuarios$\secundaria\nicolas.philippe\Documents\GitHub\internal-java\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CB050D-3AF1-4A26-A371-F9A0CD039840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A464B9E-3D15-4F3D-87F0-802F7D6CB436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="259">
   <si>
     <t>Waterfall Methodology</t>
   </si>
@@ -2301,6 +2301,24 @@
   </si>
   <si>
     <t>04/27/2025</t>
+  </si>
+  <si>
+    <t>Implement Chekers Logic</t>
+  </si>
+  <si>
+    <t>5/27/2025</t>
+  </si>
+  <si>
+    <t>Working Checkers Game</t>
+  </si>
+  <si>
+    <t>Implement Scoring</t>
+  </si>
+  <si>
+    <t>Scoring implemented</t>
+  </si>
+  <si>
+    <t>20 mn</t>
   </si>
 </sst>
 </file>
@@ -2862,13 +2880,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3089,10 +3107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5165,136 +5183,100 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="75" t="s">
+    <row r="55" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="C55" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="D55" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="F55" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="D56" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="E56" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="F56" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="75" t="s">
+      <c r="B57" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="75" t="s">
+      <c r="C57" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="75" t="s">
+      <c r="D57" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="76"/>
-      <c r="F55" s="77" t="s">
+      <c r="E57" s="76"/>
+      <c r="F57" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="G55" s="78"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="79"/>
-      <c r="S55" s="79"/>
-      <c r="T55" s="79"/>
-      <c r="U55" s="79"/>
-      <c r="V55" s="79"/>
-      <c r="W55" s="79"/>
-      <c r="X55" s="79"/>
-      <c r="Y55" s="79"/>
-      <c r="Z55" s="79"/>
-    </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="80"/>
-      <c r="F56" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G56" s="81"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="82"/>
-      <c r="L56" s="82"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="82"/>
-      <c r="Q56" s="82"/>
-      <c r="R56" s="82"/>
-      <c r="S56" s="82"/>
-      <c r="T56" s="82"/>
-      <c r="U56" s="82"/>
-      <c r="V56" s="82"/>
-      <c r="W56" s="82"/>
-      <c r="X56" s="82"/>
-      <c r="Y56" s="82"/>
-      <c r="Z56" s="82"/>
-    </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E57" s="80"/>
-      <c r="F57" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="G57" s="81"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="82"/>
-      <c r="N57" s="82"/>
-      <c r="O57" s="82"/>
-      <c r="P57" s="82"/>
-      <c r="Q57" s="82"/>
-      <c r="R57" s="82"/>
-      <c r="S57" s="82"/>
-      <c r="T57" s="82"/>
-      <c r="U57" s="82"/>
-      <c r="V57" s="82"/>
-      <c r="W57" s="82"/>
-      <c r="X57" s="82"/>
-      <c r="Y57" s="82"/>
-      <c r="Z57" s="82"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="79"/>
+      <c r="O57" s="79"/>
+      <c r="P57" s="79"/>
+      <c r="Q57" s="79"/>
+      <c r="R57" s="79"/>
+      <c r="S57" s="79"/>
+      <c r="T57" s="79"/>
+      <c r="U57" s="79"/>
+      <c r="V57" s="79"/>
+      <c r="W57" s="79"/>
+      <c r="X57" s="79"/>
+      <c r="Y57" s="79"/>
+      <c r="Z57" s="79"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E58" s="80"/>
       <c r="F58" s="28" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="G58" s="81"/>
       <c r="H58" s="82"/>
@@ -5318,69 +5300,135 @@
       <c r="Z58" s="82"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="80"/>
+      <c r="F59" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="G59" s="81"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="82"/>
+      <c r="L59" s="82"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="82"/>
+      <c r="O59" s="82"/>
+      <c r="P59" s="82"/>
+      <c r="Q59" s="82"/>
+      <c r="R59" s="82"/>
+      <c r="S59" s="82"/>
+      <c r="T59" s="82"/>
+      <c r="U59" s="82"/>
+      <c r="V59" s="82"/>
+      <c r="W59" s="82"/>
+      <c r="X59" s="82"/>
+      <c r="Y59" s="82"/>
+      <c r="Z59" s="82"/>
+    </row>
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="80"/>
+      <c r="F60" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G60" s="81"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="82"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="82"/>
+      <c r="O60" s="82"/>
+      <c r="P60" s="82"/>
+      <c r="Q60" s="82"/>
+      <c r="R60" s="82"/>
+      <c r="S60" s="82"/>
+      <c r="T60" s="82"/>
+      <c r="U60" s="82"/>
+      <c r="V60" s="82"/>
+      <c r="W60" s="82"/>
+      <c r="X60" s="82"/>
+      <c r="Y60" s="82"/>
+      <c r="Z60" s="82"/>
+    </row>
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B61" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D61" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="10" t="s">
+      <c r="E61" s="9"/>
+      <c r="F61" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G59" s="83"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="84"/>
-      <c r="Q59" s="84"/>
-      <c r="R59" s="84"/>
-      <c r="S59" s="84"/>
-      <c r="T59" s="84"/>
-      <c r="U59" s="84"/>
-      <c r="V59" s="84"/>
-      <c r="W59" s="84"/>
-      <c r="X59" s="84"/>
-      <c r="Y59" s="84"/>
-      <c r="Z59" s="84"/>
-    </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="5"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="84"/>
+      <c r="J61" s="84"/>
+      <c r="K61" s="84"/>
+      <c r="L61" s="84"/>
+      <c r="M61" s="84"/>
+      <c r="N61" s="84"/>
+      <c r="O61" s="84"/>
+      <c r="P61" s="84"/>
+      <c r="Q61" s="84"/>
+      <c r="R61" s="84"/>
+      <c r="S61" s="84"/>
+      <c r="T61" s="84"/>
+      <c r="U61" s="84"/>
+      <c r="V61" s="84"/>
+      <c r="W61" s="84"/>
+      <c r="X61" s="84"/>
+      <c r="Y61" s="84"/>
+      <c r="Z61" s="84"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="85"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="87"/>
       <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="A63" s="85"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="87"/>
       <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5388,118 +5436,52 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F67" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="B66" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="C66" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="45"/>
-      <c r="F66" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="88"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="89"/>
-      <c r="K66" s="89"/>
-      <c r="L66" s="89"/>
-      <c r="M66" s="89"/>
-      <c r="N66" s="89"/>
-      <c r="O66" s="89"/>
-      <c r="P66" s="89"/>
-      <c r="Q66" s="89"/>
-      <c r="R66" s="89"/>
-      <c r="S66" s="89"/>
-      <c r="T66" s="89"/>
-      <c r="U66" s="89"/>
-      <c r="V66" s="89"/>
-      <c r="W66" s="89"/>
-      <c r="X66" s="89"/>
-      <c r="Y66" s="89"/>
-      <c r="Z66" s="89"/>
-    </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="B67" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" s="90" t="s">
-        <v>194</v>
-      </c>
-      <c r="D67" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E67" s="45"/>
-      <c r="F67" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="G67" s="88"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="89"/>
-      <c r="K67" s="89"/>
-      <c r="L67" s="89"/>
-      <c r="M67" s="89"/>
-      <c r="N67" s="89"/>
-      <c r="O67" s="89"/>
-      <c r="P67" s="89"/>
-      <c r="Q67" s="89"/>
-      <c r="R67" s="89"/>
-      <c r="S67" s="89"/>
-      <c r="T67" s="89"/>
-      <c r="U67" s="89"/>
-      <c r="V67" s="89"/>
-      <c r="W67" s="89"/>
-      <c r="X67" s="89"/>
-      <c r="Y67" s="89"/>
-      <c r="Z67" s="89"/>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="45" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D68" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E68" s="45"/>
       <c r="F68" s="44" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="G68" s="88"/>
       <c r="H68" s="89"/>
@@ -5524,13 +5506,13 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="45" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C69" s="90" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D69" s="45" t="s">
         <v>30</v>
@@ -5565,10 +5547,10 @@
         <v>196</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D70" s="45" t="s">
         <v>86</v>
@@ -5600,13 +5582,13 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="45" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C71" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D71" s="45" t="s">
         <v>30</v>
@@ -5641,17 +5623,17 @@
         <v>196</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D72" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E72" s="45"/>
       <c r="F72" s="44" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G72" s="88"/>
       <c r="H72" s="89"/>
@@ -5676,13 +5658,13 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="45" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="C73" s="91" t="s">
-        <v>212</v>
+        <v>206</v>
+      </c>
+      <c r="C73" s="90" t="s">
+        <v>207</v>
       </c>
       <c r="D73" s="45" t="s">
         <v>30</v>
@@ -5717,7 +5699,7 @@
         <v>196</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C74" s="45" t="s">
         <v>209</v>
@@ -5752,20 +5734,20 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="45" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C75" s="91" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D75" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E75" s="45"/>
       <c r="F75" s="44" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="G75" s="88"/>
       <c r="H75" s="89"/>
@@ -5790,20 +5772,20 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="45" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="D76" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E76" s="45"/>
       <c r="F76" s="44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G76" s="88"/>
       <c r="H76" s="89"/>
@@ -5828,20 +5810,20 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="C77" s="45" t="s">
-        <v>185</v>
+        <v>215</v>
+      </c>
+      <c r="C77" s="91" t="s">
+        <v>216</v>
       </c>
       <c r="D77" s="45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E77" s="45"/>
       <c r="F77" s="44" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="G77" s="88"/>
       <c r="H77" s="89"/>
@@ -5865,138 +5847,134 @@
       <c r="Z77" s="89"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="G78" s="5"/>
+      <c r="A78" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" s="45"/>
+      <c r="F78" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="G78" s="88"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="89"/>
+      <c r="J78" s="89"/>
+      <c r="K78" s="89"/>
+      <c r="L78" s="89"/>
+      <c r="M78" s="89"/>
+      <c r="N78" s="89"/>
+      <c r="O78" s="89"/>
+      <c r="P78" s="89"/>
+      <c r="Q78" s="89"/>
+      <c r="R78" s="89"/>
+      <c r="S78" s="89"/>
+      <c r="T78" s="89"/>
+      <c r="U78" s="89"/>
+      <c r="V78" s="89"/>
+      <c r="W78" s="89"/>
+      <c r="X78" s="89"/>
+      <c r="Y78" s="89"/>
+      <c r="Z78" s="89"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G79" s="5"/>
+      <c r="A79" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79" s="45"/>
+      <c r="F79" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="G79" s="88"/>
+      <c r="H79" s="89"/>
+      <c r="I79" s="89"/>
+      <c r="J79" s="89"/>
+      <c r="K79" s="89"/>
+      <c r="L79" s="89"/>
+      <c r="M79" s="89"/>
+      <c r="N79" s="89"/>
+      <c r="O79" s="89"/>
+      <c r="P79" s="89"/>
+      <c r="Q79" s="89"/>
+      <c r="R79" s="89"/>
+      <c r="S79" s="89"/>
+      <c r="T79" s="89"/>
+      <c r="U79" s="89"/>
+      <c r="V79" s="89"/>
+      <c r="W79" s="89"/>
+      <c r="X79" s="89"/>
+      <c r="Y79" s="89"/>
+      <c r="Z79" s="89"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B83" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D83" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="B82" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="C82" s="90" t="s">
-        <v>221</v>
-      </c>
-      <c r="D82" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" s="45"/>
-      <c r="F82" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="88"/>
-      <c r="H82" s="89"/>
-      <c r="I82" s="89"/>
-      <c r="J82" s="89"/>
-      <c r="K82" s="89"/>
-      <c r="L82" s="89"/>
-      <c r="M82" s="89"/>
-      <c r="N82" s="89"/>
-      <c r="O82" s="89"/>
-      <c r="P82" s="89"/>
-      <c r="Q82" s="89"/>
-      <c r="R82" s="89"/>
-      <c r="S82" s="89"/>
-      <c r="T82" s="89"/>
-      <c r="U82" s="89"/>
-      <c r="V82" s="89"/>
-      <c r="W82" s="89"/>
-      <c r="X82" s="89"/>
-      <c r="Y82" s="89"/>
-      <c r="Z82" s="89"/>
-    </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="B83" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="C83" s="90" t="s">
-        <v>224</v>
-      </c>
-      <c r="D83" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="45"/>
-      <c r="F83" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="H83" s="89"/>
-      <c r="I83" s="89"/>
-      <c r="J83" s="89"/>
-      <c r="K83" s="89"/>
-      <c r="L83" s="89"/>
-      <c r="M83" s="89"/>
-      <c r="N83" s="89"/>
-      <c r="O83" s="89"/>
-      <c r="P83" s="89"/>
-      <c r="Q83" s="89"/>
-      <c r="R83" s="89"/>
-      <c r="S83" s="89"/>
-      <c r="T83" s="89"/>
-      <c r="U83" s="89"/>
-      <c r="V83" s="89"/>
-      <c r="W83" s="89"/>
-      <c r="X83" s="89"/>
-      <c r="Y83" s="89"/>
-      <c r="Z83" s="89"/>
+      <c r="G83" s="5"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="C84" s="90" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="E84" s="45"/>
       <c r="F84" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="G84" s="45" t="s">
-        <v>230</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" s="88"/>
       <c r="H84" s="89"/>
       <c r="I84" s="89"/>
       <c r="J84" s="89"/>
@@ -6019,22 +5997,24 @@
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="45" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" s="45" t="s">
-        <v>232</v>
+        <v>223</v>
+      </c>
+      <c r="C85" s="90" t="s">
+        <v>224</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E85" s="92"/>
+        <v>11</v>
+      </c>
+      <c r="E85" s="45"/>
       <c r="F85" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G85" s="88"/>
+        <v>13</v>
+      </c>
+      <c r="G85" s="45" t="s">
+        <v>225</v>
+      </c>
       <c r="H85" s="89"/>
       <c r="I85" s="89"/>
       <c r="J85" s="89"/>
@@ -6057,22 +6037,24 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="45" t="s">
-        <v>235</v>
+        <v>28</v>
+      </c>
+      <c r="C86" s="90" t="s">
+        <v>227</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="92"/>
+        <v>228</v>
+      </c>
+      <c r="E86" s="45"/>
       <c r="F86" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="G86" s="88"/>
+        <v>229</v>
+      </c>
+      <c r="G86" s="45" t="s">
+        <v>230</v>
+      </c>
       <c r="H86" s="89"/>
       <c r="I86" s="89"/>
       <c r="J86" s="89"/>
@@ -6095,20 +6077,20 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="C87" s="90" t="s">
-        <v>238</v>
+        <v>193</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>232</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="45"/>
+        <v>30</v>
+      </c>
+      <c r="E87" s="92"/>
       <c r="F87" s="44" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="G87" s="88"/>
       <c r="H87" s="89"/>
@@ -6133,20 +6115,20 @@
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B88" s="45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C88" s="45" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D88" s="45" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E88" s="92"/>
       <c r="F88" s="44" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="G88" s="88"/>
       <c r="H88" s="89"/>
@@ -6171,20 +6153,20 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C89" s="90" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E89" s="45"/>
       <c r="F89" s="44" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="G89" s="88"/>
       <c r="H89" s="89"/>
@@ -6209,20 +6191,20 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="E90" s="45"/>
+        <v>30</v>
+      </c>
+      <c r="E90" s="92"/>
       <c r="F90" s="44" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="G90" s="88"/>
       <c r="H90" s="89"/>
@@ -6247,20 +6229,20 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="C91" s="45" t="s">
-        <v>248</v>
+        <v>243</v>
+      </c>
+      <c r="C91" s="90" t="s">
+        <v>244</v>
       </c>
       <c r="D91" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E91" s="45"/>
       <c r="F91" s="44" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="G91" s="88"/>
       <c r="H91" s="89"/>
@@ -6285,20 +6267,20 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E92" s="92"/>
+        <v>247</v>
+      </c>
+      <c r="E92" s="45"/>
       <c r="F92" s="44" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="G92" s="88"/>
       <c r="H92" s="89"/>
@@ -6323,20 +6305,20 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="45" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E93" s="92"/>
+        <v>30</v>
+      </c>
+      <c r="E93" s="45"/>
       <c r="F93" s="44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G93" s="88"/>
       <c r="H93" s="89"/>
@@ -6360,62 +6342,132 @@
       <c r="Z93" s="89"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="G94" s="5"/>
+      <c r="A94" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="D94" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E94" s="92"/>
+      <c r="F94" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="G94" s="88"/>
+      <c r="H94" s="89"/>
+      <c r="I94" s="89"/>
+      <c r="J94" s="89"/>
+      <c r="K94" s="89"/>
+      <c r="L94" s="89"/>
+      <c r="M94" s="89"/>
+      <c r="N94" s="89"/>
+      <c r="O94" s="89"/>
+      <c r="P94" s="89"/>
+      <c r="Q94" s="89"/>
+      <c r="R94" s="89"/>
+      <c r="S94" s="89"/>
+      <c r="T94" s="89"/>
+      <c r="U94" s="89"/>
+      <c r="V94" s="89"/>
+      <c r="W94" s="89"/>
+      <c r="X94" s="89"/>
+      <c r="Y94" s="89"/>
+      <c r="Z94" s="89"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="93"/>
-      <c r="G95" s="5"/>
+      <c r="A95" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="D95" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E95" s="92"/>
+      <c r="F95" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="G95" s="88"/>
+      <c r="H95" s="89"/>
+      <c r="I95" s="89"/>
+      <c r="J95" s="89"/>
+      <c r="K95" s="89"/>
+      <c r="L95" s="89"/>
+      <c r="M95" s="89"/>
+      <c r="N95" s="89"/>
+      <c r="O95" s="89"/>
+      <c r="P95" s="89"/>
+      <c r="Q95" s="89"/>
+      <c r="R95" s="89"/>
+      <c r="S95" s="89"/>
+      <c r="T95" s="89"/>
+      <c r="U95" s="89"/>
+      <c r="V95" s="89"/>
+      <c r="W95" s="89"/>
+      <c r="X95" s="89"/>
+      <c r="Y95" s="89"/>
+      <c r="Z95" s="89"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="93"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9087,6 +9139,12 @@
     </row>
     <row r="1002" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1002" s="5"/>
+    </row>
+    <row r="1003" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1003" s="5"/>
+    </row>
+    <row r="1004" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1004" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/documentation/Record Of Tasks.xlsx
+++ b/documentation/Record Of Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SERVERMS30\usuarios$\secundaria\nicolas.philippe\Documents\GitHub\internal-java\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A464B9E-3D15-4F3D-87F0-802F7D6CB436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F97DF48-617C-4FAF-8C02-702FA0C9309D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="264">
   <si>
     <t>Waterfall Methodology</t>
   </si>
@@ -1746,42 +1746,6 @@
     <t>BaseView Implemented and all view inherits from it</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Quattrocento Sans"/>
-      </rPr>
-      <t xml:space="preserve">Documentation according to client review and features implemented </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Segoe UI"/>
-      </rPr>
-      <t>to now:  AppStatus State Machinel, UML View Class Model</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Segoe UI"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Segoe UI"/>
-      </rPr>
-      <t xml:space="preserve">Sketch-View </t>
-    </r>
-  </si>
-  <si>
     <t>Implement the database</t>
   </si>
   <si>
@@ -2303,22 +2267,116 @@
     <t>04/27/2025</t>
   </si>
   <si>
-    <t>Implement Chekers Logic</t>
-  </si>
-  <si>
-    <t>5/27/2025</t>
-  </si>
-  <si>
-    <t>Working Checkers Game</t>
-  </si>
-  <si>
-    <t>Implement Scoring</t>
-  </si>
-  <si>
-    <t>Scoring implemented</t>
-  </si>
-  <si>
-    <t>20 mn</t>
+    <t>Install mysql</t>
+  </si>
+  <si>
+    <t>sql installed and running</t>
+  </si>
+  <si>
+    <t>05/27/2025</t>
+  </si>
+  <si>
+    <t>Create physical database model</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Documentation according to client review and features implemented </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>to now:  AppStatus State Machine, UML View Class Model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve">Sketch-View </t>
+    </r>
+  </si>
+  <si>
+    <t>importing physical database model and some initial data</t>
+  </si>
+  <si>
+    <t>07/27/2025</t>
+  </si>
+  <si>
+    <t>create the interface and the required sql statement</t>
+  </si>
+  <si>
+    <t>Using the mockup, we extract its interface to create the db interface, and we created all the required sql statements</t>
+  </si>
+  <si>
+    <t>08/27/2025</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Quattrocento Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>Script for generating scheme, script for inserting default data, script for selecting the data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Quattrocento Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Quattrocento Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>Physical DB entity mode</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Quattrocento Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Quattrocento Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> using https://sqldbm.com/
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2328,7 +2386,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2499,6 +2557,27 @@
       <name val="Quattrocento Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Quattrocento Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Quattrocento Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2631,7 +2710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2892,6 +2971,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3107,10 +3187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5129,7 +5209,7 @@
         <v>150</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>46</v>
@@ -5168,53 +5248,71 @@
         <v>108</v>
       </c>
       <c r="B54" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" s="96" t="s">
         <v>250</v>
-      </c>
-      <c r="C54" s="96" t="s">
-        <v>251</v>
       </c>
       <c r="D54" s="96" t="s">
         <v>42</v>
       </c>
       <c r="E54" s="97" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F54" s="41" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="D55" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="97" t="s">
-        <v>254</v>
-      </c>
-      <c r="F55" s="41" t="s">
+    <row r="55" spans="1:26" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="76"/>
+      <c r="F55" s="77" t="s">
         <v>107</v>
       </c>
+      <c r="G55" s="78"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
+      <c r="M55" s="79"/>
+      <c r="N55" s="79"/>
+      <c r="O55" s="79"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="79"/>
+      <c r="R55" s="79"/>
+      <c r="S55" s="79"/>
+      <c r="T55" s="79"/>
+      <c r="U55" s="79"/>
+      <c r="V55" s="79"/>
+      <c r="W55" s="79"/>
+      <c r="X55" s="79"/>
+      <c r="Y55" s="79"/>
+      <c r="Z55" s="79"/>
     </row>
     <row r="56" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B56" s="94" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C56" s="96" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D56" s="96" t="s">
-        <v>258</v>
+        <v>72</v>
       </c>
       <c r="E56" s="97" t="s">
         <v>254</v>
@@ -5223,98 +5321,62 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="75" t="s">
+    <row r="57" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="D57" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="F57" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="F58" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="76"/>
-      <c r="F57" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="G57" s="78"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="79"/>
-      <c r="R57" s="79"/>
-      <c r="S57" s="79"/>
-      <c r="T57" s="79"/>
-      <c r="U57" s="79"/>
-      <c r="V57" s="79"/>
-      <c r="W57" s="79"/>
-      <c r="X57" s="79"/>
-      <c r="Y57" s="79"/>
-      <c r="Z57" s="79"/>
-    </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+      <c r="B59" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="C59" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D58" s="25" t="s">
+      <c r="D59" s="25" t="s">
         <v>30</v>
-      </c>
-      <c r="E58" s="80"/>
-      <c r="F58" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G58" s="81"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="82"/>
-      <c r="O58" s="82"/>
-      <c r="P58" s="82"/>
-      <c r="Q58" s="82"/>
-      <c r="R58" s="82"/>
-      <c r="S58" s="82"/>
-      <c r="T58" s="82"/>
-      <c r="U58" s="82"/>
-      <c r="V58" s="82"/>
-      <c r="W58" s="82"/>
-      <c r="X58" s="82"/>
-      <c r="Y58" s="82"/>
-      <c r="Z58" s="82"/>
-    </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>177</v>
       </c>
       <c r="E59" s="80"/>
       <c r="F59" s="28" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="G59" s="81"/>
       <c r="H59" s="82"/>
@@ -5337,108 +5399,150 @@
       <c r="Y59" s="82"/>
       <c r="Z59" s="82"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
+    <row r="60" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="98" t="s">
+        <v>259</v>
+      </c>
+      <c r="C60" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="D60" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="97" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="80"/>
+      <c r="F61" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="G61" s="81"/>
+      <c r="H61" s="82"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="82"/>
+      <c r="L61" s="82"/>
+      <c r="M61" s="82"/>
+      <c r="N61" s="82"/>
+      <c r="O61" s="82"/>
+      <c r="P61" s="82"/>
+      <c r="Q61" s="82"/>
+      <c r="R61" s="82"/>
+      <c r="S61" s="82"/>
+      <c r="T61" s="82"/>
+      <c r="U61" s="82"/>
+      <c r="V61" s="82"/>
+      <c r="W61" s="82"/>
+      <c r="X61" s="82"/>
+      <c r="Y61" s="82"/>
+      <c r="Z61" s="82"/>
+    </row>
+    <row r="62" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="C62" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="D62" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="80"/>
+      <c r="F62" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="G62" s="81"/>
+      <c r="H62" s="82"/>
+      <c r="I62" s="82"/>
+      <c r="J62" s="82"/>
+      <c r="K62" s="82"/>
+      <c r="L62" s="82"/>
+      <c r="M62" s="82"/>
+      <c r="N62" s="82"/>
+      <c r="O62" s="82"/>
+      <c r="P62" s="82"/>
+      <c r="Q62" s="82"/>
+      <c r="R62" s="82"/>
+      <c r="S62" s="82"/>
+      <c r="T62" s="82"/>
+      <c r="U62" s="82"/>
+      <c r="V62" s="82"/>
+      <c r="W62" s="82"/>
+      <c r="X62" s="82"/>
+      <c r="Y62" s="82"/>
+      <c r="Z62" s="82"/>
+    </row>
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E60" s="80"/>
-      <c r="F60" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="G60" s="81"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="82"/>
-      <c r="P60" s="82"/>
-      <c r="Q60" s="82"/>
-      <c r="R60" s="82"/>
-      <c r="S60" s="82"/>
-      <c r="T60" s="82"/>
-      <c r="U60" s="82"/>
-      <c r="V60" s="82"/>
-      <c r="W60" s="82"/>
-      <c r="X60" s="82"/>
-      <c r="Y60" s="82"/>
-      <c r="Z60" s="82"/>
-    </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="G61" s="83"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="84"/>
-      <c r="K61" s="84"/>
-      <c r="L61" s="84"/>
-      <c r="M61" s="84"/>
-      <c r="N61" s="84"/>
-      <c r="O61" s="84"/>
-      <c r="P61" s="84"/>
-      <c r="Q61" s="84"/>
-      <c r="R61" s="84"/>
-      <c r="S61" s="84"/>
-      <c r="T61" s="84"/>
-      <c r="U61" s="84"/>
-      <c r="V61" s="84"/>
-      <c r="W61" s="84"/>
-      <c r="X61" s="84"/>
-      <c r="Y61" s="84"/>
-      <c r="Z61" s="84"/>
-    </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="85"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="85"/>
-      <c r="B63" s="85"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="5"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G63" s="83"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="84"/>
+      <c r="O63" s="84"/>
+      <c r="P63" s="84"/>
+      <c r="Q63" s="84"/>
+      <c r="R63" s="84"/>
+      <c r="S63" s="84"/>
+      <c r="T63" s="84"/>
+      <c r="U63" s="84"/>
+      <c r="V63" s="84"/>
+      <c r="W63" s="84"/>
+      <c r="X63" s="84"/>
+      <c r="Y63" s="84"/>
+      <c r="Z63" s="84"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="A64" s="85"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="87"/>
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="A65" s="85"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="87"/>
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5446,118 +5550,52 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B69" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D69" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F67" s="7" t="s">
+      <c r="F69" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="B68" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E68" s="45"/>
-      <c r="F68" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="88"/>
-      <c r="H68" s="89"/>
-      <c r="I68" s="89"/>
-      <c r="J68" s="89"/>
-      <c r="K68" s="89"/>
-      <c r="L68" s="89"/>
-      <c r="M68" s="89"/>
-      <c r="N68" s="89"/>
-      <c r="O68" s="89"/>
-      <c r="P68" s="89"/>
-      <c r="Q68" s="89"/>
-      <c r="R68" s="89"/>
-      <c r="S68" s="89"/>
-      <c r="T68" s="89"/>
-      <c r="U68" s="89"/>
-      <c r="V68" s="89"/>
-      <c r="W68" s="89"/>
-      <c r="X68" s="89"/>
-      <c r="Y68" s="89"/>
-      <c r="Z68" s="89"/>
-    </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="B69" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C69" s="90" t="s">
-        <v>194</v>
-      </c>
-      <c r="D69" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E69" s="45"/>
-      <c r="F69" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="G69" s="88"/>
-      <c r="H69" s="89"/>
-      <c r="I69" s="89"/>
-      <c r="J69" s="89"/>
-      <c r="K69" s="89"/>
-      <c r="L69" s="89"/>
-      <c r="M69" s="89"/>
-      <c r="N69" s="89"/>
-      <c r="O69" s="89"/>
-      <c r="P69" s="89"/>
-      <c r="Q69" s="89"/>
-      <c r="R69" s="89"/>
-      <c r="S69" s="89"/>
-      <c r="T69" s="89"/>
-      <c r="U69" s="89"/>
-      <c r="V69" s="89"/>
-      <c r="W69" s="89"/>
-      <c r="X69" s="89"/>
-      <c r="Y69" s="89"/>
-      <c r="Z69" s="89"/>
+      <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D70" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E70" s="45"/>
       <c r="F70" s="44" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="G70" s="88"/>
       <c r="H70" s="89"/>
@@ -5582,20 +5620,20 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="45" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C71" s="90" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D71" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E71" s="45"/>
       <c r="F71" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G71" s="88"/>
       <c r="H71" s="89"/>
@@ -5620,20 +5658,20 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="B72" s="45" t="s">
-        <v>203</v>
-      </c>
       <c r="C72" s="45" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D72" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E72" s="45"/>
       <c r="F72" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G72" s="88"/>
       <c r="H72" s="89"/>
@@ -5658,20 +5696,20 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="45" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C73" s="90" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D73" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E73" s="45"/>
       <c r="F73" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G73" s="88"/>
       <c r="H73" s="89"/>
@@ -5696,20 +5734,20 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D74" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E74" s="45"/>
       <c r="F74" s="44" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G74" s="88"/>
       <c r="H74" s="89"/>
@@ -5734,20 +5772,20 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="45" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="C75" s="91" t="s">
-        <v>212</v>
+        <v>205</v>
+      </c>
+      <c r="C75" s="90" t="s">
+        <v>206</v>
       </c>
       <c r="D75" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E75" s="45"/>
       <c r="F75" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G75" s="88"/>
       <c r="H75" s="89"/>
@@ -5772,20 +5810,20 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D76" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E76" s="45"/>
       <c r="F76" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G76" s="88"/>
       <c r="H76" s="89"/>
@@ -5810,20 +5848,20 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C77" s="91" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D77" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E77" s="45"/>
       <c r="F77" s="44" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="G77" s="88"/>
       <c r="H77" s="89"/>
@@ -5848,20 +5886,20 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="45" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="D78" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E78" s="45"/>
       <c r="F78" s="44" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G78" s="88"/>
       <c r="H78" s="89"/>
@@ -5886,20 +5924,20 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="C79" s="45" t="s">
-        <v>185</v>
+        <v>214</v>
+      </c>
+      <c r="C79" s="91" t="s">
+        <v>215</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E79" s="45"/>
       <c r="F79" s="44" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="G79" s="88"/>
       <c r="H79" s="89"/>
@@ -5923,138 +5961,134 @@
       <c r="Z79" s="89"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="G80" s="5"/>
+      <c r="A80" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80" s="45"/>
+      <c r="F80" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="G80" s="88"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="89"/>
+      <c r="J80" s="89"/>
+      <c r="K80" s="89"/>
+      <c r="L80" s="89"/>
+      <c r="M80" s="89"/>
+      <c r="N80" s="89"/>
+      <c r="O80" s="89"/>
+      <c r="P80" s="89"/>
+      <c r="Q80" s="89"/>
+      <c r="R80" s="89"/>
+      <c r="S80" s="89"/>
+      <c r="T80" s="89"/>
+      <c r="U80" s="89"/>
+      <c r="V80" s="89"/>
+      <c r="W80" s="89"/>
+      <c r="X80" s="89"/>
+      <c r="Y80" s="89"/>
+      <c r="Z80" s="89"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G81" s="5"/>
+      <c r="A81" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" s="45"/>
+      <c r="F81" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="G81" s="88"/>
+      <c r="H81" s="89"/>
+      <c r="I81" s="89"/>
+      <c r="J81" s="89"/>
+      <c r="K81" s="89"/>
+      <c r="L81" s="89"/>
+      <c r="M81" s="89"/>
+      <c r="N81" s="89"/>
+      <c r="O81" s="89"/>
+      <c r="P81" s="89"/>
+      <c r="Q81" s="89"/>
+      <c r="R81" s="89"/>
+      <c r="S81" s="89"/>
+      <c r="T81" s="89"/>
+      <c r="U81" s="89"/>
+      <c r="V81" s="89"/>
+      <c r="W81" s="89"/>
+      <c r="X81" s="89"/>
+      <c r="Y81" s="89"/>
+      <c r="Z81" s="89"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B85" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D85" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F83" s="7" t="s">
+      <c r="F85" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="B84" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="C84" s="90" t="s">
-        <v>221</v>
-      </c>
-      <c r="D84" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84" s="45"/>
-      <c r="F84" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="88"/>
-      <c r="H84" s="89"/>
-      <c r="I84" s="89"/>
-      <c r="J84" s="89"/>
-      <c r="K84" s="89"/>
-      <c r="L84" s="89"/>
-      <c r="M84" s="89"/>
-      <c r="N84" s="89"/>
-      <c r="O84" s="89"/>
-      <c r="P84" s="89"/>
-      <c r="Q84" s="89"/>
-      <c r="R84" s="89"/>
-      <c r="S84" s="89"/>
-      <c r="T84" s="89"/>
-      <c r="U84" s="89"/>
-      <c r="V84" s="89"/>
-      <c r="W84" s="89"/>
-      <c r="X84" s="89"/>
-      <c r="Y84" s="89"/>
-      <c r="Z84" s="89"/>
-    </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="B85" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="C85" s="90" t="s">
-        <v>224</v>
-      </c>
-      <c r="D85" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="45"/>
-      <c r="F85" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="H85" s="89"/>
-      <c r="I85" s="89"/>
-      <c r="J85" s="89"/>
-      <c r="K85" s="89"/>
-      <c r="L85" s="89"/>
-      <c r="M85" s="89"/>
-      <c r="N85" s="89"/>
-      <c r="O85" s="89"/>
-      <c r="P85" s="89"/>
-      <c r="Q85" s="89"/>
-      <c r="R85" s="89"/>
-      <c r="S85" s="89"/>
-      <c r="T85" s="89"/>
-      <c r="U85" s="89"/>
-      <c r="V85" s="89"/>
-      <c r="W85" s="89"/>
-      <c r="X85" s="89"/>
-      <c r="Y85" s="89"/>
-      <c r="Z85" s="89"/>
+      <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="C86" s="90" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="E86" s="45"/>
       <c r="F86" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="G86" s="45" t="s">
-        <v>230</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" s="88"/>
       <c r="H86" s="89"/>
       <c r="I86" s="89"/>
       <c r="J86" s="89"/>
@@ -6077,22 +6111,24 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C87" s="45" t="s">
-        <v>232</v>
+        <v>222</v>
+      </c>
+      <c r="C87" s="90" t="s">
+        <v>223</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" s="92"/>
+        <v>11</v>
+      </c>
+      <c r="E87" s="45"/>
       <c r="F87" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G87" s="88"/>
+        <v>13</v>
+      </c>
+      <c r="G87" s="45" t="s">
+        <v>224</v>
+      </c>
       <c r="H87" s="89"/>
       <c r="I87" s="89"/>
       <c r="J87" s="89"/>
@@ -6115,22 +6151,24 @@
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B88" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="C88" s="45" t="s">
-        <v>235</v>
+        <v>28</v>
+      </c>
+      <c r="C88" s="90" t="s">
+        <v>226</v>
       </c>
       <c r="D88" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="92"/>
+        <v>227</v>
+      </c>
+      <c r="E88" s="45"/>
       <c r="F88" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="G88" s="88"/>
+        <v>228</v>
+      </c>
+      <c r="G88" s="45" t="s">
+        <v>229</v>
+      </c>
       <c r="H88" s="89"/>
       <c r="I88" s="89"/>
       <c r="J88" s="89"/>
@@ -6153,20 +6191,20 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="C89" s="90" t="s">
-        <v>238</v>
+        <v>192</v>
+      </c>
+      <c r="C89" s="45" t="s">
+        <v>231</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="45"/>
+        <v>30</v>
+      </c>
+      <c r="E89" s="92"/>
       <c r="F89" s="44" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="G89" s="88"/>
       <c r="H89" s="89"/>
@@ -6191,20 +6229,20 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E90" s="92"/>
       <c r="F90" s="44" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="G90" s="88"/>
       <c r="H90" s="89"/>
@@ -6229,20 +6267,20 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C91" s="90" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D91" s="45" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E91" s="45"/>
       <c r="F91" s="44" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="G91" s="88"/>
       <c r="H91" s="89"/>
@@ -6267,20 +6305,20 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="E92" s="45"/>
+        <v>30</v>
+      </c>
+      <c r="E92" s="92"/>
       <c r="F92" s="44" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="G92" s="88"/>
       <c r="H92" s="89"/>
@@ -6305,20 +6343,20 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="45" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="C93" s="45" t="s">
-        <v>248</v>
+        <v>242</v>
+      </c>
+      <c r="C93" s="90" t="s">
+        <v>243</v>
       </c>
       <c r="D93" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E93" s="45"/>
       <c r="F93" s="44" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="G93" s="88"/>
       <c r="H93" s="89"/>
@@ -6343,20 +6381,20 @@
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="45" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="B94" s="45" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D94" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E94" s="92"/>
+        <v>246</v>
+      </c>
+      <c r="E94" s="45"/>
       <c r="F94" s="44" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="G94" s="88"/>
       <c r="H94" s="89"/>
@@ -6381,20 +6419,20 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B95" s="45" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E95" s="92"/>
+        <v>30</v>
+      </c>
+      <c r="E95" s="45"/>
       <c r="F95" s="44" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G95" s="88"/>
       <c r="H95" s="89"/>
@@ -6418,56 +6456,126 @@
       <c r="Z95" s="89"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="93"/>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="D96" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E96" s="92"/>
+      <c r="F96" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="G96" s="88"/>
+      <c r="H96" s="89"/>
+      <c r="I96" s="89"/>
+      <c r="J96" s="89"/>
+      <c r="K96" s="89"/>
+      <c r="L96" s="89"/>
+      <c r="M96" s="89"/>
+      <c r="N96" s="89"/>
+      <c r="O96" s="89"/>
+      <c r="P96" s="89"/>
+      <c r="Q96" s="89"/>
+      <c r="R96" s="89"/>
+      <c r="S96" s="89"/>
+      <c r="T96" s="89"/>
+      <c r="U96" s="89"/>
+      <c r="V96" s="89"/>
+      <c r="W96" s="89"/>
+      <c r="X96" s="89"/>
+      <c r="Y96" s="89"/>
+      <c r="Z96" s="89"/>
+    </row>
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B97" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C97" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E97" s="92"/>
+      <c r="F97" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="G97" s="88"/>
+      <c r="H97" s="89"/>
+      <c r="I97" s="89"/>
+      <c r="J97" s="89"/>
+      <c r="K97" s="89"/>
+      <c r="L97" s="89"/>
+      <c r="M97" s="89"/>
+      <c r="N97" s="89"/>
+      <c r="O97" s="89"/>
+      <c r="P97" s="89"/>
+      <c r="Q97" s="89"/>
+      <c r="R97" s="89"/>
+      <c r="S97" s="89"/>
+      <c r="T97" s="89"/>
+      <c r="U97" s="89"/>
+      <c r="V97" s="89"/>
+      <c r="W97" s="89"/>
+      <c r="X97" s="89"/>
+      <c r="Y97" s="89"/>
+      <c r="Z97" s="89"/>
+    </row>
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="93"/>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9145,6 +9253,12 @@
     </row>
     <row r="1004" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1004" s="5"/>
+    </row>
+    <row r="1005" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1005" s="5"/>
+    </row>
+    <row r="1006" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1006" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/documentation/Record Of Tasks.xlsx
+++ b/documentation/Record Of Tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SERVERMS30\usuarios$\secundaria\nicolas.philippe\Documents\GitHub\internal-java\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F97DF48-617C-4FAF-8C02-702FA0C9309D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CB050D-3AF1-4A26-A371-F9A0CD039840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="253">
   <si>
     <t>Waterfall Methodology</t>
   </si>
@@ -1746,6 +1746,42 @@
     <t>BaseView Implemented and all view inherits from it</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Quattrocento Sans"/>
+      </rPr>
+      <t xml:space="preserve">Documentation according to client review and features implemented </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>to now:  AppStatus State Machinel, UML View Class Model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve">Sketch-View </t>
+    </r>
+  </si>
+  <si>
     <t>Implement the database</t>
   </si>
   <si>
@@ -2265,118 +2301,6 @@
   </si>
   <si>
     <t>04/27/2025</t>
-  </si>
-  <si>
-    <t>Install mysql</t>
-  </si>
-  <si>
-    <t>sql installed and running</t>
-  </si>
-  <si>
-    <t>05/27/2025</t>
-  </si>
-  <si>
-    <t>Create physical database model</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Documentation according to client review and features implemented </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Segoe UI"/>
-      </rPr>
-      <t>to now:  AppStatus State Machine, UML View Class Model</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Segoe UI"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Segoe UI"/>
-      </rPr>
-      <t xml:space="preserve">Sketch-View </t>
-    </r>
-  </si>
-  <si>
-    <t>importing physical database model and some initial data</t>
-  </si>
-  <si>
-    <t>07/27/2025</t>
-  </si>
-  <si>
-    <t>create the interface and the required sql statement</t>
-  </si>
-  <si>
-    <t>Using the mockup, we extract its interface to create the db interface, and we created all the required sql statements</t>
-  </si>
-  <si>
-    <t>08/27/2025</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Quattrocento Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Script for generating scheme, script for inserting default data, script for selecting the data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Quattrocento Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Quattrocento Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Physical DB entity mode</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Quattrocento Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Quattrocento Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> using https://sqldbm.com/
-</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -2386,7 +2310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2557,27 +2481,6 @@
       <name val="Quattrocento Sans"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Quattrocento Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Quattrocento Sans"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2710,7 +2613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2959,19 +2862,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3187,10 +3089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1006"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5209,7 +5111,7 @@
         <v>150</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>46</v>
@@ -5248,30 +5150,30 @@
         <v>108</v>
       </c>
       <c r="B54" s="94" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C54" s="96" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D54" s="96" t="s">
         <v>42</v>
       </c>
       <c r="E54" s="97" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F54" s="41" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="75" t="s">
         <v>140</v>
       </c>
       <c r="B55" s="75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C55" s="75" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="75" t="s">
         <v>11</v>
@@ -5301,301 +5203,379 @@
       <c r="Y55" s="79"/>
       <c r="Z55" s="79"/>
     </row>
-    <row r="56" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="C56" s="96" t="s">
-        <v>253</v>
-      </c>
-      <c r="D56" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="97" t="s">
-        <v>254</v>
-      </c>
-      <c r="F56" s="41" t="s">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="80"/>
+      <c r="F56" s="28" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C57" s="96" t="s">
-        <v>263</v>
-      </c>
-      <c r="D57" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" s="97" t="s">
-        <v>254</v>
-      </c>
-      <c r="F57" s="41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C58" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="D58" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" s="97" t="s">
-        <v>258</v>
-      </c>
-      <c r="F58" s="41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D59" s="25" t="s">
+      <c r="G56" s="81"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="82"/>
+      <c r="L56" s="82"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="82"/>
+      <c r="O56" s="82"/>
+      <c r="P56" s="82"/>
+      <c r="Q56" s="82"/>
+      <c r="R56" s="82"/>
+      <c r="S56" s="82"/>
+      <c r="T56" s="82"/>
+      <c r="U56" s="82"/>
+      <c r="V56" s="82"/>
+      <c r="W56" s="82"/>
+      <c r="X56" s="82"/>
+      <c r="Y56" s="82"/>
+      <c r="Z56" s="82"/>
+    </row>
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="80"/>
+      <c r="F57" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="81"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="82"/>
+      <c r="P57" s="82"/>
+      <c r="Q57" s="82"/>
+      <c r="R57" s="82"/>
+      <c r="S57" s="82"/>
+      <c r="T57" s="82"/>
+      <c r="U57" s="82"/>
+      <c r="V57" s="82"/>
+      <c r="W57" s="82"/>
+      <c r="X57" s="82"/>
+      <c r="Y57" s="82"/>
+      <c r="Z57" s="82"/>
+    </row>
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="80"/>
+      <c r="F58" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" s="81"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="82"/>
+      <c r="O58" s="82"/>
+      <c r="P58" s="82"/>
+      <c r="Q58" s="82"/>
+      <c r="R58" s="82"/>
+      <c r="S58" s="82"/>
+      <c r="T58" s="82"/>
+      <c r="U58" s="82"/>
+      <c r="V58" s="82"/>
+      <c r="W58" s="82"/>
+      <c r="X58" s="82"/>
+      <c r="Y58" s="82"/>
+      <c r="Z58" s="82"/>
+    </row>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G59" s="83"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="84"/>
+      <c r="Q59" s="84"/>
+      <c r="R59" s="84"/>
+      <c r="S59" s="84"/>
+      <c r="T59" s="84"/>
+      <c r="U59" s="84"/>
+      <c r="V59" s="84"/>
+      <c r="W59" s="84"/>
+      <c r="X59" s="84"/>
+      <c r="Y59" s="84"/>
+      <c r="Z59" s="84"/>
+    </row>
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="85"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="85"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" s="45"/>
+      <c r="F66" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="88"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="89"/>
+      <c r="K66" s="89"/>
+      <c r="L66" s="89"/>
+      <c r="M66" s="89"/>
+      <c r="N66" s="89"/>
+      <c r="O66" s="89"/>
+      <c r="P66" s="89"/>
+      <c r="Q66" s="89"/>
+      <c r="R66" s="89"/>
+      <c r="S66" s="89"/>
+      <c r="T66" s="89"/>
+      <c r="U66" s="89"/>
+      <c r="V66" s="89"/>
+      <c r="W66" s="89"/>
+      <c r="X66" s="89"/>
+      <c r="Y66" s="89"/>
+      <c r="Z66" s="89"/>
+    </row>
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="D67" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E59" s="80"/>
-      <c r="F59" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G59" s="81"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="82"/>
-      <c r="L59" s="82"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="82"/>
-      <c r="O59" s="82"/>
-      <c r="P59" s="82"/>
-      <c r="Q59" s="82"/>
-      <c r="R59" s="82"/>
-      <c r="S59" s="82"/>
-      <c r="T59" s="82"/>
-      <c r="U59" s="82"/>
-      <c r="V59" s="82"/>
-      <c r="W59" s="82"/>
-      <c r="X59" s="82"/>
-      <c r="Y59" s="82"/>
-      <c r="Z59" s="82"/>
-    </row>
-    <row r="60" spans="1:26" s="98" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="98" t="s">
-        <v>259</v>
-      </c>
-      <c r="C60" s="98" t="s">
-        <v>260</v>
-      </c>
-      <c r="D60" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="E60" s="97" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="E61" s="80"/>
-      <c r="F61" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="G61" s="81"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="82"/>
-      <c r="L61" s="82"/>
-      <c r="M61" s="82"/>
-      <c r="N61" s="82"/>
-      <c r="O61" s="82"/>
-      <c r="P61" s="82"/>
-      <c r="Q61" s="82"/>
-      <c r="R61" s="82"/>
-      <c r="S61" s="82"/>
-      <c r="T61" s="82"/>
-      <c r="U61" s="82"/>
-      <c r="V61" s="82"/>
-      <c r="W61" s="82"/>
-      <c r="X61" s="82"/>
-      <c r="Y61" s="82"/>
-      <c r="Z61" s="82"/>
-    </row>
-    <row r="62" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D62" s="25" t="s">
+      <c r="E67" s="45"/>
+      <c r="F67" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="G67" s="88"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="89"/>
+      <c r="K67" s="89"/>
+      <c r="L67" s="89"/>
+      <c r="M67" s="89"/>
+      <c r="N67" s="89"/>
+      <c r="O67" s="89"/>
+      <c r="P67" s="89"/>
+      <c r="Q67" s="89"/>
+      <c r="R67" s="89"/>
+      <c r="S67" s="89"/>
+      <c r="T67" s="89"/>
+      <c r="U67" s="89"/>
+      <c r="V67" s="89"/>
+      <c r="W67" s="89"/>
+      <c r="X67" s="89"/>
+      <c r="Y67" s="89"/>
+      <c r="Z67" s="89"/>
+    </row>
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="E62" s="80"/>
-      <c r="F62" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="G62" s="81"/>
-      <c r="H62" s="82"/>
-      <c r="I62" s="82"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="82"/>
-      <c r="L62" s="82"/>
-      <c r="M62" s="82"/>
-      <c r="N62" s="82"/>
-      <c r="O62" s="82"/>
-      <c r="P62" s="82"/>
-      <c r="Q62" s="82"/>
-      <c r="R62" s="82"/>
-      <c r="S62" s="82"/>
-      <c r="T62" s="82"/>
-      <c r="U62" s="82"/>
-      <c r="V62" s="82"/>
-      <c r="W62" s="82"/>
-      <c r="X62" s="82"/>
-      <c r="Y62" s="82"/>
-      <c r="Z62" s="82"/>
-    </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G63" s="83"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="84"/>
-      <c r="N63" s="84"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="84"/>
-      <c r="Q63" s="84"/>
-      <c r="R63" s="84"/>
-      <c r="S63" s="84"/>
-      <c r="T63" s="84"/>
-      <c r="U63" s="84"/>
-      <c r="V63" s="84"/>
-      <c r="W63" s="84"/>
-      <c r="X63" s="84"/>
-      <c r="Y63" s="84"/>
-      <c r="Z63" s="84"/>
-    </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="85"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="85"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="87"/>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="G68" s="5"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="G68" s="88"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="89"/>
+      <c r="J68" s="89"/>
+      <c r="K68" s="89"/>
+      <c r="L68" s="89"/>
+      <c r="M68" s="89"/>
+      <c r="N68" s="89"/>
+      <c r="O68" s="89"/>
+      <c r="P68" s="89"/>
+      <c r="Q68" s="89"/>
+      <c r="R68" s="89"/>
+      <c r="S68" s="89"/>
+      <c r="T68" s="89"/>
+      <c r="U68" s="89"/>
+      <c r="V68" s="89"/>
+      <c r="W68" s="89"/>
+      <c r="X68" s="89"/>
+      <c r="Y68" s="89"/>
+      <c r="Z68" s="89"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="5"/>
+      <c r="A69" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="45"/>
+      <c r="F69" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="G69" s="88"/>
+      <c r="H69" s="89"/>
+      <c r="I69" s="89"/>
+      <c r="J69" s="89"/>
+      <c r="K69" s="89"/>
+      <c r="L69" s="89"/>
+      <c r="M69" s="89"/>
+      <c r="N69" s="89"/>
+      <c r="O69" s="89"/>
+      <c r="P69" s="89"/>
+      <c r="Q69" s="89"/>
+      <c r="R69" s="89"/>
+      <c r="S69" s="89"/>
+      <c r="T69" s="89"/>
+      <c r="U69" s="89"/>
+      <c r="V69" s="89"/>
+      <c r="W69" s="89"/>
+      <c r="X69" s="89"/>
+      <c r="Y69" s="89"/>
+      <c r="Z69" s="89"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D70" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E70" s="45"/>
       <c r="F70" s="44" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="G70" s="88"/>
       <c r="H70" s="89"/>
@@ -5620,20 +5600,20 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="45" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C71" s="90" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D71" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E71" s="45"/>
       <c r="F71" s="44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G71" s="88"/>
       <c r="H71" s="89"/>
@@ -5658,20 +5638,20 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D72" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E72" s="45"/>
       <c r="F72" s="44" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="G72" s="88"/>
       <c r="H72" s="89"/>
@@ -5696,20 +5676,20 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="45" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" s="90" t="s">
-        <v>201</v>
+        <v>211</v>
+      </c>
+      <c r="C73" s="91" t="s">
+        <v>212</v>
       </c>
       <c r="D73" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E73" s="45"/>
       <c r="F73" s="44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G73" s="88"/>
       <c r="H73" s="89"/>
@@ -5734,20 +5714,20 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D74" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E74" s="45"/>
       <c r="F74" s="44" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="G74" s="88"/>
       <c r="H74" s="89"/>
@@ -5772,20 +5752,20 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="45" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="C75" s="90" t="s">
-        <v>206</v>
+        <v>215</v>
+      </c>
+      <c r="C75" s="91" t="s">
+        <v>216</v>
       </c>
       <c r="D75" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E75" s="45"/>
       <c r="F75" s="44" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="G75" s="88"/>
       <c r="H75" s="89"/>
@@ -5810,20 +5790,20 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="45" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="D76" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E76" s="45"/>
       <c r="F76" s="44" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G76" s="88"/>
       <c r="H76" s="89"/>
@@ -5848,20 +5828,20 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="C77" s="91" t="s">
-        <v>211</v>
+        <v>184</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>185</v>
       </c>
       <c r="D77" s="45" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E77" s="45"/>
       <c r="F77" s="44" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G77" s="88"/>
       <c r="H77" s="89"/>
@@ -5885,208 +5865,212 @@
       <c r="Z77" s="89"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="B78" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="C78" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="D78" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E78" s="45"/>
-      <c r="F78" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="G78" s="88"/>
-      <c r="H78" s="89"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="89"/>
-      <c r="K78" s="89"/>
-      <c r="L78" s="89"/>
-      <c r="M78" s="89"/>
-      <c r="N78" s="89"/>
-      <c r="O78" s="89"/>
-      <c r="P78" s="89"/>
-      <c r="Q78" s="89"/>
-      <c r="R78" s="89"/>
-      <c r="S78" s="89"/>
-      <c r="T78" s="89"/>
-      <c r="U78" s="89"/>
-      <c r="V78" s="89"/>
-      <c r="W78" s="89"/>
-      <c r="X78" s="89"/>
-      <c r="Y78" s="89"/>
-      <c r="Z78" s="89"/>
+      <c r="A78" s="4"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="B79" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="C79" s="91" t="s">
-        <v>215</v>
-      </c>
-      <c r="D79" s="45" t="s">
+      <c r="A79" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B82" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="45"/>
+      <c r="F82" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="88"/>
+      <c r="H82" s="89"/>
+      <c r="I82" s="89"/>
+      <c r="J82" s="89"/>
+      <c r="K82" s="89"/>
+      <c r="L82" s="89"/>
+      <c r="M82" s="89"/>
+      <c r="N82" s="89"/>
+      <c r="O82" s="89"/>
+      <c r="P82" s="89"/>
+      <c r="Q82" s="89"/>
+      <c r="R82" s="89"/>
+      <c r="S82" s="89"/>
+      <c r="T82" s="89"/>
+      <c r="U82" s="89"/>
+      <c r="V82" s="89"/>
+      <c r="W82" s="89"/>
+      <c r="X82" s="89"/>
+      <c r="Y82" s="89"/>
+      <c r="Z82" s="89"/>
+    </row>
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="45"/>
+      <c r="F83" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="H83" s="89"/>
+      <c r="I83" s="89"/>
+      <c r="J83" s="89"/>
+      <c r="K83" s="89"/>
+      <c r="L83" s="89"/>
+      <c r="M83" s="89"/>
+      <c r="N83" s="89"/>
+      <c r="O83" s="89"/>
+      <c r="P83" s="89"/>
+      <c r="Q83" s="89"/>
+      <c r="R83" s="89"/>
+      <c r="S83" s="89"/>
+      <c r="T83" s="89"/>
+      <c r="U83" s="89"/>
+      <c r="V83" s="89"/>
+      <c r="W83" s="89"/>
+      <c r="X83" s="89"/>
+      <c r="Y83" s="89"/>
+      <c r="Z83" s="89"/>
+    </row>
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="90" t="s">
+        <v>227</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E84" s="45"/>
+      <c r="F84" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="G84" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="H84" s="89"/>
+      <c r="I84" s="89"/>
+      <c r="J84" s="89"/>
+      <c r="K84" s="89"/>
+      <c r="L84" s="89"/>
+      <c r="M84" s="89"/>
+      <c r="N84" s="89"/>
+      <c r="O84" s="89"/>
+      <c r="P84" s="89"/>
+      <c r="Q84" s="89"/>
+      <c r="R84" s="89"/>
+      <c r="S84" s="89"/>
+      <c r="T84" s="89"/>
+      <c r="U84" s="89"/>
+      <c r="V84" s="89"/>
+      <c r="W84" s="89"/>
+      <c r="X84" s="89"/>
+      <c r="Y84" s="89"/>
+      <c r="Z84" s="89"/>
+    </row>
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="B85" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="45"/>
-      <c r="F79" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="G79" s="88"/>
-      <c r="H79" s="89"/>
-      <c r="I79" s="89"/>
-      <c r="J79" s="89"/>
-      <c r="K79" s="89"/>
-      <c r="L79" s="89"/>
-      <c r="M79" s="89"/>
-      <c r="N79" s="89"/>
-      <c r="O79" s="89"/>
-      <c r="P79" s="89"/>
-      <c r="Q79" s="89"/>
-      <c r="R79" s="89"/>
-      <c r="S79" s="89"/>
-      <c r="T79" s="89"/>
-      <c r="U79" s="89"/>
-      <c r="V79" s="89"/>
-      <c r="W79" s="89"/>
-      <c r="X79" s="89"/>
-      <c r="Y79" s="89"/>
-      <c r="Z79" s="89"/>
-    </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="B80" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="D80" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E80" s="45"/>
-      <c r="F80" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="G80" s="88"/>
-      <c r="H80" s="89"/>
-      <c r="I80" s="89"/>
-      <c r="J80" s="89"/>
-      <c r="K80" s="89"/>
-      <c r="L80" s="89"/>
-      <c r="M80" s="89"/>
-      <c r="N80" s="89"/>
-      <c r="O80" s="89"/>
-      <c r="P80" s="89"/>
-      <c r="Q80" s="89"/>
-      <c r="R80" s="89"/>
-      <c r="S80" s="89"/>
-      <c r="T80" s="89"/>
-      <c r="U80" s="89"/>
-      <c r="V80" s="89"/>
-      <c r="W80" s="89"/>
-      <c r="X80" s="89"/>
-      <c r="Y80" s="89"/>
-      <c r="Z80" s="89"/>
-    </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="B81" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C81" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="D81" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E81" s="45"/>
-      <c r="F81" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="G81" s="88"/>
-      <c r="H81" s="89"/>
-      <c r="I81" s="89"/>
-      <c r="J81" s="89"/>
-      <c r="K81" s="89"/>
-      <c r="L81" s="89"/>
-      <c r="M81" s="89"/>
-      <c r="N81" s="89"/>
-      <c r="O81" s="89"/>
-      <c r="P81" s="89"/>
-      <c r="Q81" s="89"/>
-      <c r="R81" s="89"/>
-      <c r="S81" s="89"/>
-      <c r="T81" s="89"/>
-      <c r="U81" s="89"/>
-      <c r="V81" s="89"/>
-      <c r="W81" s="89"/>
-      <c r="X81" s="89"/>
-      <c r="Y81" s="89"/>
-      <c r="Z81" s="89"/>
-    </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="5"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85" s="88"/>
+      <c r="H85" s="89"/>
+      <c r="I85" s="89"/>
+      <c r="J85" s="89"/>
+      <c r="K85" s="89"/>
+      <c r="L85" s="89"/>
+      <c r="M85" s="89"/>
+      <c r="N85" s="89"/>
+      <c r="O85" s="89"/>
+      <c r="P85" s="89"/>
+      <c r="Q85" s="89"/>
+      <c r="R85" s="89"/>
+      <c r="S85" s="89"/>
+      <c r="T85" s="89"/>
+      <c r="U85" s="89"/>
+      <c r="V85" s="89"/>
+      <c r="W85" s="89"/>
+      <c r="X85" s="89"/>
+      <c r="Y85" s="89"/>
+      <c r="Z85" s="89"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C86" s="90" t="s">
-        <v>220</v>
+        <v>234</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>235</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86" s="45"/>
+        <v>11</v>
+      </c>
+      <c r="E86" s="92"/>
       <c r="F86" s="44" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="G86" s="88"/>
       <c r="H86" s="89"/>
@@ -6111,24 +6095,22 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C87" s="90" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D87" s="45" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="45"/>
       <c r="F87" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="45" t="s">
-        <v>224</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G87" s="88"/>
       <c r="H87" s="89"/>
       <c r="I87" s="89"/>
       <c r="J87" s="89"/>
@@ -6151,24 +6133,22 @@
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B88" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C88" s="90" t="s">
-        <v>226</v>
+        <v>240</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>241</v>
       </c>
       <c r="D88" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="E88" s="45"/>
+        <v>30</v>
+      </c>
+      <c r="E88" s="92"/>
       <c r="F88" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="G88" s="45" t="s">
-        <v>229</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G88" s="88"/>
       <c r="H88" s="89"/>
       <c r="I88" s="89"/>
       <c r="J88" s="89"/>
@@ -6191,18 +6171,18 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C89" s="45" t="s">
-        <v>231</v>
+        <v>243</v>
+      </c>
+      <c r="C89" s="90" t="s">
+        <v>244</v>
       </c>
       <c r="D89" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E89" s="92"/>
+      <c r="E89" s="45"/>
       <c r="F89" s="44" t="s">
         <v>107</v>
       </c>
@@ -6229,20 +6209,20 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="92"/>
+        <v>247</v>
+      </c>
+      <c r="E90" s="45"/>
       <c r="F90" s="44" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="G90" s="88"/>
       <c r="H90" s="89"/>
@@ -6267,20 +6247,20 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="C91" s="90" t="s">
-        <v>237</v>
+        <v>175</v>
+      </c>
+      <c r="C91" s="45" t="s">
+        <v>248</v>
       </c>
       <c r="D91" s="45" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E91" s="45"/>
       <c r="F91" s="44" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="G91" s="88"/>
       <c r="H91" s="89"/>
@@ -6305,20 +6285,20 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E92" s="92"/>
       <c r="F92" s="44" t="s">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="G92" s="88"/>
       <c r="H92" s="89"/>
@@ -6343,20 +6323,20 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="45" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="C93" s="90" t="s">
-        <v>243</v>
+        <v>184</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>185</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E93" s="45"/>
+        <v>86</v>
+      </c>
+      <c r="E93" s="92"/>
       <c r="F93" s="44" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="G93" s="88"/>
       <c r="H93" s="89"/>
@@ -6380,202 +6360,62 @@
       <c r="Z93" s="89"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="B94" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="D94" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="E94" s="45"/>
-      <c r="F94" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G94" s="88"/>
-      <c r="H94" s="89"/>
-      <c r="I94" s="89"/>
-      <c r="J94" s="89"/>
-      <c r="K94" s="89"/>
-      <c r="L94" s="89"/>
-      <c r="M94" s="89"/>
-      <c r="N94" s="89"/>
-      <c r="O94" s="89"/>
-      <c r="P94" s="89"/>
-      <c r="Q94" s="89"/>
-      <c r="R94" s="89"/>
-      <c r="S94" s="89"/>
-      <c r="T94" s="89"/>
-      <c r="U94" s="89"/>
-      <c r="V94" s="89"/>
-      <c r="W94" s="89"/>
-      <c r="X94" s="89"/>
-      <c r="Y94" s="89"/>
-      <c r="Z94" s="89"/>
+      <c r="A94" s="4"/>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="B95" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="C95" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="D95" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E95" s="45"/>
-      <c r="F95" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="G95" s="88"/>
-      <c r="H95" s="89"/>
-      <c r="I95" s="89"/>
-      <c r="J95" s="89"/>
-      <c r="K95" s="89"/>
-      <c r="L95" s="89"/>
-      <c r="M95" s="89"/>
-      <c r="N95" s="89"/>
-      <c r="O95" s="89"/>
-      <c r="P95" s="89"/>
-      <c r="Q95" s="89"/>
-      <c r="R95" s="89"/>
-      <c r="S95" s="89"/>
-      <c r="T95" s="89"/>
-      <c r="U95" s="89"/>
-      <c r="V95" s="89"/>
-      <c r="W95" s="89"/>
-      <c r="X95" s="89"/>
-      <c r="Y95" s="89"/>
-      <c r="Z95" s="89"/>
+      <c r="A95" s="93"/>
+      <c r="G95" s="5"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="B96" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C96" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="D96" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E96" s="92"/>
-      <c r="F96" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="G96" s="88"/>
-      <c r="H96" s="89"/>
-      <c r="I96" s="89"/>
-      <c r="J96" s="89"/>
-      <c r="K96" s="89"/>
-      <c r="L96" s="89"/>
-      <c r="M96" s="89"/>
-      <c r="N96" s="89"/>
-      <c r="O96" s="89"/>
-      <c r="P96" s="89"/>
-      <c r="Q96" s="89"/>
-      <c r="R96" s="89"/>
-      <c r="S96" s="89"/>
-      <c r="T96" s="89"/>
-      <c r="U96" s="89"/>
-      <c r="V96" s="89"/>
-      <c r="W96" s="89"/>
-      <c r="X96" s="89"/>
-      <c r="Y96" s="89"/>
-      <c r="Z96" s="89"/>
-    </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="B97" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C97" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="D97" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E97" s="92"/>
-      <c r="F97" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="G97" s="88"/>
-      <c r="H97" s="89"/>
-      <c r="I97" s="89"/>
-      <c r="J97" s="89"/>
-      <c r="K97" s="89"/>
-      <c r="L97" s="89"/>
-      <c r="M97" s="89"/>
-      <c r="N97" s="89"/>
-      <c r="O97" s="89"/>
-      <c r="P97" s="89"/>
-      <c r="Q97" s="89"/>
-      <c r="R97" s="89"/>
-      <c r="S97" s="89"/>
-      <c r="T97" s="89"/>
-      <c r="U97" s="89"/>
-      <c r="V97" s="89"/>
-      <c r="W97" s="89"/>
-      <c r="X97" s="89"/>
-      <c r="Y97" s="89"/>
-      <c r="Z97" s="89"/>
-    </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="93"/>
+    <row r="99" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9247,18 +9087,6 @@
     </row>
     <row r="1002" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1002" s="5"/>
-    </row>
-    <row r="1003" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1003" s="5"/>
-    </row>
-    <row r="1004" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1004" s="5"/>
-    </row>
-    <row r="1005" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1005" s="5"/>
-    </row>
-    <row r="1006" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1006" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
